--- a/テストケース.xlsx
+++ b/テストケース.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5cf47586d75cb25/デスクトップ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5cf47586d75cb25/デスクトップ/workspace/workspace-nishimura/ProgramWork/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="8_{FB2C5B17-156F-4188-AF96-3C92834A6A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2C3D2BA-DD9E-4BB1-AA1F-6200D3033A97}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="8_{FB2C5B17-156F-4188-AF96-3C92834A6A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8D54505-120C-4485-AFD4-19FF3A395863}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3F064697-4038-4B0C-9CC7-D71FC7163C92}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="175">
   <si>
     <t>テストケース</t>
     <phoneticPr fontId="1"/>
@@ -91,36 +91,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>漢字2文字(涌井)</t>
-    <rPh sb="0" eb="2">
-      <t>カンジ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ワクイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ひらがな3文字(わくい)</t>
-    <rPh sb="5" eb="7">
-      <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>漢字11文字</t>
-    <rPh sb="0" eb="2">
-      <t>カンジ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ひらがな11文字</t>
     <rPh sb="6" eb="8">
       <t>モジ</t>
@@ -128,47 +98,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>半角スペースのみ</t>
-    <rPh sb="0" eb="2">
-      <t>ハンカク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>全角スペースのみ</t>
-    <rPh sb="0" eb="2">
-      <t>ゼンカク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中に半角スペース(あ あ)</t>
-    <rPh sb="0" eb="1">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ハンカク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中に全角スペース(あ　あ)</t>
-    <rPh sb="0" eb="1">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ゼンカク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>半角英字(wakui)</t>
-    <rPh sb="0" eb="4">
-      <t>ハンカクエイジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>半角英字11文字</t>
     <rPh sb="0" eb="4">
       <t>ハンカクエイジ</t>
@@ -179,74 +108,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>半角数字11文字</t>
-    <rPh sb="0" eb="4">
-      <t>ハンカクスウジ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>半角数字(012)</t>
-    <rPh sb="0" eb="4">
-      <t>ハンカクスウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>全角英字(ｗａｋｕｉ)</t>
-    <rPh sb="0" eb="4">
-      <t>ゼンカクエイジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>全角英字11文字</t>
-    <rPh sb="0" eb="4">
-      <t>ゼンカクエイジ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>全角数字(０１２)</t>
-    <rPh sb="0" eb="4">
-      <t>ゼンカクスウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>全角数字11文字</t>
-    <rPh sb="0" eb="4">
-      <t>ゼンカクスウジ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>全角記号(！)</t>
-    <rPh sb="0" eb="4">
-      <t>ゼンカクキゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>半角記号(!)</t>
-    <rPh sb="0" eb="2">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>半角カタカナ</t>
     <rPh sb="0" eb="2">
       <t>ハンカク</t>
@@ -374,20 +235,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>半角カタカナ(ﾜｸｲ)</t>
-    <rPh sb="0" eb="2">
-      <t>ハンカク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>全角カタカナ(ワクイ)</t>
-    <rPh sb="0" eb="2">
-      <t>ゼンカク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「全角カナで入力してください」赤字でテキストボックスの下に表示される</t>
     <rPh sb="1" eb="3">
       <t>ゼンカク</t>
@@ -407,22 +254,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「全角カナで入力してください」赤字でテキストボックスの下に表示される</t>
-    <rPh sb="1" eb="3">
-      <t>ゼンカク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「※カナ（姓）が未入力です」赤字でテキストボックスの下に表示される</t>
     <rPh sb="5" eb="6">
       <t>セイ</t>
@@ -442,26 +273,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>中に半角スペース(ア ア)</t>
-    <rPh sb="0" eb="1">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ハンカク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中に全角スペース(ア　ア)</t>
-    <rPh sb="0" eb="1">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ゼンカク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「全角カナで入力してください」「10文字以下で入力してください」赤字でテキストボックスの下に表示される</t>
     <rPh sb="1" eb="3">
       <t>ゼンカク</t>
@@ -487,16 +298,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>全角カタカナ11文字</t>
-    <rPh sb="0" eb="2">
-      <t>ゼンカク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「カナ(名)」テキストボックス</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
@@ -532,31 +333,6 @@
   </si>
   <si>
     <t>「メールアドレス」テキストボックス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>半角英字@半角英字.半角英字2文字</t>
-    <rPh sb="0" eb="2">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>エイジ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>エイジ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>エイジ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>モジ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1724,16 +1500,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>全角カナ!全角カナ</t>
-    <rPh sb="0" eb="2">
-      <t>ゼンカク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ゼンカク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>未選択</t>
     <rPh sb="0" eb="3">
       <t>ミセンタク</t>
@@ -1864,6 +1630,385 @@
     <t>単体テスト</t>
     <rPh sb="0" eb="2">
       <t>タンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ふわっとしたところときっちりしたところを指示書を読みしっかり考えてテスト条件にする。
+確認ボタンを押すだけじゃなく、しっかり手順を書く。
+文字数を縛りすぎない。いろんなひとがいろんなやり方で確認テストをするので具体的すぎると同じことの繰り返しになる。
+結合テストの部分と単体テストの部分を分ける。
+自分がプログラムに組み込んだことすべてをテストするつもりで考える。</t>
+    <rPh sb="20" eb="23">
+      <t>シジショ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="69" eb="72">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>シバ</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="105" eb="108">
+      <t>グタイテキ</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="119" eb="120">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="141" eb="143">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="144" eb="145">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="158" eb="159">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="160" eb="161">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="178" eb="179">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>漢字ひらがな11文字以上</t>
+    <rPh sb="0" eb="2">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>漢字ひらがな10文字以下</t>
+    <rPh sb="0" eb="2">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半角カタカナ10文字以下</t>
+    <rPh sb="0" eb="2">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>モジイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カタカナ10文字以下</t>
+    <rPh sb="6" eb="10">
+      <t>モジイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スペースのみ</t>
+  </si>
+  <si>
+    <t>英字10文字以下</t>
+    <rPh sb="0" eb="2">
+      <t>エイジ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>モジイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>英字11文字</t>
+    <rPh sb="0" eb="2">
+      <t>エイジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>英字11文字以上</t>
+    <rPh sb="0" eb="2">
+      <t>エイジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数字10文字以下</t>
+    <rPh sb="0" eb="2">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>モジイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数字11文字以上</t>
+    <rPh sb="0" eb="2">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記号10文字以下</t>
+    <rPh sb="0" eb="2">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>モジイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記号11文字以上</t>
+    <rPh sb="0" eb="2">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>漢字ひらがな10文字以下とスペース</t>
+    <rPh sb="0" eb="2">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>シタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ひらがなもしくは漢字で入力してください」赤字でテキストボックスの下に表示される。
+最初か最後にスペースがある場合はエラーが出ない</t>
+    <rPh sb="9" eb="11">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力文字制限
+スペースのトリム</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セイゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ひらがなもしくは漢字で入力してください」赤字でテキストボックスの下に表示される。
+最初か最後にスペースがある場合はエラーが出ない。</t>
+    <rPh sb="9" eb="11">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全角カタカナ10文字以下</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>モジイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全角カタカナ11文字以上</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全角カナ10文字以下とスペース</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>モジイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全角カタカナと記号の10文字以下</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>モジイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半角英字@半角英字.半角英字2文字以上6文字以下</t>
+    <rPh sb="0" eb="2">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>エイジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>エイジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>エイジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>モジイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1872,7 +2017,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1883,6 +2028,15 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -1927,7 +2081,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -2153,19 +2307,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -2258,12 +2399,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2318,15 +2462,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2351,16 +2486,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
@@ -2372,16 +2507,34 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2391,6 +2544,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2405,32 +2561,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2451,6 +2587,14 @@
 </file>
 
 <file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -2751,10 +2895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D25F908-8C24-448E-8107-DBDBAE93069C}">
-  <dimension ref="B2:K204"/>
+  <dimension ref="B2:K170"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2767,28 +2911,31 @@
     <col min="7" max="7" width="38.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="54" t="s">
+    <row r="2" spans="2:10" ht="216" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="54" t="s">
-        <v>176</v>
+      <c r="C2" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="4" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="40" t="s">
-        <v>116</v>
+      <c r="B4" s="43" t="s">
+        <v>93</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="25" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B5" s="41"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="8" t="s">
         <v>3</v>
       </c>
@@ -2798,102 +2945,102 @@
     </row>
     <row r="7" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="8" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B8" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" s="29" t="s">
+      <c r="B8" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="I8" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="J8" s="30" t="s">
-        <v>115</v>
+      <c r="E8" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="D9" s="21" t="s">
+      <c r="B9" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="23"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="20"/>
     </row>
     <row r="10" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="39"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="26"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="23"/>
     </row>
     <row r="11" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="12" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B12" s="36" t="s">
-        <v>109</v>
+    <row r="12" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="40" t="s">
+        <v>86</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="37"/>
+    <row r="13" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="14"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>11</v>
+        <v>154</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>155</v>
+      <c r="F13" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -2903,73 +3050,73 @@
       <c r="B14" s="14"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="11"/>
     </row>
-    <row r="15" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="14"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>13</v>
+        <v>157</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="11"/>
     </row>
-    <row r="16" spans="2:10" ht="36.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="14"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="11"/>
     </row>
-    <row r="17" spans="2:10" ht="54.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="17" spans="2:10" ht="90" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="14"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>28</v>
+        <v>166</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>155</v>
+      <c r="F17" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>35</v>
+        <v>167</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -2979,341 +3126,341 @@
       <c r="B18" s="14"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>155</v>
+      <c r="F18" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="11"/>
     </row>
-    <row r="19" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="14"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>156</v>
+      <c r="F19" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="11"/>
     </row>
-    <row r="20" spans="2:10" ht="36.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="20" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="14"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="11"/>
     </row>
-    <row r="21" spans="2:10" ht="54.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="14"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>16</v>
+        <v>163</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>155</v>
+      <c r="F21" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="11"/>
     </row>
-    <row r="22" spans="2:10" ht="54.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="22" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="14"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
-        <v>17</v>
+        <v>164</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>155</v>
+      <c r="F22" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="11"/>
     </row>
-    <row r="23" spans="2:10" ht="54.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="23" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="14"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>155</v>
+      <c r="F23" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="11"/>
     </row>
-    <row r="24" spans="2:10" ht="54.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="14"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3" t="s">
+      <c r="C24" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="17"/>
+    </row>
+    <row r="25" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="17"/>
+    </row>
+    <row r="26" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="17"/>
+    </row>
+    <row r="27" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G27" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="11"/>
-    </row>
-    <row r="25" spans="2:10" ht="54.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B25" s="14"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="11"/>
-    </row>
-    <row r="26" spans="2:10" ht="54.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B26" s="14"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="11"/>
-    </row>
-    <row r="27" spans="2:10" ht="54.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B27" s="14"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3" t="s">
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="17"/>
+    </row>
+    <row r="28" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="17"/>
+    </row>
+    <row r="29" spans="2:10" ht="90" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="17"/>
+    </row>
+    <row r="30" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="17"/>
+    </row>
+    <row r="31" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G31" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="11"/>
-    </row>
-    <row r="28" spans="2:10" ht="54.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B28" s="14"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="11"/>
-    </row>
-    <row r="29" spans="2:10" ht="54.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B29" s="14"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="11"/>
-    </row>
-    <row r="30" spans="2:10" ht="54.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B30" s="14"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="11"/>
-    </row>
-    <row r="31" spans="2:10" ht="54.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B31" s="14"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="11"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="17"/>
     </row>
     <row r="32" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="14"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="11"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C32" s="15"/>
+      <c r="D32" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="17"/>
+    </row>
+    <row r="33" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="14"/>
-      <c r="C33" s="15" t="s">
-        <v>49</v>
-      </c>
+      <c r="C33" s="15"/>
       <c r="D33" s="15" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="E33" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="H33" s="15"/>
       <c r="I33" s="15"/>
       <c r="J33" s="17"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="14"/>
       <c r="C34" s="15"/>
       <c r="D34" s="15" t="s">
-        <v>11</v>
+        <v>164</v>
       </c>
       <c r="E34" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="H34" s="15"/>
       <c r="I34" s="15"/>
       <c r="J34" s="17"/>
     </row>
-    <row r="35" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="14"/>
       <c r="C35" s="15"/>
       <c r="D35" s="15" t="s">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="E35" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F35" s="15" t="s">
-        <v>154</v>
+      <c r="F35" s="16" t="s">
+        <v>132</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="H35" s="15"/>
       <c r="I35" s="15"/>
@@ -3321,935 +3468,939 @@
     </row>
     <row r="36" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="14"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="G36" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="17"/>
+      <c r="C36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="11"/>
     </row>
     <row r="37" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="14"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15" t="s">
+      <c r="C37" s="3"/>
+      <c r="D37" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="11"/>
+    </row>
+    <row r="38" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" s="14"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E37" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" s="15" t="s">
+      <c r="E38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="11"/>
+    </row>
+    <row r="39" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" s="14"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="G37" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="17"/>
-    </row>
-    <row r="38" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="14"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="G38" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="17"/>
-    </row>
-    <row r="39" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="14"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="G39" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="17"/>
-    </row>
-    <row r="40" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="E39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="11"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="14"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="G40" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="17"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="11"/>
     </row>
     <row r="41" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="14"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="G41" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="17"/>
-    </row>
-    <row r="42" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="C41" s="3"/>
+      <c r="D41" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="11"/>
+    </row>
+    <row r="42" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="14"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="G42" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="17"/>
-    </row>
-    <row r="43" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="C42" s="3"/>
+      <c r="D42" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="11"/>
+    </row>
+    <row r="43" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="14"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="G43" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="17"/>
-    </row>
-    <row r="44" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="C43" s="3"/>
+      <c r="D43" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="11"/>
+    </row>
+    <row r="44" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="14"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F44" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="G44" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="17"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="11"/>
     </row>
     <row r="45" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="14"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="G45" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="17"/>
-    </row>
-    <row r="46" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="C45" s="3"/>
+      <c r="D45" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="11"/>
+    </row>
+    <row r="46" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="14"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15" t="s">
+      <c r="C46" s="3"/>
+      <c r="D46" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G46" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E46" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F46" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="G46" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="17"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="11"/>
     </row>
     <row r="47" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="14"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="G47" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="17"/>
-    </row>
-    <row r="48" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="C47" s="3"/>
+      <c r="D47" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="11"/>
+    </row>
+    <row r="48" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="14"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="G48" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="17"/>
-    </row>
-    <row r="49" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="C48" s="3"/>
+      <c r="D48" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="11"/>
+    </row>
+    <row r="49" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="14"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="G49" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="17"/>
-    </row>
-    <row r="50" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="C49" s="3"/>
+      <c r="D49" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="11"/>
+    </row>
+    <row r="50" spans="2:11" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="14"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15" t="s">
+      <c r="C50" s="3"/>
+      <c r="D50" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G50" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E50" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="G50" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="17"/>
-    </row>
-    <row r="51" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="11"/>
+    </row>
+    <row r="51" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="14"/>
-      <c r="C51" s="15"/>
+      <c r="C51" s="15" t="s">
+        <v>25</v>
+      </c>
       <c r="D51" s="15" t="s">
-        <v>25</v>
+        <v>155</v>
       </c>
       <c r="E51" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F51" s="16" t="s">
-        <v>159</v>
+      <c r="F51" s="15" t="s">
+        <v>135</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="H51" s="15"/>
       <c r="I51" s="15"/>
       <c r="J51" s="17"/>
-    </row>
-    <row r="52" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="K51" s="1"/>
+    </row>
+    <row r="52" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="14"/>
       <c r="C52" s="15"/>
       <c r="D52" s="15" t="s">
-        <v>27</v>
+        <v>154</v>
       </c>
       <c r="E52" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="H52" s="15"/>
       <c r="I52" s="15"/>
       <c r="J52" s="17"/>
     </row>
-    <row r="53" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="14"/>
       <c r="C53" s="15"/>
       <c r="D53" s="15" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E53" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F53" s="15" t="s">
-        <v>158</v>
+      <c r="F53" s="16" t="s">
+        <v>138</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H53" s="15"/>
       <c r="I53" s="15"/>
       <c r="J53" s="17"/>
     </row>
-    <row r="54" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" s="14"/>
-      <c r="C54" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F54" s="3" t="s">
+      <c r="C54" s="15"/>
+      <c r="D54" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="G54" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="17"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B55" s="14"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="G55" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="17"/>
+    </row>
+    <row r="56" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B56" s="14"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="G56" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="17"/>
+    </row>
+    <row r="57" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57" s="14"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="G54" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="11"/>
-    </row>
-    <row r="55" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B55" s="14"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="11"/>
-    </row>
-    <row r="56" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B56" s="14"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F56" s="4" t="s">
+      <c r="E57" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G57" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="17"/>
+    </row>
+    <row r="58" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B58" s="14"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="G58" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="17"/>
+    </row>
+    <row r="59" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B59" s="14"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="G56" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="11"/>
-    </row>
-    <row r="57" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B57" s="14"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="11"/>
-    </row>
-    <row r="58" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B58" s="14"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="11"/>
-    </row>
-    <row r="59" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B59" s="14"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="11"/>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E59" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="G59" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="17"/>
+    </row>
+    <row r="60" spans="2:11" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B60" s="14"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="11"/>
-    </row>
-    <row r="61" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="C60" s="15"/>
+      <c r="D60" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G60" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="17"/>
+    </row>
+    <row r="61" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B61" s="14"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="11"/>
-    </row>
-    <row r="62" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="C61" s="15"/>
+      <c r="D61" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="G61" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="17"/>
+    </row>
+    <row r="62" spans="2:11" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B62" s="14"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="11"/>
-    </row>
-    <row r="63" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="C62" s="15"/>
+      <c r="D62" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G62" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="17"/>
+    </row>
+    <row r="63" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B63" s="14"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="11"/>
-    </row>
-    <row r="64" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="C63" s="15"/>
+      <c r="D63" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="G63" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="17"/>
+    </row>
+    <row r="64" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" s="14"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="11"/>
-    </row>
-    <row r="65" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="C64" s="15"/>
+      <c r="D64" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="E64" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="G64" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="17"/>
+    </row>
+    <row r="65" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B65" s="14"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="11"/>
-    </row>
-    <row r="66" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="C65" s="15"/>
+      <c r="D65" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="E65" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="G65" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="17"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B66" s="14"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3" t="s">
-        <v>18</v>
+      <c r="C66" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D66" s="51" t="s">
+        <v>174</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
       <c r="J66" s="11"/>
     </row>
-    <row r="67" spans="2:11" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B67" s="14"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F67" s="4" t="s">
-        <v>159</v>
+      <c r="F67" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
       <c r="J67" s="11"/>
     </row>
-    <row r="68" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B68" s="14"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="11"/>
     </row>
-    <row r="69" spans="2:11" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B69" s="14"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F69" s="4" t="s">
-        <v>159</v>
+      <c r="F69" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
       <c r="J69" s="11"/>
     </row>
-    <row r="70" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B70" s="14"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
       <c r="J70" s="11"/>
     </row>
-    <row r="71" spans="2:11" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B71" s="14"/>
       <c r="C71" s="3"/>
-      <c r="D71" s="3" t="s">
-        <v>20</v>
+      <c r="D71" s="24" t="s">
+        <v>95</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F71" s="4" t="s">
-        <v>159</v>
+      <c r="F71" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
       <c r="J71" s="11"/>
     </row>
-    <row r="72" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B72" s="14"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
       <c r="J72" s="11"/>
     </row>
-    <row r="73" spans="2:11" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B73" s="14"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F73" s="4" t="s">
-        <v>159</v>
+      <c r="F73" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
       <c r="J73" s="11"/>
     </row>
-    <row r="74" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B74" s="14"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
       <c r="J74" s="11"/>
     </row>
-    <row r="75" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B75" s="14"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3" t="s">
-        <v>162</v>
+        <v>37</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
       <c r="J75" s="11"/>
     </row>
-    <row r="76" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B76" s="14"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
       <c r="J76" s="11"/>
     </row>
-    <row r="77" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B77" s="14"/>
-      <c r="C77" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D77" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E77" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F77" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="G77" s="16" t="s">
+      <c r="C77" s="3"/>
+      <c r="D77" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="17"/>
-      <c r="K77" s="1"/>
-    </row>
-    <row r="78" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="E77" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="11"/>
+    </row>
+    <row r="78" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B78" s="14"/>
-      <c r="C78" s="15"/>
-      <c r="D78" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E78" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F78" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="G78" s="16" t="s">
+      <c r="C78" s="3"/>
+      <c r="D78" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="17"/>
-    </row>
-    <row r="79" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="E78" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="11"/>
+    </row>
+    <row r="79" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B79" s="14"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E79" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F79" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="G79" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="17"/>
-    </row>
-    <row r="80" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="C79" s="3"/>
+      <c r="D79" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="11"/>
+    </row>
+    <row r="80" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B80" s="14"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E80" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F80" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="G80" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="17"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="11"/>
     </row>
     <row r="81" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B81" s="14"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E81" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F81" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="G81" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="17"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="11"/>
     </row>
     <row r="82" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B82" s="14"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E82" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F82" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="G82" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="17"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="11"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B83" s="14"/>
-      <c r="C83" s="15"/>
+      <c r="C83" s="18" t="s">
+        <v>53</v>
+      </c>
       <c r="D83" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E83" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F83" s="15" t="s">
-        <v>158</v>
+        <v>44</v>
+      </c>
+      <c r="E83" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83" s="18" t="s">
+        <v>135</v>
       </c>
       <c r="G83" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="17"/>
-    </row>
-    <row r="84" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+        <v>16</v>
+      </c>
+      <c r="H83" s="18"/>
+      <c r="I83" s="18"/>
+      <c r="J83" s="20"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B84" s="14"/>
       <c r="C84" s="15"/>
       <c r="D84" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E84" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F84" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="G84" s="16" t="s">
-        <v>33</v>
+        <v>135</v>
+      </c>
+      <c r="G84" s="19" t="s">
+        <v>16</v>
       </c>
       <c r="H84" s="15"/>
       <c r="I84" s="15"/>
@@ -4259,16 +4410,16 @@
       <c r="B85" s="14"/>
       <c r="C85" s="15"/>
       <c r="D85" s="15" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="E85" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F85" s="15" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="G85" s="16" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="H85" s="15"/>
       <c r="I85" s="15"/>
@@ -4278,16 +4429,16 @@
       <c r="B86" s="14"/>
       <c r="C86" s="15"/>
       <c r="D86" s="15" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="E86" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F86" s="15" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="G86" s="16" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="H86" s="15"/>
       <c r="I86" s="15"/>
@@ -4297,16 +4448,16 @@
       <c r="B87" s="14"/>
       <c r="C87" s="15"/>
       <c r="D87" s="15" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="E87" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F87" s="15" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="G87" s="16" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="H87" s="15"/>
       <c r="I87" s="15"/>
@@ -4316,16 +4467,16 @@
       <c r="B88" s="14"/>
       <c r="C88" s="15"/>
       <c r="D88" s="15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E88" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F88" s="15" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="G88" s="16" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="H88" s="15"/>
       <c r="I88" s="15"/>
@@ -4335,16 +4486,16 @@
       <c r="B89" s="14"/>
       <c r="C89" s="15"/>
       <c r="D89" s="15" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="E89" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F89" s="15" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="G89" s="16" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="H89" s="15"/>
       <c r="I89" s="15"/>
@@ -4354,16 +4505,16 @@
       <c r="B90" s="14"/>
       <c r="C90" s="15"/>
       <c r="D90" s="15" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E90" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F90" s="16" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="G90" s="16" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="H90" s="15"/>
       <c r="I90" s="15"/>
@@ -4373,35 +4524,35 @@
       <c r="B91" s="14"/>
       <c r="C91" s="15"/>
       <c r="D91" s="15" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="E91" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F91" s="15" t="s">
-        <v>158</v>
+      <c r="F91" s="16" t="s">
+        <v>136</v>
       </c>
       <c r="G91" s="16" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="H91" s="15"/>
       <c r="I91" s="15"/>
       <c r="J91" s="17"/>
     </row>
-    <row r="92" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B92" s="14"/>
       <c r="C92" s="15"/>
       <c r="D92" s="15" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E92" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F92" s="16" t="s">
-        <v>159</v>
+      <c r="F92" s="15" t="s">
+        <v>138</v>
       </c>
       <c r="G92" s="16" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="H92" s="15"/>
       <c r="I92" s="15"/>
@@ -4411,73 +4562,73 @@
       <c r="B93" s="14"/>
       <c r="C93" s="15"/>
       <c r="D93" s="15" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="E93" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F93" s="15" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="G93" s="16" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="H93" s="15"/>
       <c r="I93" s="15"/>
       <c r="J93" s="17"/>
     </row>
-    <row r="94" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B94" s="14"/>
       <c r="C94" s="15"/>
       <c r="D94" s="15" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="E94" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F94" s="16" t="s">
-        <v>159</v>
+      <c r="F94" s="15" t="s">
+        <v>135</v>
       </c>
       <c r="G94" s="16" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="H94" s="15"/>
       <c r="I94" s="15"/>
       <c r="J94" s="17"/>
     </row>
-    <row r="95" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B95" s="14"/>
       <c r="C95" s="15"/>
       <c r="D95" s="15" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="E95" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F95" s="15" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="G95" s="16" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="H95" s="15"/>
       <c r="I95" s="15"/>
       <c r="J95" s="17"/>
     </row>
-    <row r="96" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B96" s="14"/>
       <c r="C96" s="15"/>
       <c r="D96" s="15" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="E96" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F96" s="16" t="s">
-        <v>159</v>
+      <c r="F96" s="15" t="s">
+        <v>135</v>
       </c>
       <c r="G96" s="16" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="H96" s="15"/>
       <c r="I96" s="15"/>
@@ -4485,77 +4636,77 @@
     </row>
     <row r="97" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B97" s="14"/>
-      <c r="C97" s="15"/>
-      <c r="D97" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E97" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F97" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="G97" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
-      <c r="J97" s="17"/>
-    </row>
-    <row r="98" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="C97" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="11"/>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B98" s="14"/>
-      <c r="C98" s="18"/>
-      <c r="D98" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="E98" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F98" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="G98" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H98" s="18"/>
-      <c r="I98" s="18"/>
-      <c r="J98" s="20"/>
-    </row>
-    <row r="99" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="C98" s="3"/>
+      <c r="D98" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="11"/>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B99" s="14"/>
-      <c r="C99" s="18"/>
-      <c r="D99" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E99" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F99" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="G99" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="H99" s="18"/>
-      <c r="I99" s="18"/>
-      <c r="J99" s="20"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="11"/>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B100" s="14"/>
-      <c r="C100" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="C100" s="3"/>
       <c r="D100" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
@@ -4563,303 +4714,305 @@
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B101" s="14"/>
-      <c r="C101" s="3"/>
-      <c r="D101" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G101" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H101" s="3"/>
-      <c r="I101" s="3"/>
-      <c r="J101" s="11"/>
+      <c r="C101" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D101" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E101" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F101" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="G101" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="17"/>
     </row>
     <row r="102" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B102" s="14"/>
-      <c r="C102" s="3"/>
-      <c r="D102" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G102" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="H102" s="3"/>
-      <c r="I102" s="3"/>
-      <c r="J102" s="11"/>
+      <c r="C102" s="15"/>
+      <c r="D102" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E102" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F102" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="G102" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="17"/>
     </row>
     <row r="103" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B103" s="14"/>
-      <c r="C103" s="3"/>
-      <c r="D103" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G103" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="H103" s="3"/>
-      <c r="I103" s="3"/>
-      <c r="J103" s="11"/>
+      <c r="C103" s="15"/>
+      <c r="D103" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E103" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F103" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="G103" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="17"/>
     </row>
     <row r="104" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B104" s="14"/>
-      <c r="C104" s="3"/>
-      <c r="D104" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G104" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="H104" s="3"/>
-      <c r="I104" s="3"/>
-      <c r="J104" s="11"/>
-    </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C104" s="15"/>
+      <c r="D104" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E104" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F104" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="G104" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="17"/>
+    </row>
+    <row r="105" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B105" s="14"/>
-      <c r="C105" s="3"/>
-      <c r="D105" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G105" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H105" s="3"/>
-      <c r="I105" s="3"/>
-      <c r="J105" s="11"/>
+      <c r="C105" s="15"/>
+      <c r="D105" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E105" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F105" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="G105" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
+      <c r="J105" s="17"/>
     </row>
     <row r="106" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B106" s="14"/>
-      <c r="C106" s="3"/>
-      <c r="D106" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G106" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="H106" s="3"/>
-      <c r="I106" s="3"/>
-      <c r="J106" s="11"/>
+      <c r="C106" s="15"/>
+      <c r="D106" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E106" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F106" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="G106" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="17"/>
     </row>
     <row r="107" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B107" s="14"/>
-      <c r="C107" s="3"/>
-      <c r="D107" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G107" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="H107" s="3"/>
-      <c r="I107" s="3"/>
-      <c r="J107" s="11"/>
+      <c r="C107" s="15"/>
+      <c r="D107" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E107" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F107" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="G107" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="17"/>
     </row>
     <row r="108" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B108" s="14"/>
-      <c r="C108" s="3"/>
-      <c r="D108" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G108" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="H108" s="3"/>
-      <c r="I108" s="3"/>
-      <c r="J108" s="11"/>
+      <c r="C108" s="15"/>
+      <c r="D108" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E108" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F108" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="G108" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
+      <c r="J108" s="17"/>
     </row>
     <row r="109" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B109" s="14"/>
-      <c r="C109" s="3"/>
-      <c r="D109" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G109" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="H109" s="3"/>
-      <c r="I109" s="3"/>
-      <c r="J109" s="11"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E109" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F109" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="G109" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="17"/>
     </row>
     <row r="110" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B110" s="14"/>
-      <c r="C110" s="3"/>
-      <c r="D110" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G110" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="H110" s="3"/>
-      <c r="I110" s="3"/>
-      <c r="J110" s="11"/>
-    </row>
-    <row r="111" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="C110" s="15"/>
+      <c r="D110" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E110" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F110" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="G110" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="17"/>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B111" s="14"/>
-      <c r="C111" s="3"/>
-      <c r="D111" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G111" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="H111" s="3"/>
-      <c r="I111" s="3"/>
-      <c r="J111" s="11"/>
+      <c r="C111" s="15"/>
+      <c r="D111" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E111" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F111" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="G111" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H111" s="15"/>
+      <c r="I111" s="15"/>
+      <c r="J111" s="17"/>
     </row>
     <row r="112" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B112" s="14"/>
-      <c r="C112" s="3"/>
-      <c r="D112" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F112" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G112" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="H112" s="3"/>
-      <c r="I112" s="3"/>
-      <c r="J112" s="11"/>
+      <c r="C112" s="15"/>
+      <c r="D112" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E112" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F112" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="G112" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="H112" s="15"/>
+      <c r="I112" s="15"/>
+      <c r="J112" s="17"/>
     </row>
     <row r="113" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B113" s="14"/>
-      <c r="C113" s="3"/>
+      <c r="C113" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="D113" s="3" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
       <c r="J113" s="11"/>
     </row>
-    <row r="114" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B114" s="14"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
       <c r="J114" s="11"/>
     </row>
-    <row r="115" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B115" s="14"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
       <c r="J115" s="11"/>
     </row>
-    <row r="116" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B116" s="14"/>
       <c r="C116" s="3"/>
-      <c r="D116" s="47" t="s">
-        <v>120</v>
-      </c>
+      <c r="D116" s="3"/>
       <c r="E116" s="3" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
@@ -4867,96 +5020,96 @@
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B117" s="14"/>
-      <c r="C117" s="21" t="s">
-        <v>76</v>
+      <c r="C117" s="15" t="s">
+        <v>70</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E117" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F117" s="21" t="s">
-        <v>158</v>
+        <v>35</v>
+      </c>
+      <c r="E117" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F117" s="15" t="s">
+        <v>135</v>
       </c>
       <c r="G117" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H117" s="21"/>
-      <c r="I117" s="21"/>
-      <c r="J117" s="23"/>
+        <v>16</v>
+      </c>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="17"/>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B118" s="14"/>
       <c r="C118" s="15"/>
       <c r="D118" s="15" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E118" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F118" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="G118" s="22" t="s">
-        <v>32</v>
+        <v>135</v>
+      </c>
+      <c r="G118" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="H118" s="15"/>
       <c r="I118" s="15"/>
       <c r="J118" s="17"/>
     </row>
-    <row r="119" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B119" s="14"/>
       <c r="C119" s="15"/>
       <c r="D119" s="15" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="E119" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F119" s="15" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="G119" s="16" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="H119" s="15"/>
       <c r="I119" s="15"/>
       <c r="J119" s="17"/>
     </row>
-    <row r="120" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B120" s="14"/>
       <c r="C120" s="15"/>
       <c r="D120" s="15" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="E120" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F120" s="15" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="G120" s="16" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="H120" s="15"/>
       <c r="I120" s="15"/>
       <c r="J120" s="17"/>
     </row>
-    <row r="121" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B121" s="14"/>
       <c r="C121" s="15"/>
       <c r="D121" s="15" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E121" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F121" s="15" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="G121" s="16" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="H121" s="15"/>
       <c r="I121" s="15"/>
@@ -4966,16 +5119,16 @@
       <c r="B122" s="14"/>
       <c r="C122" s="15"/>
       <c r="D122" s="15" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="E122" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F122" s="15" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="G122" s="16" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="H122" s="15"/>
       <c r="I122" s="15"/>
@@ -4985,130 +5138,130 @@
       <c r="B123" s="14"/>
       <c r="C123" s="15"/>
       <c r="D123" s="15" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="E123" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F123" s="15" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="G123" s="16" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="H123" s="15"/>
       <c r="I123" s="15"/>
       <c r="J123" s="17"/>
     </row>
-    <row r="124" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B124" s="14"/>
       <c r="C124" s="15"/>
       <c r="D124" s="15" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="E124" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F124" s="16" t="s">
-        <v>159</v>
+      <c r="F124" s="15" t="s">
+        <v>135</v>
       </c>
       <c r="G124" s="16" t="s">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="H124" s="15"/>
       <c r="I124" s="15"/>
       <c r="J124" s="17"/>
     </row>
-    <row r="125" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B125" s="14"/>
       <c r="C125" s="15"/>
       <c r="D125" s="15" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="E125" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F125" s="16" t="s">
-        <v>159</v>
+      <c r="F125" s="15" t="s">
+        <v>135</v>
       </c>
       <c r="G125" s="16" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="H125" s="15"/>
       <c r="I125" s="15"/>
       <c r="J125" s="17"/>
     </row>
-    <row r="126" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B126" s="14"/>
       <c r="C126" s="15"/>
       <c r="D126" s="15" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="E126" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F126" s="15" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="G126" s="16" t="s">
-        <v>125</v>
+        <v>16</v>
       </c>
       <c r="H126" s="15"/>
       <c r="I126" s="15"/>
       <c r="J126" s="17"/>
     </row>
-    <row r="127" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B127" s="14"/>
       <c r="C127" s="15"/>
       <c r="D127" s="15" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="E127" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F127" s="15" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="G127" s="16" t="s">
-        <v>125</v>
+        <v>16</v>
       </c>
       <c r="H127" s="15"/>
       <c r="I127" s="15"/>
       <c r="J127" s="17"/>
     </row>
-    <row r="128" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B128" s="14"/>
       <c r="C128" s="15"/>
       <c r="D128" s="15" t="s">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="E128" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F128" s="15" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="G128" s="16" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="H128" s="15"/>
       <c r="I128" s="15"/>
       <c r="J128" s="17"/>
     </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B129" s="14"/>
       <c r="C129" s="15"/>
       <c r="D129" s="15" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="E129" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F129" s="15" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="G129" s="16" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="H129" s="15"/>
       <c r="I129" s="15"/>
@@ -5118,345 +5271,341 @@
       <c r="B130" s="14"/>
       <c r="C130" s="15"/>
       <c r="D130" s="15" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="E130" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F130" s="15" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="G130" s="16" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="H130" s="15"/>
       <c r="I130" s="15"/>
       <c r="J130" s="17"/>
     </row>
-    <row r="131" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B131" s="14"/>
-      <c r="C131" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F131" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="G131" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="H131" s="3"/>
-      <c r="I131" s="3"/>
-      <c r="J131" s="11"/>
+      <c r="C131" s="15"/>
+      <c r="D131" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E131" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F131" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="G131" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H131" s="15"/>
+      <c r="I131" s="15"/>
+      <c r="J131" s="17"/>
     </row>
     <row r="132" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B132" s="14"/>
-      <c r="C132" s="3"/>
-      <c r="D132" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E132" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F132" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="G132" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H132" s="3"/>
-      <c r="I132" s="3"/>
-      <c r="J132" s="11"/>
+      <c r="C132" s="15"/>
+      <c r="D132" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E132" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F132" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="G132" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H132" s="15"/>
+      <c r="I132" s="15"/>
+      <c r="J132" s="17"/>
     </row>
     <row r="133" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B133" s="14"/>
-      <c r="C133" s="3"/>
-      <c r="D133" s="3" t="s">
+      <c r="C133" s="15"/>
+      <c r="D133" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="E133" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F133" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="G133" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H133" s="3"/>
-      <c r="I133" s="3"/>
-      <c r="J133" s="11"/>
-    </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E133" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F133" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="G133" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H133" s="15"/>
+      <c r="I133" s="15"/>
+      <c r="J133" s="17"/>
+    </row>
+    <row r="134" spans="2:10" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="B134" s="14"/>
-      <c r="C134" s="3"/>
-      <c r="D134" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E134" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F134" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="G134" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H134" s="3"/>
-      <c r="I134" s="3"/>
-      <c r="J134" s="11"/>
-    </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C134" s="15"/>
+      <c r="D134" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E134" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F134" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="G134" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="H134" s="15"/>
+      <c r="I134" s="15"/>
+      <c r="J134" s="17"/>
+    </row>
+    <row r="135" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B135" s="14"/>
-      <c r="C135" s="15" t="s">
-        <v>89</v>
-      </c>
+      <c r="C135" s="15"/>
       <c r="D135" s="15" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="E135" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F135" s="15" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="G135" s="16" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="H135" s="15"/>
       <c r="I135" s="15"/>
       <c r="J135" s="17"/>
     </row>
-    <row r="136" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B136" s="14"/>
       <c r="C136" s="15"/>
       <c r="D136" s="15" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="E136" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F136" s="15" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="G136" s="16" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="H136" s="15"/>
       <c r="I136" s="15"/>
       <c r="J136" s="17"/>
     </row>
-    <row r="137" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B137" s="14"/>
       <c r="C137" s="15"/>
       <c r="D137" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E137" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F137" s="15" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="G137" s="16" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="H137" s="15"/>
       <c r="I137" s="15"/>
       <c r="J137" s="17"/>
     </row>
-    <row r="138" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B138" s="14"/>
-      <c r="C138" s="15"/>
-      <c r="D138" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="E138" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F138" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="G138" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="H138" s="15"/>
-      <c r="I138" s="15"/>
-      <c r="J138" s="17"/>
-    </row>
-    <row r="139" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="C138" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H138" s="3"/>
+      <c r="I138" s="3"/>
+      <c r="J138" s="11"/>
+    </row>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B139" s="14"/>
-      <c r="C139" s="15"/>
-      <c r="D139" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="E139" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F139" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="G139" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="H139" s="15"/>
-      <c r="I139" s="15"/>
-      <c r="J139" s="17"/>
-    </row>
-    <row r="140" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="C139" s="3"/>
+      <c r="D139" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H139" s="3"/>
+      <c r="I139" s="3"/>
+      <c r="J139" s="11"/>
+    </row>
+    <row r="140" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B140" s="14"/>
-      <c r="C140" s="15"/>
-      <c r="D140" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="E140" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F140" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="G140" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="H140" s="15"/>
-      <c r="I140" s="15"/>
-      <c r="J140" s="17"/>
-    </row>
-    <row r="141" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="C140" s="3"/>
+      <c r="D140" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H140" s="3"/>
+      <c r="I140" s="3"/>
+      <c r="J140" s="11"/>
+    </row>
+    <row r="141" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B141" s="14"/>
-      <c r="C141" s="15"/>
-      <c r="D141" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E141" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F141" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="G141" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="H141" s="15"/>
-      <c r="I141" s="15"/>
-      <c r="J141" s="17"/>
-    </row>
-    <row r="142" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="C141" s="3"/>
+      <c r="D141" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H141" s="3"/>
+      <c r="I141" s="3"/>
+      <c r="J141" s="11"/>
+    </row>
+    <row r="142" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B142" s="14"/>
-      <c r="C142" s="15"/>
-      <c r="D142" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="E142" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F142" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="G142" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="H142" s="15"/>
-      <c r="I142" s="15"/>
-      <c r="J142" s="17"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H142" s="3"/>
+      <c r="I142" s="3"/>
+      <c r="J142" s="11"/>
     </row>
     <row r="143" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B143" s="14"/>
-      <c r="C143" s="15"/>
-      <c r="D143" s="15" t="s">
+      <c r="C143" s="3"/>
+      <c r="D143" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E143" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F143" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="G143" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="H143" s="15"/>
-      <c r="I143" s="15"/>
-      <c r="J143" s="17"/>
+      <c r="E143" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H143" s="3"/>
+      <c r="I143" s="3"/>
+      <c r="J143" s="11"/>
     </row>
     <row r="144" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B144" s="14"/>
-      <c r="C144" s="15"/>
-      <c r="D144" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="E144" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F144" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="G144" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="H144" s="15"/>
-      <c r="I144" s="15"/>
-      <c r="J144" s="17"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H144" s="3"/>
+      <c r="I144" s="3"/>
+      <c r="J144" s="11"/>
     </row>
     <row r="145" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B145" s="14"/>
-      <c r="C145" s="15"/>
-      <c r="D145" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="E145" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F145" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="G145" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H145" s="15"/>
-      <c r="I145" s="15"/>
-      <c r="J145" s="17"/>
-    </row>
-    <row r="146" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="C145" s="3"/>
+      <c r="D145" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H145" s="3"/>
+      <c r="I145" s="3"/>
+      <c r="J145" s="11"/>
+    </row>
+    <row r="146" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B146" s="14"/>
-      <c r="C146" s="15"/>
-      <c r="D146" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="E146" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F146" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="G146" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="H146" s="15"/>
-      <c r="I146" s="15"/>
-      <c r="J146" s="17"/>
-    </row>
-    <row r="147" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="C146" s="3"/>
+      <c r="D146" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G146" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H146" s="3"/>
+      <c r="I146" s="3"/>
+      <c r="J146" s="11"/>
+    </row>
+    <row r="147" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B147" s="14"/>
-      <c r="C147" s="3" t="s">
-        <v>88</v>
-      </c>
+      <c r="C147" s="3"/>
       <c r="D147" s="3" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="E147" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="H147" s="3"/>
       <c r="I147" s="3"/>
@@ -5466,225 +5615,227 @@
       <c r="B148" s="14"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="E148" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H148" s="3"/>
       <c r="I148" s="3"/>
       <c r="J148" s="11"/>
     </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B149" s="14"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="E149" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="H149" s="3"/>
       <c r="I149" s="3"/>
       <c r="J149" s="11"/>
     </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B150" s="14"/>
       <c r="C150" s="3"/>
-      <c r="D150" s="3"/>
+      <c r="D150" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="E150" s="3" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="H150" s="3"/>
       <c r="I150" s="3"/>
       <c r="J150" s="11"/>
     </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B151" s="14"/>
-      <c r="C151" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D151" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E151" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F151" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="G151" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H151" s="15"/>
-      <c r="I151" s="15"/>
-      <c r="J151" s="17"/>
+      <c r="C151" s="3"/>
+      <c r="D151" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G151" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H151" s="3"/>
+      <c r="I151" s="3"/>
+      <c r="J151" s="11"/>
     </row>
     <row r="152" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B152" s="14"/>
-      <c r="C152" s="15"/>
-      <c r="D152" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E152" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F152" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="G152" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H152" s="15"/>
-      <c r="I152" s="15"/>
-      <c r="J152" s="17"/>
+      <c r="C152" s="3"/>
+      <c r="D152" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G152" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H152" s="3"/>
+      <c r="I152" s="3"/>
+      <c r="J152" s="11"/>
     </row>
     <row r="153" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B153" s="14"/>
-      <c r="C153" s="15"/>
-      <c r="D153" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="E153" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F153" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="G153" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H153" s="15"/>
-      <c r="I153" s="15"/>
-      <c r="J153" s="17"/>
+      <c r="C153" s="3"/>
+      <c r="D153" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G153" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H153" s="3"/>
+      <c r="I153" s="3"/>
+      <c r="J153" s="11"/>
     </row>
     <row r="154" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B154" s="14"/>
-      <c r="C154" s="15"/>
-      <c r="D154" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E154" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F154" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="G154" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H154" s="15"/>
-      <c r="I154" s="15"/>
-      <c r="J154" s="17"/>
-    </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C154" s="3"/>
+      <c r="D154" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G154" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H154" s="3"/>
+      <c r="I154" s="3"/>
+      <c r="J154" s="11"/>
+    </row>
+    <row r="155" spans="2:10" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="B155" s="14"/>
-      <c r="C155" s="15"/>
-      <c r="D155" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E155" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F155" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="G155" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H155" s="15"/>
-      <c r="I155" s="15"/>
-      <c r="J155" s="17"/>
-    </row>
-    <row r="156" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="C155" s="3"/>
+      <c r="D155" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G155" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="H155" s="3"/>
+      <c r="I155" s="3"/>
+      <c r="J155" s="11"/>
+    </row>
+    <row r="156" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B156" s="14"/>
-      <c r="C156" s="15"/>
-      <c r="D156" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E156" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F156" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="G156" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="H156" s="15"/>
-      <c r="I156" s="15"/>
-      <c r="J156" s="17"/>
-    </row>
-    <row r="157" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="C156" s="3"/>
+      <c r="D156" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G156" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H156" s="3"/>
+      <c r="I156" s="3"/>
+      <c r="J156" s="11"/>
+    </row>
+    <row r="157" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B157" s="14"/>
-      <c r="C157" s="15"/>
-      <c r="D157" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="E157" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F157" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="G157" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="H157" s="15"/>
-      <c r="I157" s="15"/>
-      <c r="J157" s="17"/>
-    </row>
-    <row r="158" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C157" s="3"/>
+      <c r="D157" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G157" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H157" s="3"/>
+      <c r="I157" s="3"/>
+      <c r="J157" s="11"/>
+    </row>
+    <row r="158" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B158" s="14"/>
-      <c r="C158" s="15"/>
-      <c r="D158" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="E158" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F158" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="G158" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H158" s="15"/>
-      <c r="I158" s="15"/>
-      <c r="J158" s="17"/>
+      <c r="C158" s="3"/>
+      <c r="D158" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G158" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H158" s="3"/>
+      <c r="I158" s="3"/>
+      <c r="J158" s="11"/>
     </row>
     <row r="159" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B159" s="14"/>
-      <c r="C159" s="15"/>
+      <c r="C159" s="15" t="s">
+        <v>82</v>
+      </c>
       <c r="D159" s="15" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="E159" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F159" s="15" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="G159" s="16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H159" s="15"/>
       <c r="I159" s="15"/>
@@ -5694,16 +5845,16 @@
       <c r="B160" s="14"/>
       <c r="C160" s="15"/>
       <c r="D160" s="15" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="E160" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F160" s="15" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="G160" s="16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H160" s="15"/>
       <c r="I160" s="15"/>
@@ -5712,810 +5863,162 @@
     <row r="161" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B161" s="14"/>
       <c r="C161" s="15"/>
-      <c r="D161" s="15" t="s">
-        <v>134</v>
-      </c>
+      <c r="D161" s="15"/>
       <c r="E161" s="15" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="F161" s="15" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="G161" s="16" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="H161" s="15"/>
       <c r="I161" s="15"/>
       <c r="J161" s="17"/>
     </row>
-    <row r="162" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B162" s="14"/>
-      <c r="C162" s="15"/>
-      <c r="D162" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E162" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F162" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="G162" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="H162" s="15"/>
-      <c r="I162" s="15"/>
-      <c r="J162" s="17"/>
-    </row>
-    <row r="163" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B163" s="14"/>
-      <c r="C163" s="15"/>
-      <c r="D163" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E163" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F163" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="G163" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="H163" s="15"/>
-      <c r="I163" s="15"/>
-      <c r="J163" s="17"/>
-    </row>
+    <row r="162" spans="2:10" ht="54.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B162" s="13"/>
+      <c r="C162" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D162" s="8"/>
+      <c r="E162" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F162" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G162" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="H162" s="8"/>
+      <c r="I162" s="8"/>
+      <c r="J162" s="12"/>
+    </row>
+    <row r="163" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="164" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B164" s="14"/>
-      <c r="C164" s="15"/>
-      <c r="D164" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E164" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F164" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="G164" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H164" s="15"/>
-      <c r="I164" s="15"/>
-      <c r="J164" s="17"/>
-    </row>
-    <row r="165" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B165" s="14"/>
-      <c r="C165" s="15"/>
-      <c r="D165" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="E165" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F165" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="G165" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H165" s="15"/>
-      <c r="I165" s="15"/>
-      <c r="J165" s="17"/>
-    </row>
-    <row r="166" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B166" s="14"/>
-      <c r="C166" s="15"/>
-      <c r="D166" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="E166" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F166" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="G166" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H166" s="15"/>
-      <c r="I166" s="15"/>
-      <c r="J166" s="17"/>
-    </row>
-    <row r="167" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B167" s="14"/>
-      <c r="C167" s="15"/>
-      <c r="D167" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="E167" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F167" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="G167" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H167" s="15"/>
-      <c r="I167" s="15"/>
-      <c r="J167" s="17"/>
-    </row>
-    <row r="168" spans="2:10" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="B168" s="14"/>
-      <c r="C168" s="15"/>
-      <c r="D168" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E168" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F168" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="G168" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="H168" s="15"/>
-      <c r="I168" s="15"/>
-      <c r="J168" s="17"/>
-    </row>
-    <row r="169" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B169" s="14"/>
-      <c r="C169" s="15"/>
-      <c r="D169" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E169" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F169" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="G169" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="H169" s="15"/>
-      <c r="I169" s="15"/>
-      <c r="J169" s="17"/>
-    </row>
-    <row r="170" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B170" s="14"/>
-      <c r="C170" s="15"/>
-      <c r="D170" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E170" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F170" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="G170" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="H170" s="15"/>
-      <c r="I170" s="15"/>
-      <c r="J170" s="17"/>
-    </row>
-    <row r="171" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B171" s="14"/>
-      <c r="C171" s="15"/>
-      <c r="D171" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="E171" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F171" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="G171" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="H171" s="15"/>
-      <c r="I171" s="15"/>
-      <c r="J171" s="17"/>
-    </row>
-    <row r="172" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B172" s="14"/>
-      <c r="C172" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D172" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E172" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F172" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G172" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H172" s="3"/>
-      <c r="I172" s="3"/>
-      <c r="J172" s="11"/>
-    </row>
-    <row r="173" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B173" s="14"/>
-      <c r="C173" s="3"/>
-      <c r="D173" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E173" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F173" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G173" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H173" s="3"/>
-      <c r="I173" s="3"/>
-      <c r="J173" s="11"/>
-    </row>
-    <row r="174" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B174" s="14"/>
-      <c r="C174" s="3"/>
-      <c r="D174" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E174" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F174" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G174" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H174" s="3"/>
-      <c r="I174" s="3"/>
-      <c r="J174" s="11"/>
-    </row>
-    <row r="175" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B175" s="14"/>
-      <c r="C175" s="3"/>
-      <c r="D175" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E175" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F175" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G175" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H175" s="3"/>
-      <c r="I175" s="3"/>
-      <c r="J175" s="11"/>
-    </row>
-    <row r="176" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B176" s="14"/>
-      <c r="C176" s="3"/>
-      <c r="D176" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E176" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F176" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G176" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H176" s="3"/>
-      <c r="I176" s="3"/>
-      <c r="J176" s="11"/>
-    </row>
-    <row r="177" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B177" s="14"/>
-      <c r="C177" s="3"/>
-      <c r="D177" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E177" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F177" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G177" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H177" s="3"/>
-      <c r="I177" s="3"/>
-      <c r="J177" s="11"/>
-    </row>
-    <row r="178" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B178" s="14"/>
-      <c r="C178" s="3"/>
-      <c r="D178" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E178" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F178" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G178" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H178" s="3"/>
-      <c r="I178" s="3"/>
-      <c r="J178" s="11"/>
-    </row>
-    <row r="179" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B179" s="14"/>
-      <c r="C179" s="3"/>
-      <c r="D179" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E179" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F179" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G179" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H179" s="3"/>
-      <c r="I179" s="3"/>
-      <c r="J179" s="11"/>
-    </row>
-    <row r="180" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B180" s="14"/>
-      <c r="C180" s="3"/>
-      <c r="D180" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E180" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F180" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G180" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H180" s="3"/>
-      <c r="I180" s="3"/>
-      <c r="J180" s="11"/>
-    </row>
-    <row r="181" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B181" s="14"/>
-      <c r="C181" s="3"/>
-      <c r="D181" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E181" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F181" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G181" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H181" s="3"/>
-      <c r="I181" s="3"/>
-      <c r="J181" s="11"/>
-    </row>
-    <row r="182" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B182" s="14"/>
-      <c r="C182" s="3"/>
-      <c r="D182" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E182" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F182" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G182" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H182" s="3"/>
-      <c r="I182" s="3"/>
-      <c r="J182" s="11"/>
-    </row>
-    <row r="183" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B183" s="14"/>
-      <c r="C183" s="3"/>
-      <c r="D183" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E183" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F183" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G183" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="H183" s="3"/>
-      <c r="I183" s="3"/>
-      <c r="J183" s="11"/>
-    </row>
-    <row r="184" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B184" s="14"/>
-      <c r="C184" s="3"/>
-      <c r="D184" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E184" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F184" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G184" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="H184" s="3"/>
-      <c r="I184" s="3"/>
-      <c r="J184" s="11"/>
-    </row>
-    <row r="185" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B185" s="14"/>
-      <c r="C185" s="3"/>
-      <c r="D185" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E185" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F185" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="G185" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H185" s="3"/>
-      <c r="I185" s="3"/>
-      <c r="J185" s="11"/>
-    </row>
-    <row r="186" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B186" s="14"/>
-      <c r="C186" s="3"/>
-      <c r="D186" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E186" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F186" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G186" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H186" s="3"/>
-      <c r="I186" s="3"/>
-      <c r="J186" s="11"/>
-    </row>
-    <row r="187" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B187" s="14"/>
-      <c r="C187" s="3"/>
-      <c r="D187" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E187" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F187" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G187" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H187" s="3"/>
-      <c r="I187" s="3"/>
-      <c r="J187" s="11"/>
-    </row>
-    <row r="188" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B188" s="14"/>
-      <c r="C188" s="3"/>
-      <c r="D188" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E188" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F188" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G188" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H188" s="3"/>
-      <c r="I188" s="3"/>
-      <c r="J188" s="11"/>
-    </row>
-    <row r="189" spans="2:10" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="B189" s="14"/>
-      <c r="C189" s="3"/>
-      <c r="D189" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E189" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F189" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G189" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="H189" s="3"/>
-      <c r="I189" s="3"/>
-      <c r="J189" s="11"/>
-    </row>
-    <row r="190" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B190" s="14"/>
-      <c r="C190" s="3"/>
-      <c r="D190" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E190" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F190" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G190" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="H190" s="3"/>
-      <c r="I190" s="3"/>
-      <c r="J190" s="11"/>
-    </row>
-    <row r="191" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B191" s="14"/>
-      <c r="C191" s="3"/>
-      <c r="D191" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E191" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F191" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G191" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="H191" s="3"/>
-      <c r="I191" s="3"/>
-      <c r="J191" s="11"/>
-    </row>
-    <row r="192" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B192" s="14"/>
-      <c r="C192" s="3"/>
-      <c r="D192" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E192" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F192" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G192" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="H192" s="3"/>
-      <c r="I192" s="3"/>
-      <c r="J192" s="11"/>
-    </row>
-    <row r="193" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B193" s="14"/>
-      <c r="C193" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="D193" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="E193" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F193" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="G193" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H193" s="15"/>
-      <c r="I193" s="15"/>
-      <c r="J193" s="17"/>
-    </row>
-    <row r="194" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B194" s="14"/>
-      <c r="C194" s="15"/>
-      <c r="D194" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="E194" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F194" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="G194" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H194" s="15"/>
-      <c r="I194" s="15"/>
-      <c r="J194" s="17"/>
-    </row>
-    <row r="195" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B195" s="14"/>
-      <c r="C195" s="15"/>
-      <c r="D195" s="15"/>
-      <c r="E195" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="F195" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="G195" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="H195" s="15"/>
-      <c r="I195" s="15"/>
-      <c r="J195" s="17"/>
-    </row>
-    <row r="196" spans="2:10" ht="54.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B196" s="13"/>
-      <c r="C196" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D196" s="8"/>
-      <c r="E196" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F196" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="G196" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="H196" s="8"/>
-      <c r="I196" s="8"/>
-      <c r="J196" s="12"/>
-    </row>
-    <row r="197" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="198" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B198" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="C198" s="5" t="s">
+      <c r="B164" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5"/>
+      <c r="F164" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G164" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H164" s="5"/>
+      <c r="I164" s="5"/>
+      <c r="J164" s="7"/>
+    </row>
+    <row r="165" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="B165" s="46"/>
+      <c r="C165" s="34"/>
+      <c r="D165" s="34"/>
+      <c r="E165" s="34"/>
+      <c r="F165" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="D198" s="5"/>
-      <c r="E198" s="5"/>
-      <c r="F198" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="G198" s="6" t="s">
+      <c r="G165" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="H198" s="5"/>
-      <c r="I198" s="5"/>
-      <c r="J198" s="7"/>
-    </row>
-    <row r="199" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B199" s="48"/>
-      <c r="C199" s="49"/>
-      <c r="D199" s="49"/>
-      <c r="E199" s="49"/>
-      <c r="F199" s="52" t="s">
-        <v>174</v>
-      </c>
-      <c r="G199" s="50" t="s">
-        <v>175</v>
-      </c>
-      <c r="H199" s="49"/>
-      <c r="I199" s="49"/>
-      <c r="J199" s="51"/>
-    </row>
-    <row r="200" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B200" s="43"/>
-      <c r="C200" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D200" s="3"/>
-      <c r="E200" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F200" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="G200" s="53" t="s">
-        <v>153</v>
-      </c>
-      <c r="H200" s="3"/>
-      <c r="I200" s="3"/>
-      <c r="J200" s="11"/>
-    </row>
-    <row r="201" spans="2:10" ht="36.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B201" s="44"/>
-      <c r="C201" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D201" s="8"/>
-      <c r="E201" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="F201" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="G201" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="H201" s="8"/>
-      <c r="I201" s="8"/>
-      <c r="J201" s="12"/>
-    </row>
-    <row r="202" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="203" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B203" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="C203" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="D203" s="33"/>
-      <c r="E203" s="33"/>
-      <c r="F203" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="G203" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="H203" s="33"/>
-      <c r="I203" s="33"/>
-      <c r="J203" s="35"/>
-    </row>
-    <row r="204" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B204" s="46"/>
-      <c r="C204" s="24" t="s">
+      <c r="H165" s="34"/>
+      <c r="I165" s="34"/>
+      <c r="J165" s="36"/>
+    </row>
+    <row r="166" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B166" s="47"/>
+      <c r="C166" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D166" s="3"/>
+      <c r="E166" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F166" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D204" s="24"/>
-      <c r="E204" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="F204" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="G204" s="25" t="s">
+      <c r="G166" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="H166" s="3"/>
+      <c r="I166" s="3"/>
+      <c r="J166" s="11"/>
+    </row>
+    <row r="167" spans="2:10" ht="36.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B167" s="48"/>
+      <c r="C167" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D167" s="8"/>
+      <c r="E167" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F167" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="G167" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="H167" s="8"/>
+      <c r="I167" s="8"/>
+      <c r="J167" s="12"/>
+    </row>
+    <row r="168" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="169" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B169" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="C169" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D169" s="30"/>
+      <c r="E169" s="30"/>
+      <c r="F169" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="H204" s="24"/>
-      <c r="I204" s="24"/>
-      <c r="J204" s="26"/>
+      <c r="G169" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="H169" s="30"/>
+      <c r="I169" s="30"/>
+      <c r="J169" s="32"/>
+    </row>
+    <row r="170" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B170" s="50"/>
+      <c r="C170" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="D170" s="21"/>
+      <c r="E170" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F170" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="G170" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="H170" s="21"/>
+      <c r="I170" s="21"/>
+      <c r="J170" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B12:B13"/>
+  <mergeCells count="4">
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B198:B201"/>
-    <mergeCell ref="B203:B204"/>
+    <mergeCell ref="B164:B167"/>
+    <mergeCell ref="B169:B170"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="D66" r:id="rId1" xr:uid="{7FDE8C31-08F9-41BF-97DF-EDDFC1AE0B5C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/テストケース.xlsx
+++ b/テストケース.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5cf47586d75cb25/デスクトップ/workspace/workspace-nishimura/ProgramWork/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="8_{FB2C5B17-156F-4188-AF96-3C92834A6A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8D54505-120C-4485-AFD4-19FF3A395863}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="8_{FB2C5B17-156F-4188-AF96-3C92834A6A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7079984-FCA9-4BFB-BBF9-B6CD72BCF1BE}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3F064697-4038-4B0C-9CC7-D71FC7163C92}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="173">
   <si>
     <t>テストケース</t>
     <phoneticPr fontId="1"/>
@@ -91,23 +91,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ひらがな11文字</t>
-    <rPh sb="6" eb="8">
-      <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>半角英字11文字</t>
-    <rPh sb="0" eb="4">
-      <t>ハンカクエイジ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>半角カタカナ</t>
     <rPh sb="0" eb="2">
       <t>ハンカク</t>
@@ -336,175 +319,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>半角数字@半角英字.半角英字2文字</t>
-    <rPh sb="0" eb="4">
-      <t>ハンカクスウジ</t>
-    </rPh>
-    <rPh sb="5" eb="9">
-      <t>ハンカクエイジ</t>
-    </rPh>
-    <rPh sb="10" eb="14">
-      <t>ハンカクエイジ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>半角英字のみ</t>
-    <rPh sb="0" eb="4">
-      <t>ハンカクエイジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>半角英字@半角英字</t>
-    <rPh sb="0" eb="2">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>エイジ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>エイジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>半角英字@半角英字.半角英字1文字</t>
-    <rPh sb="0" eb="2">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>エイジ</t>
-    </rPh>
-    <rPh sb="5" eb="9">
-      <t>ハンカクエイジ</t>
-    </rPh>
-    <rPh sb="10" eb="14">
-      <t>ハンカクエイジ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>半角英字@半角英字.半角英字7文字</t>
-    <rPh sb="0" eb="4">
-      <t>ハンカクエイジ</t>
-    </rPh>
-    <rPh sb="5" eb="9">
-      <t>ハンカクエイジ</t>
-    </rPh>
-    <rPh sb="10" eb="14">
-      <t>ハンカクエイジ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ひらがな</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ひらがな@半角英字.半角英字2文字</t>
-    <rPh sb="5" eb="9">
-      <t>ハンカクエイジ</t>
-    </rPh>
-    <rPh sb="10" eb="14">
-      <t>ハンカクエイジ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>全角英字@半角英字.半角英字2文字</t>
-    <rPh sb="0" eb="4">
-      <t>ゼンカクエイジ</t>
-    </rPh>
-    <rPh sb="5" eb="9">
-      <t>ハンカクエイジ</t>
-    </rPh>
-    <rPh sb="10" eb="14">
-      <t>ハンカクエイジ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>.-@半角英字.半角英字2文字</t>
-    <rPh sb="3" eb="7">
-      <t>ハンカクエイジ</t>
-    </rPh>
-    <rPh sb="8" eb="12">
-      <t>ハンカクエイジ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>!@半角英字.半角英字2文字</t>
-    <rPh sb="2" eb="6">
-      <t>ハンカクエイジ</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>ハンカクエイジ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>半角英字スペース@半角英字.半角英字2文字</t>
-    <rPh sb="0" eb="4">
-      <t>ハンカクエイジ</t>
-    </rPh>
-    <rPh sb="9" eb="13">
-      <t>ハンカクエイジ</t>
-    </rPh>
-    <rPh sb="14" eb="18">
-      <t>ハンカクエイジ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>半角英字@ひらがな.半角英字</t>
-    <rPh sb="0" eb="4">
-      <t>ハンカクエイジ</t>
-    </rPh>
-    <rPh sb="10" eb="14">
-      <t>ハンカクエイジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>半角英字@半角英字.ひらがな2文字</t>
-    <rPh sb="0" eb="4">
-      <t>ハンカクエイジ</t>
-    </rPh>
-    <rPh sb="5" eb="9">
-      <t>ハンカクエイジ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>モジ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -519,17 +334,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>半角数字</t>
-    <rPh sb="0" eb="4">
-      <t>ハンカクスウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カタカナ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>記号!</t>
     <rPh sb="0" eb="2">
       <t>キゴウ</t>
@@ -544,23 +348,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>半角英数字11文字</t>
-    <rPh sb="0" eb="5">
-      <t>ハンカクエイスウジ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>半角英数字とスペース</t>
-    <rPh sb="0" eb="5">
-      <t>ハンカクエイスウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>全角英字</t>
     <rPh sb="0" eb="4">
       <t>ゼンカクエイジ</t>
@@ -606,78 +393,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>半角数字6文字</t>
-    <rPh sb="0" eb="4">
-      <t>ハンカクスウジ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>半角数字8文字</t>
-    <rPh sb="0" eb="4">
-      <t>ハンカクスウジ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>全角数字7文字</t>
-    <rPh sb="0" eb="4">
-      <t>ゼンカクスウジ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ひらがな7文字</t>
-    <rPh sb="5" eb="7">
-      <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>半角英字7文字</t>
-    <rPh sb="0" eb="4">
-      <t>ハンカクエイジ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>半角記号7文字</t>
-    <rPh sb="0" eb="4">
-      <t>ハンカクキゴウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ハイフンと半角数字7文字</t>
     <rPh sb="5" eb="9">
       <t>ハンカクスウジ</t>
     </rPh>
     <rPh sb="10" eb="12">
-      <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>半角数字7文字とスペース</t>
-    <rPh sb="0" eb="4">
-      <t>ハンカクスウジ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
       <t>モジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -948,25 +668,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>-_@半角英字.半角英字2文字</t>
-    <rPh sb="3" eb="5">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>エイジ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>エイジ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「※メールアドレスが未入力です」赤字でテキストボックスの下に表示される</t>
     <rPh sb="10" eb="13">
       <t>ミニュウリョク</t>
@@ -983,28 +684,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>半角英字@半角英字.半角英字2文字（合計101文字以上）</t>
-    <rPh sb="0" eb="4">
-      <t>ハンカクエイジ</t>
-    </rPh>
-    <rPh sb="5" eb="9">
-      <t>ハンカクエイジ</t>
-    </rPh>
-    <rPh sb="10" eb="14">
-      <t>ハンカクエイジ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ゴウケイ</t>
-    </rPh>
-    <rPh sb="23" eb="27">
-      <t>モジイジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>半角英数字スペース半角英数字</t>
     <rPh sb="0" eb="5">
       <t>ハンカクエイスウジ</t>
@@ -1051,31 +730,6 @@
       <t>シタ</t>
     </rPh>
     <rPh sb="30" eb="32">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「半角英数字で入力してください」「10文字以内で入力してください」赤字でテキストボックスの下に表示される</t>
-    <rPh sb="1" eb="6">
-      <t>ハンカクエイスウジ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="19" eb="23">
-      <t>モジイナイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>アカジ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1524,13 +1178,6 @@
     <t>選択肢があるか</t>
     <rPh sb="0" eb="3">
       <t>センタクシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>入力文字制限</t>
-    <rPh sb="0" eb="6">
-      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1982,32 +1629,500 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>半角英字@半角英字.半角英字2文字以上6文字以下</t>
+    <t>入力文字制限(.が最初)</t>
+    <rPh sb="0" eb="6">
+      <t>ニュウリョクモジセイゲン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サイショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半角英数字@半角英数字.半角英字2文字（合計101文字以上）</t>
     <rPh sb="0" eb="2">
       <t>ハンカク</t>
     </rPh>
-    <rPh sb="2" eb="4">
+    <rPh sb="2" eb="5">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>ハンカクエイジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t>モジイジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひらがな101文字以上</t>
+    <rPh sb="7" eb="11">
+      <t>モジイジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「※メールアドレスが未入力です」「10文字以下で入力してください」赤字でテキストボックスの下に表示される</t>
+    <rPh sb="10" eb="13">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半角英数字10文字以下</t>
+    <rPh sb="0" eb="2">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>モジイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半角英数字@半角英数字.半角英字2文字以上6文字以下(合計100文字以下)</t>
+    <rPh sb="0" eb="2">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
       <t>エイジ</t>
     </rPh>
-    <rPh sb="5" eb="7">
+    <rPh sb="17" eb="19">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>モジイカ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="32" eb="36">
+      <t>モジイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半角英数字と+-_.@半角英数字.半角英字2文字以上6文字以下(合計100文字以下)</t>
+    <rPh sb="0" eb="2">
       <t>ハンカク</t>
     </rPh>
+    <rPh sb="2" eb="5">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>ハンカクエイジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="27" eb="31">
+      <t>モジイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.半角英数字@半角英数字.半角英字2文字以上6文字以下(合計100文字以下)</t>
+    <rPh sb="1" eb="6">
+      <t>ハンカクエイスウジ</t>
+    </rPh>
     <rPh sb="7" eb="9">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>ハンカクエイジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="23" eb="27">
+      <t>モジイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひらがな漢字カタカナ全角英数字記号@半角英数字.半角英字2文字以上6文字以下(合計100文字以下)</t>
+    <rPh sb="4" eb="6">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="18" eb="23">
+      <t>ハンカクエイスウジ</t>
+    </rPh>
+    <rPh sb="24" eb="28">
+      <t>ハンカクエイジ</t>
+    </rPh>
+    <rPh sb="29" eb="33">
+      <t>モジイジョウ</t>
+    </rPh>
+    <rPh sb="34" eb="38">
+      <t>モジイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半角英数字@半角英数字(合計100文字以下)</t>
+    <rPh sb="0" eb="2">
+      <t>ハンカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半角英数字@半角英数字.半角英字1文字(合計100文字以下)</t>
+    <rPh sb="0" eb="5">
+      <t>ハンカクエイスウジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
       <t>エイジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半角英数字@半角英数字.半角英字7文字以上(合計100文字以下)</t>
+    <rPh sb="0" eb="5">
+      <t>ハンカクエイスウジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>エイジ</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>モジイジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半角英数字@半角英数字.ひらがな漢字カタカナ全角英数字記号数字2文字以上6文字以下(合計100文字以下)</t>
+    <rPh sb="0" eb="5">
+      <t>ハンカクエイスウジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="32" eb="36">
+      <t>モジイジョウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半角英数字@ひらがな漢字カタカナ全角英数字記号半角数字.半角英字2文字以上6文字以下(合計100文字以下)</t>
+    <rPh sb="0" eb="2">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="28" eb="32">
+      <t>ハンカクエイジ</t>
+    </rPh>
+    <rPh sb="33" eb="37">
+      <t>モジイジョウ</t>
+    </rPh>
+    <rPh sb="38" eb="42">
+      <t>モジイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スペース半角英数字@半角英数字.半角英字2文字以上6文字以下スペース(合計100文字以下)</t>
+    <rPh sb="4" eb="6">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>エイスウジ</t>
     </rPh>
     <rPh sb="10" eb="12">
       <t>ハンカク</t>
     </rPh>
-    <rPh sb="12" eb="14">
+    <rPh sb="12" eb="15">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
       <t>エイジ</t>
     </rPh>
-    <rPh sb="15" eb="17">
+    <rPh sb="21" eb="23">
       <t>モジ</t>
     </rPh>
-    <rPh sb="17" eb="19">
+    <rPh sb="23" eb="25">
       <t>イジョウ</t>
     </rPh>
-    <rPh sb="20" eb="24">
+    <rPh sb="26" eb="30">
+      <t>モジイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スペース半角英数字スペース</t>
+    <rPh sb="4" eb="9">
+      <t>ハンカクエイスウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひらがな漢字カタカナ記号全角英数字10文字以下</t>
+    <rPh sb="4" eb="6">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="12" eb="17">
+      <t>ゼンカクエイスウジ</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>モジイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半角英数字11文字以上</t>
+    <rPh sb="0" eb="5">
+      <t>ハンカクエイスウジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひらがな漢字カタカナ記号全角英数字11文字以上</t>
+    <rPh sb="4" eb="6">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="12" eb="17">
+      <t>ゼンカクエイスウジ</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>モジイジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左記を入力して確認ボタンを押す</t>
+    <rPh sb="0" eb="2">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半角数字6文字以下</t>
+    <rPh sb="0" eb="4">
+      <t>ハンカクスウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半角数字8文字以上</t>
+    <rPh sb="0" eb="4">
+      <t>ハンカクスウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全角数字ひらがな英字記号7文字</t>
+    <rPh sb="0" eb="4">
+      <t>ゼンカクスウジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>エイジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スペース半角数字7文字とスペース</t>
+    <rPh sb="4" eb="8">
+      <t>ハンカクスウジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひらがな漢字数字カタカナハイフンスペース10文字以下</t>
+    <rPh sb="4" eb="6">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>モジイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スペースひらがなスペース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひらがな漢字数字カタカナハイフンスペース11文字以上</t>
+    <rPh sb="4" eb="6">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>モジイジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>英字と記号10文字以下</t>
+    <rPh sb="0" eb="2">
+      <t>エイジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
       <t>モジイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -2480,9 +2595,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2531,6 +2643,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2561,8 +2676,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2595,6 +2710,10 @@
 </file>
 
 <file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person3.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -2895,42 +3014,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D25F908-8C24-448E-8107-DBDBAE93069C}">
-  <dimension ref="B2:K170"/>
+  <dimension ref="B2:K146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="18.4140625" customWidth="1"/>
     <col min="3" max="3" width="35.25" customWidth="1"/>
-    <col min="4" max="4" width="45.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.4140625" customWidth="1"/>
+    <col min="4" max="4" width="70.9140625" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
     <col min="6" max="6" width="19.6640625" customWidth="1"/>
     <col min="7" max="7" width="38.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="216" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="39" t="s">
-        <v>152</v>
+      <c r="C2" s="38" t="s">
+        <v>123</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="4" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="43" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="24" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2945,40 +3064,40 @@
     </row>
     <row r="7" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="8" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B8" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="26" t="s">
+      <c r="B8" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="I8" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="J8" s="27" t="s">
-        <v>92</v>
+      <c r="E8" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="41" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>1</v>
@@ -2986,7 +3105,7 @@
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="19" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
@@ -3005,23 +3124,23 @@
     </row>
     <row r="11" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="12" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="40" t="s">
-        <v>86</v>
+      <c r="B12" s="39" t="s">
+        <v>61</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>9</v>
+        <v>164</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -3031,16 +3150,16 @@
       <c r="B13" s="14"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>9</v>
+        <v>164</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -3053,13 +3172,13 @@
         <v>8</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>9</v>
+        <v>164</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -3069,16 +3188,16 @@
       <c r="B15" s="14"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>9</v>
+        <v>164</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -3088,16 +3207,16 @@
       <c r="B16" s="14"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>9</v>
+        <v>164</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -3107,16 +3226,16 @@
       <c r="B17" s="14"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>9</v>
+        <v>164</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -3126,16 +3245,16 @@
       <c r="B18" s="14"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>9</v>
+        <v>164</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -3145,16 +3264,16 @@
       <c r="B19" s="14"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>9</v>
+        <v>164</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -3164,16 +3283,16 @@
       <c r="B20" s="14"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>9</v>
+        <v>164</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -3183,16 +3302,16 @@
       <c r="B21" s="14"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>9</v>
+        <v>164</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -3202,16 +3321,16 @@
       <c r="B22" s="14"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="F22" s="3" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -3221,16 +3340,16 @@
       <c r="B23" s="14"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>9</v>
+        <v>164</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -3239,19 +3358,19 @@
     <row r="24" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="14"/>
       <c r="C24" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>9</v>
+        <v>164</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
@@ -3261,16 +3380,16 @@
       <c r="B25" s="14"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>9</v>
+        <v>164</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H25" s="15"/>
       <c r="I25" s="15"/>
@@ -3283,13 +3402,13 @@
         <v>8</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>9</v>
+        <v>164</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H26" s="15"/>
       <c r="I26" s="15"/>
@@ -3299,16 +3418,16 @@
       <c r="B27" s="14"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>9</v>
+        <v>164</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
@@ -3318,16 +3437,16 @@
       <c r="B28" s="14"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>9</v>
+        <v>164</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H28" s="15"/>
       <c r="I28" s="15"/>
@@ -3337,16 +3456,16 @@
       <c r="B29" s="14"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>9</v>
+        <v>164</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="H29" s="15"/>
       <c r="I29" s="15"/>
@@ -3356,16 +3475,16 @@
       <c r="B30" s="14"/>
       <c r="C30" s="15"/>
       <c r="D30" s="15" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>9</v>
+        <v>164</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H30" s="15"/>
       <c r="I30" s="15"/>
@@ -3375,16 +3494,16 @@
       <c r="B31" s="14"/>
       <c r="C31" s="15"/>
       <c r="D31" s="15" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>9</v>
+        <v>164</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H31" s="15"/>
       <c r="I31" s="15"/>
@@ -3394,16 +3513,16 @@
       <c r="B32" s="14"/>
       <c r="C32" s="15"/>
       <c r="D32" s="15" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>9</v>
+        <v>164</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H32" s="15"/>
       <c r="I32" s="15"/>
@@ -3413,16 +3532,16 @@
       <c r="B33" s="14"/>
       <c r="C33" s="15"/>
       <c r="D33" s="15" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>9</v>
+        <v>164</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H33" s="15"/>
       <c r="I33" s="15"/>
@@ -3432,16 +3551,16 @@
       <c r="B34" s="14"/>
       <c r="C34" s="15"/>
       <c r="D34" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="E34" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="E34" s="15" t="s">
-        <v>9</v>
-      </c>
       <c r="F34" s="15" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H34" s="15"/>
       <c r="I34" s="15"/>
@@ -3451,16 +3570,16 @@
       <c r="B35" s="14"/>
       <c r="C35" s="15"/>
       <c r="D35" s="15" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>9</v>
+        <v>164</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H35" s="15"/>
       <c r="I35" s="15"/>
@@ -3469,19 +3588,19 @@
     <row r="36" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="14"/>
       <c r="C36" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -3491,16 +3610,16 @@
       <c r="B37" s="14"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -3516,10 +3635,10 @@
         <v>9</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -3529,16 +3648,16 @@
       <c r="B39" s="14"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -3548,16 +3667,16 @@
       <c r="B40" s="14"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -3567,16 +3686,16 @@
       <c r="B41" s="14"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -3586,16 +3705,16 @@
       <c r="B42" s="14"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
@@ -3605,16 +3724,16 @@
       <c r="B43" s="14"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
@@ -3624,16 +3743,16 @@
       <c r="B44" s="14"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
@@ -3643,16 +3762,16 @@
       <c r="B45" s="14"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -3662,16 +3781,16 @@
       <c r="B46" s="14"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
@@ -3681,16 +3800,16 @@
       <c r="B47" s="14"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
@@ -3700,16 +3819,16 @@
       <c r="B48" s="14"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
@@ -3719,16 +3838,16 @@
       <c r="B49" s="14"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
@@ -3738,16 +3857,16 @@
       <c r="B50" s="14"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
@@ -3756,19 +3875,19 @@
     <row r="51" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="14"/>
       <c r="C51" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="E51" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H51" s="15"/>
       <c r="I51" s="15"/>
@@ -3779,16 +3898,16 @@
       <c r="B52" s="14"/>
       <c r="C52" s="15"/>
       <c r="D52" s="15" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="E52" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H52" s="15"/>
       <c r="I52" s="15"/>
@@ -3804,10 +3923,10 @@
         <v>9</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H53" s="15"/>
       <c r="I53" s="15"/>
@@ -3817,16 +3936,16 @@
       <c r="B54" s="14"/>
       <c r="C54" s="15"/>
       <c r="D54" s="15" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="E54" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H54" s="15"/>
       <c r="I54" s="15"/>
@@ -3836,16 +3955,16 @@
       <c r="B55" s="14"/>
       <c r="C55" s="15"/>
       <c r="D55" s="15" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="E55" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H55" s="15"/>
       <c r="I55" s="15"/>
@@ -3855,16 +3974,16 @@
       <c r="B56" s="14"/>
       <c r="C56" s="15"/>
       <c r="D56" s="15" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="E56" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H56" s="15"/>
       <c r="I56" s="15"/>
@@ -3874,16 +3993,16 @@
       <c r="B57" s="14"/>
       <c r="C57" s="15"/>
       <c r="D57" s="15" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="E57" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H57" s="15"/>
       <c r="I57" s="15"/>
@@ -3893,16 +4012,16 @@
       <c r="B58" s="14"/>
       <c r="C58" s="15"/>
       <c r="D58" s="15" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="E58" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H58" s="15"/>
       <c r="I58" s="15"/>
@@ -3912,16 +4031,16 @@
       <c r="B59" s="14"/>
       <c r="C59" s="15"/>
       <c r="D59" s="15" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="E59" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H59" s="15"/>
       <c r="I59" s="15"/>
@@ -3931,16 +4050,16 @@
       <c r="B60" s="14"/>
       <c r="C60" s="15"/>
       <c r="D60" s="15" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="E60" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H60" s="15"/>
       <c r="I60" s="15"/>
@@ -3950,16 +4069,16 @@
       <c r="B61" s="14"/>
       <c r="C61" s="15"/>
       <c r="D61" s="15" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="E61" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H61" s="15"/>
       <c r="I61" s="15"/>
@@ -3969,16 +4088,16 @@
       <c r="B62" s="14"/>
       <c r="C62" s="15"/>
       <c r="D62" s="15" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="E62" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H62" s="15"/>
       <c r="I62" s="15"/>
@@ -3988,16 +4107,16 @@
       <c r="B63" s="14"/>
       <c r="C63" s="15"/>
       <c r="D63" s="15" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="E63" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H63" s="15"/>
       <c r="I63" s="15"/>
@@ -4007,16 +4126,16 @@
       <c r="B64" s="14"/>
       <c r="C64" s="15"/>
       <c r="D64" s="15" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="E64" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="G64" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H64" s="15"/>
       <c r="I64" s="15"/>
@@ -4026,16 +4145,16 @@
       <c r="B65" s="14"/>
       <c r="C65" s="15"/>
       <c r="D65" s="15" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="E65" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F65" s="15" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="G65" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H65" s="15"/>
       <c r="I65" s="15"/>
@@ -4044,19 +4163,19 @@
     <row r="66" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B66" s="14"/>
       <c r="C66" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D66" s="51" t="s">
-        <v>174</v>
+        <v>27</v>
+      </c>
+      <c r="D66" s="40" t="s">
+        <v>150</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
@@ -4065,17 +4184,17 @@
     <row r="67" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B67" s="14"/>
       <c r="C67" s="3"/>
-      <c r="D67" s="3" t="s">
-        <v>30</v>
+      <c r="D67" s="40" t="s">
+        <v>151</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
@@ -4084,17 +4203,15 @@
     <row r="68" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B68" s="14"/>
       <c r="C68" s="3"/>
-      <c r="D68" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="D68" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="E68" s="3"/>
       <c r="F68" s="3" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
@@ -4103,17 +4220,17 @@
     <row r="69" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B69" s="14"/>
       <c r="C69" s="3"/>
-      <c r="D69" s="3" t="s">
-        <v>32</v>
+      <c r="D69" s="40" t="s">
+        <v>153</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
@@ -4122,17 +4239,17 @@
     <row r="70" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B70" s="14"/>
       <c r="C70" s="3"/>
-      <c r="D70" s="3" t="s">
-        <v>38</v>
+      <c r="D70" s="40" t="s">
+        <v>154</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
@@ -4141,36 +4258,32 @@
     <row r="71" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B71" s="14"/>
       <c r="C71" s="3"/>
-      <c r="D71" s="24" t="s">
-        <v>95</v>
+      <c r="D71" s="40" t="s">
+        <v>155</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F71" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="F71" s="32"/>
+      <c r="G71" s="51"/>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
       <c r="J71" s="11"/>
     </row>
-    <row r="72" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B72" s="14"/>
       <c r="C72" s="3"/>
-      <c r="D72" s="3" t="s">
-        <v>33</v>
+      <c r="D72" s="40" t="s">
+        <v>156</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
@@ -4179,17 +4292,17 @@
     <row r="73" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B73" s="14"/>
       <c r="C73" s="3"/>
-      <c r="D73" s="3" t="s">
-        <v>34</v>
+      <c r="D73" s="40" t="s">
+        <v>157</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
@@ -4198,37 +4311,31 @@
     <row r="74" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B74" s="14"/>
       <c r="C74" s="3"/>
-      <c r="D74" s="3" t="s">
-        <v>36</v>
+      <c r="D74" s="40" t="s">
+        <v>158</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
       <c r="J74" s="11"/>
     </row>
-    <row r="75" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B75" s="14"/>
       <c r="C75" s="3"/>
-      <c r="D75" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>94</v>
-      </c>
+      <c r="D75" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="4"/>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
       <c r="J75" s="11"/>
@@ -4237,16 +4344,16 @@
       <c r="B76" s="14"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
@@ -4256,35 +4363,33 @@
       <c r="B77" s="14"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
       <c r="J77" s="11"/>
     </row>
-    <row r="78" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B78" s="14"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3" t="s">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F78" s="3" t="s">
-        <v>135</v>
-      </c>
+      <c r="F78" s="3"/>
       <c r="G78" s="4" t="s">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
@@ -4294,113 +4399,107 @@
       <c r="B79" s="14"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3" t="s">
-        <v>42</v>
+        <v>146</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
       <c r="J79" s="11"/>
     </row>
-    <row r="80" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B80" s="14"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="11"/>
+      <c r="C80" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D80" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="E80" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="G80" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H80" s="18"/>
+      <c r="I80" s="18"/>
+      <c r="J80" s="20"/>
     </row>
     <row r="81" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B81" s="14"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="11"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="E81" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G81" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="17"/>
     </row>
     <row r="82" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B82" s="14"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G82" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="11"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="E82" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="G82" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="17"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B83" s="14"/>
-      <c r="C83" s="18" t="s">
-        <v>53</v>
-      </c>
+      <c r="C83" s="15"/>
       <c r="D83" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E83" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F83" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="G83" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H83" s="18"/>
-      <c r="I83" s="18"/>
-      <c r="J83" s="20"/>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+        <v>163</v>
+      </c>
+      <c r="E83" s="15"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="17"/>
+    </row>
+    <row r="84" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B84" s="14"/>
       <c r="C84" s="15"/>
       <c r="D84" s="15" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="E84" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F84" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="G84" s="19" t="s">
-        <v>16</v>
+        <v>110</v>
+      </c>
+      <c r="G84" s="16" t="s">
+        <v>74</v>
       </c>
       <c r="H84" s="15"/>
       <c r="I84" s="15"/>
@@ -4410,16 +4509,16 @@
       <c r="B85" s="14"/>
       <c r="C85" s="15"/>
       <c r="D85" s="15" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E85" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F85" s="15" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="G85" s="16" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="H85" s="15"/>
       <c r="I85" s="15"/>
@@ -4429,35 +4528,35 @@
       <c r="B86" s="14"/>
       <c r="C86" s="15"/>
       <c r="D86" s="15" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="E86" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F86" s="15" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="G86" s="16" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="H86" s="15"/>
       <c r="I86" s="15"/>
       <c r="J86" s="17"/>
     </row>
-    <row r="87" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B87" s="14"/>
       <c r="C87" s="15"/>
       <c r="D87" s="15" t="s">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="E87" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F87" s="15" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="G87" s="16" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="H87" s="15"/>
       <c r="I87" s="15"/>
@@ -4465,94 +4564,98 @@
     </row>
     <row r="88" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B88" s="14"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E88" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F88" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="G88" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="17"/>
-    </row>
-    <row r="89" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="C88" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="11"/>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B89" s="14"/>
-      <c r="C89" s="15"/>
-      <c r="D89" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E89" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F89" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="G89" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="17"/>
-    </row>
-    <row r="90" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="C89" s="3"/>
+      <c r="D89" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="11"/>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B90" s="14"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E90" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F90" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="G90" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="17"/>
-    </row>
-    <row r="91" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="C90" s="3"/>
+      <c r="D90" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="11"/>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B91" s="14"/>
-      <c r="C91" s="15"/>
-      <c r="D91" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E91" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F91" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="G91" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="17"/>
-    </row>
-    <row r="92" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="C91" s="3"/>
+      <c r="D91" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="11"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B92" s="14"/>
-      <c r="C92" s="15"/>
+      <c r="C92" s="15" t="s">
+        <v>41</v>
+      </c>
       <c r="D92" s="15" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="E92" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F92" s="15" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="G92" s="16" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="H92" s="15"/>
       <c r="I92" s="15"/>
@@ -4562,16 +4665,16 @@
       <c r="B93" s="14"/>
       <c r="C93" s="15"/>
       <c r="D93" s="15" t="s">
-        <v>43</v>
+        <v>165</v>
       </c>
       <c r="E93" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F93" s="15" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="G93" s="16" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="H93" s="15"/>
       <c r="I93" s="15"/>
@@ -4581,35 +4684,35 @@
       <c r="B94" s="14"/>
       <c r="C94" s="15"/>
       <c r="D94" s="15" t="s">
-        <v>98</v>
+        <v>166</v>
       </c>
       <c r="E94" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F94" s="15" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="G94" s="16" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="H94" s="15"/>
       <c r="I94" s="15"/>
       <c r="J94" s="17"/>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B95" s="14"/>
       <c r="C95" s="15"/>
       <c r="D95" s="15" t="s">
-        <v>50</v>
+        <v>167</v>
       </c>
       <c r="E95" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F95" s="15" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="G95" s="16" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="H95" s="15"/>
       <c r="I95" s="15"/>
@@ -4619,16 +4722,16 @@
       <c r="B96" s="14"/>
       <c r="C96" s="15"/>
       <c r="D96" s="15" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E96" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F96" s="15" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="G96" s="16" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="H96" s="15"/>
       <c r="I96" s="15"/>
@@ -4636,174 +4739,172 @@
     </row>
     <row r="97" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B97" s="14"/>
-      <c r="C97" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D97" s="3" t="s">
+      <c r="C97" s="15"/>
+      <c r="D97" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E97" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G97" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H97" s="3"/>
-      <c r="I97" s="3"/>
-      <c r="J97" s="11"/>
-    </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E97" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="G97" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="17"/>
+    </row>
+    <row r="98" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B98" s="14"/>
-      <c r="C98" s="3"/>
-      <c r="D98" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="G98" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H98" s="3"/>
-      <c r="I98" s="3"/>
-      <c r="J98" s="11"/>
+      <c r="C98" s="15"/>
+      <c r="D98" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E98" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="G98" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="17"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B99" s="14"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="G99" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H99" s="3"/>
-      <c r="I99" s="3"/>
-      <c r="J99" s="11"/>
-    </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C99" s="15"/>
+      <c r="D99" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="E99" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F99" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G99" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="17"/>
+    </row>
+    <row r="100" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B100" s="14"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="G100" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H100" s="3"/>
-      <c r="I100" s="3"/>
-      <c r="J100" s="11"/>
-    </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C100" s="15"/>
+      <c r="D100" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E100" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F100" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G100" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="17"/>
+    </row>
+    <row r="101" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B101" s="14"/>
-      <c r="C101" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D101" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E101" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F101" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="G101" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H101" s="15"/>
-      <c r="I101" s="15"/>
-      <c r="J101" s="17"/>
-    </row>
-    <row r="102" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="C101" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H101" s="3"/>
+      <c r="I101" s="3"/>
+      <c r="J101" s="11"/>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B102" s="14"/>
-      <c r="C102" s="15"/>
-      <c r="D102" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="E102" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F102" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="G102" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="17"/>
-    </row>
-    <row r="103" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="C102" s="3"/>
+      <c r="D102" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H102" s="3"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="11"/>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B103" s="14"/>
-      <c r="C103" s="15"/>
-      <c r="D103" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E103" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F103" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="G103" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="H103" s="15"/>
-      <c r="I103" s="15"/>
-      <c r="J103" s="17"/>
-    </row>
-    <row r="104" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="C103" s="3"/>
+      <c r="D103" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H103" s="3"/>
+      <c r="I103" s="3"/>
+      <c r="J103" s="11"/>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B104" s="14"/>
-      <c r="C104" s="15"/>
-      <c r="D104" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="E104" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F104" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="G104" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="H104" s="15"/>
-      <c r="I104" s="15"/>
-      <c r="J104" s="17"/>
-    </row>
-    <row r="105" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H104" s="3"/>
+      <c r="I104" s="3"/>
+      <c r="J104" s="11"/>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B105" s="14"/>
-      <c r="C105" s="15"/>
+      <c r="C105" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="D105" s="15" t="s">
-        <v>60</v>
+        <v>169</v>
       </c>
       <c r="E105" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F105" s="15" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="G105" s="16" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="H105" s="15"/>
       <c r="I105" s="15"/>
@@ -4813,16 +4914,16 @@
       <c r="B106" s="14"/>
       <c r="C106" s="15"/>
       <c r="D106" s="15" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="E106" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F106" s="15" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="G106" s="16" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="H106" s="15"/>
       <c r="I106" s="15"/>
@@ -4832,92 +4933,92 @@
       <c r="B107" s="14"/>
       <c r="C107" s="15"/>
       <c r="D107" s="15" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="E107" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F107" s="15" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="G107" s="16" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="H107" s="15"/>
       <c r="I107" s="15"/>
       <c r="J107" s="17"/>
     </row>
-    <row r="108" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B108" s="14"/>
       <c r="C108" s="15"/>
       <c r="D108" s="15" t="s">
-        <v>63</v>
+        <v>170</v>
       </c>
       <c r="E108" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F108" s="15" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="G108" s="16" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="H108" s="15"/>
       <c r="I108" s="15"/>
       <c r="J108" s="17"/>
     </row>
-    <row r="109" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B109" s="14"/>
       <c r="C109" s="15"/>
       <c r="D109" s="15" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="E109" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F109" s="15" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="G109" s="16" t="s">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="H109" s="15"/>
       <c r="I109" s="15"/>
       <c r="J109" s="17"/>
     </row>
-    <row r="110" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B110" s="14"/>
       <c r="C110" s="15"/>
       <c r="D110" s="15" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="E110" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F110" s="15" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="G110" s="16" t="s">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="H110" s="15"/>
       <c r="I110" s="15"/>
       <c r="J110" s="17"/>
     </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B111" s="14"/>
       <c r="C111" s="15"/>
       <c r="D111" s="15" t="s">
-        <v>64</v>
+        <v>172</v>
       </c>
       <c r="E111" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F111" s="15" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="G111" s="16" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="H111" s="15"/>
       <c r="I111" s="15"/>
@@ -4927,56 +5028,56 @@
       <c r="B112" s="14"/>
       <c r="C112" s="15"/>
       <c r="D112" s="15" t="s">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="E112" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F112" s="15" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="G112" s="16" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="H112" s="15"/>
       <c r="I112" s="15"/>
       <c r="J112" s="17"/>
     </row>
-    <row r="113" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="2:10" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="B113" s="14"/>
-      <c r="C113" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G113" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H113" s="3"/>
-      <c r="I113" s="3"/>
-      <c r="J113" s="11"/>
+      <c r="C113" s="15"/>
+      <c r="D113" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E113" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F113" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="G113" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="17"/>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B114" s="14"/>
-      <c r="C114" s="3"/>
+      <c r="C114" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="D114" s="3" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
@@ -4986,16 +5087,16 @@
       <c r="B115" s="14"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
@@ -5004,15 +5105,17 @@
     <row r="116" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B116" s="14"/>
       <c r="C116" s="3"/>
-      <c r="D116" s="3"/>
+      <c r="D116" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="E116" s="3" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
@@ -5020,1004 +5123,553 @@
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B117" s="14"/>
-      <c r="C117" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D117" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E117" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F117" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="G117" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H117" s="15"/>
-      <c r="I117" s="15"/>
-      <c r="J117" s="17"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H117" s="3"/>
+      <c r="I117" s="3"/>
+      <c r="J117" s="11"/>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B118" s="14"/>
-      <c r="C118" s="15"/>
-      <c r="D118" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E118" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F118" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="G118" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H118" s="15"/>
-      <c r="I118" s="15"/>
-      <c r="J118" s="17"/>
-    </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C118" s="3"/>
+      <c r="D118" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H118" s="3"/>
+      <c r="I118" s="3"/>
+      <c r="J118" s="11"/>
+    </row>
+    <row r="119" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B119" s="14"/>
-      <c r="C119" s="15"/>
-      <c r="D119" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E119" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F119" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="G119" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H119" s="15"/>
-      <c r="I119" s="15"/>
-      <c r="J119" s="17"/>
-    </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C119" s="3"/>
+      <c r="D119" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H119" s="3"/>
+      <c r="I119" s="3"/>
+      <c r="J119" s="11"/>
+    </row>
+    <row r="120" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B120" s="14"/>
-      <c r="C120" s="15"/>
-      <c r="D120" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E120" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F120" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="G120" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H120" s="15"/>
-      <c r="I120" s="15"/>
-      <c r="J120" s="17"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H120" s="3"/>
+      <c r="I120" s="3"/>
+      <c r="J120" s="11"/>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B121" s="14"/>
-      <c r="C121" s="15"/>
-      <c r="D121" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E121" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F121" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="G121" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H121" s="15"/>
-      <c r="I121" s="15"/>
-      <c r="J121" s="17"/>
-    </row>
-    <row r="122" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="C121" s="3"/>
+      <c r="D121" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H121" s="3"/>
+      <c r="I121" s="3"/>
+      <c r="J121" s="11"/>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B122" s="14"/>
-      <c r="C122" s="15"/>
-      <c r="D122" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E122" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F122" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="G122" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="H122" s="15"/>
-      <c r="I122" s="15"/>
-      <c r="J122" s="17"/>
-    </row>
-    <row r="123" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="C122" s="3"/>
+      <c r="D122" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H122" s="3"/>
+      <c r="I122" s="3"/>
+      <c r="J122" s="11"/>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B123" s="14"/>
-      <c r="C123" s="15"/>
-      <c r="D123" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E123" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F123" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="G123" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="H123" s="15"/>
-      <c r="I123" s="15"/>
-      <c r="J123" s="17"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H123" s="3"/>
+      <c r="I123" s="3"/>
+      <c r="J123" s="11"/>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B124" s="14"/>
-      <c r="C124" s="15"/>
-      <c r="D124" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E124" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F124" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="G124" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
-      <c r="J124" s="17"/>
-    </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C124" s="3"/>
+      <c r="D124" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H124" s="3"/>
+      <c r="I124" s="3"/>
+      <c r="J124" s="11"/>
+    </row>
+    <row r="125" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B125" s="14"/>
-      <c r="C125" s="15"/>
-      <c r="D125" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="E125" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F125" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="G125" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H125" s="15"/>
-      <c r="I125" s="15"/>
-      <c r="J125" s="17"/>
-    </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C125" s="3"/>
+      <c r="D125" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H125" s="3"/>
+      <c r="I125" s="3"/>
+      <c r="J125" s="11"/>
+    </row>
+    <row r="126" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B126" s="14"/>
-      <c r="C126" s="15"/>
-      <c r="D126" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="E126" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F126" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="G126" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H126" s="15"/>
-      <c r="I126" s="15"/>
-      <c r="J126" s="17"/>
-    </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C126" s="3"/>
+      <c r="D126" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H126" s="3"/>
+      <c r="I126" s="3"/>
+      <c r="J126" s="11"/>
+    </row>
+    <row r="127" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B127" s="14"/>
-      <c r="C127" s="15"/>
-      <c r="D127" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="E127" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F127" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="G127" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H127" s="15"/>
-      <c r="I127" s="15"/>
-      <c r="J127" s="17"/>
-    </row>
-    <row r="128" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="C127" s="3"/>
+      <c r="D127" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H127" s="3"/>
+      <c r="I127" s="3"/>
+      <c r="J127" s="11"/>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B128" s="14"/>
-      <c r="C128" s="15"/>
-      <c r="D128" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E128" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F128" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="G128" s="16" t="s">
+      <c r="C128" s="3"/>
+      <c r="D128" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H128" s="3"/>
+      <c r="I128" s="3"/>
+      <c r="J128" s="11"/>
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B129" s="14"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H129" s="3"/>
+      <c r="I129" s="3"/>
+      <c r="J129" s="11"/>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B130" s="14"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H130" s="3"/>
+      <c r="I130" s="3"/>
+      <c r="J130" s="11"/>
+    </row>
+    <row r="131" spans="2:10" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="B131" s="14"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H131" s="3"/>
+      <c r="I131" s="3"/>
+      <c r="J131" s="11"/>
+    </row>
+    <row r="132" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="B132" s="14"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H132" s="3"/>
+      <c r="I132" s="3"/>
+      <c r="J132" s="11"/>
+    </row>
+    <row r="133" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="B133" s="14"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H133" s="3"/>
+      <c r="I133" s="3"/>
+      <c r="J133" s="11"/>
+    </row>
+    <row r="134" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="B134" s="14"/>
+      <c r="C134" s="3"/>
+      <c r="D134" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H134" s="3"/>
+      <c r="I134" s="3"/>
+      <c r="J134" s="11"/>
+    </row>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B135" s="14"/>
+      <c r="C135" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D135" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E135" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F135" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="H128" s="15"/>
-      <c r="I128" s="15"/>
-      <c r="J128" s="17"/>
-    </row>
-    <row r="129" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B129" s="14"/>
-      <c r="C129" s="15"/>
-      <c r="D129" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E129" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F129" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="G129" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="H129" s="15"/>
-      <c r="I129" s="15"/>
-      <c r="J129" s="17"/>
-    </row>
-    <row r="130" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B130" s="14"/>
-      <c r="C130" s="15"/>
-      <c r="D130" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E130" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F130" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="G130" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H130" s="15"/>
-      <c r="I130" s="15"/>
-      <c r="J130" s="17"/>
-    </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B131" s="14"/>
-      <c r="C131" s="15"/>
-      <c r="D131" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="E131" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F131" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="G131" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H131" s="15"/>
-      <c r="I131" s="15"/>
-      <c r="J131" s="17"/>
-    </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B132" s="14"/>
-      <c r="C132" s="15"/>
-      <c r="D132" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="E132" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F132" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="G132" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H132" s="15"/>
-      <c r="I132" s="15"/>
-      <c r="J132" s="17"/>
-    </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B133" s="14"/>
-      <c r="C133" s="15"/>
-      <c r="D133" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E133" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F133" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="G133" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H133" s="15"/>
-      <c r="I133" s="15"/>
-      <c r="J133" s="17"/>
-    </row>
-    <row r="134" spans="2:10" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="B134" s="14"/>
-      <c r="C134" s="15"/>
-      <c r="D134" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E134" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F134" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="G134" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="H134" s="15"/>
-      <c r="I134" s="15"/>
-      <c r="J134" s="17"/>
-    </row>
-    <row r="135" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B135" s="14"/>
-      <c r="C135" s="15"/>
-      <c r="D135" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E135" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F135" s="15" t="s">
-        <v>135</v>
-      </c>
       <c r="G135" s="16" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="H135" s="15"/>
       <c r="I135" s="15"/>
       <c r="J135" s="17"/>
     </row>
-    <row r="136" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B136" s="14"/>
       <c r="C136" s="15"/>
       <c r="D136" s="15" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E136" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F136" s="15" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="G136" s="16" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="H136" s="15"/>
       <c r="I136" s="15"/>
       <c r="J136" s="17"/>
     </row>
-    <row r="137" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B137" s="14"/>
       <c r="C137" s="15"/>
-      <c r="D137" s="15" t="s">
-        <v>80</v>
-      </c>
+      <c r="D137" s="15"/>
       <c r="E137" s="15" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="F137" s="15" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="G137" s="16" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="H137" s="15"/>
       <c r="I137" s="15"/>
       <c r="J137" s="17"/>
     </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B138" s="14"/>
-      <c r="C138" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E138" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F138" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="G138" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H138" s="3"/>
-      <c r="I138" s="3"/>
-      <c r="J138" s="11"/>
-    </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B139" s="14"/>
-      <c r="C139" s="3"/>
-      <c r="D139" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F139" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="G139" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H139" s="3"/>
-      <c r="I139" s="3"/>
-      <c r="J139" s="11"/>
-    </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B140" s="14"/>
-      <c r="C140" s="3"/>
-      <c r="D140" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F140" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="G140" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H140" s="3"/>
-      <c r="I140" s="3"/>
-      <c r="J140" s="11"/>
-    </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B141" s="14"/>
-      <c r="C141" s="3"/>
-      <c r="D141" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E141" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F141" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="G141" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H141" s="3"/>
-      <c r="I141" s="3"/>
-      <c r="J141" s="11"/>
-    </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B142" s="14"/>
-      <c r="C142" s="3"/>
-      <c r="D142" s="3" t="s">
-        <v>12</v>
-      </c>
+    <row r="138" spans="2:10" ht="54.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B138" s="13"/>
+      <c r="C138" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F138" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G138" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="H138" s="8"/>
+      <c r="I138" s="8"/>
+      <c r="J138" s="12"/>
+    </row>
+    <row r="139" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="140" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B140" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G140" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H140" s="5"/>
+      <c r="I140" s="5"/>
+      <c r="J140" s="7"/>
+    </row>
+    <row r="141" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="B141" s="46"/>
+      <c r="C141" s="33"/>
+      <c r="D141" s="33"/>
+      <c r="E141" s="33"/>
+      <c r="F141" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="G141" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="H141" s="33"/>
+      <c r="I141" s="33"/>
+      <c r="J141" s="35"/>
+    </row>
+    <row r="142" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B142" s="47"/>
+      <c r="C142" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D142" s="3"/>
       <c r="E142" s="3" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="G142" s="4" t="s">
-        <v>16</v>
+        <v>119</v>
+      </c>
+      <c r="G142" s="37" t="s">
+        <v>102</v>
       </c>
       <c r="H142" s="3"/>
       <c r="I142" s="3"/>
       <c r="J142" s="11"/>
     </row>
-    <row r="143" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B143" s="14"/>
-      <c r="C143" s="3"/>
-      <c r="D143" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E143" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F143" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G143" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="H143" s="3"/>
-      <c r="I143" s="3"/>
-      <c r="J143" s="11"/>
-    </row>
-    <row r="144" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B144" s="14"/>
-      <c r="C144" s="3"/>
-      <c r="D144" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E144" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F144" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G144" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="H144" s="3"/>
-      <c r="I144" s="3"/>
-      <c r="J144" s="11"/>
-    </row>
+    <row r="143" spans="2:10" ht="36.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B143" s="48"/>
+      <c r="C143" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F143" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G143" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H143" s="8"/>
+      <c r="I143" s="8"/>
+      <c r="J143" s="12"/>
+    </row>
+    <row r="144" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="145" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B145" s="14"/>
-      <c r="C145" s="3"/>
-      <c r="D145" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E145" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F145" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="G145" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H145" s="3"/>
-      <c r="I145" s="3"/>
-      <c r="J145" s="11"/>
-    </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B146" s="14"/>
-      <c r="C146" s="3"/>
-      <c r="D146" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E146" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F146" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="G146" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H146" s="3"/>
-      <c r="I146" s="3"/>
-      <c r="J146" s="11"/>
-    </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B147" s="14"/>
-      <c r="C147" s="3"/>
-      <c r="D147" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E147" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F147" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="G147" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H147" s="3"/>
-      <c r="I147" s="3"/>
-      <c r="J147" s="11"/>
-    </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B148" s="14"/>
-      <c r="C148" s="3"/>
-      <c r="D148" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E148" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F148" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="G148" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H148" s="3"/>
-      <c r="I148" s="3"/>
-      <c r="J148" s="11"/>
-    </row>
-    <row r="149" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B149" s="14"/>
-      <c r="C149" s="3"/>
-      <c r="D149" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E149" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F149" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="G149" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="H149" s="3"/>
-      <c r="I149" s="3"/>
-      <c r="J149" s="11"/>
-    </row>
-    <row r="150" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B150" s="14"/>
-      <c r="C150" s="3"/>
-      <c r="D150" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E150" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F150" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="G150" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="H150" s="3"/>
-      <c r="I150" s="3"/>
-      <c r="J150" s="11"/>
-    </row>
-    <row r="151" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B151" s="14"/>
-      <c r="C151" s="3"/>
-      <c r="D151" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E151" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F151" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G151" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H151" s="3"/>
-      <c r="I151" s="3"/>
-      <c r="J151" s="11"/>
-    </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B152" s="14"/>
-      <c r="C152" s="3"/>
-      <c r="D152" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E152" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F152" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="G152" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H152" s="3"/>
-      <c r="I152" s="3"/>
-      <c r="J152" s="11"/>
-    </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B153" s="14"/>
-      <c r="C153" s="3"/>
-      <c r="D153" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E153" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F153" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="G153" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H153" s="3"/>
-      <c r="I153" s="3"/>
-      <c r="J153" s="11"/>
-    </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B154" s="14"/>
-      <c r="C154" s="3"/>
-      <c r="D154" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E154" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F154" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="G154" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H154" s="3"/>
-      <c r="I154" s="3"/>
-      <c r="J154" s="11"/>
-    </row>
-    <row r="155" spans="2:10" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="B155" s="14"/>
-      <c r="C155" s="3"/>
-      <c r="D155" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E155" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F155" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="G155" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="H155" s="3"/>
-      <c r="I155" s="3"/>
-      <c r="J155" s="11"/>
-    </row>
-    <row r="156" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B156" s="14"/>
-      <c r="C156" s="3"/>
-      <c r="D156" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E156" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F156" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="G156" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="H156" s="3"/>
-      <c r="I156" s="3"/>
-      <c r="J156" s="11"/>
-    </row>
-    <row r="157" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B157" s="14"/>
-      <c r="C157" s="3"/>
-      <c r="D157" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E157" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F157" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="G157" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="H157" s="3"/>
-      <c r="I157" s="3"/>
-      <c r="J157" s="11"/>
-    </row>
-    <row r="158" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B158" s="14"/>
-      <c r="C158" s="3"/>
-      <c r="D158" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E158" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F158" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="G158" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="H158" s="3"/>
-      <c r="I158" s="3"/>
-      <c r="J158" s="11"/>
-    </row>
-    <row r="159" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B159" s="14"/>
-      <c r="C159" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D159" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="E159" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F159" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="G159" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H159" s="15"/>
-      <c r="I159" s="15"/>
-      <c r="J159" s="17"/>
-    </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B160" s="14"/>
-      <c r="C160" s="15"/>
-      <c r="D160" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="E160" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F160" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="G160" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H160" s="15"/>
-      <c r="I160" s="15"/>
-      <c r="J160" s="17"/>
-    </row>
-    <row r="161" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B161" s="14"/>
-      <c r="C161" s="15"/>
-      <c r="D161" s="15"/>
-      <c r="E161" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="F161" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="G161" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="H161" s="15"/>
-      <c r="I161" s="15"/>
-      <c r="J161" s="17"/>
-    </row>
-    <row r="162" spans="2:10" ht="54.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B162" s="13"/>
-      <c r="C162" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D162" s="8"/>
-      <c r="E162" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F162" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="G162" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="H162" s="8"/>
-      <c r="I162" s="8"/>
-      <c r="J162" s="12"/>
-    </row>
-    <row r="163" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="164" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B164" s="45" t="s">
+      <c r="B145" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C145" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="D145" s="29"/>
+      <c r="E145" s="29"/>
+      <c r="F145" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="G145" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="H145" s="29"/>
+      <c r="I145" s="29"/>
+      <c r="J145" s="31"/>
+    </row>
+    <row r="146" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B146" s="50"/>
+      <c r="C146" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D146" s="21"/>
+      <c r="E146" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F146" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="C164" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D164" s="5"/>
-      <c r="E164" s="5"/>
-      <c r="F164" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="G164" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="H164" s="5"/>
-      <c r="I164" s="5"/>
-      <c r="J164" s="7"/>
-    </row>
-    <row r="165" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B165" s="46"/>
-      <c r="C165" s="34"/>
-      <c r="D165" s="34"/>
-      <c r="E165" s="34"/>
-      <c r="F165" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="G165" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="H165" s="34"/>
-      <c r="I165" s="34"/>
-      <c r="J165" s="36"/>
-    </row>
-    <row r="166" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B166" s="47"/>
-      <c r="C166" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D166" s="3"/>
-      <c r="E166" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F166" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="G166" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="H166" s="3"/>
-      <c r="I166" s="3"/>
-      <c r="J166" s="11"/>
-    </row>
-    <row r="167" spans="2:10" ht="36.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B167" s="48"/>
-      <c r="C167" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D167" s="8"/>
-      <c r="E167" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="F167" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="G167" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="H167" s="8"/>
-      <c r="I167" s="8"/>
-      <c r="J167" s="12"/>
-    </row>
-    <row r="168" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="169" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B169" s="49" t="s">
-        <v>124</v>
-      </c>
-      <c r="C169" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="D169" s="30"/>
-      <c r="E169" s="30"/>
-      <c r="F169" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="G169" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="H169" s="30"/>
-      <c r="I169" s="30"/>
-      <c r="J169" s="32"/>
-    </row>
-    <row r="170" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B170" s="50"/>
-      <c r="C170" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="D170" s="21"/>
-      <c r="E170" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="F170" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="G170" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="H170" s="21"/>
-      <c r="I170" s="21"/>
-      <c r="J170" s="23"/>
+      <c r="G146" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="H146" s="21"/>
+      <c r="I146" s="21"/>
+      <c r="J146" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B164:B167"/>
-    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="B140:B143"/>
+    <mergeCell ref="B145:B146"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="D66" r:id="rId1" xr:uid="{7FDE8C31-08F9-41BF-97DF-EDDFC1AE0B5C}"/>
+    <hyperlink ref="D66" r:id="rId1" xr:uid="{563C69F0-9FBA-4E3C-901A-EE63A4851C79}"/>
+    <hyperlink ref="D67" r:id="rId2" xr:uid="{8B0891C4-F863-48B4-93DD-0A676BD9557F}"/>
+    <hyperlink ref="D68" r:id="rId3" xr:uid="{CDABC36A-1C52-41AA-9A69-3C9E57C12703}"/>
+    <hyperlink ref="D69" r:id="rId4" xr:uid="{1A19BB5F-1FA7-4578-AEAD-F2BD922DEE97}"/>
+    <hyperlink ref="D70" r:id="rId5" xr:uid="{24D49DD0-4123-405E-B27E-9FADC2C90D99}"/>
+    <hyperlink ref="D71" r:id="rId6" xr:uid="{2BC4C4BE-A838-4F46-9C1C-8C2E15C7FAF1}"/>
+    <hyperlink ref="D72" r:id="rId7" xr:uid="{E807EEF5-6D8F-483D-A942-D3D770E1F4BC}"/>
+    <hyperlink ref="D73" r:id="rId8" xr:uid="{5D47C227-8B43-4893-B7CD-226AB12CD44E}"/>
+    <hyperlink ref="D74" r:id="rId9" xr:uid="{6FA7E201-7A6E-4843-B9C9-33C0A0E8F1E4}"/>
+    <hyperlink ref="D75" r:id="rId10" xr:uid="{CEC10B00-F227-4402-A18A-054A159FCD8B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/テストケース.xlsx
+++ b/テストケース.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5cf47586d75cb25/デスクトップ/workspace/workspace-nishimura/ProgramWork/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="8_{FB2C5B17-156F-4188-AF96-3C92834A6A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7079984-FCA9-4BFB-BBF9-B6CD72BCF1BE}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="8_{FB2C5B17-156F-4188-AF96-3C92834A6A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92A91FD5-2BC2-4112-B784-E4ABA2B7839B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3F064697-4038-4B0C-9CC7-D71FC7163C92}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="175">
   <si>
     <t>テストケース</t>
     <phoneticPr fontId="1"/>
@@ -91,20 +91,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>半角カタカナ</t>
-    <rPh sb="0" eb="2">
-      <t>ハンカク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>全角カタカナ</t>
-    <rPh sb="0" eb="2">
-      <t>ゼンカク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>期待値</t>
     <rPh sb="0" eb="3">
       <t>キタイチ</t>
@@ -319,39 +305,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ひらがな</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スペースのみ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>半角英字</t>
-    <rPh sb="0" eb="4">
-      <t>ハンカクエイジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>記号!</t>
-    <rPh sb="0" eb="2">
-      <t>キゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>記号！</t>
-    <rPh sb="0" eb="2">
-      <t>キゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>全角英字</t>
-    <rPh sb="0" eb="4">
-      <t>ゼンカクエイジ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -463,82 +417,6 @@
     <rPh sb="4" eb="8">
       <t>シクチョウソン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>漢字</t>
-    <rPh sb="0" eb="2">
-      <t>カンジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ひらがなと半角スペース</t>
-    <rPh sb="5" eb="7">
-      <t>ハンカク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ひらがなと全角スペース</t>
-    <rPh sb="5" eb="7">
-      <t>ゼンカク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>半角数字</t>
-    <rPh sb="0" eb="2">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>スウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ひらがなとハイフン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ハイフン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>伸ばし棒</t>
-    <rPh sb="0" eb="1">
-      <t>ノ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ボウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ひらがな101文字以上</t>
-    <rPh sb="7" eb="9">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>イジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>半角英字101文字以上</t>
-    <rPh sb="0" eb="4">
-      <t>ハンカクエイジ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>イジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ひらがなと!</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -684,16 +562,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>半角英数字スペース半角英数字</t>
-    <rPh sb="0" eb="5">
-      <t>ハンカクエイスウジ</t>
-    </rPh>
-    <rPh sb="9" eb="14">
-      <t>ハンカクエイスウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「半角数字7文字で入力してください」赤字でテキストボックスの下に表示される</t>
     <rPh sb="1" eb="5">
       <t>ハンカクスウジ</t>
@@ -851,13 +719,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ひらがな半角スペースひらがな</t>
-    <rPh sb="4" eb="6">
-      <t>ハンカク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ひらがな全角スペースひらがな</t>
     <rPh sb="4" eb="6">
       <t>ゼンカク</t>
@@ -892,66 +753,6 @@
       <t>シタ</t>
     </rPh>
     <rPh sb="67" eb="69">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「※住所（番地）が未入力です」赤字でテキストボックスの下に表示される</t>
-    <rPh sb="1" eb="4">
-      <t>コメジュウショ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>バンチ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>アカジ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「ひらがな、漢字、数字、カタカナ、ハイフン、スペースで入力してください」「100文字以内で入力してください」赤字でテキストボックスの下に表示される</t>
-    <rPh sb="40" eb="44">
-      <t>モジイナイ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>アカジ</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「100文字以内で入力してください」赤字でテキストボックスの下に表示される</t>
-    <rPh sb="4" eb="8">
-      <t>モジイナイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>アカジ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1192,35 +993,6 @@
     <t>「確認する」ボタン</t>
     <rPh sb="1" eb="3">
       <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>押してエラー表示または登録確認画面に遷移するか</t>
-    <rPh sb="0" eb="1">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="11" eb="17">
-      <t>トウロクカクニンガメン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エラーが出るか、regist_confirm.php(登録確認画面)に遷移する</t>
-    <rPh sb="4" eb="5">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="27" eb="33">
-      <t>トウロクカクニンガメン</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1965,13 +1737,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スペース半角英数字スペース</t>
-    <rPh sb="4" eb="9">
-      <t>ハンカクエイスウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ひらがな漢字カタカナ記号全角英数字10文字以下</t>
     <rPh sb="4" eb="6">
       <t>カンジ</t>
@@ -2075,16 +1840,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スペース半角数字7文字とスペース</t>
-    <rPh sb="4" eb="8">
-      <t>ハンカクスウジ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ひらがな漢字数字カタカナハイフンスペース10文字以下</t>
     <rPh sb="4" eb="6">
       <t>カンジ</t>
@@ -2098,10 +1853,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スペースひらがなスペース</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ひらがな漢字数字カタカナハイフンスペース11文字以上</t>
     <rPh sb="4" eb="6">
       <t>カンジ</t>
@@ -2124,6 +1875,311 @@
     </rPh>
     <rPh sb="7" eb="11">
       <t>モジイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半角英数字スペース半角英数字(合計10文字以下)</t>
+    <rPh sb="0" eb="5">
+      <t>ハンカクエイスウジ</t>
+    </rPh>
+    <rPh sb="9" eb="14">
+      <t>ハンカクエイスウジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>モジイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スペース半角英数字スペース(合計10文字以下)</t>
+    <rPh sb="4" eb="9">
+      <t>ハンカクエイスウジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スペース半角数字7文字スペース</t>
+    <rPh sb="4" eb="8">
+      <t>ハンカクスウジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スペースひらがな漢字数字カタカナハイフンスペース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひらがな漢字数字カタカナハイフン半角スペースひらがな漢字数字カタカナハイフン</t>
+    <rPh sb="16" eb="18">
+      <t>ハンカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひらがな漢字数字カタカナハイフンスペース100文字以下</t>
+    <rPh sb="4" eb="6">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="23" eb="27">
+      <t>モジイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>英字と記号100文字以下</t>
+    <rPh sb="0" eb="2">
+      <t>エイジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>モジイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひらがな漢字数字カタカナハイフンスペース101文字以上</t>
+    <rPh sb="4" eb="6">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="23" eb="27">
+      <t>モジイジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スペースひらがな漢字数字カタカナハイフンスペース(100文字以下)</t>
+    <rPh sb="28" eb="32">
+      <t>モジイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひらがな漢字数字カタカナハイフン半角スペースひらがな漢字数字カタカナハイフン(100)文字以下</t>
+    <rPh sb="16" eb="18">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="43" eb="47">
+      <t>モジイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひらがな全角スペースひらがな(100文字以下)</t>
+    <rPh sb="4" eb="6">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>モジイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>英字と記号101文字以上</t>
+    <rPh sb="0" eb="2">
+      <t>エイジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左記を実行</t>
+    <rPh sb="0" eb="2">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力内容が不十分、形式に沿ってない</t>
+    <rPh sb="0" eb="4">
+      <t>ニュウリョクナイヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>フジュウブン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>押してエラー表示されるか</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーが出て、そこに移動する</t>
+    <rPh sb="4" eb="5">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すべての項目が入力されている</t>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>regist_confirm.phpが読み込まれる</t>
+    <rPh sb="19" eb="20">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>regist_confirm.phpが読み込まれるか</t>
+    <rPh sb="19" eb="20">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー項目の上にマウスカーソルを合わせる</t>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストの色の変化</t>
+    <rPh sb="5" eb="6">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストの色が赤く変化する</t>
+    <rPh sb="5" eb="6">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録をクリックする</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択したことのある項目は薄い赤色に変化している</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ウス</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>アカイロ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニューバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>regist.phpが読み込まれる</t>
+    <rPh sb="11" eb="12">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページのロード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップをクリックする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>index.htmlが読み込まれる</t>
+    <rPh sb="11" eb="12">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>コ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2132,7 +2188,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2143,15 +2199,6 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -2196,7 +2243,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -2513,16 +2560,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2553,9 +2634,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2595,9 +2673,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2643,15 +2718,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2676,12 +2748,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2714,6 +2812,14 @@
 </file>
 
 <file path=xl/persons/person3.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person4.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person5.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -3014,2663 +3120,2521 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D25F908-8C24-448E-8107-DBDBAE93069C}">
-  <dimension ref="B2:K146"/>
+  <dimension ref="B2:K139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D106" sqref="D106"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="18.4140625" customWidth="1"/>
-    <col min="3" max="3" width="35.25" customWidth="1"/>
-    <col min="4" max="4" width="70.9140625" customWidth="1"/>
-    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="3" max="3" width="32.75" customWidth="1"/>
+    <col min="4" max="4" width="58.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="19.6640625" customWidth="1"/>
     <col min="7" max="7" width="38.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="216" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="38" t="s">
-        <v>123</v>
+      <c r="C2" s="36" t="s">
+        <v>99</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="4" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="43" t="s">
-        <v>68</v>
+      <c r="B4" s="40" t="s">
+        <v>51</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="54" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B5" s="44"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="55" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="8" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B8" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="25" t="s">
+      <c r="B8" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="25" t="s">
+      <c r="E8" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B9" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="2:10" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="57"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="2:10" ht="35.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="57"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B12" s="56"/>
+      <c r="C12" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="52"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="53"/>
+    </row>
+    <row r="14" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="C14" t="s">
+        <v>170</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" t="s">
+        <v>166</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="E15" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F15" t="s">
+        <v>172</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="13"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="I8" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="J8" s="26" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="20"/>
-    </row>
-    <row r="10" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="42"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="23"/>
-    </row>
-    <row r="11" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="12" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="7"/>
-    </row>
-    <row r="13" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="14"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="14"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="14"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="11"/>
-    </row>
-    <row r="16" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="14"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="11"/>
-    </row>
-    <row r="17" spans="2:10" ht="90" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="14"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>138</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="11"/>
-    </row>
-    <row r="18" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="14"/>
+      <c r="J17" s="10"/>
+    </row>
+    <row r="18" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="13"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>164</v>
+      <c r="D18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="11"/>
+      <c r="J18" s="10"/>
     </row>
     <row r="19" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="14"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>106</v>
+      <c r="D19" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="11"/>
-    </row>
-    <row r="20" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="14"/>
+      <c r="J19" s="10"/>
+    </row>
+    <row r="20" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="13"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>164</v>
+      <c r="D20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-      <c r="J20" s="11"/>
-    </row>
-    <row r="21" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="14"/>
+      <c r="J20" s="10"/>
+    </row>
+    <row r="21" spans="2:10" ht="90" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="13"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>164</v>
+      <c r="D21" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>19</v>
+        <v>114</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="11"/>
+      <c r="J21" s="10"/>
     </row>
     <row r="22" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="14"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>164</v>
+      <c r="D22" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="11"/>
+      <c r="J22" s="10"/>
     </row>
     <row r="23" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="14"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>104</v>
+      <c r="D23" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="11"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="14"/>
-      <c r="C24" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="F24" s="15" t="s">
+      <c r="J23" s="10"/>
+    </row>
+    <row r="24" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="13"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="10"/>
+    </row>
+    <row r="25" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="13"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="10"/>
+    </row>
+    <row r="26" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="13"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="10"/>
+    </row>
+    <row r="27" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="13"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="10"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="13"/>
+      <c r="C28" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="16"/>
+    </row>
+    <row r="29" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="13"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="16"/>
+    </row>
+    <row r="30" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="13"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="16"/>
+    </row>
+    <row r="31" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="13"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="G24" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="17"/>
-    </row>
-    <row r="25" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="G25" s="16" t="s">
+      <c r="E31" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G31" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="17"/>
-    </row>
-    <row r="26" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="14"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="F26" s="15" t="s">
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="16"/>
+    </row>
+    <row r="32" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="13"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="G26" s="16" t="s">
+      <c r="E32" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="16"/>
+    </row>
+    <row r="33" spans="2:10" ht="90" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="16"/>
+    </row>
+    <row r="34" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="13"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="16"/>
+    </row>
+    <row r="35" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="13"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="16"/>
+    </row>
+    <row r="36" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="13"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="16"/>
+    </row>
+    <row r="37" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" s="13"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="16"/>
+    </row>
+    <row r="38" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" s="13"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="16"/>
+    </row>
+    <row r="39" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" s="13"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="16"/>
+    </row>
+    <row r="40" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" s="13"/>
+      <c r="C40" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G40" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="17"/>
-    </row>
-    <row r="27" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="14"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="17"/>
-    </row>
-    <row r="28" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="14"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="17"/>
-    </row>
-    <row r="29" spans="2:10" ht="90" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="14"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="G29" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="17"/>
-    </row>
-    <row r="30" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="14"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="G30" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="17"/>
-    </row>
-    <row r="31" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="14"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="17"/>
-    </row>
-    <row r="32" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="14"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="G32" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="17"/>
-    </row>
-    <row r="33" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="14"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="G33" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="17"/>
-    </row>
-    <row r="34" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="14"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="G34" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="17"/>
-    </row>
-    <row r="35" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="14"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="F35" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="G35" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="17"/>
-    </row>
-    <row r="36" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="14"/>
-      <c r="C36" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="11"/>
-    </row>
-    <row r="37" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="14"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="11"/>
-    </row>
-    <row r="38" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="14"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="11"/>
-    </row>
-    <row r="39" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="14"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="11"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="14"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
-      <c r="J40" s="11"/>
+      <c r="J40" s="10"/>
     </row>
     <row r="41" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41" s="14"/>
+      <c r="B41" s="13"/>
       <c r="C41" s="3"/>
-      <c r="D41" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>103</v>
+      <c r="D41" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
-      <c r="J41" s="11"/>
+      <c r="J41" s="10"/>
     </row>
     <row r="42" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" s="14"/>
+      <c r="B42" s="13"/>
       <c r="C42" s="3"/>
-      <c r="D42" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>9</v>
+      <c r="D42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
-      <c r="J42" s="11"/>
+      <c r="J42" s="10"/>
     </row>
     <row r="43" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" s="14"/>
+      <c r="B43" s="13"/>
       <c r="C43" s="3"/>
-      <c r="D43" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>9</v>
+      <c r="D43" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
-      <c r="J43" s="11"/>
-    </row>
-    <row r="44" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="14"/>
+      <c r="J43" s="10"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" s="13"/>
       <c r="C44" s="3"/>
-      <c r="D44" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>9</v>
+      <c r="D44" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
-      <c r="J44" s="11"/>
-    </row>
-    <row r="45" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" s="14"/>
+      <c r="J44" s="10"/>
+    </row>
+    <row r="45" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45" s="13"/>
       <c r="C45" s="3"/>
-      <c r="D45" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>108</v>
+      <c r="D45" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
-      <c r="J45" s="11"/>
+      <c r="J45" s="10"/>
     </row>
     <row r="46" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="14"/>
+      <c r="B46" s="13"/>
       <c r="C46" s="3"/>
-      <c r="D46" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>9</v>
+      <c r="D46" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
-      <c r="J46" s="11"/>
-    </row>
-    <row r="47" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B47" s="14"/>
+      <c r="J46" s="10"/>
+    </row>
+    <row r="47" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47" s="13"/>
       <c r="C47" s="3"/>
-      <c r="D47" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>108</v>
+      <c r="D47" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
-      <c r="J47" s="11"/>
+      <c r="J47" s="10"/>
     </row>
     <row r="48" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" s="14"/>
+      <c r="B48" s="13"/>
       <c r="C48" s="3"/>
-      <c r="D48" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>9</v>
+      <c r="D48" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
-      <c r="J48" s="11"/>
-    </row>
-    <row r="49" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="14"/>
+      <c r="J48" s="10"/>
+    </row>
+    <row r="49" spans="2:11" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" s="13"/>
       <c r="C49" s="3"/>
-      <c r="D49" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" s="3" t="s">
+      <c r="D49" s="4" t="s">
         <v>107</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
-      <c r="J49" s="11"/>
-    </row>
-    <row r="50" spans="2:11" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="14"/>
+      <c r="J49" s="10"/>
+    </row>
+    <row r="50" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B50" s="13"/>
       <c r="C50" s="3"/>
-      <c r="D50" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>9</v>
+      <c r="D50" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
-      <c r="J50" s="11"/>
-    </row>
-    <row r="51" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B51" s="14"/>
-      <c r="C51" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D51" s="15" t="s">
+      <c r="J50" s="10"/>
+    </row>
+    <row r="51" spans="2:11" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="B51" s="13"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="10"/>
+    </row>
+    <row r="52" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" s="13"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="10"/>
+    </row>
+    <row r="53" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B53" s="13"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="10"/>
+    </row>
+    <row r="54" spans="2:11" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="B54" s="13"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="10"/>
+    </row>
+    <row r="55" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B55" s="13"/>
+      <c r="C55" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="1"/>
+    </row>
+    <row r="56" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B56" s="13"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="16"/>
+    </row>
+    <row r="57" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57" s="13"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="16"/>
+    </row>
+    <row r="58" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B58" s="13"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="16"/>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B59" s="13"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="16"/>
+    </row>
+    <row r="60" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B60" s="13"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G60" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="16"/>
+    </row>
+    <row r="61" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B61" s="13"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G61" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="16"/>
+    </row>
+    <row r="62" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B62" s="13"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F62" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G62" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="16"/>
+    </row>
+    <row r="63" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B63" s="13"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F63" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G63" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="16"/>
+    </row>
+    <row r="64" spans="2:11" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="B64" s="13"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E64" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F64" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G64" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="16"/>
+    </row>
+    <row r="65" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B65" s="13"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E65" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F65" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G65" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H65" s="14"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="16"/>
+    </row>
+    <row r="66" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="B66" s="13"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E66" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F66" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G66" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H66" s="14"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="16"/>
+    </row>
+    <row r="67" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B67" s="13"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E67" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F67" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G67" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H67" s="14"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="16"/>
+    </row>
+    <row r="68" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B68" s="13"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E68" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F68" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="G68" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="16"/>
+    </row>
+    <row r="69" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="B69" s="13"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E69" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F69" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G69" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="16"/>
+    </row>
+    <row r="70" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B70" s="13"/>
+      <c r="C70" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E51" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F51" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="G51" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="1"/>
-    </row>
-    <row r="52" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B52" s="14"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="G52" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="17"/>
-    </row>
-    <row r="53" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B53" s="14"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F53" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="G53" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="17"/>
-    </row>
-    <row r="54" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B54" s="14"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="E54" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F54" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="G54" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="17"/>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B55" s="14"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="G55" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="17"/>
-    </row>
-    <row r="56" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B56" s="14"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="E56" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F56" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="G56" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="17"/>
-    </row>
-    <row r="57" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B57" s="14"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="E57" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F57" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="G57" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="17"/>
-    </row>
-    <row r="58" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B58" s="14"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="E58" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F58" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="G58" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="17"/>
-    </row>
-    <row r="59" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B59" s="14"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E59" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F59" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="G59" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="17"/>
-    </row>
-    <row r="60" spans="2:11" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B60" s="14"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F60" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="G60" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="17"/>
-    </row>
-    <row r="61" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B61" s="14"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="E61" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F61" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="G61" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="17"/>
-    </row>
-    <row r="62" spans="2:11" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B62" s="14"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="E62" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F62" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="G62" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="17"/>
-    </row>
-    <row r="63" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B63" s="14"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="E63" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F63" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="G63" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="17"/>
-    </row>
-    <row r="64" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B64" s="14"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="E64" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F64" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="G64" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="17"/>
-    </row>
-    <row r="65" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B65" s="14"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="E65" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F65" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="G65" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="17"/>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B66" s="14"/>
-      <c r="C66" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D66" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="11"/>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B67" s="14"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="40" t="s">
-        <v>151</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="11"/>
-    </row>
-    <row r="68" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B68" s="14"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="40" t="s">
-        <v>152</v>
-      </c>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="11"/>
-    </row>
-    <row r="69" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B69" s="14"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="40" t="s">
-        <v>153</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="11"/>
-    </row>
-    <row r="70" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B70" s="14"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>9</v>
+      <c r="E70" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
-      <c r="J70" s="11"/>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B71" s="14"/>
+      <c r="J70" s="10"/>
+    </row>
+    <row r="71" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B71" s="13"/>
       <c r="C71" s="3"/>
-      <c r="D71" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F71" s="32"/>
-      <c r="G71" s="51"/>
+      <c r="D71" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
-      <c r="J71" s="11"/>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B72" s="14"/>
+      <c r="J71" s="10"/>
+    </row>
+    <row r="72" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B72" s="13"/>
       <c r="C72" s="3"/>
-      <c r="D72" s="40" t="s">
-        <v>156</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>9</v>
+      <c r="D72" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
-      <c r="J72" s="11"/>
+      <c r="J72" s="10"/>
     </row>
     <row r="73" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B73" s="14"/>
+      <c r="B73" s="13"/>
       <c r="C73" s="3"/>
-      <c r="D73" s="40" t="s">
-        <v>157</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>9</v>
+      <c r="D73" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
-      <c r="J73" s="11"/>
+      <c r="J73" s="10"/>
     </row>
     <row r="74" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B74" s="14"/>
+      <c r="B74" s="13"/>
       <c r="C74" s="3"/>
-      <c r="D74" s="40" t="s">
-        <v>158</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>9</v>
+      <c r="D74" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
-      <c r="J74" s="11"/>
+      <c r="J74" s="10"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B75" s="14"/>
+      <c r="B75" s="13"/>
       <c r="C75" s="3"/>
-      <c r="D75" s="40" t="s">
-        <v>159</v>
-      </c>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="4"/>
+      <c r="D75" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F75" s="30"/>
+      <c r="G75" s="38"/>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
-      <c r="J75" s="11"/>
-    </row>
-    <row r="76" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B76" s="14"/>
+      <c r="J75" s="10"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B76" s="13"/>
       <c r="C76" s="3"/>
-      <c r="D76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>9</v>
+      <c r="D76" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
-      <c r="J76" s="11"/>
+      <c r="J76" s="10"/>
     </row>
     <row r="77" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B77" s="14"/>
+      <c r="B77" s="13"/>
       <c r="C77" s="3"/>
-      <c r="D77" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>9</v>
+      <c r="D77" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
-      <c r="J77" s="11"/>
-    </row>
-    <row r="78" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B78" s="14"/>
+      <c r="J77" s="10"/>
+    </row>
+    <row r="78" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B78" s="13"/>
       <c r="C78" s="3"/>
-      <c r="D78" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F78" s="3"/>
+      <c r="D78" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="G78" s="4" t="s">
-        <v>148</v>
+        <v>52</v>
       </c>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
-      <c r="J78" s="11"/>
+      <c r="J78" s="10"/>
     </row>
     <row r="79" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B79" s="14"/>
+      <c r="B79" s="13"/>
       <c r="C79" s="3"/>
-      <c r="D79" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="D79" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F79" s="3"/>
+      <c r="G79" s="4"/>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
-      <c r="J79" s="11"/>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B80" s="14"/>
-      <c r="C80" s="18" t="s">
+      <c r="J79" s="10"/>
+    </row>
+    <row r="80" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B80" s="13"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="10"/>
+    </row>
+    <row r="81" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B81" s="13"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="10"/>
+    </row>
+    <row r="82" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="B82" s="13"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F82" s="3"/>
+      <c r="G82" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="10"/>
+    </row>
+    <row r="83" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B83" s="13"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="10"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B84" s="13"/>
+      <c r="C84" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D84" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="E84" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F84" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="G84" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H84" s="17"/>
+      <c r="I84" s="17"/>
+      <c r="J84" s="19"/>
+    </row>
+    <row r="85" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B85" s="13"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E85" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F85" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G85" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H85" s="14"/>
+      <c r="I85" s="14"/>
+      <c r="J85" s="16"/>
+    </row>
+    <row r="86" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B86" s="13"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="E86" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F86" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G86" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H86" s="14"/>
+      <c r="I86" s="14"/>
+      <c r="J86" s="16"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B87" s="13"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E87" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F87" s="15"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="14"/>
+      <c r="J87" s="16"/>
+    </row>
+    <row r="88" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B88" s="13"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F88" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G88" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H88" s="14"/>
+      <c r="I88" s="14"/>
+      <c r="J88" s="16"/>
+    </row>
+    <row r="89" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B89" s="13"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E89" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F89" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G89" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H89" s="14"/>
+      <c r="I89" s="14"/>
+      <c r="J89" s="16"/>
+    </row>
+    <row r="90" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B90" s="13"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="E90" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F90" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G90" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H90" s="14"/>
+      <c r="I90" s="14"/>
+      <c r="J90" s="16"/>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B91" s="13"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="E91" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F91" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G91" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H91" s="14"/>
+      <c r="I91" s="14"/>
+      <c r="J91" s="16"/>
+    </row>
+    <row r="92" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B92" s="13"/>
+      <c r="C92" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D80" s="15" t="s">
+      <c r="D92" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="10"/>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B93" s="13"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="10"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B94" s="13"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="10"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B95" s="13"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="10"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B96" s="13"/>
+      <c r="C96" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D96" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E96" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F96" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G96" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H96" s="14"/>
+      <c r="I96" s="14"/>
+      <c r="J96" s="16"/>
+    </row>
+    <row r="97" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B97" s="13"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="E97" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F97" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G97" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H97" s="14"/>
+      <c r="I97" s="14"/>
+      <c r="J97" s="16"/>
+    </row>
+    <row r="98" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B98" s="13"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="E98" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F98" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G98" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H98" s="14"/>
+      <c r="I98" s="14"/>
+      <c r="J98" s="16"/>
+    </row>
+    <row r="99" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B99" s="13"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="E99" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F99" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G99" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H99" s="14"/>
+      <c r="I99" s="14"/>
+      <c r="J99" s="16"/>
+    </row>
+    <row r="100" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B100" s="13"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E100" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F100" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G100" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H100" s="14"/>
+      <c r="I100" s="14"/>
+      <c r="J100" s="16"/>
+    </row>
+    <row r="101" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B101" s="13"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F101" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G101" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H101" s="14"/>
+      <c r="I101" s="14"/>
+      <c r="J101" s="16"/>
+    </row>
+    <row r="102" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B102" s="13"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E102" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F102" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G102" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H102" s="14"/>
+      <c r="I102" s="14"/>
+      <c r="J102" s="16"/>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B103" s="13"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="E103" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F103" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G103" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H103" s="14"/>
+      <c r="I103" s="14"/>
+      <c r="J103" s="16"/>
+    </row>
+    <row r="104" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B104" s="13"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E104" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F104" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G104" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H104" s="14"/>
+      <c r="I104" s="14"/>
+      <c r="J104" s="16"/>
+    </row>
+    <row r="105" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B105" s="13"/>
+      <c r="C105" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H105" s="3"/>
+      <c r="I105" s="3"/>
+      <c r="J105" s="10"/>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B106" s="13"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H106" s="3"/>
+      <c r="I106" s="3"/>
+      <c r="J106" s="10"/>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B107" s="13"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H107" s="3"/>
+      <c r="I107" s="3"/>
+      <c r="J107" s="10"/>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B108" s="13"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H108" s="3"/>
+      <c r="I108" s="3"/>
+      <c r="J108" s="10"/>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B109" s="13"/>
+      <c r="C109" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D109" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="E109" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F109" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G109" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H109" s="14"/>
+      <c r="I109" s="14"/>
+      <c r="J109" s="16"/>
+    </row>
+    <row r="110" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B110" s="13"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F110" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G110" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H110" s="14"/>
+      <c r="I110" s="14"/>
+      <c r="J110" s="16"/>
+    </row>
+    <row r="111" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B111" s="13"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E111" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F111" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G111" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H111" s="14"/>
+      <c r="I111" s="14"/>
+      <c r="J111" s="16"/>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B112" s="13"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="E80" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F80" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="G80" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H80" s="18"/>
-      <c r="I80" s="18"/>
-      <c r="J80" s="20"/>
-    </row>
-    <row r="81" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B81" s="14"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="E81" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F81" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="G81" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="17"/>
-    </row>
-    <row r="82" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B82" s="14"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="E82" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F82" s="16" t="s">
+      <c r="E112" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F112" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G112" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H112" s="14"/>
+      <c r="I112" s="14"/>
+      <c r="J112" s="16"/>
+    </row>
+    <row r="113" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B113" s="13"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="E113" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F113" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G113" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H113" s="14"/>
+      <c r="I113" s="14"/>
+      <c r="J113" s="16"/>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B114" s="13"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E114" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F114" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G114" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H114" s="14"/>
+      <c r="I114" s="14"/>
+      <c r="J114" s="16"/>
+    </row>
+    <row r="115" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="B115" s="13"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E115" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F115" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G115" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H115" s="14"/>
+      <c r="I115" s="14"/>
+      <c r="J115" s="16"/>
+    </row>
+    <row r="116" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B116" s="13"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E116" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F116" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G116" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H116" s="14"/>
+      <c r="I116" s="14"/>
+      <c r="J116" s="16"/>
+    </row>
+    <row r="117" spans="2:10" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="B117" s="13"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="G82" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="17"/>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B83" s="14"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="E83" s="15"/>
-      <c r="F83" s="16"/>
-      <c r="G83" s="16"/>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="17"/>
-    </row>
-    <row r="84" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B84" s="14"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E84" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F84" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="G84" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="17"/>
-    </row>
-    <row r="85" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B85" s="14"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E85" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F85" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="G85" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="17"/>
-    </row>
-    <row r="86" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B86" s="14"/>
-      <c r="C86" s="15"/>
-      <c r="D86" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E86" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F86" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="G86" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="17"/>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B87" s="14"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="E87" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F87" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="G87" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
-      <c r="J87" s="17"/>
-    </row>
-    <row r="88" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B88" s="14"/>
-      <c r="C88" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G88" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="11"/>
-    </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B89" s="14"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H89" s="3"/>
-      <c r="I89" s="3"/>
-      <c r="J89" s="11"/>
-    </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B90" s="14"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H90" s="3"/>
-      <c r="I90" s="3"/>
-      <c r="J90" s="11"/>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B91" s="14"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H91" s="3"/>
-      <c r="I91" s="3"/>
-      <c r="J91" s="11"/>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B92" s="14"/>
-      <c r="C92" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D92" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E92" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F92" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="G92" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
-      <c r="J92" s="17"/>
-    </row>
-    <row r="93" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B93" s="14"/>
-      <c r="C93" s="15"/>
-      <c r="D93" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="E93" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F93" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="G93" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="17"/>
-    </row>
-    <row r="94" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B94" s="14"/>
-      <c r="C94" s="15"/>
-      <c r="D94" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="E94" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F94" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="G94" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
-      <c r="J94" s="17"/>
-    </row>
-    <row r="95" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B95" s="14"/>
-      <c r="C95" s="15"/>
-      <c r="D95" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="E95" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F95" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="G95" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
-      <c r="J95" s="17"/>
-    </row>
-    <row r="96" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B96" s="14"/>
-      <c r="C96" s="15"/>
-      <c r="D96" s="15" t="s">
+      <c r="E117" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F117" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G117" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H117" s="14"/>
+      <c r="I117" s="14"/>
+      <c r="J117" s="16"/>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B118" s="13"/>
+      <c r="C118" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E96" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F96" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="G96" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="17"/>
-    </row>
-    <row r="97" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B97" s="14"/>
-      <c r="C97" s="15"/>
-      <c r="D97" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E97" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F97" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="G97" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
-      <c r="J97" s="17"/>
-    </row>
-    <row r="98" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B98" s="14"/>
-      <c r="C98" s="15"/>
-      <c r="D98" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E98" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F98" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="G98" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="17"/>
-    </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B99" s="14"/>
-      <c r="C99" s="15"/>
-      <c r="D99" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="E99" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F99" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="G99" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H99" s="15"/>
-      <c r="I99" s="15"/>
-      <c r="J99" s="17"/>
-    </row>
-    <row r="100" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B100" s="14"/>
-      <c r="C100" s="15"/>
-      <c r="D100" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E100" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F100" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="G100" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="17"/>
-    </row>
-    <row r="101" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B101" s="14"/>
-      <c r="C101" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G101" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H101" s="3"/>
-      <c r="I101" s="3"/>
-      <c r="J101" s="11"/>
-    </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B102" s="14"/>
-      <c r="C102" s="3"/>
-      <c r="D102" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G102" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H102" s="3"/>
-      <c r="I102" s="3"/>
-      <c r="J102" s="11"/>
-    </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B103" s="14"/>
-      <c r="C103" s="3"/>
-      <c r="D103" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="G103" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H103" s="3"/>
-      <c r="I103" s="3"/>
-      <c r="J103" s="11"/>
-    </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B104" s="14"/>
-      <c r="C104" s="3"/>
-      <c r="D104" s="3"/>
-      <c r="E104" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="G104" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H104" s="3"/>
-      <c r="I104" s="3"/>
-      <c r="J104" s="11"/>
-    </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B105" s="14"/>
-      <c r="C105" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D105" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="E105" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F105" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="G105" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="17"/>
-    </row>
-    <row r="106" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B106" s="14"/>
-      <c r="C106" s="15"/>
-      <c r="D106" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E106" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F106" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="G106" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="H106" s="15"/>
-      <c r="I106" s="15"/>
-      <c r="J106" s="17"/>
-    </row>
-    <row r="107" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B107" s="14"/>
-      <c r="C107" s="15"/>
-      <c r="D107" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E107" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F107" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="G107" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="17"/>
-    </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B108" s="14"/>
-      <c r="C108" s="15"/>
-      <c r="D108" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="E108" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F108" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="G108" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H108" s="15"/>
-      <c r="I108" s="15"/>
-      <c r="J108" s="17"/>
-    </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B109" s="14"/>
-      <c r="C109" s="15"/>
-      <c r="D109" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="E109" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F109" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="G109" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H109" s="15"/>
-      <c r="I109" s="15"/>
-      <c r="J109" s="17"/>
-    </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B110" s="14"/>
-      <c r="C110" s="15"/>
-      <c r="D110" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="E110" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F110" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="G110" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="17"/>
-    </row>
-    <row r="111" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B111" s="14"/>
-      <c r="C111" s="15"/>
-      <c r="D111" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="E111" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F111" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="G111" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="H111" s="15"/>
-      <c r="I111" s="15"/>
-      <c r="J111" s="17"/>
-    </row>
-    <row r="112" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B112" s="14"/>
-      <c r="C112" s="15"/>
-      <c r="D112" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="E112" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F112" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="G112" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H112" s="15"/>
-      <c r="I112" s="15"/>
-      <c r="J112" s="17"/>
-    </row>
-    <row r="113" spans="2:10" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="B113" s="14"/>
-      <c r="C113" s="15"/>
-      <c r="D113" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E113" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F113" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="G113" s="16" t="s">
+      <c r="D118" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F118" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H113" s="15"/>
-      <c r="I113" s="15"/>
-      <c r="J113" s="17"/>
-    </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B114" s="14"/>
-      <c r="C114" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F114" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G114" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H114" s="3"/>
-      <c r="I114" s="3"/>
-      <c r="J114" s="11"/>
-    </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B115" s="14"/>
-      <c r="C115" s="3"/>
-      <c r="D115" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F115" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G115" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H115" s="3"/>
-      <c r="I115" s="3"/>
-      <c r="J115" s="11"/>
-    </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B116" s="14"/>
-      <c r="C116" s="3"/>
-      <c r="D116" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E116" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F116" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G116" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H116" s="3"/>
-      <c r="I116" s="3"/>
-      <c r="J116" s="11"/>
-    </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B117" s="14"/>
-      <c r="C117" s="3"/>
-      <c r="D117" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G117" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H117" s="3"/>
-      <c r="I117" s="3"/>
-      <c r="J117" s="11"/>
-    </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B118" s="14"/>
-      <c r="C118" s="3"/>
-      <c r="D118" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F118" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="G118" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
-      <c r="J118" s="11"/>
+      <c r="J118" s="10"/>
     </row>
     <row r="119" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B119" s="14"/>
+      <c r="B119" s="13"/>
       <c r="C119" s="3"/>
-      <c r="D119" s="3" t="s">
+      <c r="D119" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E119" s="3" t="s">
-        <v>9</v>
+      <c r="E119" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
-      <c r="J119" s="11"/>
+      <c r="J119" s="10"/>
     </row>
     <row r="120" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B120" s="14"/>
+      <c r="B120" s="13"/>
       <c r="C120" s="3"/>
-      <c r="D120" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>9</v>
+      <c r="D120" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="H120" s="3"/>
       <c r="I120" s="3"/>
-      <c r="J120" s="11"/>
+      <c r="J120" s="10"/>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B121" s="14"/>
+      <c r="B121" s="13"/>
       <c r="C121" s="3"/>
-      <c r="D121" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>9</v>
+      <c r="D121" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
-      <c r="J121" s="11"/>
-    </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B122" s="14"/>
+      <c r="J121" s="10"/>
+    </row>
+    <row r="122" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B122" s="13"/>
       <c r="C122" s="3"/>
-      <c r="D122" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E122" s="3" t="s">
-        <v>9</v>
+      <c r="D122" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
-      <c r="J122" s="11"/>
+      <c r="J122" s="10"/>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B123" s="14"/>
+      <c r="B123" s="13"/>
       <c r="C123" s="3"/>
-      <c r="D123" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E123" s="3" t="s">
-        <v>9</v>
+      <c r="D123" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
-      <c r="J123" s="11"/>
-    </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B124" s="14"/>
+      <c r="J123" s="10"/>
+    </row>
+    <row r="124" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="B124" s="13"/>
       <c r="C124" s="3"/>
-      <c r="D124" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>9</v>
+      <c r="D124" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="H124" s="3"/>
       <c r="I124" s="3"/>
-      <c r="J124" s="11"/>
-    </row>
-    <row r="125" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B125" s="14"/>
+      <c r="J124" s="10"/>
+    </row>
+    <row r="125" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B125" s="13"/>
       <c r="C125" s="3"/>
-      <c r="D125" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E125" s="3" t="s">
-        <v>9</v>
+      <c r="D125" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="H125" s="3"/>
       <c r="I125" s="3"/>
-      <c r="J125" s="11"/>
-    </row>
-    <row r="126" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B126" s="14"/>
+      <c r="J125" s="10"/>
+    </row>
+    <row r="126" spans="2:10" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="B126" s="13"/>
       <c r="C126" s="3"/>
-      <c r="D126" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>9</v>
+      <c r="D126" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
-      <c r="J126" s="11"/>
-    </row>
-    <row r="127" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B127" s="14"/>
-      <c r="C127" s="3"/>
-      <c r="D127" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E127" s="3" t="s">
+      <c r="J126" s="10"/>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B127" s="13"/>
+      <c r="C127" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D127" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E127" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F127" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="G127" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H127" s="14"/>
+      <c r="I127" s="14"/>
+      <c r="J127" s="16"/>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B128" s="13"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E128" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F128" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="G128" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H128" s="14"/>
+      <c r="I128" s="14"/>
+      <c r="J128" s="16"/>
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B129" s="13"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="15"/>
+      <c r="E129" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F129" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G129" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="H129" s="14"/>
+      <c r="I129" s="14"/>
+      <c r="J129" s="16"/>
+    </row>
+    <row r="130" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B130" s="13"/>
+      <c r="C130" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E130" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F127" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G127" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H127" s="3"/>
-      <c r="I127" s="3"/>
-      <c r="J127" s="11"/>
-    </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B128" s="14"/>
-      <c r="C128" s="3"/>
-      <c r="D128" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E128" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F128" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G128" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H128" s="3"/>
-      <c r="I128" s="3"/>
-      <c r="J128" s="11"/>
-    </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B129" s="14"/>
-      <c r="C129" s="3"/>
-      <c r="D129" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F129" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G129" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H129" s="3"/>
-      <c r="I129" s="3"/>
-      <c r="J129" s="11"/>
-    </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B130" s="14"/>
-      <c r="C130" s="3"/>
-      <c r="D130" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E130" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F130" s="3" t="s">
-        <v>107</v>
+      <c r="F130" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
-      <c r="J130" s="11"/>
-    </row>
-    <row r="131" spans="2:10" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="B131" s="14"/>
-      <c r="C131" s="3"/>
-      <c r="D131" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E131" s="3" t="s">
+      <c r="J130" s="10"/>
+    </row>
+    <row r="131" spans="2:10" ht="36.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B131" s="12"/>
+      <c r="C131" s="48"/>
+      <c r="D131" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="E131" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="F131" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G131" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H131" s="3"/>
-      <c r="I131" s="3"/>
-      <c r="J131" s="11"/>
-    </row>
-    <row r="132" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B132" s="14"/>
-      <c r="C132" s="3"/>
-      <c r="D132" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E132" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F132" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G132" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H132" s="3"/>
-      <c r="I132" s="3"/>
-      <c r="J132" s="11"/>
-    </row>
-    <row r="133" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B133" s="14"/>
-      <c r="C133" s="3"/>
-      <c r="D133" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F133" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G133" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H133" s="3"/>
-      <c r="I133" s="3"/>
-      <c r="J133" s="11"/>
+      <c r="F131" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="G131" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="H131" s="48"/>
+      <c r="I131" s="48"/>
+      <c r="J131" s="50"/>
+    </row>
+    <row r="132" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="133" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B133" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
+      <c r="F133" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G133" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H133" s="5"/>
+      <c r="I133" s="5"/>
+      <c r="J133" s="7"/>
     </row>
     <row r="134" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B134" s="14"/>
-      <c r="C134" s="3"/>
-      <c r="D134" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E134" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F134" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G134" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H134" s="3"/>
-      <c r="I134" s="3"/>
-      <c r="J134" s="11"/>
-    </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B135" s="14"/>
-      <c r="C135" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D135" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E135" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F135" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="G135" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H135" s="15"/>
-      <c r="I135" s="15"/>
-      <c r="J135" s="17"/>
-    </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B136" s="14"/>
-      <c r="C136" s="15"/>
-      <c r="D136" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="E136" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F136" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="G136" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H136" s="15"/>
-      <c r="I136" s="15"/>
-      <c r="J136" s="17"/>
-    </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B137" s="14"/>
-      <c r="C137" s="15"/>
-      <c r="D137" s="15"/>
-      <c r="E137" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F137" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="G137" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="H137" s="15"/>
-      <c r="I137" s="15"/>
-      <c r="J137" s="17"/>
-    </row>
-    <row r="138" spans="2:10" ht="54.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B138" s="13"/>
-      <c r="C138" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D138" s="8"/>
-      <c r="E138" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F138" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="G138" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="H138" s="8"/>
-      <c r="I138" s="8"/>
-      <c r="J138" s="12"/>
-    </row>
-    <row r="139" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="140" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B140" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="C140" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D140" s="5"/>
-      <c r="E140" s="5"/>
-      <c r="F140" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="G140" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="H140" s="5"/>
-      <c r="I140" s="5"/>
-      <c r="J140" s="7"/>
-    </row>
-    <row r="141" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B141" s="46"/>
-      <c r="C141" s="33"/>
-      <c r="D141" s="33"/>
-      <c r="E141" s="33"/>
-      <c r="F141" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="G141" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="H141" s="33"/>
-      <c r="I141" s="33"/>
-      <c r="J141" s="35"/>
-    </row>
-    <row r="142" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B142" s="47"/>
-      <c r="C142" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D142" s="3"/>
-      <c r="E142" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F142" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="G142" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="H142" s="3"/>
-      <c r="I142" s="3"/>
-      <c r="J142" s="11"/>
-    </row>
-    <row r="143" spans="2:10" ht="36.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B143" s="48"/>
-      <c r="C143" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D143" s="8"/>
-      <c r="E143" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="F143" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="G143" s="9" t="s">
+      <c r="B134" s="43"/>
+      <c r="C134" s="31"/>
+      <c r="D134" s="34"/>
+      <c r="E134" s="34"/>
+      <c r="F134" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="G134" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="H134" s="31"/>
+      <c r="I134" s="31"/>
+      <c r="J134" s="33"/>
+    </row>
+    <row r="135" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B135" s="44"/>
+      <c r="C135" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D135" s="4"/>
+      <c r="E135" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F135" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="H143" s="8"/>
-      <c r="I143" s="8"/>
-      <c r="J143" s="12"/>
-    </row>
-    <row r="144" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B145" s="49" t="s">
+      <c r="G135" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="H135" s="3"/>
+      <c r="I135" s="3"/>
+      <c r="J135" s="10"/>
+    </row>
+    <row r="136" spans="2:10" ht="36.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B136" s="45"/>
+      <c r="C136" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D136" s="9"/>
+      <c r="E136" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F136" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G136" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H136" s="8"/>
+      <c r="I136" s="8"/>
+      <c r="J136" s="11"/>
+    </row>
+    <row r="137" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="138" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B138" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="C138" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D138" s="28"/>
+      <c r="E138" s="28"/>
+      <c r="F138" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="C145" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="D145" s="29"/>
-      <c r="E145" s="29"/>
-      <c r="F145" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="G145" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="H145" s="29"/>
-      <c r="I145" s="29"/>
-      <c r="J145" s="31"/>
-    </row>
-    <row r="146" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B146" s="50"/>
-      <c r="C146" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="D146" s="21"/>
-      <c r="E146" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="F146" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="G146" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="H146" s="21"/>
-      <c r="I146" s="21"/>
-      <c r="J146" s="23"/>
+      <c r="G138" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="H138" s="27"/>
+      <c r="I138" s="27"/>
+      <c r="J138" s="29"/>
+    </row>
+    <row r="139" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B139" s="47"/>
+      <c r="C139" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D139" s="21"/>
+      <c r="E139" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="F139" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="G139" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="H139" s="20"/>
+      <c r="I139" s="20"/>
+      <c r="J139" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B9:B10"/>
+  <mergeCells count="3">
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B140:B143"/>
-    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="B133:B136"/>
+    <mergeCell ref="B138:B139"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="D66" r:id="rId1" xr:uid="{563C69F0-9FBA-4E3C-901A-EE63A4851C79}"/>
-    <hyperlink ref="D67" r:id="rId2" xr:uid="{8B0891C4-F863-48B4-93DD-0A676BD9557F}"/>
-    <hyperlink ref="D68" r:id="rId3" xr:uid="{CDABC36A-1C52-41AA-9A69-3C9E57C12703}"/>
-    <hyperlink ref="D69" r:id="rId4" xr:uid="{1A19BB5F-1FA7-4578-AEAD-F2BD922DEE97}"/>
-    <hyperlink ref="D70" r:id="rId5" xr:uid="{24D49DD0-4123-405E-B27E-9FADC2C90D99}"/>
-    <hyperlink ref="D71" r:id="rId6" xr:uid="{2BC4C4BE-A838-4F46-9C1C-8C2E15C7FAF1}"/>
-    <hyperlink ref="D72" r:id="rId7" xr:uid="{E807EEF5-6D8F-483D-A942-D3D770E1F4BC}"/>
-    <hyperlink ref="D73" r:id="rId8" xr:uid="{5D47C227-8B43-4893-B7CD-226AB12CD44E}"/>
-    <hyperlink ref="D74" r:id="rId9" xr:uid="{6FA7E201-7A6E-4843-B9C9-33C0A0E8F1E4}"/>
-    <hyperlink ref="D75" r:id="rId10" xr:uid="{CEC10B00-F227-4402-A18A-054A159FCD8B}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/テストケース.xlsx
+++ b/テストケース.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5cf47586d75cb25/デスクトップ/workspace/workspace-nishimura/ProgramWork/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="8_{FB2C5B17-156F-4188-AF96-3C92834A6A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92A91FD5-2BC2-4112-B784-E4ABA2B7839B}"/>
+  <xr:revisionPtr revIDLastSave="106" documentId="8_{FB2C5B17-156F-4188-AF96-3C92834A6A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B557D435-2A35-44DB-BE08-6B36B03FC6FD}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3F064697-4038-4B0C-9CC7-D71FC7163C92}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="238">
   <si>
     <t>テストケース</t>
     <phoneticPr fontId="1"/>
@@ -799,16 +800,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>regist_complete.php(登録完了画面)に遷移する</t>
-    <rPh sb="20" eb="26">
-      <t>トウロクカンリョウガメン</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>regist_complete.php
 登録完了画面</t>
     <rPh sb="20" eb="26">
@@ -858,17 +849,6 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>regist.php(アカウント登録画面)に遷移する
-前のページの入力内容が保持されている</t>
-    <rPh sb="16" eb="20">
-      <t>トウロクガメン</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2180,6 +2160,665 @@
     </rPh>
     <rPh sb="13" eb="14">
       <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男をクリックして確認ボタンを押す</t>
+    <rPh sb="0" eb="1">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女をクリックして確認ボタンを押す</t>
+    <rPh sb="0" eb="1">
+      <t>オンナ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男をクリックしてから女をクリックして確認ボタンを押す</t>
+    <rPh sb="0" eb="1">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オンナ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結合テスト</t>
+    <rPh sb="0" eb="2">
+      <t>ケツゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マウスカーソルを合わせる</t>
+    <rPh sb="8" eb="9">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタンを認識し色が変わる</t>
+    <rPh sb="4" eb="6">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタンを認識</t>
+    <rPh sb="4" eb="6">
+      <t>ニンシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カーソルの認識、
+テキストの色の変化</t>
+    <rPh sb="5" eb="7">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見て確認</t>
+    <rPh sb="0" eb="1">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>regist_complete.phpが読み込まれる</t>
+    <rPh sb="20" eb="21">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「アカウント登録完了画面」と表示されている</t>
+    <rPh sb="6" eb="12">
+      <t>トウロクカンリョウガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>index.html→regist.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録のリンク</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（姓）</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正しく値が受け継がれているか</t>
+    <rPh sb="0" eb="1">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（名）</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナ（姓）</t>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メイ（名）</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>性別</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>郵便番号</t>
+    <rPh sb="0" eb="4">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（都道府県）</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>トドウフケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（市区町村）</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>シクチョウソン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（番地）</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント権限</t>
+    <rPh sb="5" eb="7">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録画面で入力した値</t>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>regist.php→regist_confirm.php
+(アカウント登録画面→登録確認画面)</t>
+    <rPh sb="36" eb="40">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="41" eb="47">
+      <t>トウロクカクニンガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録画面で入力した値(●で表示)</t>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録画面で入力した値(男か女で表示)</t>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オンナ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録画面で入力した値(一般か管理者で表示)</t>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>値は男なら0、女なら1</t>
+    <rPh sb="0" eb="1">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オンナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>値は一般なら0、管理者なら1</t>
+    <rPh sb="0" eb="1">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>regist_confirm.php→regist.php
+(登録確認画面→アカウント登録画面)</t>
+    <rPh sb="31" eb="33">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録画面で選んだほうのラジオボタンが押されている</t>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前に戻るボタンを押して見て確認</t>
+    <rPh sb="0" eb="1">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認ボタンを押して見て確認</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力した内容の保持</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>regist_confirm.php→regist_complete.php
+(登録確認画面→登録完了画面)</t>
+    <rPh sb="40" eb="46">
+      <t>トウロクカクニンガメン</t>
+    </rPh>
+    <rPh sb="47" eb="53">
+      <t>トウロクカンリョウガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録ボタンを押す</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録完了画面が表示される</t>
+    <rPh sb="0" eb="6">
+      <t>トウロクカンリョウガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>regist_complete.php→データベース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベースを見て確認</t>
+    <rPh sb="7" eb="8">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>family_name  名前（姓）</t>
+    <rPh sb="13" eb="15">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>last_name  名前（名）</t>
+    <rPh sb="11" eb="13">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mail  メールアドレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>family_name_kana  カナ（姓）</t>
+    <rPh sb="21" eb="22">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>last_name_kana  メイ（名）</t>
+    <rPh sb="19" eb="20">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>password  パスワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gender  性別</t>
+    <rPh sb="8" eb="10">
+      <t>セイベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>postal_code  郵便番号</t>
+    <rPh sb="13" eb="17">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>prefecture  住所（都道府県）</t>
+    <rPh sb="12" eb="14">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>トドウフケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>address_1  住所（市区町村）</t>
+    <rPh sb="11" eb="13">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>シクチョウソン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>address_2  住所（番地）</t>
+    <rPh sb="11" eb="13">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>authority  アカウント権限</t>
+    <rPh sb="16" eb="18">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>delete_flag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>registered_time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>update_time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベースに登録できているか</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1から順番に登録されていく</t>
+    <rPh sb="3" eb="5">
+      <t>ジュンバン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハッシュ化された値</t>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録画面で選択したのが男なら0
+女なら1</t>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オンナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録画面で選択したのが一般なら0
+管理者なら1</t>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>regist_complete.phpが読み込まれた日時</t>
+    <rPh sb="20" eb="21">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ニチジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2243,7 +2882,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -2321,21 +2960,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -2537,20 +3161,33 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -2561,13 +3198,39 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -2580,20 +3243,20 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -2603,7 +3266,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2622,28 +3285,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
@@ -2652,25 +3309,28 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1">
@@ -2679,10 +3339,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
@@ -2694,89 +3351,107 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2820,6 +3495,10 @@
 </file>
 
 <file path=xl/persons/person5.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person6.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -3120,10 +3799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D25F908-8C24-448E-8107-DBDBAE93069C}">
-  <dimension ref="B2:K139"/>
+  <dimension ref="B2:K152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3137,1616 +3816,1627 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="216" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="36" t="s">
-        <v>99</v>
+      <c r="C2" s="32" t="s">
+        <v>97</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="4" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="43" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="39" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B5" s="41"/>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="44"/>
+      <c r="C5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="40" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="8" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="I8" s="23" t="s">
+      <c r="I8" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="J8" s="22" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="27"/>
+    </row>
+    <row r="10" spans="2:10" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="42"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="27"/>
+    </row>
+    <row r="11" spans="2:10" ht="35.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="42"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="G11" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="27"/>
+    </row>
+    <row r="12" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B12" s="41"/>
+      <c r="C12" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="36"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="37"/>
+    </row>
+    <row r="13" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="14" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="G14" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="7"/>
-    </row>
-    <row r="10" spans="2:10" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="57"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="7"/>
-    </row>
-    <row r="11" spans="2:10" ht="35.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="57"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="27"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="G15" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="7"/>
-    </row>
-    <row r="12" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B12" s="56"/>
-      <c r="C12" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="52"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="53"/>
-    </row>
-    <row r="14" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="C14" t="s">
-        <v>170</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F14" t="s">
-        <v>166</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="E15" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F15" t="s">
-        <v>172</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="14"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="11"/>
+      <c r="C16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G16" s="6" t="s">
+      <c r="D16" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="7"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="8"/>
     </row>
     <row r="17" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="13"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" s="4" t="s">
+      <c r="B17" s="11"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="10"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="29"/>
     </row>
     <row r="18" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="13"/>
+      <c r="B18" s="11"/>
       <c r="C18" s="3"/>
       <c r="D18" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="10"/>
+      <c r="J18" s="8"/>
     </row>
     <row r="19" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="13"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="3"/>
       <c r="D19" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="10"/>
+      <c r="J19" s="8"/>
     </row>
     <row r="20" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="13"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="3"/>
       <c r="D20" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-      <c r="J20" s="10"/>
+      <c r="J20" s="8"/>
     </row>
     <row r="21" spans="2:10" ht="90" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="13"/>
+      <c r="B21" s="11"/>
       <c r="C21" s="3"/>
       <c r="D21" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="G21" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="10"/>
+      <c r="J21" s="8"/>
     </row>
     <row r="22" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="13"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="3"/>
       <c r="D22" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="10"/>
+      <c r="J22" s="8"/>
     </row>
     <row r="23" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="13"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="3"/>
       <c r="D23" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="10"/>
+      <c r="J23" s="8"/>
     </row>
     <row r="24" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="13"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="3"/>
       <c r="D24" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="10"/>
+      <c r="J24" s="8"/>
     </row>
     <row r="25" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="13"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="3"/>
       <c r="D25" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="10"/>
+      <c r="J25" s="8"/>
     </row>
     <row r="26" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="13"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="3"/>
       <c r="D26" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="10"/>
+      <c r="J26" s="8"/>
     </row>
     <row r="27" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="13"/>
+      <c r="B27" s="11"/>
       <c r="C27" s="3"/>
       <c r="D27" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="10"/>
+      <c r="J27" s="8"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="13"/>
-      <c r="C28" s="14" t="s">
+      <c r="B28" s="11"/>
+      <c r="C28" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="14"/>
+    </row>
+    <row r="29" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="11"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="14"/>
+    </row>
+    <row r="30" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="11"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="14"/>
+    </row>
+    <row r="31" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="11"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="E28" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F28" s="14" t="s">
+      <c r="E31" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="14"/>
+    </row>
+    <row r="32" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="11"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="14"/>
+    </row>
+    <row r="33" spans="2:10" ht="90" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="11"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="14"/>
+    </row>
+    <row r="34" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="11"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="14"/>
+    </row>
+    <row r="35" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="11"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F35" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="G28" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="16"/>
-    </row>
-    <row r="29" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="13"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="16"/>
-    </row>
-    <row r="30" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="13"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="16"/>
-    </row>
-    <row r="31" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="13"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F31" s="14" t="s">
+      <c r="G35" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="14"/>
+    </row>
+    <row r="36" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="11"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="14"/>
+    </row>
+    <row r="37" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" s="11"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F37" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="G31" s="15" t="s">
+      <c r="G37" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="14"/>
+    </row>
+    <row r="38" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" s="11"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G38" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="16"/>
-    </row>
-    <row r="32" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="13"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="16"/>
-    </row>
-    <row r="33" spans="2:10" ht="90" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="13"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="G33" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="16"/>
-    </row>
-    <row r="34" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="13"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F34" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="G34" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="16"/>
-    </row>
-    <row r="35" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="13"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F35" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="G35" s="15" t="s">
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="14"/>
+    </row>
+    <row r="39" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" s="11"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G39" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="16"/>
-    </row>
-    <row r="36" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="13"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="G36" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="16"/>
-    </row>
-    <row r="37" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="13"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="G37" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="16"/>
-    </row>
-    <row r="38" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="13"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F38" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="G38" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="16"/>
-    </row>
-    <row r="39" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="13"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="G39" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="16"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="14"/>
     </row>
     <row r="40" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="13"/>
+      <c r="B40" s="11"/>
       <c r="C40" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
-      <c r="J40" s="10"/>
+      <c r="J40" s="8"/>
     </row>
     <row r="41" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41" s="13"/>
+      <c r="B41" s="11"/>
       <c r="C41" s="3"/>
       <c r="D41" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
-      <c r="J41" s="10"/>
+      <c r="J41" s="8"/>
     </row>
     <row r="42" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" s="13"/>
+      <c r="B42" s="11"/>
       <c r="C42" s="3"/>
       <c r="D42" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
-      <c r="J42" s="10"/>
+      <c r="J42" s="8"/>
     </row>
     <row r="43" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" s="13"/>
+      <c r="B43" s="11"/>
       <c r="C43" s="3"/>
       <c r="D43" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
-      <c r="J43" s="10"/>
+      <c r="J43" s="8"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="13"/>
+      <c r="B44" s="11"/>
       <c r="C44" s="3"/>
       <c r="D44" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
-      <c r="J44" s="10"/>
+      <c r="J44" s="8"/>
     </row>
     <row r="45" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" s="13"/>
+      <c r="B45" s="11"/>
       <c r="C45" s="3"/>
       <c r="D45" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
-      <c r="J45" s="10"/>
+      <c r="J45" s="8"/>
     </row>
     <row r="46" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="13"/>
+      <c r="B46" s="11"/>
       <c r="C46" s="3"/>
       <c r="D46" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
-      <c r="J46" s="10"/>
+      <c r="J46" s="8"/>
     </row>
     <row r="47" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B47" s="13"/>
+      <c r="B47" s="11"/>
       <c r="C47" s="3"/>
       <c r="D47" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
-      <c r="J47" s="10"/>
+      <c r="J47" s="8"/>
     </row>
     <row r="48" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" s="13"/>
+      <c r="B48" s="11"/>
       <c r="C48" s="3"/>
       <c r="D48" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
-      <c r="J48" s="10"/>
+      <c r="J48" s="8"/>
     </row>
     <row r="49" spans="2:11" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="13"/>
+      <c r="B49" s="11"/>
       <c r="C49" s="3"/>
       <c r="D49" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
-      <c r="J49" s="10"/>
+      <c r="J49" s="8"/>
     </row>
     <row r="50" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="13"/>
+      <c r="B50" s="11"/>
       <c r="C50" s="3"/>
       <c r="D50" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
-      <c r="J50" s="10"/>
+      <c r="J50" s="8"/>
     </row>
     <row r="51" spans="2:11" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B51" s="13"/>
+      <c r="B51" s="11"/>
       <c r="C51" s="3"/>
       <c r="D51" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
-      <c r="J51" s="10"/>
+      <c r="J51" s="8"/>
     </row>
     <row r="52" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B52" s="13"/>
+      <c r="B52" s="11"/>
       <c r="C52" s="3"/>
       <c r="D52" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
-      <c r="J52" s="10"/>
+      <c r="J52" s="8"/>
     </row>
     <row r="53" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B53" s="13"/>
+      <c r="B53" s="11"/>
       <c r="C53" s="3"/>
       <c r="D53" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
-      <c r="J53" s="10"/>
+      <c r="J53" s="8"/>
     </row>
     <row r="54" spans="2:11" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B54" s="13"/>
+      <c r="B54" s="11"/>
       <c r="C54" s="3"/>
       <c r="D54" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
-      <c r="J54" s="10"/>
+      <c r="J54" s="8"/>
     </row>
     <row r="55" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B55" s="13"/>
-      <c r="C55" s="14" t="s">
+      <c r="B55" s="11"/>
+      <c r="C55" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D55" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F55" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G55" s="15" t="s">
+      <c r="D55" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G55" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="16"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="14"/>
       <c r="K55" s="1"/>
     </row>
     <row r="56" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B56" s="13"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="15" t="s">
+      <c r="B56" s="11"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="14"/>
+    </row>
+    <row r="57" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57" s="11"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="14"/>
+    </row>
+    <row r="58" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B58" s="11"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="E56" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F56" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="G56" s="15" t="s">
+      <c r="E58" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="14"/>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B59" s="11"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="14"/>
+    </row>
+    <row r="60" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B60" s="11"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G60" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="16"/>
-    </row>
-    <row r="57" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B57" s="13"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F57" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="G57" s="15" t="s">
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="14"/>
+    </row>
+    <row r="61" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B61" s="11"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G61" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="16"/>
-    </row>
-    <row r="58" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B58" s="13"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="E58" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F58" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="G58" s="15" t="s">
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="14"/>
+    </row>
+    <row r="62" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B62" s="11"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G62" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H58" s="14"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="16"/>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B59" s="13"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="E59" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F59" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G59" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="16"/>
-    </row>
-    <row r="60" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B60" s="13"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="15" t="s">
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="14"/>
+    </row>
+    <row r="63" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B63" s="11"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="14"/>
+    </row>
+    <row r="64" spans="2:11" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="B64" s="11"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="14"/>
+    </row>
+    <row r="65" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B65" s="11"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G65" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="14"/>
+    </row>
+    <row r="66" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="B66" s="11"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G66" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="14"/>
+    </row>
+    <row r="67" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B67" s="11"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G67" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="14"/>
+    </row>
+    <row r="68" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B68" s="11"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="E60" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F60" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="G60" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="16"/>
-    </row>
-    <row r="61" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B61" s="13"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="E61" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F61" s="14" t="s">
+      <c r="E68" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F68" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="G61" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H61" s="14"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="16"/>
-    </row>
-    <row r="62" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B62" s="13"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="E62" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F62" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G62" s="15" t="s">
+      <c r="G68" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H62" s="14"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="16"/>
-    </row>
-    <row r="63" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B63" s="13"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="E63" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F63" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G63" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H63" s="14"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="16"/>
-    </row>
-    <row r="64" spans="2:11" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B64" s="13"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="E64" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F64" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="G64" s="15" t="s">
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="14"/>
+    </row>
+    <row r="69" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="B69" s="11"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G69" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H64" s="14"/>
-      <c r="I64" s="14"/>
-      <c r="J64" s="16"/>
-    </row>
-    <row r="65" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B65" s="13"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="E65" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F65" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G65" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H65" s="14"/>
-      <c r="I65" s="14"/>
-      <c r="J65" s="16"/>
-    </row>
-    <row r="66" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B66" s="13"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="E66" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F66" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="G66" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H66" s="14"/>
-      <c r="I66" s="14"/>
-      <c r="J66" s="16"/>
-    </row>
-    <row r="67" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B67" s="13"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="E67" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F67" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G67" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H67" s="14"/>
-      <c r="I67" s="14"/>
-      <c r="J67" s="16"/>
-    </row>
-    <row r="68" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B68" s="13"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E68" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F68" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="G68" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H68" s="14"/>
-      <c r="I68" s="14"/>
-      <c r="J68" s="16"/>
-    </row>
-    <row r="69" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B69" s="13"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="E69" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F69" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G69" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H69" s="14"/>
-      <c r="I69" s="14"/>
-      <c r="J69" s="16"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="14"/>
     </row>
     <row r="70" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B70" s="13"/>
+      <c r="B70" s="11"/>
       <c r="C70" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
-      <c r="J70" s="10"/>
+      <c r="J70" s="8"/>
     </row>
     <row r="71" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B71" s="13"/>
+      <c r="B71" s="11"/>
       <c r="C71" s="3"/>
       <c r="D71" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
-      <c r="J71" s="10"/>
+      <c r="J71" s="8"/>
     </row>
     <row r="72" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B72" s="13"/>
+      <c r="B72" s="11"/>
       <c r="C72" s="3"/>
       <c r="D72" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>52</v>
       </c>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
-      <c r="J72" s="10"/>
+      <c r="J72" s="8"/>
     </row>
     <row r="73" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B73" s="13"/>
+      <c r="B73" s="11"/>
       <c r="C73" s="3"/>
       <c r="D73" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>52</v>
       </c>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
-      <c r="J73" s="10"/>
+      <c r="J73" s="8"/>
     </row>
     <row r="74" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B74" s="13"/>
+      <c r="B74" s="11"/>
       <c r="C74" s="3"/>
       <c r="D74" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>52</v>
       </c>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
-      <c r="J74" s="10"/>
+      <c r="J74" s="8"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B75" s="13"/>
+      <c r="B75" s="11"/>
       <c r="C75" s="3"/>
       <c r="D75" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F75" s="30"/>
-      <c r="G75" s="38"/>
+        <v>137</v>
+      </c>
+      <c r="F75" s="60"/>
+      <c r="G75" s="61"/>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
-      <c r="J75" s="10"/>
+      <c r="J75" s="8"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B76" s="13"/>
+      <c r="B76" s="11"/>
       <c r="C76" s="3"/>
       <c r="D76" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
-      <c r="J76" s="10"/>
+      <c r="J76" s="8"/>
     </row>
     <row r="77" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B77" s="13"/>
+      <c r="B77" s="11"/>
       <c r="C77" s="3"/>
       <c r="D77" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>52</v>
       </c>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
-      <c r="J77" s="10"/>
+      <c r="J77" s="8"/>
     </row>
     <row r="78" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B78" s="13"/>
+      <c r="B78" s="11"/>
       <c r="C78" s="3"/>
       <c r="D78" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>52</v>
       </c>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
-      <c r="J78" s="10"/>
+      <c r="J78" s="8"/>
     </row>
     <row r="79" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B79" s="13"/>
+      <c r="B79" s="11"/>
       <c r="C79" s="3"/>
       <c r="D79" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F79" s="3"/>
       <c r="G79" s="4"/>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
-      <c r="J79" s="10"/>
+      <c r="J79" s="8"/>
     </row>
     <row r="80" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B80" s="13"/>
+      <c r="B80" s="11"/>
       <c r="C80" s="3"/>
       <c r="D80" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>53</v>
       </c>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
-      <c r="J80" s="10"/>
+      <c r="J80" s="8"/>
     </row>
     <row r="81" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B81" s="13"/>
+      <c r="B81" s="11"/>
       <c r="C81" s="3"/>
       <c r="D81" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>53</v>
       </c>
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
-      <c r="J81" s="10"/>
+      <c r="J81" s="8"/>
     </row>
     <row r="82" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B82" s="13"/>
+      <c r="B82" s="11"/>
       <c r="C82" s="3"/>
       <c r="D82" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F82" s="3"/>
       <c r="G82" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
-      <c r="J82" s="10"/>
+      <c r="J82" s="8"/>
     </row>
     <row r="83" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B83" s="13"/>
+      <c r="B83" s="11"/>
       <c r="C83" s="3"/>
       <c r="D83" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
-      <c r="J83" s="10"/>
+      <c r="J83" s="8"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B84" s="13"/>
-      <c r="C84" s="17" t="s">
+      <c r="B84" s="11"/>
+      <c r="C84" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D84" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="E84" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="F84" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="G84" s="15" t="s">
+      <c r="D84" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E84" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="F84" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="G84" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H84" s="17"/>
-      <c r="I84" s="17"/>
-      <c r="J84" s="19"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="17"/>
     </row>
     <row r="85" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B85" s="13"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="15" t="s">
+      <c r="B85" s="11"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F85" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G85" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H85" s="12"/>
+      <c r="I85" s="12"/>
+      <c r="J85" s="14"/>
+    </row>
+    <row r="86" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B86" s="11"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="E86" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F86" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G86" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
+      <c r="J86" s="14"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B87" s="11"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="E85" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F85" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G85" s="15" t="s">
+      <c r="E87" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F87" s="13"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="12"/>
+      <c r="J87" s="14"/>
+    </row>
+    <row r="88" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B88" s="11"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F88" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G88" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H88" s="12"/>
+      <c r="I88" s="12"/>
+      <c r="J88" s="14"/>
+    </row>
+    <row r="89" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B89" s="11"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G89" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H89" s="12"/>
+      <c r="I89" s="12"/>
+      <c r="J89" s="14"/>
+    </row>
+    <row r="90" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B90" s="11"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E90" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F90" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G90" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="H85" s="14"/>
-      <c r="I85" s="14"/>
-      <c r="J85" s="16"/>
-    </row>
-    <row r="86" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B86" s="13"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="E86" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F86" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="G86" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H86" s="14"/>
-      <c r="I86" s="14"/>
-      <c r="J86" s="16"/>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B87" s="13"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="E87" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F87" s="15"/>
-      <c r="G87" s="15"/>
-      <c r="H87" s="14"/>
-      <c r="I87" s="14"/>
-      <c r="J87" s="16"/>
-    </row>
-    <row r="88" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B88" s="13"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E88" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F88" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="G88" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="H88" s="14"/>
-      <c r="I88" s="14"/>
-      <c r="J88" s="16"/>
-    </row>
-    <row r="89" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B89" s="13"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E89" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F89" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="G89" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="H89" s="14"/>
-      <c r="I89" s="14"/>
-      <c r="J89" s="16"/>
-    </row>
-    <row r="90" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B90" s="13"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="E90" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F90" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G90" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="H90" s="14"/>
-      <c r="I90" s="14"/>
-      <c r="J90" s="16"/>
+      <c r="H90" s="12"/>
+      <c r="I90" s="12"/>
+      <c r="J90" s="14"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B91" s="13"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="E91" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F91" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G91" s="15" t="s">
+      <c r="B91" s="11"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E91" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F91" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G91" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H91" s="14"/>
-      <c r="I91" s="14"/>
-      <c r="J91" s="16"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="12"/>
+      <c r="J91" s="14"/>
     </row>
     <row r="92" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B92" s="13"/>
+      <c r="B92" s="11"/>
       <c r="C92" s="3" t="s">
         <v>35</v>
       </c>
@@ -4754,250 +5444,250 @@
         <v>8</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G92" s="4" t="s">
         <v>57</v>
       </c>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
-      <c r="J92" s="10"/>
-    </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B93" s="13"/>
+      <c r="J92" s="8"/>
+    </row>
+    <row r="93" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B93" s="11"/>
       <c r="C93" s="3"/>
       <c r="D93" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
-      <c r="J93" s="10"/>
-    </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B94" s="13"/>
+      <c r="J93" s="8"/>
+    </row>
+    <row r="94" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B94" s="11"/>
       <c r="C94" s="3"/>
       <c r="D94" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
-      <c r="J94" s="10"/>
-    </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B95" s="13"/>
+      <c r="J94" s="8"/>
+    </row>
+    <row r="95" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B95" s="11"/>
       <c r="C95" s="3"/>
       <c r="D95" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G95" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
-      <c r="J95" s="10"/>
+      <c r="J95" s="8"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B96" s="13"/>
-      <c r="C96" s="14" t="s">
+      <c r="B96" s="11"/>
+      <c r="C96" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D96" s="15" t="s">
+      <c r="D96" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E96" s="15" t="s">
+      <c r="E96" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F96" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G96" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H96" s="12"/>
+      <c r="I96" s="12"/>
+      <c r="J96" s="14"/>
+    </row>
+    <row r="97" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B97" s="11"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="E97" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F97" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G97" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H97" s="12"/>
+      <c r="I97" s="12"/>
+      <c r="J97" s="14"/>
+    </row>
+    <row r="98" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B98" s="11"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="F96" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G96" s="15" t="s">
+      <c r="E98" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F98" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G98" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H98" s="12"/>
+      <c r="I98" s="12"/>
+      <c r="J98" s="14"/>
+    </row>
+    <row r="99" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B99" s="11"/>
+      <c r="C99" s="12"/>
+      <c r="D99" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="E99" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F99" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G99" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H99" s="12"/>
+      <c r="I99" s="12"/>
+      <c r="J99" s="14"/>
+    </row>
+    <row r="100" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B100" s="11"/>
+      <c r="C100" s="12"/>
+      <c r="D100" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E100" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F100" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G100" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H100" s="12"/>
+      <c r="I100" s="12"/>
+      <c r="J100" s="14"/>
+    </row>
+    <row r="101" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B101" s="11"/>
+      <c r="C101" s="12"/>
+      <c r="D101" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F101" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G101" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H101" s="12"/>
+      <c r="I101" s="12"/>
+      <c r="J101" s="14"/>
+    </row>
+    <row r="102" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B102" s="11"/>
+      <c r="C102" s="12"/>
+      <c r="D102" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E102" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F102" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G102" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H102" s="12"/>
+      <c r="I102" s="12"/>
+      <c r="J102" s="14"/>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B103" s="11"/>
+      <c r="C103" s="12"/>
+      <c r="D103" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E103" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F103" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G103" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H96" s="14"/>
-      <c r="I96" s="14"/>
-      <c r="J96" s="16"/>
-    </row>
-    <row r="97" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B97" s="13"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="E97" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F97" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G97" s="15" t="s">
+      <c r="H103" s="12"/>
+      <c r="I103" s="12"/>
+      <c r="J103" s="14"/>
+    </row>
+    <row r="104" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B104" s="11"/>
+      <c r="C104" s="12"/>
+      <c r="D104" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E104" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F104" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G104" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H97" s="14"/>
-      <c r="I97" s="14"/>
-      <c r="J97" s="16"/>
-    </row>
-    <row r="98" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B98" s="13"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="E98" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F98" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G98" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="H98" s="14"/>
-      <c r="I98" s="14"/>
-      <c r="J98" s="16"/>
-    </row>
-    <row r="99" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B99" s="13"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="E99" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F99" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G99" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="H99" s="14"/>
-      <c r="I99" s="14"/>
-      <c r="J99" s="16"/>
-    </row>
-    <row r="100" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B100" s="13"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E100" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F100" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G100" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="H100" s="14"/>
-      <c r="I100" s="14"/>
-      <c r="J100" s="16"/>
-    </row>
-    <row r="101" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B101" s="13"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E101" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F101" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="G101" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="H101" s="14"/>
-      <c r="I101" s="14"/>
-      <c r="J101" s="16"/>
-    </row>
-    <row r="102" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B102" s="13"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E102" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F102" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="G102" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="H102" s="14"/>
-      <c r="I102" s="14"/>
-      <c r="J102" s="16"/>
-    </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B103" s="13"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="E103" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F103" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G103" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H103" s="14"/>
-      <c r="I103" s="14"/>
-      <c r="J103" s="16"/>
-    </row>
-    <row r="104" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B104" s="13"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="E104" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F104" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G104" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="H104" s="14"/>
-      <c r="I104" s="14"/>
-      <c r="J104" s="16"/>
+      <c r="H104" s="12"/>
+      <c r="I104" s="12"/>
+      <c r="J104" s="14"/>
     </row>
     <row r="105" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B105" s="13"/>
+      <c r="B105" s="11"/>
       <c r="C105" s="3" t="s">
         <v>33</v>
       </c>
@@ -5005,636 +5695,1546 @@
         <v>8</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G105" s="4" t="s">
         <v>60</v>
       </c>
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
-      <c r="J105" s="10"/>
+      <c r="J105" s="8"/>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B106" s="13"/>
+      <c r="B106" s="11"/>
       <c r="C106" s="3"/>
       <c r="D106" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G106" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
-      <c r="J106" s="10"/>
+      <c r="J106" s="8"/>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B107" s="13"/>
+      <c r="B107" s="11"/>
       <c r="C107" s="3"/>
       <c r="D107" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G107" s="4" t="s">
         <v>61</v>
       </c>
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
-      <c r="J107" s="10"/>
+      <c r="J107" s="8"/>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B108" s="13"/>
+      <c r="B108" s="11"/>
       <c r="C108" s="3"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G108" s="4" t="s">
         <v>62</v>
       </c>
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
-      <c r="J108" s="10"/>
+      <c r="J108" s="8"/>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B109" s="13"/>
-      <c r="C109" s="14" t="s">
+      <c r="B109" s="11"/>
+      <c r="C109" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D109" s="15" t="s">
+      <c r="D109" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="E109" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F109" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G109" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H109" s="12"/>
+      <c r="I109" s="12"/>
+      <c r="J109" s="14"/>
+    </row>
+    <row r="110" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B110" s="11"/>
+      <c r="C110" s="12"/>
+      <c r="D110" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F110" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G110" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H110" s="12"/>
+      <c r="I110" s="12"/>
+      <c r="J110" s="14"/>
+    </row>
+    <row r="111" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B111" s="11"/>
+      <c r="C111" s="12"/>
+      <c r="D111" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E111" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F111" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G111" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H111" s="12"/>
+      <c r="I111" s="12"/>
+      <c r="J111" s="14"/>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B112" s="11"/>
+      <c r="C112" s="12"/>
+      <c r="D112" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="E112" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F112" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G112" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H112" s="12"/>
+      <c r="I112" s="12"/>
+      <c r="J112" s="14"/>
+    </row>
+    <row r="113" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B113" s="11"/>
+      <c r="C113" s="12"/>
+      <c r="D113" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="E113" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F113" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G113" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H113" s="12"/>
+      <c r="I113" s="12"/>
+      <c r="J113" s="14"/>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B114" s="11"/>
+      <c r="C114" s="12"/>
+      <c r="D114" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E114" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F114" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G114" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H114" s="12"/>
+      <c r="I114" s="12"/>
+      <c r="J114" s="14"/>
+    </row>
+    <row r="115" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="B115" s="11"/>
+      <c r="C115" s="12"/>
+      <c r="D115" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E109" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F109" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G109" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H109" s="14"/>
-      <c r="I109" s="14"/>
-      <c r="J109" s="16"/>
-    </row>
-    <row r="110" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B110" s="13"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E110" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F110" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="G110" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="H110" s="14"/>
-      <c r="I110" s="14"/>
-      <c r="J110" s="16"/>
-    </row>
-    <row r="111" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B111" s="13"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E111" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F111" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="G111" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="H111" s="14"/>
-      <c r="I111" s="14"/>
-      <c r="J111" s="16"/>
-    </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B112" s="13"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="E112" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F112" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G112" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H112" s="14"/>
-      <c r="I112" s="14"/>
-      <c r="J112" s="16"/>
-    </row>
-    <row r="113" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B113" s="13"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="E113" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F113" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G113" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H113" s="14"/>
-      <c r="I113" s="14"/>
-      <c r="J113" s="16"/>
-    </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B114" s="13"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="E114" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F114" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G114" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H114" s="14"/>
-      <c r="I114" s="14"/>
-      <c r="J114" s="16"/>
-    </row>
-    <row r="115" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B115" s="13"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E115" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F115" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G115" s="15" t="s">
+      <c r="E115" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F115" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G115" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="H115" s="14"/>
-      <c r="I115" s="14"/>
-      <c r="J115" s="16"/>
+      <c r="H115" s="12"/>
+      <c r="I115" s="12"/>
+      <c r="J115" s="14"/>
     </row>
     <row r="116" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B116" s="13"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="E116" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F116" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="G116" s="15" t="s">
+      <c r="B116" s="11"/>
+      <c r="C116" s="12"/>
+      <c r="D116" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E116" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F116" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G116" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H116" s="14"/>
-      <c r="I116" s="14"/>
-      <c r="J116" s="16"/>
+      <c r="H116" s="12"/>
+      <c r="I116" s="12"/>
+      <c r="J116" s="14"/>
     </row>
     <row r="117" spans="2:10" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="B117" s="13"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E117" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F117" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="G117" s="15" t="s">
+      <c r="B117" s="11"/>
+      <c r="C117" s="12"/>
+      <c r="D117" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E117" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F117" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G117" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="H117" s="14"/>
-      <c r="I117" s="14"/>
-      <c r="J117" s="16"/>
+      <c r="H117" s="12"/>
+      <c r="I117" s="12"/>
+      <c r="J117" s="14"/>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B118" s="13"/>
+      <c r="B118" s="11"/>
       <c r="C118" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G118" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
-      <c r="J118" s="10"/>
+      <c r="J118" s="8"/>
     </row>
     <row r="119" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B119" s="13"/>
+      <c r="B119" s="11"/>
       <c r="C119" s="3"/>
       <c r="D119" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G119" s="4" t="s">
         <v>63</v>
       </c>
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
-      <c r="J119" s="10"/>
+      <c r="J119" s="8"/>
     </row>
     <row r="120" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B120" s="13"/>
+      <c r="B120" s="11"/>
       <c r="C120" s="3"/>
       <c r="D120" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G120" s="4" t="s">
         <v>63</v>
       </c>
       <c r="H120" s="3"/>
       <c r="I120" s="3"/>
-      <c r="J120" s="10"/>
+      <c r="J120" s="8"/>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B121" s="13"/>
+      <c r="B121" s="11"/>
       <c r="C121" s="3"/>
       <c r="D121" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G121" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
-      <c r="J121" s="10"/>
+      <c r="J121" s="8"/>
     </row>
     <row r="122" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B122" s="13"/>
+      <c r="B122" s="11"/>
       <c r="C122" s="3"/>
       <c r="D122" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G122" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
-      <c r="J122" s="10"/>
+      <c r="J122" s="8"/>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B123" s="13"/>
+      <c r="B123" s="11"/>
       <c r="C123" s="3"/>
       <c r="D123" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G123" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
-      <c r="J123" s="10"/>
+      <c r="J123" s="8"/>
     </row>
     <row r="124" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B124" s="13"/>
+      <c r="B124" s="11"/>
       <c r="C124" s="3"/>
       <c r="D124" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G124" s="4" t="s">
         <v>65</v>
       </c>
       <c r="H124" s="3"/>
       <c r="I124" s="3"/>
-      <c r="J124" s="10"/>
+      <c r="J124" s="8"/>
     </row>
     <row r="125" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B125" s="13"/>
+      <c r="B125" s="11"/>
       <c r="C125" s="3"/>
       <c r="D125" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G125" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H125" s="3"/>
       <c r="I125" s="3"/>
-      <c r="J125" s="10"/>
+      <c r="J125" s="8"/>
     </row>
     <row r="126" spans="2:10" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="B126" s="13"/>
+      <c r="B126" s="11"/>
       <c r="C126" s="3"/>
       <c r="D126" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G126" s="4" t="s">
         <v>66</v>
       </c>
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
-      <c r="J126" s="10"/>
+      <c r="J126" s="8"/>
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B127" s="13"/>
-      <c r="C127" s="14" t="s">
+      <c r="B127" s="11"/>
+      <c r="C127" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D127" s="15" t="s">
+      <c r="D127" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E127" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F127" s="14" t="s">
+      <c r="E127" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F127" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G127" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H127" s="12"/>
+      <c r="I127" s="12"/>
+      <c r="J127" s="14"/>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B128" s="11"/>
+      <c r="C128" s="12"/>
+      <c r="D128" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E128" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F128" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G128" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H128" s="12"/>
+      <c r="I128" s="12"/>
+      <c r="J128" s="14"/>
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B129" s="11"/>
+      <c r="C129" s="12"/>
+      <c r="D129" s="13"/>
+      <c r="E129" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F129" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="G127" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H127" s="14"/>
-      <c r="I127" s="14"/>
-      <c r="J127" s="16"/>
-    </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B128" s="13"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E128" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F128" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="G128" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H128" s="14"/>
-      <c r="I128" s="14"/>
-      <c r="J128" s="16"/>
-    </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B129" s="13"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="15"/>
-      <c r="E129" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F129" s="14" t="s">
+      <c r="G129" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H129" s="12"/>
+      <c r="I129" s="12"/>
+      <c r="J129" s="14"/>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B130" s="11"/>
+      <c r="C130" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G129" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="H129" s="14"/>
-      <c r="I129" s="14"/>
-      <c r="J129" s="16"/>
-    </row>
-    <row r="130" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B130" s="13"/>
-      <c r="C130" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="D130" s="4" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F130" s="4" t="s">
-        <v>160</v>
+        <v>177</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
-      <c r="J130" s="10"/>
-    </row>
-    <row r="131" spans="2:10" ht="36.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B131" s="12"/>
-      <c r="C131" s="48"/>
-      <c r="D131" s="49" t="s">
+      <c r="J130" s="8"/>
+    </row>
+    <row r="131" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B131" s="11"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H131" s="3"/>
+      <c r="I131" s="3"/>
+      <c r="J131" s="8"/>
+    </row>
+    <row r="132" spans="2:10" ht="36.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B132" s="10"/>
+      <c r="C132" s="35"/>
+      <c r="D132" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="E132" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F132" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="E131" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="F131" s="49" t="s">
+      <c r="G132" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="H132" s="35"/>
+      <c r="I132" s="35"/>
+      <c r="J132" s="37"/>
+    </row>
+    <row r="133" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="134" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B134" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="C134" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="D134" s="26"/>
+      <c r="E134" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="F134" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="G134" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="H134" s="27"/>
+      <c r="I134" s="45"/>
+      <c r="J134" s="27"/>
+    </row>
+    <row r="135" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B135" s="11"/>
+      <c r="C135" s="12"/>
+      <c r="D135" s="13"/>
+      <c r="E135" s="13"/>
+      <c r="F135" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="G131" s="49" t="s">
+      <c r="G135" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="H135" s="14"/>
+      <c r="I135" s="46"/>
+      <c r="J135" s="14"/>
+    </row>
+    <row r="136" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B136" s="11"/>
+      <c r="C136" s="12"/>
+      <c r="D136" s="13"/>
+      <c r="E136" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="F136" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="G136" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="H136" s="14"/>
+      <c r="I136" s="46"/>
+      <c r="J136" s="14"/>
+    </row>
+    <row r="137" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B137" s="11"/>
+      <c r="C137" s="12"/>
+      <c r="D137" s="13"/>
+      <c r="E137" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="F137" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="G137" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="H137" s="14"/>
+      <c r="I137" s="46"/>
+      <c r="J137" s="14"/>
+    </row>
+    <row r="138" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B138" s="11"/>
+      <c r="C138" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D138" s="4"/>
+      <c r="E138" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H138" s="8"/>
+      <c r="I138" s="47"/>
+      <c r="J138" s="8"/>
+    </row>
+    <row r="139" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B139" s="50"/>
+      <c r="C139" s="3"/>
+      <c r="D139" s="4"/>
+      <c r="E139" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H139" s="8"/>
+      <c r="I139" s="47"/>
+      <c r="J139" s="8"/>
+    </row>
+    <row r="140" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B140" s="50"/>
+      <c r="C140" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D140" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="E140" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="F140" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="G140" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="H140" s="14"/>
+      <c r="I140" s="46"/>
+      <c r="J140" s="14"/>
+    </row>
+    <row r="141" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B141" s="50"/>
+      <c r="C141" s="54"/>
+      <c r="D141" s="55"/>
+      <c r="E141" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="F141" s="54"/>
+      <c r="G141" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="H141" s="56"/>
+      <c r="I141" s="57"/>
+      <c r="J141" s="56"/>
+    </row>
+    <row r="142" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B142" s="50"/>
+      <c r="C142" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H142" s="53"/>
+      <c r="I142" s="58"/>
+      <c r="J142" s="53"/>
+    </row>
+    <row r="143" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B143" s="51"/>
+      <c r="C143" s="6"/>
+      <c r="D143" s="7"/>
+      <c r="E143" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F143" s="6"/>
+      <c r="G143" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H143" s="9"/>
+      <c r="I143" s="48"/>
+      <c r="J143" s="9"/>
+    </row>
+    <row r="144" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="145" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B145" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C145" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="D145" s="26"/>
+      <c r="E145" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="H131" s="48"/>
-      <c r="I131" s="48"/>
-      <c r="J131" s="50"/>
-    </row>
-    <row r="132" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="133" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B133" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D133" s="6"/>
-      <c r="E133" s="6"/>
-      <c r="F133" s="5" t="s">
+      <c r="F145" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="G145" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="H145" s="25"/>
+      <c r="I145" s="25"/>
+      <c r="J145" s="27"/>
+    </row>
+    <row r="146" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B146" s="11"/>
+      <c r="C146" s="12"/>
+      <c r="D146" s="13"/>
+      <c r="E146" s="13"/>
+      <c r="F146" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="G146" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="H146" s="12"/>
+      <c r="I146" s="12"/>
+      <c r="J146" s="14"/>
+    </row>
+    <row r="147" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B147" s="11"/>
+      <c r="C147" s="12"/>
+      <c r="D147" s="13"/>
+      <c r="E147" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="F147" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="G147" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="H147" s="12"/>
+      <c r="I147" s="12"/>
+      <c r="J147" s="14"/>
+    </row>
+    <row r="148" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B148" s="11"/>
+      <c r="C148" s="12"/>
+      <c r="D148" s="13"/>
+      <c r="E148" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="F148" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="G148" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="H148" s="12"/>
+      <c r="I148" s="12"/>
+      <c r="J148" s="14"/>
+    </row>
+    <row r="149" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B149" s="11"/>
+      <c r="C149" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D149" s="4"/>
+      <c r="E149" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H149" s="3"/>
+      <c r="I149" s="3"/>
+      <c r="J149" s="8"/>
+    </row>
+    <row r="150" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B150" s="11"/>
+      <c r="C150" s="3"/>
+      <c r="D150" s="31"/>
+      <c r="E150" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G150" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="H150" s="52"/>
+      <c r="I150" s="52"/>
+      <c r="J150" s="53"/>
+    </row>
+    <row r="151" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B151" s="11"/>
+      <c r="C151" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D151" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="E151" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="F151" s="54" t="s">
+        <v>179</v>
+      </c>
+      <c r="G151" s="55" t="s">
+        <v>178</v>
+      </c>
+      <c r="H151" s="54"/>
+      <c r="I151" s="54"/>
+      <c r="J151" s="56"/>
+    </row>
+    <row r="152" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B152" s="59"/>
+      <c r="C152" s="38"/>
+      <c r="D152" s="19"/>
+      <c r="E152" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F152" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="G133" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="H133" s="5"/>
-      <c r="I133" s="5"/>
-      <c r="J133" s="7"/>
-    </row>
-    <row r="134" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B134" s="43"/>
-      <c r="C134" s="31"/>
-      <c r="D134" s="34"/>
-      <c r="E134" s="34"/>
-      <c r="F134" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="G134" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="H134" s="31"/>
-      <c r="I134" s="31"/>
-      <c r="J134" s="33"/>
-    </row>
-    <row r="135" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B135" s="44"/>
-      <c r="C135" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D135" s="4"/>
-      <c r="E135" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F135" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G135" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="H135" s="3"/>
-      <c r="I135" s="3"/>
-      <c r="J135" s="10"/>
-    </row>
-    <row r="136" spans="2:10" ht="36.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B136" s="45"/>
-      <c r="C136" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D136" s="9"/>
-      <c r="E136" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F136" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="G136" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H136" s="8"/>
-      <c r="I136" s="8"/>
-      <c r="J136" s="11"/>
-    </row>
-    <row r="137" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B138" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="C138" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="D138" s="28"/>
-      <c r="E138" s="28"/>
-      <c r="F138" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="G138" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="H138" s="27"/>
-      <c r="I138" s="27"/>
-      <c r="J138" s="29"/>
-    </row>
-    <row r="139" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B139" s="47"/>
-      <c r="C139" s="20" t="s">
+      <c r="G152" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="D139" s="21"/>
-      <c r="E139" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="F139" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="G139" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="H139" s="20"/>
-      <c r="I139" s="20"/>
-      <c r="J139" s="22"/>
+      <c r="H152" s="18"/>
+      <c r="I152" s="18"/>
+      <c r="J152" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B133:B136"/>
-    <mergeCell ref="B138:B139"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07622B51-2DC1-4955-B7A1-F49C4F9FDDC1}">
+  <dimension ref="B2:J97"/>
+  <sheetViews>
+    <sheetView topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="37.58203125" customWidth="1"/>
+    <col min="3" max="3" width="23.9140625" customWidth="1"/>
+    <col min="4" max="4" width="31.4140625" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" customWidth="1"/>
+    <col min="6" max="6" width="34.58203125" customWidth="1"/>
+    <col min="7" max="7" width="39.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="4" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B5" s="44"/>
+      <c r="C5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="8" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B8" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C13" t="s">
+        <v>186</v>
+      </c>
+      <c r="E13" t="s">
+        <v>209</v>
+      </c>
+      <c r="F13" t="s">
+        <v>187</v>
+      </c>
+      <c r="G13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15" t="s">
+        <v>188</v>
+      </c>
+      <c r="E15" t="s">
+        <v>209</v>
+      </c>
+      <c r="F15" t="s">
+        <v>187</v>
+      </c>
+      <c r="G15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C17" t="s">
+        <v>189</v>
+      </c>
+      <c r="E17" t="s">
+        <v>209</v>
+      </c>
+      <c r="F17" t="s">
+        <v>187</v>
+      </c>
+      <c r="G17" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C19" t="s">
+        <v>190</v>
+      </c>
+      <c r="E19" t="s">
+        <v>209</v>
+      </c>
+      <c r="F19" t="s">
+        <v>187</v>
+      </c>
+      <c r="G19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C21" t="s">
+        <v>191</v>
+      </c>
+      <c r="E21" t="s">
+        <v>209</v>
+      </c>
+      <c r="F21" t="s">
+        <v>187</v>
+      </c>
+      <c r="G21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C23" t="s">
+        <v>192</v>
+      </c>
+      <c r="E23" t="s">
+        <v>209</v>
+      </c>
+      <c r="F23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G23" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C25" t="s">
+        <v>193</v>
+      </c>
+      <c r="E25" t="s">
+        <v>209</v>
+      </c>
+      <c r="F25" t="s">
+        <v>187</v>
+      </c>
+      <c r="G25" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G26" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C27" t="s">
+        <v>194</v>
+      </c>
+      <c r="E27" t="s">
+        <v>209</v>
+      </c>
+      <c r="F27" t="s">
+        <v>187</v>
+      </c>
+      <c r="G27" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C29" t="s">
+        <v>195</v>
+      </c>
+      <c r="E29" t="s">
+        <v>209</v>
+      </c>
+      <c r="F29" t="s">
+        <v>187</v>
+      </c>
+      <c r="G29" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C31" t="s">
+        <v>196</v>
+      </c>
+      <c r="E31" t="s">
+        <v>209</v>
+      </c>
+      <c r="F31" t="s">
+        <v>187</v>
+      </c>
+      <c r="G31" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C33" t="s">
+        <v>197</v>
+      </c>
+      <c r="E33" t="s">
+        <v>209</v>
+      </c>
+      <c r="F33" t="s">
+        <v>187</v>
+      </c>
+      <c r="G33" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C35" t="s">
+        <v>198</v>
+      </c>
+      <c r="E35" t="s">
+        <v>209</v>
+      </c>
+      <c r="F35" t="s">
+        <v>187</v>
+      </c>
+      <c r="G35" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G36" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C38" t="s">
+        <v>186</v>
+      </c>
+      <c r="E38" t="s">
+        <v>208</v>
+      </c>
+      <c r="F38" t="s">
+        <v>210</v>
+      </c>
+      <c r="G38" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C40" t="s">
+        <v>188</v>
+      </c>
+      <c r="E40" t="s">
+        <v>208</v>
+      </c>
+      <c r="F40" t="s">
+        <v>210</v>
+      </c>
+      <c r="G40" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C42" t="s">
+        <v>189</v>
+      </c>
+      <c r="E42" t="s">
+        <v>208</v>
+      </c>
+      <c r="F42" t="s">
+        <v>210</v>
+      </c>
+      <c r="G42" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C44" t="s">
+        <v>190</v>
+      </c>
+      <c r="E44" t="s">
+        <v>208</v>
+      </c>
+      <c r="F44" t="s">
+        <v>210</v>
+      </c>
+      <c r="G44" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C46" t="s">
+        <v>191</v>
+      </c>
+      <c r="E46" t="s">
+        <v>208</v>
+      </c>
+      <c r="F46" t="s">
+        <v>210</v>
+      </c>
+      <c r="G46" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C48" t="s">
+        <v>192</v>
+      </c>
+      <c r="E48" t="s">
+        <v>208</v>
+      </c>
+      <c r="F48" t="s">
+        <v>210</v>
+      </c>
+      <c r="G48" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C50" t="s">
+        <v>193</v>
+      </c>
+      <c r="E50" t="s">
+        <v>208</v>
+      </c>
+      <c r="F50" t="s">
+        <v>210</v>
+      </c>
+      <c r="G50" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C52" t="s">
+        <v>194</v>
+      </c>
+      <c r="E52" t="s">
+        <v>208</v>
+      </c>
+      <c r="F52" t="s">
+        <v>210</v>
+      </c>
+      <c r="G52" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C54" t="s">
+        <v>195</v>
+      </c>
+      <c r="E54" t="s">
+        <v>208</v>
+      </c>
+      <c r="F54" t="s">
+        <v>210</v>
+      </c>
+      <c r="G54" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C56" t="s">
+        <v>196</v>
+      </c>
+      <c r="E56" t="s">
+        <v>208</v>
+      </c>
+      <c r="F56" t="s">
+        <v>210</v>
+      </c>
+      <c r="G56" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C58" t="s">
+        <v>197</v>
+      </c>
+      <c r="E58" t="s">
+        <v>208</v>
+      </c>
+      <c r="F58" t="s">
+        <v>210</v>
+      </c>
+      <c r="G58" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C60" t="s">
+        <v>198</v>
+      </c>
+      <c r="E60" t="s">
+        <v>208</v>
+      </c>
+      <c r="F60" t="s">
+        <v>210</v>
+      </c>
+      <c r="G60" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B64" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E64" t="s">
+        <v>212</v>
+      </c>
+      <c r="F64" t="s">
+        <v>213</v>
+      </c>
+      <c r="G64" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B67" t="s">
+        <v>214</v>
+      </c>
+      <c r="C67" t="s">
+        <v>216</v>
+      </c>
+      <c r="E67" t="s">
+        <v>215</v>
+      </c>
+      <c r="F67" t="s">
+        <v>232</v>
+      </c>
+      <c r="G67" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C69" t="s">
+        <v>217</v>
+      </c>
+      <c r="E69" t="s">
+        <v>215</v>
+      </c>
+      <c r="F69" t="s">
+        <v>232</v>
+      </c>
+      <c r="G69" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C71" t="s">
+        <v>218</v>
+      </c>
+      <c r="E71" t="s">
+        <v>215</v>
+      </c>
+      <c r="F71" t="s">
+        <v>232</v>
+      </c>
+      <c r="G71" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C73" t="s">
+        <v>220</v>
+      </c>
+      <c r="E73" t="s">
+        <v>215</v>
+      </c>
+      <c r="F73" t="s">
+        <v>232</v>
+      </c>
+      <c r="G73" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C75" t="s">
+        <v>221</v>
+      </c>
+      <c r="E75" t="s">
+        <v>215</v>
+      </c>
+      <c r="F75" t="s">
+        <v>232</v>
+      </c>
+      <c r="G75" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C77" t="s">
+        <v>219</v>
+      </c>
+      <c r="E77" t="s">
+        <v>215</v>
+      </c>
+      <c r="F77" t="s">
+        <v>232</v>
+      </c>
+      <c r="G77" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C79" t="s">
+        <v>222</v>
+      </c>
+      <c r="E79" t="s">
+        <v>215</v>
+      </c>
+      <c r="F79" t="s">
+        <v>232</v>
+      </c>
+      <c r="G79" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="81" spans="3:7" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="C81" t="s">
+        <v>223</v>
+      </c>
+      <c r="E81" t="s">
+        <v>215</v>
+      </c>
+      <c r="F81" t="s">
+        <v>232</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="83" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C83" t="s">
+        <v>224</v>
+      </c>
+      <c r="E83" t="s">
+        <v>215</v>
+      </c>
+      <c r="F83" t="s">
+        <v>232</v>
+      </c>
+      <c r="G83" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="85" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C85" t="s">
+        <v>225</v>
+      </c>
+      <c r="E85" t="s">
+        <v>215</v>
+      </c>
+      <c r="F85" t="s">
+        <v>232</v>
+      </c>
+      <c r="G85" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="87" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C87" t="s">
+        <v>226</v>
+      </c>
+      <c r="E87" t="s">
+        <v>215</v>
+      </c>
+      <c r="F87" t="s">
+        <v>232</v>
+      </c>
+      <c r="G87" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="89" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C89" t="s">
+        <v>227</v>
+      </c>
+      <c r="E89" t="s">
+        <v>215</v>
+      </c>
+      <c r="F89" t="s">
+        <v>232</v>
+      </c>
+      <c r="G89" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="91" spans="3:7" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="C91" t="s">
+        <v>228</v>
+      </c>
+      <c r="E91" t="s">
+        <v>215</v>
+      </c>
+      <c r="F91" t="s">
+        <v>232</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="93" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C93" t="s">
+        <v>229</v>
+      </c>
+      <c r="E93" t="s">
+        <v>215</v>
+      </c>
+      <c r="F93" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="95" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C95" t="s">
+        <v>230</v>
+      </c>
+      <c r="E95" t="s">
+        <v>215</v>
+      </c>
+      <c r="F95" t="s">
+        <v>232</v>
+      </c>
+      <c r="G95" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="97" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C97" t="s">
+        <v>231</v>
+      </c>
+      <c r="E97" t="s">
+        <v>215</v>
+      </c>
+      <c r="F97" t="s">
+        <v>232</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B4:B5"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/テストケース.xlsx
+++ b/テストケース.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5cf47586d75cb25/デスクトップ/workspace/workspace-nishimura/ProgramWork/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="106" documentId="8_{FB2C5B17-156F-4188-AF96-3C92834A6A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B557D435-2A35-44DB-BE08-6B36B03FC6FD}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="8_{FB2C5B17-156F-4188-AF96-3C92834A6A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D161CF25-6033-4D9F-BAF9-11681D3D6C83}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3F064697-4038-4B0C-9CC7-D71FC7163C92}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="247">
   <si>
     <t>テストケース</t>
     <phoneticPr fontId="1"/>
@@ -1152,13 +1153,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>カタカナ10文字以下</t>
-    <rPh sb="6" eb="10">
-      <t>モジイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スペースのみ</t>
   </si>
   <si>
@@ -1237,22 +1231,6 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>イジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>漢字ひらがな10文字以下とスペース</t>
-    <rPh sb="0" eb="2">
-      <t>カンジ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>シタ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1303,38 +1281,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「ひらがなもしくは漢字で入力してください」赤字でテキストボックスの下に表示される。
-最初か最後にスペースがある場合はエラーが出ない。</t>
-    <rPh sb="9" eb="11">
-      <t>カンジ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>アカジ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>サイショ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>サイゴ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>デ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>全角カタカナ10文字以下</t>
     <rPh sb="0" eb="2">
       <t>ゼンカク</t>
@@ -2820,6 +2766,132 @@
     <rPh sb="26" eb="28">
       <t>ニチジ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>総合テスト</t>
+    <rPh sb="0" eb="2">
+      <t>ソウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録画面</t>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページが遷移してregist_confirm.phpが
+読み込まれるか</t>
+    <rPh sb="4" eb="6">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録確認画面に遷移する</t>
+    <rPh sb="0" eb="6">
+      <t>トウロクカクニンガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すべての項目が正しく入力されている</t>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カタカナ英数字記号10文字以下</t>
+    <rPh sb="4" eb="7">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>モジイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カタカナ英数字記号11文字以上</t>
+    <rPh sb="4" eb="7">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スペース漢字ひらがな10文字以下スペース</t>
+    <rPh sb="4" eb="6">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>モジイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>漢字ひらがな10文字以下の間にスペース</t>
+    <rPh sb="0" eb="2">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>アイダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スペースのトリム</t>
+  </si>
+  <si>
+    <t>スペースのトリム</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3396,12 +3468,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3420,7 +3486,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1">
@@ -3447,11 +3513,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3499,6 +3571,10 @@
 </file>
 
 <file path=xl/persons/person6.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person7.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -3799,10 +3875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D25F908-8C24-448E-8107-DBDBAE93069C}">
-  <dimension ref="B2:K152"/>
+  <dimension ref="B2:K144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3828,7 +3904,7 @@
     </row>
     <row r="3" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="4" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="60" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -3839,7 +3915,7 @@
       </c>
     </row>
     <row r="5" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B5" s="44"/>
+      <c r="B5" s="61"/>
       <c r="C5" s="6" t="s">
         <v>3</v>
       </c>
@@ -3882,19 +3958,19 @@
         <v>68</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
@@ -3905,13 +3981,13 @@
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
       <c r="E10" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F10" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="G10" s="13" t="s">
         <v>164</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>167</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
@@ -3922,13 +3998,13 @@
       <c r="C11" s="12"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>166</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>169</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
@@ -3957,19 +4033,19 @@
         <v>44</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
@@ -3980,13 +4056,13 @@
       <c r="C15" s="12"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
@@ -4001,7 +4077,7 @@
         <v>100</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>80</v>
@@ -4020,7 +4096,7 @@
         <v>99</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F17" s="28" t="s">
         <v>79</v>
@@ -4039,7 +4115,7 @@
         <v>8</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>81</v>
@@ -4051,39 +4127,39 @@
       <c r="I18" s="3"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="11"/>
       <c r="C19" s="3"/>
       <c r="D19" s="4" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="11"/>
       <c r="C20" s="3"/>
       <c r="D20" s="4" t="s">
-        <v>26</v>
+        <v>243</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>81</v>
+        <v>246</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -4093,16 +4169,16 @@
       <c r="B21" s="11"/>
       <c r="C21" s="3"/>
       <c r="D21" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="G21" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -4112,10 +4188,10 @@
       <c r="B22" s="11"/>
       <c r="C22" s="3"/>
       <c r="D22" s="4" t="s">
-        <v>104</v>
+        <v>241</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>80</v>
@@ -4131,10 +4207,10 @@
       <c r="B23" s="11"/>
       <c r="C23" s="3"/>
       <c r="D23" s="4" t="s">
-        <v>106</v>
+        <v>242</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>82</v>
@@ -4146,95 +4222,95 @@
       <c r="I23" s="3"/>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="11"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F24" s="3" t="s">
+      <c r="C24" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F24" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="8"/>
-    </row>
-    <row r="25" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="G24" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="14"/>
+    </row>
+    <row r="25" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="11"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="8"/>
-    </row>
-    <row r="26" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="C25" s="12"/>
+      <c r="D25" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="14"/>
+    </row>
+    <row r="26" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="11"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="8"/>
-    </row>
-    <row r="27" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="C26" s="12"/>
+      <c r="D26" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="14"/>
+    </row>
+    <row r="27" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="11"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="8"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="14"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="11"/>
-      <c r="C28" s="12" t="s">
-        <v>23</v>
-      </c>
+      <c r="C28" s="12"/>
       <c r="D28" s="13" t="s">
-        <v>100</v>
+        <v>243</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>80</v>
+        <v>245</v>
       </c>
       <c r="G28" s="13" t="s">
         <v>12</v>
@@ -4243,39 +4319,39 @@
       <c r="I28" s="12"/>
       <c r="J28" s="14"/>
     </row>
-    <row r="29" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:10" ht="90" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
       <c r="D29" s="13" t="s">
-        <v>99</v>
+        <v>244</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
       <c r="J29" s="14"/>
     </row>
-    <row r="30" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="11"/>
       <c r="C30" s="12"/>
       <c r="D30" s="13" t="s">
-        <v>8</v>
+        <v>241</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
@@ -4285,16 +4361,16 @@
       <c r="B31" s="11"/>
       <c r="C31" s="12"/>
       <c r="D31" s="13" t="s">
-        <v>102</v>
+        <v>242</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
@@ -4302,166 +4378,166 @@
     </row>
     <row r="32" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="11"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="13" t="s">
+      <c r="C32" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="8"/>
+    </row>
+    <row r="33" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="11"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="8"/>
+    </row>
+    <row r="34" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="11"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="8"/>
+    </row>
+    <row r="35" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="11"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="8"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="11"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="8"/>
+    </row>
+    <row r="37" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" s="11"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="8"/>
+    </row>
+    <row r="38" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" s="11"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="8"/>
+    </row>
+    <row r="39" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" s="11"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="8"/>
+    </row>
+    <row r="40" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" s="11"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E32" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="14"/>
-    </row>
-    <row r="33" spans="2:10" ht="90" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="11"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="G33" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="14"/>
-    </row>
-    <row r="34" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="11"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="14"/>
-    </row>
-    <row r="35" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="11"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="14"/>
-    </row>
-    <row r="36" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="11"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="G36" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="14"/>
-    </row>
-    <row r="37" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="11"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="G37" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="14"/>
-    </row>
-    <row r="38" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="11"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="14"/>
-    </row>
-    <row r="39" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="11"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="G39" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="14"/>
-    </row>
-    <row r="40" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="11"/>
-      <c r="C40" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="E40" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>83</v>
@@ -4473,282 +4549,283 @@
       <c r="I40" s="3"/>
       <c r="J40" s="8"/>
     </row>
-    <row r="41" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="2:11" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="11"/>
       <c r="C41" s="3"/>
       <c r="D41" s="4" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>84</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="8"/>
     </row>
-    <row r="42" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="11"/>
       <c r="C42" s="3"/>
       <c r="D42" s="4" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="8"/>
     </row>
-    <row r="43" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="2:11" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="11"/>
       <c r="C43" s="3"/>
       <c r="D43" s="4" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>83</v>
+        <v>134</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="8"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="11"/>
       <c r="C44" s="3"/>
       <c r="D44" s="4" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>83</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
       <c r="J44" s="8"/>
     </row>
-    <row r="45" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="11"/>
       <c r="C45" s="3"/>
       <c r="D45" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="8"/>
     </row>
-    <row r="46" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="2:11" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="11"/>
       <c r="C46" s="3"/>
       <c r="D46" s="4" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="8"/>
     </row>
-    <row r="47" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="11"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F47" s="3" t="s">
+      <c r="C47" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F47" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="G47" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="8"/>
-    </row>
-    <row r="48" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="1"/>
+    </row>
+    <row r="48" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="11"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F48" s="3" t="s">
+      <c r="C48" s="12"/>
+      <c r="D48" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="14"/>
+    </row>
+    <row r="49" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" s="11"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="14"/>
+    </row>
+    <row r="50" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B50" s="11"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F50" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="G50" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="8"/>
-    </row>
-    <row r="49" spans="2:11" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="11"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="8"/>
-    </row>
-    <row r="50" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="11"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F50" s="3" t="s">
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="14"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B51" s="11"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F51" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="G51" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="14"/>
+    </row>
+    <row r="52" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" s="11"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="14"/>
+    </row>
+    <row r="53" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B53" s="11"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="14"/>
+    </row>
+    <row r="54" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B54" s="11"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G54" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="8"/>
-    </row>
-    <row r="51" spans="2:11" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B51" s="11"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="8"/>
-    </row>
-    <row r="52" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B52" s="11"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="8"/>
-    </row>
-    <row r="53" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B53" s="11"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="8"/>
-    </row>
-    <row r="54" spans="2:11" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B54" s="11"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="8"/>
-    </row>
-    <row r="55" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="14"/>
+    </row>
+    <row r="55" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="11"/>
-      <c r="C55" s="12" t="s">
-        <v>21</v>
-      </c>
+      <c r="C55" s="12"/>
       <c r="D55" s="13" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F55" s="12" t="s">
         <v>83</v>
@@ -4759,290 +4836,285 @@
       <c r="H55" s="12"/>
       <c r="I55" s="12"/>
       <c r="J55" s="14"/>
-      <c r="K55" s="1"/>
-    </row>
-    <row r="56" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="56" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" s="11"/>
       <c r="C56" s="12"/>
       <c r="D56" s="13" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F56" s="12" t="s">
         <v>84</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H56" s="12"/>
       <c r="I56" s="12"/>
       <c r="J56" s="14"/>
     </row>
-    <row r="57" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="11"/>
       <c r="C57" s="12"/>
       <c r="D57" s="13" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="F57" s="13" t="s">
-        <v>86</v>
+        <v>134</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H57" s="12"/>
       <c r="I57" s="12"/>
       <c r="J57" s="14"/>
     </row>
-    <row r="58" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" s="11"/>
       <c r="C58" s="12"/>
       <c r="D58" s="13" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="F58" s="13" t="s">
-        <v>83</v>
+        <v>134</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H58" s="12"/>
       <c r="I58" s="12"/>
       <c r="J58" s="14"/>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B59" s="11"/>
       <c r="C59" s="12"/>
       <c r="D59" s="13" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F59" s="12" t="s">
         <v>83</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H59" s="12"/>
       <c r="I59" s="12"/>
       <c r="J59" s="14"/>
     </row>
-    <row r="60" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B60" s="11"/>
       <c r="C60" s="12"/>
       <c r="D60" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="F60" s="12" t="s">
-        <v>79</v>
+        <v>134</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>83</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H60" s="12"/>
       <c r="I60" s="12"/>
       <c r="J60" s="14"/>
     </row>
-    <row r="61" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B61" s="11"/>
       <c r="C61" s="12"/>
       <c r="D61" s="13" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H61" s="12"/>
       <c r="I61" s="12"/>
       <c r="J61" s="14"/>
     </row>
-    <row r="62" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B62" s="11"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="E62" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="F62" s="12" t="s">
+      <c r="C62" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F62" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G62" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="14"/>
-    </row>
-    <row r="63" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="G62" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="8"/>
+    </row>
+    <row r="63" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B63" s="11"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="E63" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="F63" s="12" t="s">
+      <c r="C63" s="3"/>
+      <c r="D63" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F63" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G63" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H63" s="12"/>
-      <c r="I63" s="12"/>
-      <c r="J63" s="14"/>
-    </row>
-    <row r="64" spans="2:11" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="G63" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="8"/>
+    </row>
+    <row r="64" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" s="11"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E64" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="F64" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G64" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H64" s="12"/>
-      <c r="I64" s="12"/>
-      <c r="J64" s="14"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="8"/>
     </row>
     <row r="65" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B65" s="11"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="E65" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="F65" s="12" t="s">
+      <c r="C65" s="3"/>
+      <c r="D65" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F65" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G65" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H65" s="12"/>
-      <c r="I65" s="12"/>
-      <c r="J65" s="14"/>
-    </row>
-    <row r="66" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="G65" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="8"/>
+    </row>
+    <row r="66" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B66" s="11"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="E66" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="F66" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G66" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H66" s="12"/>
-      <c r="I66" s="12"/>
-      <c r="J66" s="14"/>
-    </row>
-    <row r="67" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="C66" s="3"/>
+      <c r="D66" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="8"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B67" s="11"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="E67" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="F67" s="12" t="s">
+      <c r="C67" s="3"/>
+      <c r="D67" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F67" s="58"/>
+      <c r="G67" s="59"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="8"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B68" s="11"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G67" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H67" s="12"/>
-      <c r="I67" s="12"/>
-      <c r="J67" s="14"/>
-    </row>
-    <row r="68" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B68" s="11"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="E68" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="F68" s="13" t="s">
+      <c r="G68" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="8"/>
+    </row>
+    <row r="69" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B69" s="11"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G68" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H68" s="12"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="14"/>
-    </row>
-    <row r="69" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B69" s="11"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E69" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="F69" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G69" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H69" s="12"/>
-      <c r="I69" s="12"/>
-      <c r="J69" s="14"/>
+      <c r="G69" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="8"/>
     </row>
     <row r="70" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B70" s="11"/>
-      <c r="C70" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="C70" s="3"/>
       <c r="D70" s="4" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>83</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
@@ -5052,17 +5124,13 @@
       <c r="B71" s="11"/>
       <c r="C71" s="3"/>
       <c r="D71" s="4" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>12</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="F71" s="3"/>
+      <c r="G71" s="4"/>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
       <c r="J71" s="8"/>
@@ -5071,16 +5139,16 @@
       <c r="B72" s="11"/>
       <c r="C72" s="3"/>
       <c r="D72" s="4" t="s">
-        <v>126</v>
+        <v>8</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
@@ -5090,289 +5158,301 @@
       <c r="B73" s="11"/>
       <c r="C73" s="3"/>
       <c r="D73" s="4" t="s">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
       <c r="J73" s="8"/>
     </row>
-    <row r="74" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B74" s="11"/>
       <c r="C74" s="3"/>
       <c r="D74" s="4" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>83</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="F74" s="3"/>
       <c r="G74" s="4" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
       <c r="J74" s="8"/>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B75" s="11"/>
       <c r="C75" s="3"/>
       <c r="D75" s="4" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F75" s="60"/>
-      <c r="G75" s="61"/>
+        <v>134</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
       <c r="J75" s="8"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B76" s="11"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F76" s="3" t="s">
+      <c r="C76" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="F76" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="G76" s="4" t="s">
+      <c r="G76" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="8"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="17"/>
     </row>
     <row r="77" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B77" s="11"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="4" t="s">
+      <c r="C77" s="12"/>
+      <c r="D77" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="E77" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F77" s="3" t="s">
+      <c r="E77" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F77" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="G77" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="8"/>
+      <c r="G77" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="14"/>
     </row>
     <row r="78" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B78" s="11"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="4" t="s">
+      <c r="C78" s="12"/>
+      <c r="D78" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="E78" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="8"/>
-    </row>
-    <row r="79" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="E78" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F78" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G78" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="14"/>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B79" s="11"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="4" t="s">
+      <c r="C79" s="12"/>
+      <c r="D79" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="E79" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F79" s="3"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="8"/>
+      <c r="E79" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="14"/>
     </row>
     <row r="80" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B80" s="11"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="4" t="s">
+      <c r="C80" s="12"/>
+      <c r="D80" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E80" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F80" s="3" t="s">
+      <c r="E80" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F80" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="G80" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="8"/>
+      <c r="G80" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H80" s="12"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="14"/>
     </row>
     <row r="81" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B81" s="11"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="4" t="s">
+      <c r="C81" s="12"/>
+      <c r="D81" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E81" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F81" s="3" t="s">
+      <c r="E81" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F81" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="G81" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="8"/>
-    </row>
-    <row r="82" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="G81" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H81" s="12"/>
+      <c r="I81" s="12"/>
+      <c r="J81" s="14"/>
+    </row>
+    <row r="82" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B82" s="11"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F82" s="3"/>
-      <c r="G82" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="8"/>
-    </row>
-    <row r="83" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="C82" s="12"/>
+      <c r="D82" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F82" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G82" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="14"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B83" s="11"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="8"/>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C83" s="12"/>
+      <c r="D83" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F83" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G83" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H83" s="12"/>
+      <c r="I83" s="12"/>
+      <c r="J83" s="14"/>
+    </row>
+    <row r="84" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B84" s="11"/>
-      <c r="C84" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D84" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="E84" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="F84" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="G84" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="17"/>
+      <c r="C84" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="8"/>
     </row>
     <row r="85" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B85" s="11"/>
-      <c r="C85" s="12"/>
-      <c r="D85" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="E85" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="F85" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G85" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="H85" s="12"/>
-      <c r="I85" s="12"/>
-      <c r="J85" s="14"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="8"/>
     </row>
     <row r="86" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B86" s="11"/>
-      <c r="C86" s="12"/>
-      <c r="D86" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="E86" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="F86" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G86" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H86" s="12"/>
-      <c r="I86" s="12"/>
-      <c r="J86" s="14"/>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C86" s="3"/>
+      <c r="D86" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="8"/>
+    </row>
+    <row r="87" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B87" s="11"/>
-      <c r="C87" s="12"/>
-      <c r="D87" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E87" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="F87" s="13"/>
-      <c r="G87" s="13"/>
-      <c r="H87" s="12"/>
-      <c r="I87" s="12"/>
-      <c r="J87" s="14"/>
-    </row>
-    <row r="88" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="C87" s="3"/>
+      <c r="D87" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="8"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B88" s="11"/>
-      <c r="C88" s="12"/>
+      <c r="C88" s="12" t="s">
+        <v>34</v>
+      </c>
       <c r="D88" s="13" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E88" s="13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G88" s="13" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="H88" s="12"/>
       <c r="I88" s="12"/>
@@ -5382,16 +5462,16 @@
       <c r="B89" s="11"/>
       <c r="C89" s="12"/>
       <c r="D89" s="13" t="s">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="E89" s="13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G89" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H89" s="12"/>
       <c r="I89" s="12"/>
@@ -5401,35 +5481,35 @@
       <c r="B90" s="11"/>
       <c r="C90" s="12"/>
       <c r="D90" s="13" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E90" s="13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F90" s="12" t="s">
         <v>83</v>
       </c>
       <c r="G90" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H90" s="12"/>
       <c r="I90" s="12"/>
       <c r="J90" s="14"/>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B91" s="11"/>
       <c r="C91" s="12"/>
       <c r="D91" s="13" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E91" s="13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F91" s="12" t="s">
         <v>83</v>
       </c>
       <c r="G91" s="13" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="H91" s="12"/>
       <c r="I91" s="12"/>
@@ -5437,98 +5517,94 @@
     </row>
     <row r="92" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B92" s="11"/>
-      <c r="C92" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G92" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H92" s="3"/>
-      <c r="I92" s="3"/>
-      <c r="J92" s="8"/>
+      <c r="C92" s="12"/>
+      <c r="D92" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E92" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F92" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G92" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H92" s="12"/>
+      <c r="I92" s="12"/>
+      <c r="J92" s="14"/>
     </row>
     <row r="93" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B93" s="11"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G93" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H93" s="3"/>
-      <c r="I93" s="3"/>
-      <c r="J93" s="8"/>
+      <c r="C93" s="12"/>
+      <c r="D93" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E93" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F93" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G93" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H93" s="12"/>
+      <c r="I93" s="12"/>
+      <c r="J93" s="14"/>
     </row>
     <row r="94" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B94" s="11"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G94" s="4" t="s">
+      <c r="C94" s="12"/>
+      <c r="D94" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E94" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F94" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G94" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H94" s="12"/>
+      <c r="I94" s="12"/>
+      <c r="J94" s="14"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B95" s="11"/>
+      <c r="C95" s="12"/>
+      <c r="D95" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E95" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F95" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G95" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H94" s="3"/>
-      <c r="I94" s="3"/>
-      <c r="J94" s="8"/>
-    </row>
-    <row r="95" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B95" s="11"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H95" s="3"/>
-      <c r="I95" s="3"/>
-      <c r="J95" s="8"/>
-    </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="H95" s="12"/>
+      <c r="I95" s="12"/>
+      <c r="J95" s="14"/>
+    </row>
+    <row r="96" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B96" s="11"/>
-      <c r="C96" s="12" t="s">
-        <v>34</v>
-      </c>
+      <c r="C96" s="12"/>
       <c r="D96" s="13" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="E96" s="13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F96" s="12" t="s">
         <v>83</v>
       </c>
       <c r="G96" s="13" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="H96" s="12"/>
       <c r="I96" s="12"/>
@@ -5536,94 +5612,96 @@
     </row>
     <row r="97" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B97" s="11"/>
-      <c r="C97" s="12"/>
-      <c r="D97" s="13" t="s">
+      <c r="C97" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="8"/>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B98" s="11"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="8"/>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B99" s="11"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="8"/>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B100" s="11"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="8"/>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B101" s="11"/>
+      <c r="C101" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D101" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="E97" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="F97" s="12" t="s">
+      <c r="E101" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F101" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="G97" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H97" s="12"/>
-      <c r="I97" s="12"/>
-      <c r="J97" s="14"/>
-    </row>
-    <row r="98" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B98" s="11"/>
-      <c r="C98" s="12"/>
-      <c r="D98" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="E98" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="F98" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G98" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H98" s="12"/>
-      <c r="I98" s="12"/>
-      <c r="J98" s="14"/>
-    </row>
-    <row r="99" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B99" s="11"/>
-      <c r="C99" s="12"/>
-      <c r="D99" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="E99" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="F99" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G99" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H99" s="12"/>
-      <c r="I99" s="12"/>
-      <c r="J99" s="14"/>
-    </row>
-    <row r="100" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B100" s="11"/>
-      <c r="C100" s="12"/>
-      <c r="D100" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E100" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="F100" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G100" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H100" s="12"/>
-      <c r="I100" s="12"/>
-      <c r="J100" s="14"/>
-    </row>
-    <row r="101" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B101" s="11"/>
-      <c r="C101" s="12"/>
-      <c r="D101" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E101" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="F101" s="12" t="s">
-        <v>86</v>
-      </c>
       <c r="G101" s="13" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="H101" s="12"/>
       <c r="I101" s="12"/>
@@ -5633,54 +5711,54 @@
       <c r="B102" s="11"/>
       <c r="C102" s="12"/>
       <c r="D102" s="13" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E102" s="13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F102" s="12" t="s">
         <v>86</v>
       </c>
       <c r="G102" s="13" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="H102" s="12"/>
       <c r="I102" s="12"/>
       <c r="J102" s="14"/>
     </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B103" s="11"/>
       <c r="C103" s="12"/>
       <c r="D103" s="13" t="s">
-        <v>146</v>
+        <v>26</v>
       </c>
       <c r="E103" s="13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F103" s="12" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G103" s="13" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="H103" s="12"/>
       <c r="I103" s="12"/>
       <c r="J103" s="14"/>
     </row>
-    <row r="104" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B104" s="11"/>
       <c r="C104" s="12"/>
       <c r="D104" s="13" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="E104" s="13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F104" s="12" t="s">
         <v>83</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="H104" s="12"/>
       <c r="I104" s="12"/>
@@ -5688,464 +5766,440 @@
     </row>
     <row r="105" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B105" s="11"/>
-      <c r="C105" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G105" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H105" s="3"/>
-      <c r="I105" s="3"/>
-      <c r="J105" s="8"/>
+      <c r="C105" s="12"/>
+      <c r="D105" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E105" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F105" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G105" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H105" s="12"/>
+      <c r="I105" s="12"/>
+      <c r="J105" s="14"/>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B106" s="11"/>
-      <c r="C106" s="3"/>
-      <c r="D106" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G106" s="4" t="s">
+      <c r="C106" s="12"/>
+      <c r="D106" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E106" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F106" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G106" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H106" s="3"/>
-      <c r="I106" s="3"/>
-      <c r="J106" s="8"/>
-    </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="H106" s="12"/>
+      <c r="I106" s="12"/>
+      <c r="J106" s="14"/>
+    </row>
+    <row r="107" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B107" s="11"/>
-      <c r="C107" s="3"/>
-      <c r="D107" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G107" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H107" s="3"/>
-      <c r="I107" s="3"/>
-      <c r="J107" s="8"/>
-    </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C107" s="12"/>
+      <c r="D107" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="E107" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F107" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G107" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H107" s="12"/>
+      <c r="I107" s="12"/>
+      <c r="J107" s="14"/>
+    </row>
+    <row r="108" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B108" s="11"/>
-      <c r="C108" s="3"/>
-      <c r="D108" s="4"/>
-      <c r="E108" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G108" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H108" s="3"/>
-      <c r="I108" s="3"/>
-      <c r="J108" s="8"/>
-    </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C108" s="12"/>
+      <c r="D108" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E108" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F108" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G108" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H108" s="12"/>
+      <c r="I108" s="12"/>
+      <c r="J108" s="14"/>
+    </row>
+    <row r="109" spans="2:10" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="B109" s="11"/>
-      <c r="C109" s="12" t="s">
-        <v>38</v>
-      </c>
+      <c r="C109" s="12"/>
       <c r="D109" s="13" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="E109" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="F109" s="12" t="s">
-        <v>83</v>
+        <v>134</v>
+      </c>
+      <c r="F109" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="G109" s="13" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="H109" s="12"/>
       <c r="I109" s="12"/>
       <c r="J109" s="14"/>
     </row>
-    <row r="110" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B110" s="11"/>
-      <c r="C110" s="12"/>
-      <c r="D110" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E110" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="F110" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="G110" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="H110" s="12"/>
-      <c r="I110" s="12"/>
-      <c r="J110" s="14"/>
+      <c r="C110" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H110" s="3"/>
+      <c r="I110" s="3"/>
+      <c r="J110" s="8"/>
     </row>
     <row r="111" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B111" s="11"/>
-      <c r="C111" s="12"/>
-      <c r="D111" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E111" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="F111" s="12" t="s">
+      <c r="C111" s="3"/>
+      <c r="D111" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F111" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="G111" s="13" t="s">
+      <c r="G111" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H111" s="12"/>
-      <c r="I111" s="12"/>
-      <c r="J111" s="14"/>
-    </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="H111" s="3"/>
+      <c r="I111" s="3"/>
+      <c r="J111" s="8"/>
+    </row>
+    <row r="112" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B112" s="11"/>
-      <c r="C112" s="12"/>
-      <c r="D112" s="13" t="s">
+      <c r="C112" s="3"/>
+      <c r="D112" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H112" s="3"/>
+      <c r="I112" s="3"/>
+      <c r="J112" s="8"/>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B113" s="11"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H113" s="3"/>
+      <c r="I113" s="3"/>
+      <c r="J113" s="8"/>
+    </row>
+    <row r="114" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B114" s="11"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H114" s="3"/>
+      <c r="I114" s="3"/>
+      <c r="J114" s="8"/>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B115" s="11"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H115" s="3"/>
+      <c r="I115" s="3"/>
+      <c r="J115" s="8"/>
+    </row>
+    <row r="116" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="B116" s="11"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E112" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="F112" s="12" t="s">
+      <c r="E116" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F116" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G112" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H112" s="12"/>
-      <c r="I112" s="12"/>
-      <c r="J112" s="14"/>
-    </row>
-    <row r="113" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B113" s="11"/>
-      <c r="C113" s="12"/>
-      <c r="D113" s="13" t="s">
+      <c r="G116" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H116" s="3"/>
+      <c r="I116" s="3"/>
+      <c r="J116" s="8"/>
+    </row>
+    <row r="117" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B117" s="11"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="E113" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="F113" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G113" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H113" s="12"/>
-      <c r="I113" s="12"/>
-      <c r="J113" s="14"/>
-    </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B114" s="11"/>
-      <c r="C114" s="12"/>
-      <c r="D114" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E114" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="F114" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G114" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H114" s="12"/>
-      <c r="I114" s="12"/>
-      <c r="J114" s="14"/>
-    </row>
-    <row r="115" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B115" s="11"/>
-      <c r="C115" s="12"/>
-      <c r="D115" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="E115" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="F115" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G115" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H115" s="12"/>
-      <c r="I115" s="12"/>
-      <c r="J115" s="14"/>
-    </row>
-    <row r="116" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B116" s="11"/>
-      <c r="C116" s="12"/>
-      <c r="D116" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="E116" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="F116" s="12" t="s">
+      <c r="E117" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F117" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G116" s="13" t="s">
+      <c r="G117" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H116" s="12"/>
-      <c r="I116" s="12"/>
-      <c r="J116" s="14"/>
-    </row>
-    <row r="117" spans="2:10" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="B117" s="11"/>
-      <c r="C117" s="12"/>
-      <c r="D117" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="E117" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="F117" s="13" t="s">
+      <c r="H117" s="3"/>
+      <c r="I117" s="3"/>
+      <c r="J117" s="8"/>
+    </row>
+    <row r="118" spans="2:10" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="B118" s="11"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F118" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G117" s="13" t="s">
+      <c r="G118" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="H117" s="12"/>
-      <c r="I117" s="12"/>
-      <c r="J117" s="14"/>
-    </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B118" s="11"/>
-      <c r="C118" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E118" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F118" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G118" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
       <c r="J118" s="8"/>
     </row>
-    <row r="119" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B119" s="11"/>
-      <c r="C119" s="3"/>
-      <c r="D119" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E119" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F119" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G119" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H119" s="3"/>
-      <c r="I119" s="3"/>
-      <c r="J119" s="8"/>
-    </row>
-    <row r="120" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="C119" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D119" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E119" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F119" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G119" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H119" s="12"/>
+      <c r="I119" s="12"/>
+      <c r="J119" s="14"/>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B120" s="11"/>
-      <c r="C120" s="3"/>
-      <c r="D120" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E120" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F120" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G120" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H120" s="3"/>
-      <c r="I120" s="3"/>
-      <c r="J120" s="8"/>
+      <c r="C120" s="12"/>
+      <c r="D120" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E120" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F120" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G120" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H120" s="12"/>
+      <c r="I120" s="12"/>
+      <c r="J120" s="14"/>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B121" s="11"/>
-      <c r="C121" s="3"/>
-      <c r="D121" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E121" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F121" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G121" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H121" s="3"/>
-      <c r="I121" s="3"/>
-      <c r="J121" s="8"/>
-    </row>
-    <row r="122" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="C121" s="12"/>
+      <c r="D121" s="13"/>
+      <c r="E121" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F121" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G121" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H121" s="12"/>
+      <c r="I121" s="12"/>
+      <c r="J121" s="14"/>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B122" s="11"/>
-      <c r="C122" s="3"/>
+      <c r="C122" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="D122" s="4" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>83</v>
+        <v>176</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>12</v>
+        <v>175</v>
       </c>
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
       <c r="J122" s="8"/>
     </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B123" s="11"/>
       <c r="C123" s="3"/>
       <c r="D123" s="4" t="s">
         <v>154</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F123" s="3" t="s">
-        <v>83</v>
+        <v>9</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
       <c r="J123" s="8"/>
     </row>
-    <row r="124" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B124" s="11"/>
-      <c r="C124" s="3"/>
-      <c r="D124" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E124" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F124" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G124" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H124" s="3"/>
-      <c r="I124" s="3"/>
-      <c r="J124" s="8"/>
-    </row>
-    <row r="125" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B125" s="11"/>
-      <c r="C125" s="3"/>
-      <c r="D125" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="E125" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F125" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G125" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H125" s="3"/>
-      <c r="I125" s="3"/>
-      <c r="J125" s="8"/>
-    </row>
-    <row r="126" spans="2:10" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="B126" s="11"/>
-      <c r="C126" s="3"/>
-      <c r="D126" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E126" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F126" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G126" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H126" s="3"/>
-      <c r="I126" s="3"/>
-      <c r="J126" s="8"/>
-    </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="2:10" ht="36.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B124" s="10"/>
+      <c r="C124" s="35"/>
+      <c r="D124" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="E124" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F124" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="G124" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="H124" s="35"/>
+      <c r="I124" s="35"/>
+      <c r="J124" s="37"/>
+    </row>
+    <row r="125" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="126" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B126" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="C126" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="D126" s="26"/>
+      <c r="E126" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="F126" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="G126" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="H126" s="27"/>
+      <c r="I126" s="43"/>
+      <c r="J126" s="27"/>
+    </row>
+    <row r="127" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B127" s="11"/>
-      <c r="C127" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D127" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E127" s="13" t="s">
-        <v>137</v>
-      </c>
+      <c r="C127" s="12"/>
+      <c r="D127" s="13"/>
+      <c r="E127" s="13"/>
       <c r="F127" s="12" t="s">
-        <v>88</v>
+        <v>161</v>
       </c>
       <c r="G127" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H127" s="12"/>
-      <c r="I127" s="12"/>
+        <v>164</v>
+      </c>
+      <c r="H127" s="14"/>
+      <c r="I127" s="44"/>
       <c r="J127" s="14"/>
     </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B128" s="11"/>
       <c r="C128" s="12"/>
-      <c r="D128" s="13" t="s">
-        <v>42</v>
-      </c>
+      <c r="D128" s="13"/>
       <c r="E128" s="13" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="F128" s="12" t="s">
-        <v>88</v>
+        <v>167</v>
       </c>
       <c r="G128" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H128" s="12"/>
-      <c r="I128" s="12"/>
+        <v>166</v>
+      </c>
+      <c r="H128" s="14"/>
+      <c r="I128" s="44"/>
       <c r="J128" s="14"/>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.55000000000000004">
@@ -6153,400 +6207,270 @@
       <c r="C129" s="12"/>
       <c r="D129" s="13"/>
       <c r="E129" s="13" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
       <c r="F129" s="12" t="s">
-        <v>90</v>
+        <v>167</v>
       </c>
       <c r="G129" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H129" s="12"/>
-      <c r="I129" s="12"/>
+        <v>169</v>
+      </c>
+      <c r="H129" s="14"/>
+      <c r="I129" s="44"/>
       <c r="J129" s="14"/>
     </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B130" s="11"/>
       <c r="C130" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D130" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D130" s="4"/>
+      <c r="E130" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H130" s="8"/>
+      <c r="I130" s="45"/>
+      <c r="J130" s="8"/>
+    </row>
+    <row r="131" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B131" s="48"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H131" s="8"/>
+      <c r="I131" s="45"/>
+      <c r="J131" s="8"/>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B132" s="48"/>
+      <c r="C132" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D132" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="E132" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="F132" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="G132" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="H132" s="14"/>
+      <c r="I132" s="44"/>
+      <c r="J132" s="14"/>
+    </row>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B133" s="48"/>
+      <c r="C133" s="52"/>
+      <c r="D133" s="53"/>
+      <c r="E133" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="F133" s="52"/>
+      <c r="G133" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="H133" s="54"/>
+      <c r="I133" s="55"/>
+      <c r="J133" s="54"/>
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B134" s="48"/>
+      <c r="C134" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H134" s="51"/>
+      <c r="I134" s="56"/>
+      <c r="J134" s="51"/>
+    </row>
+    <row r="135" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B135" s="49"/>
+      <c r="C135" s="6"/>
+      <c r="D135" s="7"/>
+      <c r="E135" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F135" s="6"/>
+      <c r="G135" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H135" s="9"/>
+      <c r="I135" s="46"/>
+      <c r="J135" s="9"/>
+    </row>
+    <row r="136" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="137" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B137" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C137" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="D137" s="26"/>
+      <c r="E137" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="F137" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="E130" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="F130" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="G130" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="H130" s="3"/>
-      <c r="I130" s="3"/>
-      <c r="J130" s="8"/>
-    </row>
-    <row r="131" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B131" s="11"/>
-      <c r="C131" s="3"/>
-      <c r="D131" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E131" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F131" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="G131" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="H131" s="3"/>
-      <c r="I131" s="3"/>
-      <c r="J131" s="8"/>
-    </row>
-    <row r="132" spans="2:10" ht="36.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B132" s="10"/>
-      <c r="C132" s="35"/>
-      <c r="D132" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="E132" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="F132" s="36" t="s">
+      <c r="G137" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="G132" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="H132" s="35"/>
-      <c r="I132" s="35"/>
-      <c r="J132" s="37"/>
-    </row>
-    <row r="133" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="134" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B134" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="C134" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="D134" s="26"/>
-      <c r="E134" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="F134" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="G134" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="H134" s="27"/>
-      <c r="I134" s="45"/>
-      <c r="J134" s="27"/>
-    </row>
-    <row r="135" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B135" s="11"/>
-      <c r="C135" s="12"/>
-      <c r="D135" s="13"/>
-      <c r="E135" s="13"/>
-      <c r="F135" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="G135" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="H135" s="14"/>
-      <c r="I135" s="46"/>
-      <c r="J135" s="14"/>
-    </row>
-    <row r="136" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B136" s="11"/>
-      <c r="C136" s="12"/>
-      <c r="D136" s="13"/>
-      <c r="E136" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="F136" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="G136" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="H136" s="14"/>
-      <c r="I136" s="46"/>
-      <c r="J136" s="14"/>
-    </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B137" s="11"/>
-      <c r="C137" s="12"/>
-      <c r="D137" s="13"/>
-      <c r="E137" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="F137" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="G137" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="H137" s="14"/>
-      <c r="I137" s="46"/>
-      <c r="J137" s="14"/>
+      <c r="H137" s="25"/>
+      <c r="I137" s="25"/>
+      <c r="J137" s="27"/>
     </row>
     <row r="138" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B138" s="11"/>
-      <c r="C138" s="3" t="s">
+      <c r="C138" s="12"/>
+      <c r="D138" s="13"/>
+      <c r="E138" s="13"/>
+      <c r="F138" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="G138" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="H138" s="12"/>
+      <c r="I138" s="12"/>
+      <c r="J138" s="14"/>
+    </row>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B139" s="11"/>
+      <c r="C139" s="12"/>
+      <c r="D139" s="13"/>
+      <c r="E139" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F139" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="G139" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="H139" s="12"/>
+      <c r="I139" s="12"/>
+      <c r="J139" s="14"/>
+    </row>
+    <row r="140" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B140" s="11"/>
+      <c r="C140" s="12"/>
+      <c r="D140" s="13"/>
+      <c r="E140" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="F140" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="G140" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="H140" s="12"/>
+      <c r="I140" s="12"/>
+      <c r="J140" s="14"/>
+    </row>
+    <row r="141" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B141" s="11"/>
+      <c r="C141" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D138" s="4"/>
-      <c r="E138" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="F138" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G138" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H138" s="8"/>
-      <c r="I138" s="47"/>
-      <c r="J138" s="8"/>
-    </row>
-    <row r="139" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B139" s="50"/>
-      <c r="C139" s="3"/>
-      <c r="D139" s="4"/>
-      <c r="E139" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="F139" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G139" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H139" s="8"/>
-      <c r="I139" s="47"/>
-      <c r="J139" s="8"/>
-    </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B140" s="50"/>
-      <c r="C140" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D140" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="E140" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="F140" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="G140" s="13" t="s">
+      <c r="D141" s="4"/>
+      <c r="E141" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="H140" s="14"/>
-      <c r="I140" s="46"/>
-      <c r="J140" s="14"/>
-    </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B141" s="50"/>
-      <c r="C141" s="54"/>
-      <c r="D141" s="55"/>
-      <c r="E141" s="55" t="s">
+      <c r="F141" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H141" s="3"/>
+      <c r="I141" s="3"/>
+      <c r="J141" s="8"/>
+    </row>
+    <row r="142" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B142" s="11"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="31"/>
+      <c r="E142" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G142" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="H142" s="50"/>
+      <c r="I142" s="50"/>
+      <c r="J142" s="51"/>
+    </row>
+    <row r="143" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B143" s="11"/>
+      <c r="C143" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D143" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="E143" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="F143" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="G143" s="53" t="s">
+        <v>175</v>
+      </c>
+      <c r="H143" s="52"/>
+      <c r="I143" s="52"/>
+      <c r="J143" s="54"/>
+    </row>
+    <row r="144" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B144" s="57"/>
+      <c r="C144" s="38"/>
+      <c r="D144" s="19"/>
+      <c r="E144" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="F141" s="54"/>
-      <c r="G141" s="55" t="s">
-        <v>169</v>
-      </c>
-      <c r="H141" s="56"/>
-      <c r="I141" s="57"/>
-      <c r="J141" s="56"/>
-    </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B142" s="50"/>
-      <c r="C142" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D142" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="E142" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="F142" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="G142" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="H142" s="53"/>
-      <c r="I142" s="58"/>
-      <c r="J142" s="53"/>
-    </row>
-    <row r="143" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B143" s="51"/>
-      <c r="C143" s="6"/>
-      <c r="D143" s="7"/>
-      <c r="E143" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F143" s="6"/>
-      <c r="G143" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="H143" s="9"/>
-      <c r="I143" s="48"/>
-      <c r="J143" s="9"/>
-    </row>
-    <row r="144" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="145" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B145" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="C145" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="D145" s="26"/>
-      <c r="E145" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="F145" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="G145" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="H145" s="25"/>
-      <c r="I145" s="25"/>
-      <c r="J145" s="27"/>
-    </row>
-    <row r="146" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B146" s="11"/>
-      <c r="C146" s="12"/>
-      <c r="D146" s="13"/>
-      <c r="E146" s="13"/>
-      <c r="F146" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="G146" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="H146" s="12"/>
-      <c r="I146" s="12"/>
-      <c r="J146" s="14"/>
-    </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B147" s="11"/>
-      <c r="C147" s="12"/>
-      <c r="D147" s="13"/>
-      <c r="E147" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="F147" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="G147" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="H147" s="12"/>
-      <c r="I147" s="12"/>
-      <c r="J147" s="14"/>
-    </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B148" s="11"/>
-      <c r="C148" s="12"/>
-      <c r="D148" s="13"/>
-      <c r="E148" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="F148" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="G148" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="H148" s="12"/>
-      <c r="I148" s="12"/>
-      <c r="J148" s="14"/>
-    </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B149" s="11"/>
-      <c r="C149" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D149" s="4"/>
-      <c r="E149" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="F149" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G149" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H149" s="3"/>
-      <c r="I149" s="3"/>
-      <c r="J149" s="8"/>
-    </row>
-    <row r="150" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B150" s="11"/>
-      <c r="C150" s="3"/>
-      <c r="D150" s="31"/>
-      <c r="E150" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="F150" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G150" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="H150" s="52"/>
-      <c r="I150" s="52"/>
-      <c r="J150" s="53"/>
-    </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B151" s="11"/>
-      <c r="C151" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D151" s="55" t="s">
-        <v>177</v>
-      </c>
-      <c r="E151" s="55" t="s">
-        <v>177</v>
-      </c>
-      <c r="F151" s="54" t="s">
-        <v>179</v>
-      </c>
-      <c r="G151" s="55" t="s">
-        <v>178</v>
-      </c>
-      <c r="H151" s="54"/>
-      <c r="I151" s="54"/>
-      <c r="J151" s="56"/>
-    </row>
-    <row r="152" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B152" s="59"/>
-      <c r="C152" s="38"/>
-      <c r="D152" s="19"/>
-      <c r="E152" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="F152" s="18" t="s">
+      <c r="F144" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="G152" s="19" t="s">
+      <c r="G144" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="H152" s="18"/>
-      <c r="I152" s="18"/>
-      <c r="J152" s="20"/>
+      <c r="H144" s="18"/>
+      <c r="I144" s="18"/>
+      <c r="J144" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6560,10 +6484,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07622B51-2DC1-4955-B7A1-F49C4F9FDDC1}">
-  <dimension ref="B2:J97"/>
+  <dimension ref="B2:J99"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -6581,12 +6505,12 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="4" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="43" t="s">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="60" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -6597,7 +6521,7 @@
       </c>
     </row>
     <row r="5" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B5" s="44"/>
+      <c r="B5" s="61"/>
       <c r="C5" s="6" t="s">
         <v>3</v>
       </c>
@@ -6637,597 +6561,705 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C13" t="s">
-        <v>186</v>
+        <v>239</v>
+      </c>
+      <c r="D13" t="s">
+        <v>240</v>
       </c>
       <c r="E13" t="s">
-        <v>209</v>
-      </c>
-      <c r="F13" t="s">
-        <v>187</v>
+        <v>9</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="G13" t="s">
-        <v>199</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E15" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F15" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G15" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C17" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E17" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F17" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G17" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C19" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E19" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F19" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G19" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C21" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E21" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F21" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G21" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C23" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E23" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F23" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G23" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C25" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E25" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F25" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G25" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G26" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C27" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E27" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F27" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G27" t="s">
         <v>199</v>
       </c>
     </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G28" t="s">
+        <v>201</v>
+      </c>
+    </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C29" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E29" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F29" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G29" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C31" t="s">
+        <v>192</v>
+      </c>
+      <c r="E31" t="s">
+        <v>206</v>
+      </c>
+      <c r="F31" t="s">
+        <v>184</v>
+      </c>
+      <c r="G31" t="s">
         <v>196</v>
-      </c>
-      <c r="E31" t="s">
-        <v>209</v>
-      </c>
-      <c r="F31" t="s">
-        <v>187</v>
-      </c>
-      <c r="G31" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C33" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E33" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F33" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G33" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C35" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E35" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F35" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G35" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C37" t="s">
+        <v>195</v>
+      </c>
+      <c r="E37" t="s">
+        <v>206</v>
+      </c>
+      <c r="F37" t="s">
+        <v>184</v>
+      </c>
+      <c r="G37" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G38" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" s="2" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G36" t="s">
+      <c r="C40" t="s">
+        <v>183</v>
+      </c>
+      <c r="E40" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="38" spans="2:7" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C38" t="s">
-        <v>186</v>
-      </c>
-      <c r="E38" t="s">
-        <v>208</v>
-      </c>
-      <c r="F38" t="s">
-        <v>210</v>
-      </c>
-      <c r="G38" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C40" t="s">
-        <v>188</v>
-      </c>
-      <c r="E40" t="s">
-        <v>208</v>
-      </c>
       <c r="F40" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G40" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C42" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E42" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F42" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G42" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C44" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E44" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F44" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G44" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C46" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E46" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F46" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G46" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C48" t="s">
+        <v>188</v>
+      </c>
+      <c r="E48" t="s">
+        <v>205</v>
+      </c>
+      <c r="F48" t="s">
+        <v>207</v>
+      </c>
+      <c r="G48" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C50" t="s">
+        <v>189</v>
+      </c>
+      <c r="E50" t="s">
+        <v>205</v>
+      </c>
+      <c r="F50" t="s">
+        <v>207</v>
+      </c>
+      <c r="G50" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C52" t="s">
+        <v>190</v>
+      </c>
+      <c r="E52" t="s">
+        <v>205</v>
+      </c>
+      <c r="F52" t="s">
+        <v>207</v>
+      </c>
+      <c r="G52" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="54" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C54" t="s">
+        <v>191</v>
+      </c>
+      <c r="E54" t="s">
+        <v>205</v>
+      </c>
+      <c r="F54" t="s">
+        <v>207</v>
+      </c>
+      <c r="G54" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="56" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C56" t="s">
         <v>192</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E56" t="s">
+        <v>205</v>
+      </c>
+      <c r="F56" t="s">
+        <v>207</v>
+      </c>
+      <c r="G56" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="58" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C58" t="s">
+        <v>193</v>
+      </c>
+      <c r="E58" t="s">
+        <v>205</v>
+      </c>
+      <c r="F58" t="s">
+        <v>207</v>
+      </c>
+      <c r="G58" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="60" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C60" t="s">
+        <v>194</v>
+      </c>
+      <c r="E60" t="s">
+        <v>205</v>
+      </c>
+      <c r="F60" t="s">
+        <v>207</v>
+      </c>
+      <c r="G60" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="62" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C62" t="s">
+        <v>195</v>
+      </c>
+      <c r="E62" t="s">
+        <v>205</v>
+      </c>
+      <c r="F62" t="s">
+        <v>207</v>
+      </c>
+      <c r="G62" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B66" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="F48" t="s">
+      <c r="E66" t="s">
+        <v>209</v>
+      </c>
+      <c r="F66" t="s">
         <v>210</v>
       </c>
-      <c r="G48" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C50" t="s">
-        <v>193</v>
-      </c>
-      <c r="E50" t="s">
-        <v>208</v>
-      </c>
-      <c r="F50" t="s">
-        <v>210</v>
-      </c>
-      <c r="G50" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C52" t="s">
-        <v>194</v>
-      </c>
-      <c r="E52" t="s">
-        <v>208</v>
-      </c>
-      <c r="F52" t="s">
-        <v>210</v>
-      </c>
-      <c r="G52" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C54" t="s">
-        <v>195</v>
-      </c>
-      <c r="E54" t="s">
-        <v>208</v>
-      </c>
-      <c r="F54" t="s">
-        <v>210</v>
-      </c>
-      <c r="G54" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C56" t="s">
+      <c r="G66" t="s">
         <v>196</v>
       </c>
-      <c r="E56" t="s">
-        <v>208</v>
-      </c>
-      <c r="F56" t="s">
-        <v>210</v>
-      </c>
-      <c r="G56" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C58" t="s">
-        <v>197</v>
-      </c>
-      <c r="E58" t="s">
-        <v>208</v>
-      </c>
-      <c r="F58" t="s">
-        <v>210</v>
-      </c>
-      <c r="G58" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C60" t="s">
-        <v>198</v>
-      </c>
-      <c r="E60" t="s">
-        <v>208</v>
-      </c>
-      <c r="F60" t="s">
-        <v>210</v>
-      </c>
-      <c r="G60" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B64" s="2" t="s">
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B69" t="s">
         <v>211</v>
       </c>
-      <c r="E64" t="s">
+      <c r="C69" t="s">
+        <v>213</v>
+      </c>
+      <c r="E69" t="s">
         <v>212</v>
       </c>
-      <c r="F64" t="s">
-        <v>213</v>
-      </c>
-      <c r="G64" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B67" t="s">
-        <v>214</v>
-      </c>
-      <c r="C67" t="s">
-        <v>216</v>
-      </c>
-      <c r="E67" t="s">
-        <v>215</v>
-      </c>
-      <c r="F67" t="s">
-        <v>232</v>
-      </c>
-      <c r="G67" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C69" t="s">
-        <v>217</v>
-      </c>
-      <c r="E69" t="s">
-        <v>215</v>
-      </c>
       <c r="F69" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G69" t="s">
-        <v>199</v>
+        <v>230</v>
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C71" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E71" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F71" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G71" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C73" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E73" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F73" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G73" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C75" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E75" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F75" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G75" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C77" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E77" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F77" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G77" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C79" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E79" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F79" t="s">
+        <v>229</v>
+      </c>
+      <c r="G79" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="81" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C81" t="s">
+        <v>219</v>
+      </c>
+      <c r="E81" t="s">
+        <v>212</v>
+      </c>
+      <c r="F81" t="s">
+        <v>229</v>
+      </c>
+      <c r="G81" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="83" spans="3:7" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="C83" t="s">
+        <v>220</v>
+      </c>
+      <c r="E83" t="s">
+        <v>212</v>
+      </c>
+      <c r="F83" t="s">
+        <v>229</v>
+      </c>
+      <c r="G83" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="G79" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="81" spans="3:7" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="C81" t="s">
-        <v>223</v>
-      </c>
-      <c r="E81" t="s">
-        <v>215</v>
-      </c>
-      <c r="F81" t="s">
-        <v>232</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="83" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C83" t="s">
-        <v>224</v>
-      </c>
-      <c r="E83" t="s">
-        <v>215</v>
-      </c>
-      <c r="F83" t="s">
-        <v>232</v>
-      </c>
-      <c r="G83" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="85" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C85" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E85" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F85" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G85" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="87" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C87" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E87" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F87" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G87" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="89" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C89" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E89" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F89" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G89" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="91" spans="3:7" ht="36" x14ac:dyDescent="0.55000000000000004">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="91" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C91" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E91" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F91" t="s">
-        <v>232</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="93" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+        <v>229</v>
+      </c>
+      <c r="G91" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="93" spans="3:7" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="C93" t="s">
+        <v>225</v>
+      </c>
+      <c r="E93" t="s">
+        <v>212</v>
+      </c>
+      <c r="F93" t="s">
         <v>229</v>
       </c>
-      <c r="E93" t="s">
-        <v>215</v>
-      </c>
-      <c r="F93" t="s">
-        <v>232</v>
+      <c r="G93" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="95" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C95" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E95" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F95" t="s">
-        <v>232</v>
-      </c>
-      <c r="G95" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="97" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="97" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C97" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E97" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F97" t="s">
-        <v>232</v>
+        <v>229</v>
+      </c>
+      <c r="G97" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="99" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C99" t="s">
+        <v>228</v>
+      </c>
+      <c r="E99" t="s">
+        <v>212</v>
+      </c>
+      <c r="F99" t="s">
+        <v>229</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B4:B5"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4496D3B0-D864-4F7E-A7A4-1806609D8344}">
+  <dimension ref="B2:J13"/>
+  <sheetViews>
+    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="22.83203125" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.25" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="9" max="9" width="16.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="4" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B5" s="61"/>
+      <c r="C5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="12" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B12" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/テストケース.xlsx
+++ b/テストケース.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5cf47586d75cb25/デスクトップ/workspace/workspace-nishimura/ProgramWork/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="107" documentId="8_{FB2C5B17-156F-4188-AF96-3C92834A6A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D161CF25-6033-4D9F-BAF9-11681D3D6C83}"/>
+  <xr:revisionPtr revIDLastSave="116" documentId="8_{FB2C5B17-156F-4188-AF96-3C92834A6A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43ECF24F-3209-4B96-9ED4-428DC1141963}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3F064697-4038-4B0C-9CC7-D71FC7163C92}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="249">
   <si>
     <t>テストケース</t>
     <phoneticPr fontId="1"/>
@@ -1156,85 +1156,6 @@
     <t>スペースのみ</t>
   </si>
   <si>
-    <t>英字10文字以下</t>
-    <rPh sb="0" eb="2">
-      <t>エイジ</t>
-    </rPh>
-    <rPh sb="4" eb="8">
-      <t>モジイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>英字11文字</t>
-    <rPh sb="0" eb="2">
-      <t>エイジ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>英字11文字以上</t>
-    <rPh sb="0" eb="2">
-      <t>エイジ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>イジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>数字10文字以下</t>
-    <rPh sb="0" eb="2">
-      <t>スウジ</t>
-    </rPh>
-    <rPh sb="4" eb="8">
-      <t>モジイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>数字11文字以上</t>
-    <rPh sb="0" eb="2">
-      <t>スウジ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>イジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>記号10文字以下</t>
-    <rPh sb="0" eb="2">
-      <t>キゴウ</t>
-    </rPh>
-    <rPh sb="4" eb="8">
-      <t>モジイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>記号11文字以上</t>
-    <rPh sb="0" eb="2">
-      <t>キゴウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>イジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「ひらがなもしくは漢字で入力してください」赤字でテキストボックスの下に表示される。
 最初か最後にスペースがある場合はエラーが出ない</t>
     <rPh sb="9" eb="11">
@@ -1304,29 +1225,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>全角カナ10文字以下とスペース</t>
-    <rPh sb="0" eb="2">
-      <t>ゼンカク</t>
-    </rPh>
-    <rPh sb="6" eb="10">
-      <t>モジイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>全角カタカナと記号の10文字以下</t>
-    <rPh sb="0" eb="2">
-      <t>ゼンカク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>キゴウ</t>
-    </rPh>
-    <rPh sb="12" eb="16">
-      <t>モジイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>入力文字制限(.が最初)</t>
     <rPh sb="0" eb="6">
       <t>ニュウリョクモジセイゲン</t>
@@ -1972,16 +1870,6 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エラーが出て、そこに移動する</t>
-    <rPh sb="4" eb="5">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>イドウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2892,6 +2780,166 @@
   </si>
   <si>
     <t>スペースのトリム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>英数字記号10文字以下</t>
+    <rPh sb="0" eb="3">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>モジイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>英数字記号11文字</t>
+    <rPh sb="0" eb="3">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スペース全角カナ10文字以下スペース</t>
+    <rPh sb="4" eb="6">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>モジイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全角カナ10文字以下の間にスペース</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>モジイカ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アイダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「半角英数字で入力してください」「10文字以下で入力してください」赤字でテキストボックスの下に表示される</t>
+    <rPh sb="1" eb="6">
+      <t>ハンカクエイスウジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>モジイカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>英字と記号11文字以上</t>
+    <rPh sb="0" eb="2">
+      <t>エイジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録のリンクを押す</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページが遷移してregist.phpが読み込まれるか</t>
+    <rPh sb="4" eb="6">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録画面に遷移する</t>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーが出て、エラーがあるところに移動する</t>
+    <rPh sb="4" eb="5">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2秒以内にカタカナ英数字記号10文字以下を入力</t>
+    <rPh sb="1" eb="4">
+      <t>ビョウイナイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力文字制限
+ロードの時間</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジカン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3338,7 +3386,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3513,17 +3561,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3575,6 +3641,10 @@
 </file>
 
 <file path=xl/persons/person7.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person8.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -3875,14 +3945,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D25F908-8C24-448E-8107-DBDBAE93069C}">
-  <dimension ref="B2:K144"/>
+  <dimension ref="B2:K137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
     <col min="2" max="2" width="18.4140625" customWidth="1"/>
     <col min="3" max="3" width="32.75" customWidth="1"/>
     <col min="4" max="4" width="58.25" style="2" customWidth="1"/>
@@ -3904,7 +3975,7 @@
     </row>
     <row r="3" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="4" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="58" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -3915,7 +3986,7 @@
       </c>
     </row>
     <row r="5" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B5" s="61"/>
+      <c r="B5" s="59"/>
       <c r="C5" s="6" t="s">
         <v>3</v>
       </c>
@@ -3958,19 +4029,19 @@
         <v>68</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
@@ -3981,13 +4052,13 @@
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
       <c r="E10" s="13" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
@@ -3998,13 +4069,13 @@
       <c r="C11" s="12"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
@@ -4033,19 +4104,19 @@
         <v>44</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
@@ -4056,13 +4127,13 @@
       <c r="C15" s="12"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
@@ -4077,7 +4148,7 @@
         <v>100</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>80</v>
@@ -4096,7 +4167,7 @@
         <v>99</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F17" s="28" t="s">
         <v>79</v>
@@ -4115,7 +4186,7 @@
         <v>8</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>81</v>
@@ -4134,7 +4205,7 @@
         <v>26</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>81</v>
@@ -4150,13 +4221,13 @@
       <c r="B20" s="11"/>
       <c r="C20" s="3"/>
       <c r="D20" s="4" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>12</v>
@@ -4165,33 +4236,33 @@
       <c r="I20" s="3"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="2:10" ht="90" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:10" ht="78.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="11"/>
       <c r="C21" s="3"/>
       <c r="D21" s="4" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:10" ht="46" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="11"/>
       <c r="C22" s="3"/>
       <c r="D22" s="4" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>80</v>
@@ -4203,16 +4274,16 @@
       <c r="I22" s="3"/>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:10" ht="46" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="11"/>
       <c r="C23" s="3"/>
       <c r="D23" s="4" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F23" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>82</v>
       </c>
       <c r="G23" s="4" t="s">
@@ -4222,41 +4293,41 @@
       <c r="I23" s="3"/>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="11"/>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="3"/>
+      <c r="D24" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="11"/>
+      <c r="C25" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D25" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="E24" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F24" s="12" t="s">
+      <c r="E25" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F25" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="G25" s="13" t="s">
         <v>12</v>
-      </c>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="14"/>
-    </row>
-    <row r="25" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="11"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>13</v>
       </c>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
@@ -4266,16 +4337,16 @@
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
       <c r="D26" s="13" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
@@ -4285,10 +4356,10 @@
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
       <c r="D27" s="13" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F27" s="12" t="s">
         <v>81</v>
@@ -4300,58 +4371,58 @@
       <c r="I27" s="12"/>
       <c r="J27" s="14"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
       <c r="D28" s="13" t="s">
-        <v>243</v>
+        <v>102</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>245</v>
+        <v>81</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
       <c r="J28" s="14"/>
     </row>
-    <row r="29" spans="2:10" ht="90" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
       <c r="D29" s="13" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>111</v>
+        <v>235</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
       <c r="J29" s="14"/>
     </row>
-    <row r="30" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:10" ht="90" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="11"/>
       <c r="C30" s="12"/>
       <c r="D30" s="13" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
@@ -4361,56 +4432,56 @@
       <c r="B31" s="11"/>
       <c r="C31" s="12"/>
       <c r="D31" s="13" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
       <c r="J31" s="14"/>
     </row>
-    <row r="32" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="11"/>
-      <c r="C32" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="8"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="14"/>
     </row>
     <row r="33" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="11"/>
-      <c r="C33" s="3"/>
+      <c r="C33" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="D33" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>84</v>
+        <v>125</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -4420,16 +4491,16 @@
       <c r="B34" s="11"/>
       <c r="C34" s="3"/>
       <c r="D34" s="4" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>86</v>
+        <v>125</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -4439,54 +4510,54 @@
       <c r="B35" s="11"/>
       <c r="C35" s="3"/>
       <c r="D35" s="4" t="s">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="8"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="11"/>
       <c r="C36" s="3"/>
       <c r="D36" s="4" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>83</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="8"/>
     </row>
-    <row r="37" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="11"/>
       <c r="C37" s="3"/>
       <c r="D37" s="4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -4496,16 +4567,16 @@
       <c r="B38" s="11"/>
       <c r="C38" s="3"/>
       <c r="D38" s="4" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -4515,54 +4586,54 @@
       <c r="B39" s="11"/>
       <c r="C39" s="3"/>
       <c r="D39" s="4" t="s">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="8"/>
     </row>
-    <row r="40" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="11"/>
       <c r="C40" s="3"/>
       <c r="D40" s="4" t="s">
-        <v>103</v>
+        <v>239</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>83</v>
+        <v>236</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="8"/>
     </row>
-    <row r="41" spans="2:11" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="11"/>
       <c r="C41" s="3"/>
       <c r="D41" s="4" t="s">
-        <v>104</v>
+        <v>240</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>84</v>
+        <v>125</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -4572,10 +4643,10 @@
       <c r="B42" s="11"/>
       <c r="C42" s="3"/>
       <c r="D42" s="4" t="s">
-        <v>106</v>
+        <v>237</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>83</v>
@@ -4591,10 +4662,10 @@
       <c r="B43" s="11"/>
       <c r="C43" s="3"/>
       <c r="D43" s="4" t="s">
-        <v>107</v>
+        <v>238</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>84</v>
@@ -4608,73 +4679,74 @@
     </row>
     <row r="44" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="11"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F44" s="3" t="s">
+      <c r="C44" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F44" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="G44" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="8"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="1"/>
     </row>
     <row r="45" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="11"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="8"/>
-    </row>
-    <row r="46" spans="2:11" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="C45" s="12"/>
+      <c r="D45" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="14"/>
+    </row>
+    <row r="46" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="11"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="8"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="14"/>
     </row>
     <row r="47" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="11"/>
-      <c r="C47" s="12" t="s">
-        <v>21</v>
-      </c>
+      <c r="C47" s="12"/>
       <c r="D47" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F47" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F47" s="13" t="s">
         <v>83</v>
       </c>
       <c r="G47" s="13" t="s">
@@ -4683,22 +4755,21 @@
       <c r="H47" s="12"/>
       <c r="I47" s="12"/>
       <c r="J47" s="14"/>
-      <c r="K47" s="1"/>
-    </row>
-    <row r="48" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="11"/>
       <c r="C48" s="12"/>
       <c r="D48" s="13" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H48" s="12"/>
       <c r="I48" s="12"/>
@@ -4708,16 +4779,16 @@
       <c r="B49" s="11"/>
       <c r="C49" s="12"/>
       <c r="D49" s="13" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F49" s="13" t="s">
-        <v>86</v>
+        <v>125</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H49" s="12"/>
       <c r="I49" s="12"/>
@@ -4727,16 +4798,16 @@
       <c r="B50" s="11"/>
       <c r="C50" s="12"/>
       <c r="D50" s="13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F50" s="13" t="s">
-        <v>83</v>
+        <v>125</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>81</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
@@ -4746,13 +4817,13 @@
       <c r="B51" s="11"/>
       <c r="C51" s="12"/>
       <c r="D51" s="13" t="s">
-        <v>112</v>
+        <v>239</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>83</v>
+        <v>235</v>
       </c>
       <c r="G51" s="13" t="s">
         <v>12</v>
@@ -4765,16 +4836,16 @@
       <c r="B52" s="11"/>
       <c r="C52" s="12"/>
       <c r="D52" s="13" t="s">
-        <v>113</v>
+        <v>240</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
@@ -4784,35 +4855,35 @@
       <c r="B53" s="11"/>
       <c r="C53" s="12"/>
       <c r="D53" s="13" t="s">
-        <v>102</v>
+        <v>237</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H53" s="12"/>
       <c r="I53" s="12"/>
       <c r="J53" s="14"/>
     </row>
-    <row r="54" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" s="11"/>
       <c r="C54" s="12"/>
       <c r="D54" s="13" t="s">
-        <v>114</v>
+        <v>238</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
@@ -4820,153 +4891,153 @@
     </row>
     <row r="55" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="11"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F55" s="12" t="s">
+      <c r="C55" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F55" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G55" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="14"/>
-    </row>
-    <row r="56" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="G55" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="8"/>
+    </row>
+    <row r="56" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" s="11"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="E56" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F56" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G56" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="14"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="8"/>
     </row>
     <row r="57" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="11"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="E57" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F57" s="12" t="s">
+      <c r="C57" s="3"/>
+      <c r="D57" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="8"/>
+    </row>
+    <row r="58" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B58" s="11"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F58" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G57" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="14"/>
-    </row>
-    <row r="58" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B58" s="11"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="E58" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F58" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G58" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="14"/>
+      <c r="G58" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="8"/>
     </row>
     <row r="59" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B59" s="11"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="E59" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F59" s="12" t="s">
+      <c r="C59" s="3"/>
+      <c r="D59" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G59" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H59" s="12"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="14"/>
+      <c r="G59" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="8"/>
     </row>
     <row r="60" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B60" s="11"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E60" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F60" s="13" t="s">
+      <c r="C60" s="3"/>
+      <c r="D60" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F60" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G60" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="14"/>
-    </row>
-    <row r="61" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="G60" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="8"/>
+    </row>
+    <row r="61" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B61" s="11"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="E61" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F61" s="12" t="s">
+      <c r="C61" s="3"/>
+      <c r="D61" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F61" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G61" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="14"/>
+      <c r="G61" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="8"/>
     </row>
     <row r="62" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B62" s="11"/>
-      <c r="C62" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="C62" s="3"/>
       <c r="D62" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>83</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
@@ -4976,16 +5047,16 @@
       <c r="B63" s="11"/>
       <c r="C63" s="3"/>
       <c r="D63" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>83</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
@@ -4995,16 +5066,16 @@
       <c r="B64" s="11"/>
       <c r="C64" s="3"/>
       <c r="D64" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>116</v>
+        <v>236</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
@@ -5014,16 +5085,16 @@
       <c r="B65" s="11"/>
       <c r="C65" s="3"/>
       <c r="D65" s="4" t="s">
-        <v>124</v>
+        <v>8</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
@@ -5033,289 +5104,305 @@
       <c r="B66" s="11"/>
       <c r="C66" s="3"/>
       <c r="D66" s="4" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
       <c r="J66" s="8"/>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B67" s="11"/>
       <c r="C67" s="3"/>
       <c r="D67" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F67" s="58"/>
-      <c r="G67" s="59"/>
+        <v>125</v>
+      </c>
+      <c r="F67" s="3"/>
+      <c r="G67" s="4" t="s">
+        <v>110</v>
+      </c>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
       <c r="J67" s="8"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B68" s="11"/>
       <c r="C68" s="3"/>
       <c r="D68" s="4" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="8"/>
     </row>
-    <row r="69" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B69" s="11"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F69" s="3" t="s">
+      <c r="C69" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="F69" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="G69" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="8"/>
+      <c r="G69" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="17"/>
     </row>
     <row r="70" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B70" s="11"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F70" s="3" t="s">
+      <c r="C70" s="12"/>
+      <c r="D70" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F70" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="G70" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="8"/>
+      <c r="G70" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="14"/>
     </row>
     <row r="71" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B71" s="11"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F71" s="3"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="8"/>
-    </row>
-    <row r="72" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="C71" s="12"/>
+      <c r="D71" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F71" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G71" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="14"/>
+    </row>
+    <row r="72" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B72" s="11"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
-      <c r="J72" s="8"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F72" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G72" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="14"/>
     </row>
     <row r="73" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B73" s="11"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="4" t="s">
+      <c r="C73" s="12"/>
+      <c r="D73" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F73" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G73" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="14"/>
+    </row>
+    <row r="74" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B74" s="11"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E73" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F73" s="3" t="s">
+      <c r="E74" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F74" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="G73" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="8"/>
-    </row>
-    <row r="74" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B74" s="11"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F74" s="3"/>
-      <c r="G74" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="8"/>
+      <c r="G74" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="14"/>
     </row>
     <row r="75" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B75" s="11"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="8"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F75" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G75" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="14"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B76" s="11"/>
-      <c r="C76" s="15" t="s">
-        <v>28</v>
-      </c>
+      <c r="C76" s="12"/>
       <c r="D76" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="E76" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="F76" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F76" s="12" t="s">
         <v>83</v>
       </c>
       <c r="G76" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="17"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="14"/>
     </row>
     <row r="77" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B77" s="11"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="E77" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F77" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G77" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="H77" s="12"/>
-      <c r="I77" s="12"/>
-      <c r="J77" s="14"/>
+      <c r="C77" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="8"/>
     </row>
     <row r="78" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B78" s="11"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="E78" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F78" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G78" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H78" s="12"/>
-      <c r="I78" s="12"/>
-      <c r="J78" s="14"/>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C78" s="3"/>
+      <c r="D78" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="8"/>
+    </row>
+    <row r="79" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B79" s="11"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="E79" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F79" s="13"/>
-      <c r="G79" s="13"/>
-      <c r="H79" s="12"/>
-      <c r="I79" s="12"/>
-      <c r="J79" s="14"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="8"/>
     </row>
     <row r="80" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B80" s="11"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E80" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F80" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="G80" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="H80" s="12"/>
-      <c r="I80" s="12"/>
-      <c r="J80" s="14"/>
-    </row>
-    <row r="81" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="C80" s="3"/>
+      <c r="D80" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="8"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B81" s="11"/>
-      <c r="C81" s="12"/>
+      <c r="C81" s="12" t="s">
+        <v>34</v>
+      </c>
       <c r="D81" s="13" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G81" s="13" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="H81" s="12"/>
       <c r="I81" s="12"/>
@@ -5325,35 +5412,35 @@
       <c r="B82" s="11"/>
       <c r="C82" s="12"/>
       <c r="D82" s="13" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F82" s="12" t="s">
         <v>83</v>
       </c>
       <c r="G82" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H82" s="12"/>
       <c r="I82" s="12"/>
       <c r="J82" s="14"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B83" s="11"/>
       <c r="C83" s="12"/>
       <c r="D83" s="13" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F83" s="12" t="s">
         <v>83</v>
       </c>
       <c r="G83" s="13" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="H83" s="12"/>
       <c r="I83" s="12"/>
@@ -5361,92 +5448,88 @@
     </row>
     <row r="84" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B84" s="11"/>
-      <c r="C84" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G84" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="8"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F84" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G84" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H84" s="12"/>
+      <c r="I84" s="12"/>
+      <c r="J84" s="14"/>
     </row>
     <row r="85" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B85" s="11"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G85" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
-      <c r="J85" s="8"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F85" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G85" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H85" s="12"/>
+      <c r="I85" s="12"/>
+      <c r="J85" s="14"/>
     </row>
     <row r="86" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B86" s="11"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="8"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F86" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G86" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
+      <c r="J86" s="14"/>
     </row>
     <row r="87" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B87" s="11"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G87" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
-      <c r="J87" s="8"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E87" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F87" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G87" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H87" s="12"/>
+      <c r="I87" s="12"/>
+      <c r="J87" s="14"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B88" s="11"/>
-      <c r="C88" s="12" t="s">
-        <v>34</v>
-      </c>
+      <c r="C88" s="12"/>
       <c r="D88" s="13" t="s">
-        <v>31</v>
+        <v>134</v>
       </c>
       <c r="E88" s="13" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F88" s="12" t="s">
         <v>83</v>
@@ -5462,10 +5545,10 @@
       <c r="B89" s="11"/>
       <c r="C89" s="12"/>
       <c r="D89" s="13" t="s">
-        <v>135</v>
+        <v>59</v>
       </c>
       <c r="E89" s="13" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F89" s="12" t="s">
         <v>83</v>
@@ -5479,113 +5562,115 @@
     </row>
     <row r="90" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B90" s="11"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E90" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F90" s="12" t="s">
+      <c r="C90" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="8"/>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B91" s="11"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="8"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B92" s="11"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="8"/>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B93" s="11"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="8"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B94" s="11"/>
+      <c r="C94" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D94" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E94" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F94" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="G90" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H90" s="12"/>
-      <c r="I90" s="12"/>
-      <c r="J90" s="14"/>
-    </row>
-    <row r="91" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B91" s="11"/>
-      <c r="C91" s="12"/>
-      <c r="D91" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="E91" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F91" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G91" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H91" s="12"/>
-      <c r="I91" s="12"/>
-      <c r="J91" s="14"/>
-    </row>
-    <row r="92" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B92" s="11"/>
-      <c r="C92" s="12"/>
-      <c r="D92" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E92" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F92" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G92" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H92" s="12"/>
-      <c r="I92" s="12"/>
-      <c r="J92" s="14"/>
-    </row>
-    <row r="93" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B93" s="11"/>
-      <c r="C93" s="12"/>
-      <c r="D93" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E93" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F93" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="G93" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H93" s="12"/>
-      <c r="I93" s="12"/>
-      <c r="J93" s="14"/>
-    </row>
-    <row r="94" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B94" s="11"/>
-      <c r="C94" s="12"/>
-      <c r="D94" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E94" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F94" s="12" t="s">
-        <v>86</v>
-      </c>
       <c r="G94" s="13" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="H94" s="12"/>
       <c r="I94" s="12"/>
       <c r="J94" s="14"/>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B95" s="11"/>
       <c r="C95" s="12"/>
       <c r="D95" s="13" t="s">
-        <v>143</v>
+        <v>8</v>
       </c>
       <c r="E95" s="13" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G95" s="13" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="H95" s="12"/>
       <c r="I95" s="12"/>
@@ -5595,882 +5680,741 @@
       <c r="B96" s="11"/>
       <c r="C96" s="12"/>
       <c r="D96" s="13" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="E96" s="13" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G96" s="13" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="H96" s="12"/>
       <c r="I96" s="12"/>
       <c r="J96" s="14"/>
     </row>
-    <row r="97" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B97" s="11"/>
-      <c r="C97" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G97" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H97" s="3"/>
-      <c r="I97" s="3"/>
-      <c r="J97" s="8"/>
-    </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C97" s="12"/>
+      <c r="D97" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="E97" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F97" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G97" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H97" s="12"/>
+      <c r="I97" s="12"/>
+      <c r="J97" s="14"/>
+    </row>
+    <row r="98" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B98" s="11"/>
-      <c r="C98" s="3"/>
-      <c r="D98" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G98" s="4" t="s">
+      <c r="C98" s="12"/>
+      <c r="D98" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E98" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F98" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G98" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H98" s="3"/>
-      <c r="I98" s="3"/>
-      <c r="J98" s="8"/>
+      <c r="H98" s="12"/>
+      <c r="I98" s="12"/>
+      <c r="J98" s="14"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B99" s="11"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G99" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H99" s="3"/>
-      <c r="I99" s="3"/>
-      <c r="J99" s="8"/>
-    </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C99" s="12"/>
+      <c r="D99" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E99" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F99" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G99" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H99" s="12"/>
+      <c r="I99" s="12"/>
+      <c r="J99" s="14"/>
+    </row>
+    <row r="100" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B100" s="11"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G100" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H100" s="3"/>
-      <c r="I100" s="3"/>
-      <c r="J100" s="8"/>
-    </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C100" s="12"/>
+      <c r="D100" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E100" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F100" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G100" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H100" s="12"/>
+      <c r="I100" s="12"/>
+      <c r="J100" s="14"/>
+    </row>
+    <row r="101" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B101" s="11"/>
-      <c r="C101" s="12" t="s">
-        <v>38</v>
-      </c>
+      <c r="C101" s="12"/>
       <c r="D101" s="13" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E101" s="13" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F101" s="12" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G101" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H101" s="12"/>
       <c r="I101" s="12"/>
       <c r="J101" s="14"/>
     </row>
-    <row r="102" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="2:10" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="B102" s="11"/>
       <c r="C102" s="12"/>
       <c r="D102" s="13" t="s">
-        <v>8</v>
+        <v>242</v>
       </c>
       <c r="E102" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F102" s="12" t="s">
-        <v>86</v>
+        <v>125</v>
+      </c>
+      <c r="F102" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="G102" s="13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H102" s="12"/>
       <c r="I102" s="12"/>
       <c r="J102" s="14"/>
     </row>
-    <row r="103" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B103" s="11"/>
-      <c r="C103" s="12"/>
-      <c r="D103" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E103" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F103" s="12" t="s">
+      <c r="C103" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H103" s="3"/>
+      <c r="I103" s="3"/>
+      <c r="J103" s="8"/>
+    </row>
+    <row r="104" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B104" s="11"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F104" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="G103" s="13" t="s">
+      <c r="G104" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H103" s="12"/>
-      <c r="I103" s="12"/>
-      <c r="J103" s="14"/>
-    </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B104" s="11"/>
-      <c r="C104" s="12"/>
-      <c r="D104" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="E104" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F104" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G104" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H104" s="12"/>
-      <c r="I104" s="12"/>
-      <c r="J104" s="14"/>
+      <c r="H104" s="3"/>
+      <c r="I104" s="3"/>
+      <c r="J104" s="8"/>
     </row>
     <row r="105" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B105" s="11"/>
-      <c r="C105" s="12"/>
-      <c r="D105" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="E105" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F105" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G105" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H105" s="12"/>
-      <c r="I105" s="12"/>
-      <c r="J105" s="14"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H105" s="3"/>
+      <c r="I105" s="3"/>
+      <c r="J105" s="8"/>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B106" s="11"/>
-      <c r="C106" s="12"/>
-      <c r="D106" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E106" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F106" s="12" t="s">
+      <c r="C106" s="3"/>
+      <c r="D106" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F106" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G106" s="13" t="s">
+      <c r="G106" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H106" s="12"/>
-      <c r="I106" s="12"/>
-      <c r="J106" s="14"/>
-    </row>
-    <row r="107" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="H106" s="3"/>
+      <c r="I106" s="3"/>
+      <c r="J106" s="8"/>
+    </row>
+    <row r="107" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B107" s="11"/>
-      <c r="C107" s="12"/>
-      <c r="D107" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="E107" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F107" s="12" t="s">
+      <c r="C107" s="3"/>
+      <c r="D107" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F107" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G107" s="13" t="s">
+      <c r="G107" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H107" s="3"/>
+      <c r="I107" s="3"/>
+      <c r="J107" s="8"/>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B108" s="11"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H108" s="3"/>
+      <c r="I108" s="3"/>
+      <c r="J108" s="8"/>
+    </row>
+    <row r="109" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="B109" s="11"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G109" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H107" s="12"/>
-      <c r="I107" s="12"/>
-      <c r="J107" s="14"/>
-    </row>
-    <row r="108" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B108" s="11"/>
-      <c r="C108" s="12"/>
-      <c r="D108" s="13" t="s">
+      <c r="H109" s="3"/>
+      <c r="I109" s="3"/>
+      <c r="J109" s="8"/>
+    </row>
+    <row r="110" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B110" s="11"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E108" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F108" s="12" t="s">
+      <c r="E110" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F110" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G108" s="13" t="s">
+      <c r="G110" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="H108" s="12"/>
-      <c r="I108" s="12"/>
-      <c r="J108" s="14"/>
-    </row>
-    <row r="109" spans="2:10" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="B109" s="11"/>
-      <c r="C109" s="12"/>
-      <c r="D109" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E109" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F109" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G109" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="H109" s="12"/>
-      <c r="I109" s="12"/>
-      <c r="J109" s="14"/>
-    </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B110" s="11"/>
-      <c r="C110" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E110" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G110" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
       <c r="J110" s="8"/>
     </row>
-    <row r="111" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="2:10" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="B111" s="11"/>
       <c r="C111" s="3"/>
       <c r="D111" s="4" t="s">
-        <v>8</v>
+        <v>143</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
       <c r="J111" s="8"/>
     </row>
-    <row r="112" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B112" s="11"/>
-      <c r="C112" s="3"/>
-      <c r="D112" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E112" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F112" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G112" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H112" s="3"/>
-      <c r="I112" s="3"/>
-      <c r="J112" s="8"/>
+      <c r="C112" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D112" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E112" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F112" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G112" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H112" s="12"/>
+      <c r="I112" s="12"/>
+      <c r="J112" s="14"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B113" s="11"/>
-      <c r="C113" s="3"/>
-      <c r="D113" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E113" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G113" s="4" t="s">
+      <c r="C113" s="12"/>
+      <c r="D113" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E113" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F113" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G113" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H113" s="3"/>
-      <c r="I113" s="3"/>
-      <c r="J113" s="8"/>
-    </row>
-    <row r="114" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="H113" s="12"/>
+      <c r="I113" s="12"/>
+      <c r="J113" s="14"/>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B114" s="11"/>
-      <c r="C114" s="3"/>
-      <c r="D114" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F114" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G114" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H114" s="3"/>
-      <c r="I114" s="3"/>
-      <c r="J114" s="8"/>
+      <c r="C114" s="12"/>
+      <c r="D114" s="13"/>
+      <c r="E114" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F114" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G114" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H114" s="12"/>
+      <c r="I114" s="12"/>
+      <c r="J114" s="14"/>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B115" s="11"/>
-      <c r="C115" s="3"/>
+      <c r="C115" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="D115" s="4" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
       <c r="J115" s="8"/>
     </row>
-    <row r="116" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B116" s="11"/>
       <c r="C116" s="3"/>
       <c r="D116" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F116" s="3" t="s">
-        <v>83</v>
+        <v>9</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>65</v>
+        <v>246</v>
       </c>
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
       <c r="J116" s="8"/>
     </row>
-    <row r="117" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B117" s="11"/>
-      <c r="C117" s="3"/>
-      <c r="D117" s="4" t="s">
+    <row r="117" spans="2:10" ht="36.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B117" s="10"/>
+      <c r="C117" s="35"/>
+      <c r="D117" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="E117" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F117" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="G117" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="E117" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G117" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H117" s="3"/>
-      <c r="I117" s="3"/>
-      <c r="J117" s="8"/>
-    </row>
-    <row r="118" spans="2:10" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="B118" s="11"/>
-      <c r="C118" s="3"/>
-      <c r="D118" s="4" t="s">
+      <c r="H117" s="35"/>
+      <c r="I117" s="35"/>
+      <c r="J117" s="37"/>
+    </row>
+    <row r="118" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="119" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B119" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="C119" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="D119" s="26"/>
+      <c r="E119" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="F119" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="G119" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="E118" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F118" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G118" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H118" s="3"/>
-      <c r="I118" s="3"/>
-      <c r="J118" s="8"/>
-    </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B119" s="11"/>
-      <c r="C119" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D119" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E119" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F119" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="G119" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H119" s="12"/>
-      <c r="I119" s="12"/>
-      <c r="J119" s="14"/>
-    </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="H119" s="27"/>
+      <c r="I119" s="43"/>
+      <c r="J119" s="27"/>
+    </row>
+    <row r="120" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B120" s="11"/>
       <c r="C120" s="12"/>
-      <c r="D120" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E120" s="13" t="s">
-        <v>134</v>
-      </c>
+      <c r="D120" s="13"/>
+      <c r="E120" s="13"/>
       <c r="F120" s="12" t="s">
-        <v>88</v>
+        <v>151</v>
       </c>
       <c r="G120" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H120" s="12"/>
-      <c r="I120" s="12"/>
+        <v>154</v>
+      </c>
+      <c r="H120" s="14"/>
+      <c r="I120" s="44"/>
       <c r="J120" s="14"/>
     </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B121" s="11"/>
       <c r="C121" s="12"/>
       <c r="D121" s="13"/>
       <c r="E121" s="13" t="s">
-        <v>47</v>
+        <v>153</v>
       </c>
       <c r="F121" s="12" t="s">
-        <v>90</v>
+        <v>157</v>
       </c>
       <c r="G121" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H121" s="12"/>
-      <c r="I121" s="12"/>
+        <v>156</v>
+      </c>
+      <c r="H121" s="14"/>
+      <c r="I121" s="44"/>
       <c r="J121" s="14"/>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B122" s="11"/>
-      <c r="C122" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D122" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="E122" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="F122" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="G122" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="H122" s="3"/>
-      <c r="I122" s="3"/>
-      <c r="J122" s="8"/>
+      <c r="C122" s="12"/>
+      <c r="D122" s="13"/>
+      <c r="E122" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="F122" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="G122" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="H122" s="14"/>
+      <c r="I122" s="44"/>
+      <c r="J122" s="14"/>
     </row>
     <row r="123" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B123" s="11"/>
-      <c r="C123" s="3"/>
-      <c r="D123" s="4" t="s">
+      <c r="C123" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D123" s="4"/>
+      <c r="E123" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H123" s="8"/>
+      <c r="I123" s="45"/>
+      <c r="J123" s="8"/>
+    </row>
+    <row r="124" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B124" s="48"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H124" s="8"/>
+      <c r="I124" s="45"/>
+      <c r="J124" s="8"/>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B125" s="48"/>
+      <c r="C125" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D125" s="13"/>
+      <c r="E125" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="F125" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="G125" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="H125" s="14"/>
+      <c r="I125" s="44"/>
+      <c r="J125" s="14"/>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B126" s="48"/>
+      <c r="C126" s="52"/>
+      <c r="D126" s="53"/>
+      <c r="E126" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="F126" s="52"/>
+      <c r="G126" s="53" t="s">
+        <v>156</v>
+      </c>
+      <c r="H126" s="54"/>
+      <c r="I126" s="55"/>
+      <c r="J126" s="54"/>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B127" s="48"/>
+      <c r="C127" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D127" s="4"/>
+      <c r="E127" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="H127" s="51"/>
+      <c r="I127" s="56"/>
+      <c r="J127" s="51"/>
+    </row>
+    <row r="128" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B128" s="49"/>
+      <c r="C128" s="6"/>
+      <c r="D128" s="7"/>
+      <c r="E128" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F128" s="6"/>
+      <c r="G128" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H128" s="9"/>
+      <c r="I128" s="46"/>
+      <c r="J128" s="9"/>
+    </row>
+    <row r="129" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="130" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B130" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C130" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="D130" s="26"/>
+      <c r="E130" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="F130" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="G130" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="H130" s="25"/>
+      <c r="I130" s="25"/>
+      <c r="J130" s="27"/>
+    </row>
+    <row r="131" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B131" s="11"/>
+      <c r="C131" s="12"/>
+      <c r="D131" s="13"/>
+      <c r="E131" s="13"/>
+      <c r="F131" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G131" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="E123" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F123" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="G123" s="4" t="s">
+      <c r="H131" s="12"/>
+      <c r="I131" s="12"/>
+      <c r="J131" s="14"/>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B132" s="11"/>
+      <c r="C132" s="12"/>
+      <c r="D132" s="13"/>
+      <c r="E132" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="F132" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="G132" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="H123" s="3"/>
-      <c r="I123" s="3"/>
-      <c r="J123" s="8"/>
-    </row>
-    <row r="124" spans="2:10" ht="36.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B124" s="10"/>
-      <c r="C124" s="35"/>
-      <c r="D124" s="36" t="s">
+      <c r="H132" s="12"/>
+      <c r="I132" s="12"/>
+      <c r="J132" s="14"/>
+    </row>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B133" s="11"/>
+      <c r="C133" s="12"/>
+      <c r="D133" s="13"/>
+      <c r="E133" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="F133" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="E124" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="F124" s="36" t="s">
+      <c r="G133" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="G124" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="H124" s="35"/>
-      <c r="I124" s="35"/>
-      <c r="J124" s="37"/>
-    </row>
-    <row r="125" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="126" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B126" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="C126" s="25" t="s">
+      <c r="H133" s="12"/>
+      <c r="I133" s="12"/>
+      <c r="J133" s="14"/>
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B134" s="11"/>
+      <c r="C134" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D134" s="4"/>
+      <c r="E134" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H134" s="3"/>
+      <c r="I134" s="3"/>
+      <c r="J134" s="8"/>
+    </row>
+    <row r="135" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B135" s="11"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="31"/>
+      <c r="E135" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G135" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="H135" s="50"/>
+      <c r="I135" s="50"/>
+      <c r="J135" s="51"/>
+    </row>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B136" s="11"/>
+      <c r="C136" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D136" s="53"/>
+      <c r="E136" s="53" t="s">
+        <v>164</v>
+      </c>
+      <c r="F136" s="52" t="s">
+        <v>166</v>
+      </c>
+      <c r="G136" s="53" t="s">
         <v>165</v>
       </c>
-      <c r="D126" s="26"/>
-      <c r="E126" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="F126" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="G126" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="H126" s="27"/>
-      <c r="I126" s="43"/>
-      <c r="J126" s="27"/>
-    </row>
-    <row r="127" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B127" s="11"/>
-      <c r="C127" s="12"/>
-      <c r="D127" s="13"/>
-      <c r="E127" s="13"/>
-      <c r="F127" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="G127" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="H127" s="14"/>
-      <c r="I127" s="44"/>
-      <c r="J127" s="14"/>
-    </row>
-    <row r="128" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B128" s="11"/>
-      <c r="C128" s="12"/>
-      <c r="D128" s="13"/>
-      <c r="E128" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="F128" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="G128" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="H128" s="14"/>
-      <c r="I128" s="44"/>
-      <c r="J128" s="14"/>
-    </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B129" s="11"/>
-      <c r="C129" s="12"/>
-      <c r="D129" s="13"/>
-      <c r="E129" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="F129" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="G129" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="H129" s="14"/>
-      <c r="I129" s="44"/>
-      <c r="J129" s="14"/>
-    </row>
-    <row r="130" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B130" s="11"/>
-      <c r="C130" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D130" s="4"/>
-      <c r="E130" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="F130" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G130" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H130" s="8"/>
-      <c r="I130" s="45"/>
-      <c r="J130" s="8"/>
-    </row>
-    <row r="131" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B131" s="48"/>
-      <c r="C131" s="3"/>
-      <c r="D131" s="4"/>
-      <c r="E131" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="F131" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G131" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H131" s="8"/>
-      <c r="I131" s="45"/>
-      <c r="J131" s="8"/>
-    </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B132" s="48"/>
-      <c r="C132" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D132" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="E132" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="F132" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="G132" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="H132" s="14"/>
-      <c r="I132" s="44"/>
-      <c r="J132" s="14"/>
-    </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B133" s="48"/>
-      <c r="C133" s="52"/>
-      <c r="D133" s="53"/>
-      <c r="E133" s="53" t="s">
+      <c r="H136" s="52"/>
+      <c r="I136" s="52"/>
+      <c r="J136" s="54"/>
+    </row>
+    <row r="137" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B137" s="57"/>
+      <c r="C137" s="38"/>
+      <c r="D137" s="19"/>
+      <c r="E137" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="F133" s="52"/>
-      <c r="G133" s="53" t="s">
-        <v>166</v>
-      </c>
-      <c r="H133" s="54"/>
-      <c r="I133" s="55"/>
-      <c r="J133" s="54"/>
-    </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B134" s="48"/>
-      <c r="C134" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D134" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="E134" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="F134" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="G134" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="H134" s="51"/>
-      <c r="I134" s="56"/>
-      <c r="J134" s="51"/>
-    </row>
-    <row r="135" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B135" s="49"/>
-      <c r="C135" s="6"/>
-      <c r="D135" s="7"/>
-      <c r="E135" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F135" s="6"/>
-      <c r="G135" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="H135" s="9"/>
-      <c r="I135" s="46"/>
-      <c r="J135" s="9"/>
-    </row>
-    <row r="136" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="137" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B137" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="C137" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="D137" s="26"/>
-      <c r="E137" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="F137" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="G137" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="H137" s="25"/>
-      <c r="I137" s="25"/>
-      <c r="J137" s="27"/>
-    </row>
-    <row r="138" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B138" s="11"/>
-      <c r="C138" s="12"/>
-      <c r="D138" s="13"/>
-      <c r="E138" s="13"/>
-      <c r="F138" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="G138" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="H138" s="12"/>
-      <c r="I138" s="12"/>
-      <c r="J138" s="14"/>
-    </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B139" s="11"/>
-      <c r="C139" s="12"/>
-      <c r="D139" s="13"/>
-      <c r="E139" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="F139" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="G139" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="H139" s="12"/>
-      <c r="I139" s="12"/>
-      <c r="J139" s="14"/>
-    </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B140" s="11"/>
-      <c r="C140" s="12"/>
-      <c r="D140" s="13"/>
-      <c r="E140" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="F140" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="G140" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="H140" s="12"/>
-      <c r="I140" s="12"/>
-      <c r="J140" s="14"/>
-    </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B141" s="11"/>
-      <c r="C141" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D141" s="4"/>
-      <c r="E141" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="F141" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G141" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H141" s="3"/>
-      <c r="I141" s="3"/>
-      <c r="J141" s="8"/>
-    </row>
-    <row r="142" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B142" s="11"/>
-      <c r="C142" s="3"/>
-      <c r="D142" s="31"/>
-      <c r="E142" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="F142" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G142" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="H142" s="50"/>
-      <c r="I142" s="50"/>
-      <c r="J142" s="51"/>
-    </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B143" s="11"/>
-      <c r="C143" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D143" s="53" t="s">
-        <v>174</v>
-      </c>
-      <c r="E143" s="53" t="s">
-        <v>174</v>
-      </c>
-      <c r="F143" s="52" t="s">
-        <v>176</v>
-      </c>
-      <c r="G143" s="53" t="s">
-        <v>175</v>
-      </c>
-      <c r="H143" s="52"/>
-      <c r="I143" s="52"/>
-      <c r="J143" s="54"/>
-    </row>
-    <row r="144" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B144" s="57"/>
-      <c r="C144" s="38"/>
-      <c r="D144" s="19"/>
-      <c r="E144" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="F144" s="18" t="s">
+      <c r="F137" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="G144" s="19" t="s">
+      <c r="G137" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="H144" s="18"/>
-      <c r="I144" s="18"/>
-      <c r="J144" s="20"/>
+      <c r="H137" s="18"/>
+      <c r="I137" s="18"/>
+      <c r="J137" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6484,10 +6428,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07622B51-2DC1-4955-B7A1-F49C4F9FDDC1}">
-  <dimension ref="B2:J99"/>
+  <dimension ref="B2:J100"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -6501,16 +6445,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" t="s">
+      <c r="B2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>173</v>
+      <c r="C2" s="32" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="4" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="58" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -6521,7 +6465,7 @@
       </c>
     </row>
     <row r="5" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B5" s="61"/>
+      <c r="B5" s="59"/>
       <c r="C5" s="6" t="s">
         <v>3</v>
       </c>
@@ -6559,617 +6503,1361 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" t="s">
+    <row r="9" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="10" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="F10" s="65" t="s">
+        <v>244</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="66"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="11"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B12" s="11"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="51"/>
+    </row>
+    <row r="13" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="67" t="s">
+        <v>187</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="27"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="14"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="11"/>
+      <c r="C15" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="11"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="11"/>
+      <c r="C17" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="14"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="14"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="11"/>
+      <c r="C19" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="11"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="11"/>
+      <c r="C21" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="14"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="14"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="11"/>
+      <c r="C23" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="11"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="11"/>
+      <c r="C25" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="14"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="14"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="11"/>
+      <c r="C27" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="8"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="11"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="8"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="11"/>
+      <c r="C29" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D29" s="12"/>
+      <c r="E29" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="14"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="11"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="14"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="11"/>
+      <c r="C31" s="3" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="13" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="2" t="s">
+      <c r="D31" s="3"/>
+      <c r="E31" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="8"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="11"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="8"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="11"/>
+      <c r="C33" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="14"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="11"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="14"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="11"/>
+      <c r="C35" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="8"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="11"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="8"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" s="11"/>
+      <c r="C37" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="14"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" s="11"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="14"/>
+    </row>
+    <row r="39" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B39" s="10"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="20"/>
+    </row>
+    <row r="40" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" s="67" t="s">
+        <v>193</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="F40" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C13" t="s">
-        <v>239</v>
-      </c>
-      <c r="D13" t="s">
-        <v>240</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="G13" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C15" t="s">
+      <c r="G40" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="66"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41" s="11"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="8"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" s="11"/>
+      <c r="C42" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="14"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" s="11"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="14"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" s="11"/>
+      <c r="C44" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="8"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45" s="11"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="8"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" s="11"/>
+      <c r="C46" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="14"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47" s="11"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="14"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B48" s="11"/>
+      <c r="C48" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="8"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" s="11"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="8"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B50" s="11"/>
+      <c r="C50" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="14"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B51" s="11"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="14"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" s="11"/>
+      <c r="C52" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="8"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B53" s="11"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="8"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B54" s="11"/>
+      <c r="C54" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="14"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B55" s="11"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="14"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B56" s="11"/>
+      <c r="C56" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="8"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57" s="11"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="8"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B58" s="11"/>
+      <c r="C58" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="E15" t="s">
+      <c r="D58" s="12"/>
+      <c r="E58" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="14"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B59" s="11"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="14"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B60" s="11"/>
+      <c r="C60" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="8"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B61" s="11"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="8"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B62" s="11"/>
+      <c r="C62" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="14"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B63" s="11"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="14"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B64" s="11"/>
+      <c r="C64" s="61"/>
+      <c r="D64" s="61"/>
+      <c r="E64" s="61"/>
+      <c r="F64" s="61"/>
+      <c r="G64" s="61"/>
+      <c r="H64" s="61"/>
+      <c r="I64" s="61"/>
+      <c r="J64" s="62"/>
+    </row>
+    <row r="65" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B65" s="10"/>
+      <c r="C65" s="63"/>
+      <c r="D65" s="63"/>
+      <c r="E65" s="63"/>
+      <c r="F65" s="63"/>
+      <c r="G65" s="63"/>
+      <c r="H65" s="63"/>
+      <c r="I65" s="63"/>
+      <c r="J65" s="64"/>
+    </row>
+    <row r="66" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B66" s="67" t="s">
+        <v>198</v>
+      </c>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="66"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B67" s="11"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="8"/>
+    </row>
+    <row r="68" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B68" s="10"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="9"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B69" s="60" t="s">
+        <v>201</v>
+      </c>
+      <c r="C69" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="F69" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="G69" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="27"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B70" s="11"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="14"/>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B71" s="11"/>
+      <c r="C71" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="8"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B72" s="11"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="8"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B73" s="11"/>
+      <c r="C73" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="F73" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="G73" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="14"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B74" s="11"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="14"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B75" s="11"/>
+      <c r="C75" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="8"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B76" s="11"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="8"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B77" s="11"/>
+      <c r="C77" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="G77" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="14"/>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B78" s="11"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="14"/>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B79" s="11"/>
+      <c r="C79" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="F15" t="s">
-        <v>184</v>
-      </c>
-      <c r="G15" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C17" t="s">
-        <v>185</v>
-      </c>
-      <c r="E17" t="s">
-        <v>206</v>
-      </c>
-      <c r="F17" t="s">
-        <v>184</v>
-      </c>
-      <c r="G17" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C19" t="s">
+      <c r="D79" s="3"/>
+      <c r="E79" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G79" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="E19" t="s">
-        <v>206</v>
-      </c>
-      <c r="F19" t="s">
-        <v>184</v>
-      </c>
-      <c r="G19" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C21" t="s">
-        <v>187</v>
-      </c>
-      <c r="E21" t="s">
-        <v>206</v>
-      </c>
-      <c r="F21" t="s">
-        <v>184</v>
-      </c>
-      <c r="G21" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C23" t="s">
-        <v>188</v>
-      </c>
-      <c r="E23" t="s">
-        <v>206</v>
-      </c>
-      <c r="F23" t="s">
-        <v>184</v>
-      </c>
-      <c r="G23" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C25" t="s">
-        <v>189</v>
-      </c>
-      <c r="E25" t="s">
-        <v>206</v>
-      </c>
-      <c r="F25" t="s">
-        <v>184</v>
-      </c>
-      <c r="G25" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C27" t="s">
-        <v>190</v>
-      </c>
-      <c r="E27" t="s">
-        <v>206</v>
-      </c>
-      <c r="F27" t="s">
-        <v>184</v>
-      </c>
-      <c r="G27" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G28" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C29" t="s">
-        <v>191</v>
-      </c>
-      <c r="E29" t="s">
-        <v>206</v>
-      </c>
-      <c r="F29" t="s">
-        <v>184</v>
-      </c>
-      <c r="G29" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C31" t="s">
-        <v>192</v>
-      </c>
-      <c r="E31" t="s">
-        <v>206</v>
-      </c>
-      <c r="F31" t="s">
-        <v>184</v>
-      </c>
-      <c r="G31" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C33" t="s">
-        <v>193</v>
-      </c>
-      <c r="E33" t="s">
-        <v>206</v>
-      </c>
-      <c r="F33" t="s">
-        <v>184</v>
-      </c>
-      <c r="G33" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C35" t="s">
-        <v>194</v>
-      </c>
-      <c r="E35" t="s">
-        <v>206</v>
-      </c>
-      <c r="F35" t="s">
-        <v>184</v>
-      </c>
-      <c r="G35" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C37" t="s">
-        <v>195</v>
-      </c>
-      <c r="E37" t="s">
-        <v>206</v>
-      </c>
-      <c r="F37" t="s">
-        <v>184</v>
-      </c>
-      <c r="G37" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G38" t="s">
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="8"/>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B80" s="11"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="8"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B81" s="11"/>
+      <c r="C81" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="40" spans="2:7" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C40" t="s">
-        <v>183</v>
-      </c>
-      <c r="E40" t="s">
-        <v>205</v>
-      </c>
-      <c r="F40" t="s">
-        <v>207</v>
-      </c>
-      <c r="G40" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C42" t="s">
-        <v>185</v>
-      </c>
-      <c r="E42" t="s">
-        <v>205</v>
-      </c>
-      <c r="F42" t="s">
-        <v>207</v>
-      </c>
-      <c r="G42" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C44" t="s">
+      <c r="F81" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="G81" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="H81" s="12"/>
+      <c r="I81" s="12"/>
+      <c r="J81" s="14"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B82" s="11"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="14"/>
+    </row>
+    <row r="83" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B83" s="11"/>
+      <c r="C83" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="8"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B84" s="11"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="8"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B85" s="11"/>
+      <c r="C85" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="F85" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="G85" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="E44" t="s">
-        <v>205</v>
-      </c>
-      <c r="F44" t="s">
-        <v>207</v>
-      </c>
-      <c r="G44" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C46" t="s">
-        <v>187</v>
-      </c>
-      <c r="E46" t="s">
-        <v>205</v>
-      </c>
-      <c r="F46" t="s">
-        <v>207</v>
-      </c>
-      <c r="G46" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C48" t="s">
-        <v>188</v>
-      </c>
-      <c r="E48" t="s">
-        <v>205</v>
-      </c>
-      <c r="F48" t="s">
-        <v>207</v>
-      </c>
-      <c r="G48" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C50" t="s">
-        <v>189</v>
-      </c>
-      <c r="E50" t="s">
-        <v>205</v>
-      </c>
-      <c r="F50" t="s">
-        <v>207</v>
-      </c>
-      <c r="G50" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C52" t="s">
-        <v>190</v>
-      </c>
-      <c r="E52" t="s">
-        <v>205</v>
-      </c>
-      <c r="F52" t="s">
-        <v>207</v>
-      </c>
-      <c r="G52" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C54" t="s">
-        <v>191</v>
-      </c>
-      <c r="E54" t="s">
-        <v>205</v>
-      </c>
-      <c r="F54" t="s">
-        <v>207</v>
-      </c>
-      <c r="G54" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C56" t="s">
-        <v>192</v>
-      </c>
-      <c r="E56" t="s">
-        <v>205</v>
-      </c>
-      <c r="F56" t="s">
-        <v>207</v>
-      </c>
-      <c r="G56" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C58" t="s">
-        <v>193</v>
-      </c>
-      <c r="E58" t="s">
-        <v>205</v>
-      </c>
-      <c r="F58" t="s">
-        <v>207</v>
-      </c>
-      <c r="G58" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C60" t="s">
-        <v>194</v>
-      </c>
-      <c r="E60" t="s">
-        <v>205</v>
-      </c>
-      <c r="F60" t="s">
-        <v>207</v>
-      </c>
-      <c r="G60" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="62" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C62" t="s">
-        <v>195</v>
-      </c>
-      <c r="E62" t="s">
-        <v>205</v>
-      </c>
-      <c r="F62" t="s">
-        <v>207</v>
-      </c>
-      <c r="G62" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B66" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E66" t="s">
-        <v>209</v>
-      </c>
-      <c r="F66" t="s">
-        <v>210</v>
-      </c>
-      <c r="G66" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B69" t="s">
-        <v>211</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="H85" s="12"/>
+      <c r="I85" s="12"/>
+      <c r="J85" s="14"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B86" s="11"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
+      <c r="J86" s="14"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B87" s="11"/>
+      <c r="C87" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="8"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B88" s="11"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="8"/>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B89" s="11"/>
+      <c r="C89" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="E69" t="s">
-        <v>212</v>
-      </c>
-      <c r="F69" t="s">
-        <v>229</v>
-      </c>
-      <c r="G69" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C71" t="s">
+      <c r="D89" s="12"/>
+      <c r="E89" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="G89" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="H89" s="12"/>
+      <c r="I89" s="12"/>
+      <c r="J89" s="14"/>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B90" s="11"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="12"/>
+      <c r="I90" s="12"/>
+      <c r="J90" s="14"/>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B91" s="11"/>
+      <c r="C91" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="E71" t="s">
-        <v>212</v>
-      </c>
-      <c r="F71" t="s">
-        <v>229</v>
-      </c>
-      <c r="G71" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C73" t="s">
+      <c r="D91" s="3"/>
+      <c r="E91" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="8"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B92" s="11"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="8"/>
+    </row>
+    <row r="93" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B93" s="11"/>
+      <c r="C93" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="E73" t="s">
-        <v>212</v>
-      </c>
-      <c r="F73" t="s">
-        <v>229</v>
-      </c>
-      <c r="G73" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C75" t="s">
+      <c r="D93" s="12"/>
+      <c r="E93" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="F93" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="G93" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="H93" s="12"/>
+      <c r="I93" s="12"/>
+      <c r="J93" s="14"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B94" s="11"/>
+      <c r="C94" s="12"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="12"/>
+      <c r="I94" s="12"/>
+      <c r="J94" s="14"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B95" s="11"/>
+      <c r="C95" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="8"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B96" s="11"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="8"/>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B97" s="11"/>
+      <c r="C97" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="E75" t="s">
-        <v>212</v>
-      </c>
-      <c r="F75" t="s">
-        <v>229</v>
-      </c>
-      <c r="G75" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C77" t="s">
+      <c r="D97" s="12"/>
+      <c r="E97" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="F97" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="G97" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="H97" s="12"/>
+      <c r="I97" s="12"/>
+      <c r="J97" s="14"/>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B98" s="11"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="12"/>
+      <c r="I98" s="12"/>
+      <c r="J98" s="14"/>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B99" s="11"/>
+      <c r="C99" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="E77" t="s">
-        <v>212</v>
-      </c>
-      <c r="F77" t="s">
-        <v>229</v>
-      </c>
-      <c r="G77" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C79" t="s">
-        <v>216</v>
-      </c>
-      <c r="E79" t="s">
-        <v>212</v>
-      </c>
-      <c r="F79" t="s">
-        <v>229</v>
-      </c>
-      <c r="G79" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="81" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C81" t="s">
+      <c r="D99" s="3"/>
+      <c r="E99" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F99" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E81" t="s">
-        <v>212</v>
-      </c>
-      <c r="F81" t="s">
-        <v>229</v>
-      </c>
-      <c r="G81" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="83" spans="3:7" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="C83" t="s">
-        <v>220</v>
-      </c>
-      <c r="E83" t="s">
-        <v>212</v>
-      </c>
-      <c r="F83" t="s">
-        <v>229</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C85" t="s">
-        <v>221</v>
-      </c>
-      <c r="E85" t="s">
-        <v>212</v>
-      </c>
-      <c r="F85" t="s">
-        <v>229</v>
-      </c>
-      <c r="G85" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="87" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C87" t="s">
-        <v>222</v>
-      </c>
-      <c r="E87" t="s">
-        <v>212</v>
-      </c>
-      <c r="F87" t="s">
-        <v>229</v>
-      </c>
-      <c r="G87" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="89" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C89" t="s">
-        <v>223</v>
-      </c>
-      <c r="E89" t="s">
-        <v>212</v>
-      </c>
-      <c r="F89" t="s">
-        <v>229</v>
-      </c>
-      <c r="G89" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="91" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C91" t="s">
-        <v>224</v>
-      </c>
-      <c r="E91" t="s">
-        <v>212</v>
-      </c>
-      <c r="F91" t="s">
-        <v>229</v>
-      </c>
-      <c r="G91" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="93" spans="3:7" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="C93" t="s">
-        <v>225</v>
-      </c>
-      <c r="E93" t="s">
-        <v>212</v>
-      </c>
-      <c r="F93" t="s">
-        <v>229</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="95" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C95" t="s">
-        <v>226</v>
-      </c>
-      <c r="E95" t="s">
-        <v>212</v>
-      </c>
-      <c r="F95" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C97" t="s">
-        <v>227</v>
-      </c>
-      <c r="E97" t="s">
-        <v>212</v>
-      </c>
-      <c r="F97" t="s">
-        <v>229</v>
-      </c>
-      <c r="G97" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C99" t="s">
-        <v>228</v>
-      </c>
-      <c r="E99" t="s">
-        <v>212</v>
-      </c>
-      <c r="F99" t="s">
-        <v>229</v>
-      </c>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="8"/>
+    </row>
+    <row r="100" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B100" s="10"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="6"/>
+      <c r="I100" s="6"/>
+      <c r="J100" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7185,7 +7873,7 @@
   <dimension ref="B2:J13"/>
   <sheetViews>
     <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -7199,16 +7887,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" t="s">
+      <c r="B2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>235</v>
+      <c r="C2" s="32" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="4" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="58" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -7219,7 +7907,7 @@
       </c>
     </row>
     <row r="5" spans="2:10" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B5" s="61"/>
+      <c r="B5" s="59"/>
       <c r="C5" s="6" t="s">
         <v>3</v>
       </c>
@@ -7259,7 +7947,7 @@
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/テストケース.xlsx
+++ b/テストケース.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5cf47586d75cb25/デスクトップ/workspace/workspace-nishimura/ProgramWork/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="116" documentId="8_{FB2C5B17-156F-4188-AF96-3C92834A6A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43ECF24F-3209-4B96-9ED4-428DC1141963}"/>
+  <xr:revisionPtr revIDLastSave="118" documentId="8_{FB2C5B17-156F-4188-AF96-3C92834A6A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBE6A91E-16A9-4981-A728-535556FB9E58}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3F064697-4038-4B0C-9CC7-D71FC7163C92}"/>
   </bookViews>
@@ -27,19 +27,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="259">
   <si>
     <t>テストケース</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「アカウント登録」ボタンを押す</t>
-    <rPh sb="6" eb="8">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>オ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -474,13 +464,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「アカウント登録」のurl</t>
-    <rPh sb="6" eb="8">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>47都道府県あるか確認</t>
     <rPh sb="2" eb="6">
       <t>トドウフケン</t>
@@ -915,16 +898,6 @@
     </rPh>
     <rPh sb="7" eb="12">
       <t>モジスウセイゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>regist.php(アカウント登録画面)に遷移する</t>
-    <rPh sb="16" eb="20">
-      <t>トウロクガメン</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2939,6 +2912,200 @@
     </rPh>
     <rPh sb="11" eb="13">
       <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページが読み込まれ2秒以内に左記を入力して確認ボタンを押す</t>
+    <rPh sb="4" eb="5">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ビョウイナイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字数制限
+入力文字制限</t>
+    <rPh sb="0" eb="5">
+      <t>モジスウセイゲン</t>
+    </rPh>
+    <rPh sb="6" eb="12">
+      <t>ニュウリョクモジセイゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>西村</t>
+    <rPh sb="0" eb="2">
+      <t>ニシムラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成功</t>
+    <rPh sb="0" eb="2">
+      <t>セイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録のページは存在しているから成功。他はURLがないから失敗</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録をクリックしてその項目を見る</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>漢字ひらがな英数字記号カタカナ10文字以下</t>
+    <rPh sb="0" eb="2">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>漢字またはひらがなが一文字以上あると入力不可の文字を入れてもエラーが出ない</t>
+    <rPh sb="0" eb="2">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="10" eb="15">
+      <t>イチモジイジョウ</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>ニュウリョクフカ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成功、スペースが十個以上あると文字数制限も発動した</t>
+    <rPh sb="0" eb="2">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジュッコ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ハツドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スペースも含めて10文字以内ならエラーは出ない</t>
+    <rPh sb="5" eb="6">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>モジイナイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーが出ない、入力文字制限がうまくいってない。</t>
+    <rPh sb="4" eb="5">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="8" eb="14">
+      <t>ニュウリョクモジセイゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成功、時間は大丈夫</t>
+    <rPh sb="0" eb="2">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ダイジョウブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全角カナ漢字ひらがな英数字記号</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="10" eb="15">
+      <t>エイスウジキゴウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3002,7 +3169,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -3268,19 +3435,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -3386,7 +3540,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3438,9 +3592,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3474,9 +3625,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3492,16 +3640,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3510,22 +3655,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3540,7 +3682,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1">
@@ -3549,22 +3691,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
@@ -3590,6 +3726,63 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3620,6 +3813,10 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
+<file path=xl/persons/person10.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
@@ -3645,6 +3842,10 @@
 </file>
 
 <file path=xl/persons/person8.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person9.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -3945,10 +4146,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D25F908-8C24-448E-8107-DBDBAE93069C}">
-  <dimension ref="B2:K137"/>
+  <dimension ref="B2:K140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="G137" sqref="G137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3958,686 +4159,881 @@
     <col min="3" max="3" width="32.75" customWidth="1"/>
     <col min="4" max="4" width="58.25" style="2" customWidth="1"/>
     <col min="5" max="5" width="28.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="38.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="34.1640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="216" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="32" t="s">
-        <v>97</v>
+      <c r="C2" s="30" t="s">
+        <v>94</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="4" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="58" t="s">
-        <v>51</v>
+      <c r="B4" s="62" t="s">
+        <v>49</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="39" t="s">
         <v>4</v>
       </c>
+      <c r="D4" s="36" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B5" s="59"/>
+      <c r="B5" s="63"/>
       <c r="C5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="40" t="s">
         <v>2</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="8" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="65" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B9" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" s="59" t="s">
+        <v>147</v>
+      </c>
+      <c r="F9" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="G9" s="59" t="s">
+        <v>149</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="I9" s="77">
+        <v>45148</v>
+      </c>
+      <c r="J9" s="78" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="38"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="I10" s="79">
+        <v>45148</v>
+      </c>
+      <c r="J10" s="78" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="35.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="38"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="I11" s="80">
+        <v>45148</v>
+      </c>
+      <c r="J11" s="78" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="13" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" s="22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B9" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="25" t="s">
+      <c r="C13" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="I13" s="64">
+        <v>45148</v>
+      </c>
+      <c r="J13" s="66" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="D9" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="27"/>
-    </row>
-    <row r="10" spans="2:10" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="42"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="G10" s="13" t="s">
+      <c r="F14" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="27"/>
-    </row>
-    <row r="11" spans="2:10" ht="35.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="42"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="G11" s="13" t="s">
+      <c r="G14" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="27"/>
-    </row>
-    <row r="12" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B12" s="41"/>
-      <c r="C12" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="37"/>
-    </row>
-    <row r="13" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="14" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="G14" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="27"/>
+      <c r="H14" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="I14" s="76">
+        <v>45148</v>
+      </c>
+      <c r="J14" s="68" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="14"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="I15" s="80">
+        <v>45148</v>
+      </c>
+      <c r="J15" s="69" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="11"/>
-      <c r="C16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G16" s="4" t="s">
+      <c r="C16" s="27"/>
+      <c r="D16" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="8"/>
-    </row>
-    <row r="17" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="H16" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="I16" s="79">
+        <v>45148</v>
+      </c>
+      <c r="J16" s="70" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="11"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>125</v>
+      <c r="C17" s="27"/>
+      <c r="D17" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>122</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="G17" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="29"/>
+        <v>78</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="I17" s="79">
+        <v>45148</v>
+      </c>
+      <c r="J17" s="70" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="18" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="11"/>
       <c r="C18" s="3"/>
       <c r="D18" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>81</v>
+        <v>122</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="I18" s="80">
+        <v>45148</v>
+      </c>
+      <c r="J18" s="69" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="19" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="11"/>
       <c r="C19" s="3"/>
       <c r="D19" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>81</v>
+        <v>122</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="8"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+        <v>15</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="I19" s="80">
+        <v>45148</v>
+      </c>
+      <c r="J19" s="69" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="11"/>
       <c r="C20" s="3"/>
       <c r="D20" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>236</v>
-      </c>
       <c r="G20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="I20" s="80">
+        <v>45148</v>
+      </c>
+      <c r="J20" s="69" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="21" spans="2:10" ht="78.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="11"/>
       <c r="C21" s="3"/>
       <c r="D21" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="8"/>
+        <v>100</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="I21" s="80">
+        <v>45148</v>
+      </c>
+      <c r="J21" s="69" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="22" spans="2:10" ht="46" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="11"/>
       <c r="C22" s="3"/>
       <c r="D22" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>80</v>
+        <v>122</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="I22" s="80">
+        <v>45148</v>
+      </c>
+      <c r="J22" s="69" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="23" spans="2:10" ht="46" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="11"/>
       <c r="C23" s="3"/>
       <c r="D23" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>82</v>
+        <v>122</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="8"/>
+        <v>16</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="I23" s="80">
+        <v>45148</v>
+      </c>
+      <c r="J23" s="69" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="24" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="11"/>
       <c r="C24" s="3"/>
       <c r="D24" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>125</v>
+        <v>246</v>
       </c>
       <c r="F24" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="8"/>
+      <c r="I24" s="80">
+        <v>45148</v>
+      </c>
+      <c r="J24" s="69" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="11"/>
       <c r="C25" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>80</v>
+        <v>122</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="14"/>
+        <v>11</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="I25" s="76">
+        <v>45148</v>
+      </c>
+      <c r="J25" s="68" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="26" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
       <c r="D26" s="13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>79</v>
+        <v>122</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>77</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="14"/>
-    </row>
-    <row r="27" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+        <v>12</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="I26" s="76">
+        <v>45148</v>
+      </c>
+      <c r="J26" s="68" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
       <c r="D27" s="13" t="s">
-        <v>8</v>
+        <v>252</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>81</v>
+        <v>122</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="14"/>
+        <v>14</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="I27" s="76">
+        <v>45148</v>
+      </c>
+      <c r="J27" s="68" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="28" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
       <c r="D28" s="13" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>81</v>
+        <v>122</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>79</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="14"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+        <v>15</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="I28" s="76">
+        <v>45148</v>
+      </c>
+      <c r="J28" s="68" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
       <c r="D29" s="13" t="s">
-        <v>233</v>
+        <v>99</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>235</v>
+        <v>122</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>79</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="14"/>
-    </row>
-    <row r="30" spans="2:10" ht="90" x14ac:dyDescent="0.55000000000000004">
+        <v>15</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="I29" s="76">
+        <v>45148</v>
+      </c>
+      <c r="J29" s="68" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="11"/>
       <c r="C30" s="12"/>
       <c r="D30" s="13" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>104</v>
+        <v>122</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>232</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="14"/>
-    </row>
-    <row r="31" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+        <v>11</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="I30" s="76">
+        <v>45148</v>
+      </c>
+      <c r="J30" s="68" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="90" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="11"/>
       <c r="C31" s="12"/>
       <c r="D31" s="13" t="s">
         <v>231</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>80</v>
+        <v>122</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>101</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="14"/>
+        <v>100</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="I31" s="76">
+        <v>45148</v>
+      </c>
+      <c r="J31" s="68" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="32" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="11"/>
       <c r="C32" s="12"/>
       <c r="D32" s="13" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>82</v>
+        <v>122</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="14"/>
-    </row>
-    <row r="33" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
+        <v>14</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="I32" s="76">
+        <v>45148</v>
+      </c>
+      <c r="J32" s="68" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="11"/>
-      <c r="C33" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="8"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="I33" s="76">
+        <v>45148</v>
+      </c>
+      <c r="J33" s="68" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="34" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="11"/>
-      <c r="C34" s="3"/>
+      <c r="C34" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="D34" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="8"/>
+        <v>17</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="I34" s="80">
+        <v>45148</v>
+      </c>
+      <c r="J34" s="69" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="35" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="11"/>
       <c r="C35" s="3"/>
       <c r="D35" s="4" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>86</v>
+        <v>122</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="I35" s="80">
+        <v>45148</v>
+      </c>
+      <c r="J35" s="69" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="36" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="11"/>
       <c r="C36" s="3"/>
       <c r="D36" s="4" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F36" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>83</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="8"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="H36" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="I36" s="80">
+        <v>45148</v>
+      </c>
+      <c r="J36" s="69" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="11"/>
       <c r="C37" s="3"/>
       <c r="D37" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>83</v>
+        <v>122</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="8"/>
-    </row>
-    <row r="38" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
+        <v>17</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="I37" s="80">
+        <v>45148</v>
+      </c>
+      <c r="J37" s="69" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="11"/>
       <c r="C38" s="3"/>
       <c r="D38" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>79</v>
+        <v>122</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="I38" s="80">
+        <v>45148</v>
+      </c>
+      <c r="J38" s="69" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="39" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="11"/>
       <c r="C39" s="3"/>
       <c r="D39" s="4" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>81</v>
+        <v>122</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="8"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+        <v>12</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="I39" s="80">
+        <v>45148</v>
+      </c>
+      <c r="J39" s="69" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="11"/>
       <c r="C40" s="3"/>
       <c r="D40" s="4" t="s">
-        <v>239</v>
+        <v>25</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>236</v>
+        <v>122</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="8"/>
+        <v>18</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="I40" s="80">
+        <v>45148</v>
+      </c>
+      <c r="J40" s="69" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="41" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="11"/>
       <c r="C41" s="3"/>
       <c r="D41" s="4" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>83</v>
+        <v>122</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="I41" s="80">
+        <v>45148</v>
+      </c>
+      <c r="J41" s="69" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="42" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="11"/>
@@ -4646,1775 +5042,1930 @@
         <v>237</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>83</v>
+        <v>122</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="8"/>
+        <v>17</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="I42" s="80">
+        <v>45148</v>
+      </c>
+      <c r="J42" s="69" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="43" spans="2:11" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="11"/>
       <c r="C43" s="3"/>
       <c r="D43" s="4" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="8"/>
+        <v>17</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="I43" s="80">
+        <v>45148</v>
+      </c>
+      <c r="J43" s="69" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="44" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="11"/>
-      <c r="C44" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G44" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="1"/>
-    </row>
-    <row r="45" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="C44" s="3"/>
+      <c r="D44" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="I44" s="80">
+        <v>45148</v>
+      </c>
+      <c r="J44" s="69" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="11"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G45" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="14"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="I45" s="80">
+        <v>45148</v>
+      </c>
+      <c r="J45" s="69" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="46" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="11"/>
-      <c r="C46" s="12"/>
+      <c r="C46" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="D46" s="13" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="14"/>
+        <v>17</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="I46" s="76">
+        <v>45148</v>
+      </c>
+      <c r="J46" s="68" t="s">
+        <v>249</v>
+      </c>
+      <c r="K46" s="1"/>
     </row>
     <row r="47" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="11"/>
       <c r="C47" s="12"/>
       <c r="D47" s="13" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="14"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+        <v>12</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="I47" s="76">
+        <v>45148</v>
+      </c>
+      <c r="J47" s="68" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="11"/>
       <c r="C48" s="12"/>
       <c r="D48" s="13" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F48" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F48" s="13" t="s">
         <v>83</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="14"/>
+        <v>18</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="I48" s="76">
+        <v>45148</v>
+      </c>
+      <c r="J48" s="68" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="49" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="11"/>
       <c r="C49" s="12"/>
       <c r="D49" s="13" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>79</v>
+        <v>122</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="14"/>
-    </row>
-    <row r="50" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+        <v>17</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="I49" s="76">
+        <v>45148</v>
+      </c>
+      <c r="J49" s="68" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="11"/>
       <c r="C50" s="12"/>
       <c r="D50" s="13" t="s">
         <v>102</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F50" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F50" s="13" t="s">
         <v>81</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="14"/>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+        <v>11</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="I50" s="76">
+        <v>45148</v>
+      </c>
+      <c r="J50" s="68" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="11"/>
       <c r="C51" s="12"/>
       <c r="D51" s="13" t="s">
-        <v>239</v>
+        <v>103</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>235</v>
+        <v>122</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>77</v>
       </c>
       <c r="G51" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="14"/>
+      <c r="H51" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="I51" s="76">
+        <v>45148</v>
+      </c>
+      <c r="J51" s="68" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="52" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="11"/>
       <c r="C52" s="12"/>
       <c r="D52" s="13" t="s">
-        <v>240</v>
+        <v>99</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F52" s="12" t="s">
-        <v>83</v>
+        <v>122</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>79</v>
       </c>
       <c r="G52" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="14"/>
+      <c r="H52" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="I52" s="76">
+        <v>45148</v>
+      </c>
+      <c r="J52" s="68" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="53" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="11"/>
       <c r="C53" s="12"/>
       <c r="D53" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F53" s="12" t="s">
-        <v>83</v>
+        <v>122</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>232</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="14"/>
-    </row>
-    <row r="54" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+        <v>11</v>
+      </c>
+      <c r="H53" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="I53" s="76">
+        <v>45148</v>
+      </c>
+      <c r="J53" s="68" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" s="11"/>
       <c r="C54" s="12"/>
       <c r="D54" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F54" s="12" t="s">
-        <v>84</v>
+        <v>122</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="14"/>
-    </row>
-    <row r="55" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+        <v>17</v>
+      </c>
+      <c r="H54" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="I54" s="76">
+        <v>45148</v>
+      </c>
+      <c r="J54" s="68" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="11"/>
-      <c r="C55" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="8"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="I55" s="76">
+        <v>45148</v>
+      </c>
+      <c r="J55" s="68" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="56" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" s="11"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="8"/>
-    </row>
-    <row r="57" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="C56" s="12"/>
+      <c r="D56" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="I56" s="76">
+        <v>45148</v>
+      </c>
+      <c r="J56" s="68" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="11"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="8"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="I57" s="76">
+        <v>45148</v>
+      </c>
+      <c r="J57" s="68" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="58" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" s="11"/>
-      <c r="C58" s="3"/>
+      <c r="C58" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="D58" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>83</v>
+        <v>122</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
-      <c r="J58" s="8"/>
+      <c r="J58" s="69"/>
     </row>
     <row r="59" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B59" s="11"/>
       <c r="C59" s="3"/>
       <c r="D59" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>83</v>
+        <v>122</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
-      <c r="J59" s="8"/>
+      <c r="J59" s="69"/>
     </row>
     <row r="60" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B60" s="11"/>
       <c r="C60" s="3"/>
       <c r="D60" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>83</v>
+        <v>122</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
-      <c r="J60" s="8"/>
+      <c r="J60" s="69"/>
     </row>
     <row r="61" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B61" s="11"/>
       <c r="C61" s="3"/>
       <c r="D61" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>83</v>
+        <v>122</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
-      <c r="J61" s="8"/>
+      <c r="J61" s="69"/>
     </row>
     <row r="62" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B62" s="11"/>
       <c r="C62" s="3"/>
       <c r="D62" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>83</v>
+        <v>122</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
-      <c r="J62" s="8"/>
+      <c r="J62" s="69"/>
     </row>
     <row r="63" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B63" s="11"/>
       <c r="C63" s="3"/>
       <c r="D63" s="4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>83</v>
+        <v>122</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
-      <c r="J63" s="8"/>
+      <c r="J63" s="69"/>
     </row>
     <row r="64" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" s="11"/>
       <c r="C64" s="3"/>
       <c r="D64" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>236</v>
+        <v>122</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
-      <c r="J64" s="8"/>
+      <c r="J64" s="69"/>
     </row>
     <row r="65" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B65" s="11"/>
       <c r="C65" s="3"/>
       <c r="D65" s="4" t="s">
-        <v>8</v>
+        <v>116</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>86</v>
+        <v>122</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
-      <c r="J65" s="8"/>
+      <c r="J65" s="69"/>
     </row>
     <row r="66" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B66" s="11"/>
       <c r="C66" s="3"/>
       <c r="D66" s="4" t="s">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>86</v>
+        <v>122</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
-      <c r="J66" s="8"/>
-    </row>
-    <row r="67" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="J66" s="69"/>
+    </row>
+    <row r="67" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B67" s="11"/>
       <c r="C67" s="3"/>
       <c r="D67" s="4" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F67" s="3"/>
+        <v>122</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>233</v>
+      </c>
       <c r="G67" s="4" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
-      <c r="J67" s="8"/>
+      <c r="J67" s="69"/>
     </row>
     <row r="68" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B68" s="11"/>
       <c r="C68" s="3"/>
       <c r="D68" s="4" t="s">
-        <v>108</v>
+        <v>7</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>79</v>
+        <v>122</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
-      <c r="J68" s="8"/>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J68" s="69"/>
+    </row>
+    <row r="69" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B69" s="11"/>
-      <c r="C69" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D69" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="E69" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="F69" s="15" t="s">
+      <c r="C69" s="3"/>
+      <c r="D69" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F69" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G69" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="17"/>
-    </row>
-    <row r="70" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="G69" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="69"/>
+    </row>
+    <row r="70" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B70" s="11"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E70" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F70" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G70" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="H70" s="12"/>
-      <c r="I70" s="12"/>
-      <c r="J70" s="14"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="69"/>
     </row>
     <row r="71" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B71" s="11"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="E71" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F71" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G71" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H71" s="12"/>
-      <c r="I71" s="12"/>
-      <c r="J71" s="14"/>
-    </row>
-    <row r="72" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="C71" s="3"/>
+      <c r="D71" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="69"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B72" s="11"/>
-      <c r="C72" s="12"/>
+      <c r="C72" s="15" t="s">
+        <v>27</v>
+      </c>
       <c r="D72" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="E72" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F72" s="13" t="s">
-        <v>84</v>
+        <v>108</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="F72" s="16" t="s">
+        <v>81</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="H72" s="12"/>
-      <c r="I72" s="12"/>
-      <c r="J72" s="14"/>
+        <v>11</v>
+      </c>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="71"/>
     </row>
     <row r="73" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B73" s="11"/>
       <c r="C73" s="12"/>
       <c r="D73" s="13" t="s">
-        <v>8</v>
+        <v>119</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F73" s="12" t="s">
-        <v>86</v>
+        <v>122</v>
+      </c>
+      <c r="F73" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="G73" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H73" s="12"/>
       <c r="I73" s="12"/>
-      <c r="J73" s="14"/>
+      <c r="J73" s="68"/>
     </row>
     <row r="74" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B74" s="11"/>
       <c r="C74" s="12"/>
       <c r="D74" s="13" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F74" s="12" t="s">
-        <v>86</v>
+        <v>122</v>
+      </c>
+      <c r="F74" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="H74" s="12"/>
       <c r="I74" s="12"/>
-      <c r="J74" s="14"/>
-    </row>
-    <row r="75" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="J74" s="68"/>
+    </row>
+    <row r="75" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B75" s="11"/>
       <c r="C75" s="12"/>
       <c r="D75" s="13" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F75" s="12" t="s">
-        <v>83</v>
+        <v>122</v>
+      </c>
+      <c r="F75" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="G75" s="13" t="s">
-        <v>55</v>
+        <v>238</v>
       </c>
       <c r="H75" s="12"/>
       <c r="I75" s="12"/>
-      <c r="J75" s="14"/>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J75" s="68"/>
+    </row>
+    <row r="76" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B76" s="11"/>
       <c r="C76" s="12"/>
       <c r="D76" s="13" t="s">
-        <v>133</v>
+        <v>7</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F76" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F76" s="13" t="s">
         <v>83</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="H76" s="12"/>
       <c r="I76" s="12"/>
-      <c r="J76" s="14"/>
+      <c r="J76" s="68"/>
     </row>
     <row r="77" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B77" s="11"/>
-      <c r="C77" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="8"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F77" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G77" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="68"/>
     </row>
     <row r="78" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B78" s="11"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="8"/>
-    </row>
-    <row r="79" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="C78" s="12"/>
+      <c r="D78" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F78" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G78" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="68"/>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B79" s="11"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="8"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F79" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G79" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H79" s="12"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="68"/>
     </row>
     <row r="80" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B80" s="11"/>
-      <c r="C80" s="3"/>
+      <c r="C80" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D80" s="4" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>88</v>
+        <v>122</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
-      <c r="J80" s="8"/>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J80" s="69"/>
+    </row>
+    <row r="81" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B81" s="11"/>
-      <c r="C81" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D81" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E81" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F81" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G81" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H81" s="12"/>
-      <c r="I81" s="12"/>
-      <c r="J81" s="14"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="69"/>
     </row>
     <row r="82" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B82" s="11"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="E82" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F82" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G82" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H82" s="12"/>
-      <c r="I82" s="12"/>
-      <c r="J82" s="14"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="69"/>
     </row>
     <row r="83" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B83" s="11"/>
-      <c r="C83" s="12"/>
-      <c r="D83" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E83" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F83" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G83" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H83" s="12"/>
-      <c r="I83" s="12"/>
-      <c r="J83" s="14"/>
-    </row>
-    <row r="84" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="C83" s="3"/>
+      <c r="D83" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="69"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B84" s="11"/>
-      <c r="C84" s="12"/>
+      <c r="C84" s="12" t="s">
+        <v>33</v>
+      </c>
       <c r="D84" s="13" t="s">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F84" s="12" t="s">
-        <v>83</v>
+        <v>122</v>
+      </c>
+      <c r="F84" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="G84" s="13" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="H84" s="12"/>
       <c r="I84" s="12"/>
-      <c r="J84" s="14"/>
+      <c r="J84" s="68"/>
     </row>
     <row r="85" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B85" s="11"/>
       <c r="C85" s="12"/>
       <c r="D85" s="13" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="E85" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F85" s="12" t="s">
-        <v>83</v>
+        <v>122</v>
+      </c>
+      <c r="F85" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="G85" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H85" s="12"/>
       <c r="I85" s="12"/>
-      <c r="J85" s="14"/>
+      <c r="J85" s="68"/>
     </row>
     <row r="86" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B86" s="11"/>
       <c r="C86" s="12"/>
       <c r="D86" s="13" t="s">
-        <v>8</v>
+        <v>124</v>
       </c>
       <c r="E86" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F86" s="12" t="s">
-        <v>86</v>
+        <v>122</v>
+      </c>
+      <c r="F86" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="G86" s="13" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H86" s="12"/>
       <c r="I86" s="12"/>
-      <c r="J86" s="14"/>
+      <c r="J86" s="68"/>
     </row>
     <row r="87" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B87" s="11"/>
       <c r="C87" s="12"/>
       <c r="D87" s="13" t="s">
-        <v>26</v>
+        <v>125</v>
       </c>
       <c r="E87" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F87" s="12" t="s">
-        <v>86</v>
+        <v>122</v>
+      </c>
+      <c r="F87" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="G87" s="13" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H87" s="12"/>
       <c r="I87" s="12"/>
-      <c r="J87" s="14"/>
-    </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J87" s="68"/>
+    </row>
+    <row r="88" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B88" s="11"/>
       <c r="C88" s="12"/>
       <c r="D88" s="13" t="s">
-        <v>134</v>
+        <v>31</v>
       </c>
       <c r="E88" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F88" s="12" t="s">
-        <v>83</v>
+        <v>122</v>
+      </c>
+      <c r="F88" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="G88" s="13" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="H88" s="12"/>
       <c r="I88" s="12"/>
-      <c r="J88" s="14"/>
+      <c r="J88" s="68"/>
     </row>
     <row r="89" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B89" s="11"/>
       <c r="C89" s="12"/>
       <c r="D89" s="13" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="E89" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F89" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F89" s="13" t="s">
         <v>83</v>
       </c>
       <c r="G89" s="13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H89" s="12"/>
       <c r="I89" s="12"/>
-      <c r="J89" s="14"/>
+      <c r="J89" s="68"/>
     </row>
     <row r="90" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B90" s="11"/>
-      <c r="C90" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H90" s="3"/>
-      <c r="I90" s="3"/>
-      <c r="J90" s="8"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E90" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F90" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G90" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H90" s="12"/>
+      <c r="I90" s="12"/>
+      <c r="J90" s="68"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B91" s="11"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H91" s="3"/>
-      <c r="I91" s="3"/>
-      <c r="J91" s="8"/>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C91" s="12"/>
+      <c r="D91" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E91" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F91" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G91" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H91" s="12"/>
+      <c r="I91" s="12"/>
+      <c r="J91" s="68"/>
+    </row>
+    <row r="92" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B92" s="11"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G92" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H92" s="3"/>
-      <c r="I92" s="3"/>
-      <c r="J92" s="8"/>
-    </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C92" s="12"/>
+      <c r="D92" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E92" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F92" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G92" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H92" s="12"/>
+      <c r="I92" s="12"/>
+      <c r="J92" s="68"/>
+    </row>
+    <row r="93" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B93" s="11"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="4"/>
+      <c r="C93" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="E93" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>90</v>
+        <v>122</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
-      <c r="J93" s="8"/>
+      <c r="J93" s="69"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B94" s="11"/>
-      <c r="C94" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D94" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="E94" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F94" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G94" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H94" s="12"/>
-      <c r="I94" s="12"/>
-      <c r="J94" s="14"/>
-    </row>
-    <row r="95" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="C94" s="3"/>
+      <c r="D94" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="69"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B95" s="11"/>
-      <c r="C95" s="12"/>
-      <c r="D95" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E95" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F95" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="G95" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="H95" s="12"/>
-      <c r="I95" s="12"/>
-      <c r="J95" s="14"/>
-    </row>
-    <row r="96" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="C95" s="3"/>
+      <c r="D95" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="69"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B96" s="11"/>
-      <c r="C96" s="12"/>
-      <c r="D96" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E96" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F96" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="G96" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="H96" s="12"/>
-      <c r="I96" s="12"/>
-      <c r="J96" s="14"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="69"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B97" s="11"/>
-      <c r="C97" s="12"/>
+      <c r="C97" s="12" t="s">
+        <v>37</v>
+      </c>
       <c r="D97" s="13" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E97" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F97" s="12" t="s">
-        <v>83</v>
+        <v>122</v>
+      </c>
+      <c r="F97" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="G97" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H97" s="12"/>
       <c r="I97" s="12"/>
-      <c r="J97" s="14"/>
+      <c r="J97" s="68"/>
     </row>
     <row r="98" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B98" s="11"/>
       <c r="C98" s="12"/>
       <c r="D98" s="13" t="s">
-        <v>136</v>
+        <v>7</v>
       </c>
       <c r="E98" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F98" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F98" s="13" t="s">
         <v>83</v>
       </c>
       <c r="G98" s="13" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="H98" s="12"/>
       <c r="I98" s="12"/>
-      <c r="J98" s="14"/>
-    </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J98" s="68"/>
+    </row>
+    <row r="99" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B99" s="11"/>
       <c r="C99" s="12"/>
       <c r="D99" s="13" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="E99" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F99" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F99" s="13" t="s">
         <v>83</v>
       </c>
       <c r="G99" s="13" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="H99" s="12"/>
       <c r="I99" s="12"/>
-      <c r="J99" s="14"/>
-    </row>
-    <row r="100" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="J99" s="68"/>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B100" s="11"/>
       <c r="C100" s="12"/>
       <c r="D100" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F100" s="12" t="s">
-        <v>83</v>
+        <v>122</v>
+      </c>
+      <c r="F100" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="H100" s="12"/>
       <c r="I100" s="12"/>
-      <c r="J100" s="14"/>
+      <c r="J100" s="68"/>
     </row>
     <row r="101" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B101" s="11"/>
       <c r="C101" s="12"/>
       <c r="D101" s="13" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E101" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F101" s="12" t="s">
-        <v>79</v>
+        <v>122</v>
+      </c>
+      <c r="F101" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="G101" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H101" s="12"/>
       <c r="I101" s="12"/>
-      <c r="J101" s="14"/>
-    </row>
-    <row r="102" spans="2:10" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="J101" s="68"/>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B102" s="11"/>
       <c r="C102" s="12"/>
       <c r="D102" s="13" t="s">
-        <v>242</v>
+        <v>62</v>
       </c>
       <c r="E102" s="13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F102" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G102" s="13" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="H102" s="12"/>
       <c r="I102" s="12"/>
-      <c r="J102" s="14"/>
-    </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J102" s="68"/>
+    </row>
+    <row r="103" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B103" s="11"/>
-      <c r="C103" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G103" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H103" s="3"/>
-      <c r="I103" s="3"/>
-      <c r="J103" s="8"/>
+      <c r="C103" s="12"/>
+      <c r="D103" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E103" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F103" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G103" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H103" s="12"/>
+      <c r="I103" s="12"/>
+      <c r="J103" s="68"/>
     </row>
     <row r="104" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B104" s="11"/>
-      <c r="C104" s="3"/>
-      <c r="D104" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G104" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H104" s="3"/>
-      <c r="I104" s="3"/>
-      <c r="J104" s="8"/>
-    </row>
-    <row r="105" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="C104" s="12"/>
+      <c r="D104" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E104" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F104" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G104" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H104" s="12"/>
+      <c r="I104" s="12"/>
+      <c r="J104" s="68"/>
+    </row>
+    <row r="105" spans="2:10" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="B105" s="11"/>
-      <c r="C105" s="3"/>
-      <c r="D105" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G105" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H105" s="3"/>
-      <c r="I105" s="3"/>
-      <c r="J105" s="8"/>
+      <c r="C105" s="12"/>
+      <c r="D105" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="E105" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F105" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G105" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H105" s="12"/>
+      <c r="I105" s="12"/>
+      <c r="J105" s="68"/>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B106" s="11"/>
-      <c r="C106" s="3"/>
+      <c r="C106" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="D106" s="4" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>83</v>
+        <v>122</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
-      <c r="J106" s="8"/>
+      <c r="J106" s="69"/>
     </row>
     <row r="107" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B107" s="11"/>
       <c r="C107" s="3"/>
       <c r="D107" s="4" t="s">
-        <v>141</v>
+        <v>7</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F107" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F107" s="4" t="s">
         <v>83</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
-      <c r="J107" s="8"/>
-    </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J107" s="69"/>
+    </row>
+    <row r="108" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B108" s="11"/>
       <c r="C108" s="3"/>
       <c r="D108" s="4" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F108" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F108" s="4" t="s">
         <v>83</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
-      <c r="J108" s="8"/>
-    </row>
-    <row r="109" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="J108" s="69"/>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B109" s="11"/>
       <c r="C109" s="3"/>
       <c r="D109" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>83</v>
+        <v>122</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
-      <c r="J109" s="8"/>
+      <c r="J109" s="69"/>
     </row>
     <row r="110" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B110" s="11"/>
       <c r="C110" s="3"/>
       <c r="D110" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>79</v>
+        <v>122</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
-      <c r="J110" s="8"/>
-    </row>
-    <row r="111" spans="2:10" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="J110" s="69"/>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B111" s="11"/>
       <c r="C111" s="3"/>
       <c r="D111" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>84</v>
+        <v>122</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
-      <c r="J111" s="8"/>
-    </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J111" s="69"/>
+    </row>
+    <row r="112" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B112" s="11"/>
-      <c r="C112" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D112" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E112" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F112" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="G112" s="13" t="s">
+      <c r="C112" s="3"/>
+      <c r="D112" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H112" s="3"/>
+      <c r="I112" s="3"/>
+      <c r="J112" s="69"/>
+    </row>
+    <row r="113" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B113" s="11"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G113" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H112" s="12"/>
-      <c r="I112" s="12"/>
-      <c r="J112" s="14"/>
-    </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B113" s="11"/>
-      <c r="C113" s="12"/>
-      <c r="D113" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E113" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F113" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="G113" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H113" s="12"/>
-      <c r="I113" s="12"/>
-      <c r="J113" s="14"/>
-    </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="H113" s="3"/>
+      <c r="I113" s="3"/>
+      <c r="J113" s="69"/>
+    </row>
+    <row r="114" spans="2:10" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="B114" s="11"/>
-      <c r="C114" s="12"/>
-      <c r="D114" s="13"/>
-      <c r="E114" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F114" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="G114" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H114" s="12"/>
-      <c r="I114" s="12"/>
-      <c r="J114" s="14"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H114" s="3"/>
+      <c r="I114" s="3"/>
+      <c r="J114" s="69"/>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B115" s="11"/>
-      <c r="C115" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D115" s="4" t="s">
+      <c r="C115" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D115" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E115" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F115" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G115" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H115" s="12"/>
+      <c r="I115" s="12"/>
+      <c r="J115" s="68"/>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B116" s="11"/>
+      <c r="C116" s="12"/>
+      <c r="D116" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E116" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F116" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G116" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H116" s="12"/>
+      <c r="I116" s="12"/>
+      <c r="J116" s="68"/>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B117" s="11"/>
+      <c r="C117" s="12"/>
+      <c r="D117" s="13"/>
+      <c r="E117" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F117" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="G117" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H117" s="12"/>
+      <c r="I117" s="12"/>
+      <c r="J117" s="68"/>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B118" s="11"/>
+      <c r="C118" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="H118" s="3"/>
+      <c r="I118" s="3"/>
+      <c r="J118" s="69"/>
+    </row>
+    <row r="119" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B119" s="11"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="H119" s="3"/>
+      <c r="I119" s="3"/>
+      <c r="J119" s="69"/>
+    </row>
+    <row r="120" spans="2:10" ht="36.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B120" s="10"/>
+      <c r="C120" s="33"/>
+      <c r="D120" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="E120" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F120" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="G120" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="H120" s="33"/>
+      <c r="I120" s="33"/>
+      <c r="J120" s="67"/>
+    </row>
+    <row r="121" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="122" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B122" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C122" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="D122" s="25"/>
+      <c r="E122" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="F122" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="E115" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="F115" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="G115" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="H115" s="3"/>
-      <c r="I115" s="3"/>
-      <c r="J115" s="8"/>
-    </row>
-    <row r="116" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B116" s="11"/>
-      <c r="C116" s="3"/>
-      <c r="D116" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E116" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F116" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="G116" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="H116" s="3"/>
-      <c r="I116" s="3"/>
-      <c r="J116" s="8"/>
-    </row>
-    <row r="117" spans="2:10" ht="36.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B117" s="10"/>
-      <c r="C117" s="35"/>
-      <c r="D117" s="36" t="s">
-        <v>147</v>
-      </c>
-      <c r="E117" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="F117" s="36" t="s">
+      <c r="G122" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="G117" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="H117" s="35"/>
-      <c r="I117" s="35"/>
-      <c r="J117" s="37"/>
-    </row>
-    <row r="118" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="119" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B119" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="C119" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="D119" s="26"/>
-      <c r="E119" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="F119" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="G119" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="H119" s="27"/>
-      <c r="I119" s="43"/>
-      <c r="J119" s="27"/>
-    </row>
-    <row r="120" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B120" s="11"/>
-      <c r="C120" s="12"/>
-      <c r="D120" s="13"/>
-      <c r="E120" s="13"/>
-      <c r="F120" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="G120" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="H120" s="14"/>
-      <c r="I120" s="44"/>
-      <c r="J120" s="14"/>
-    </row>
-    <row r="121" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B121" s="11"/>
-      <c r="C121" s="12"/>
-      <c r="D121" s="13"/>
-      <c r="E121" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F121" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="G121" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="H121" s="14"/>
-      <c r="I121" s="44"/>
-      <c r="J121" s="14"/>
-    </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B122" s="11"/>
-      <c r="C122" s="12"/>
-      <c r="D122" s="13"/>
-      <c r="E122" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="F122" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="G122" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="H122" s="14"/>
-      <c r="I122" s="44"/>
-      <c r="J122" s="14"/>
+      <c r="H122" s="26"/>
+      <c r="I122" s="39"/>
+      <c r="J122" s="66"/>
     </row>
     <row r="123" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B123" s="11"/>
-      <c r="C123" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D123" s="4"/>
-      <c r="E123" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F123" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G123" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H123" s="8"/>
-      <c r="I123" s="45"/>
-      <c r="J123" s="8"/>
-    </row>
-    <row r="124" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B124" s="48"/>
-      <c r="C124" s="3"/>
-      <c r="D124" s="4"/>
-      <c r="E124" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F124" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G124" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H124" s="8"/>
-      <c r="I124" s="45"/>
-      <c r="J124" s="8"/>
+      <c r="C123" s="12"/>
+      <c r="D123" s="13"/>
+      <c r="E123" s="13"/>
+      <c r="F123" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="G123" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="H123" s="14"/>
+      <c r="I123" s="40"/>
+      <c r="J123" s="68"/>
+    </row>
+    <row r="124" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B124" s="11"/>
+      <c r="C124" s="12"/>
+      <c r="D124" s="13"/>
+      <c r="E124" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="F124" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="G124" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="H124" s="14"/>
+      <c r="I124" s="40"/>
+      <c r="J124" s="68"/>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B125" s="48"/>
-      <c r="C125" s="12" t="s">
-        <v>70</v>
-      </c>
+      <c r="B125" s="11"/>
+      <c r="C125" s="12"/>
       <c r="D125" s="13"/>
       <c r="E125" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="F125" s="12" t="s">
-        <v>166</v>
+        <v>155</v>
+      </c>
+      <c r="F125" s="13" t="s">
+        <v>154</v>
       </c>
       <c r="G125" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="H125" s="14"/>
+      <c r="I125" s="40"/>
+      <c r="J125" s="68"/>
+    </row>
+    <row r="126" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B126" s="11"/>
+      <c r="C126" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D126" s="4"/>
+      <c r="E126" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="H125" s="14"/>
-      <c r="I125" s="44"/>
-      <c r="J125" s="14"/>
-    </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B126" s="48"/>
-      <c r="C126" s="52"/>
-      <c r="D126" s="53"/>
-      <c r="E126" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="F126" s="52"/>
-      <c r="G126" s="53" t="s">
-        <v>156</v>
-      </c>
-      <c r="H126" s="54"/>
-      <c r="I126" s="55"/>
-      <c r="J126" s="54"/>
-    </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B127" s="48"/>
-      <c r="C127" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="F126" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H126" s="8"/>
+      <c r="I126" s="41"/>
+      <c r="J126" s="69"/>
+    </row>
+    <row r="127" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B127" s="44"/>
+      <c r="C127" s="3"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H127" s="8"/>
+      <c r="I127" s="41"/>
+      <c r="J127" s="69"/>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B128" s="44"/>
+      <c r="C128" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D128" s="13"/>
+      <c r="E128" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="F128" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="G128" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="H128" s="14"/>
+      <c r="I128" s="40"/>
+      <c r="J128" s="68"/>
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B129" s="44"/>
+      <c r="C129" s="48"/>
+      <c r="D129" s="49"/>
+      <c r="E129" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="F129" s="49"/>
+      <c r="G129" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="H129" s="50"/>
+      <c r="I129" s="51"/>
+      <c r="J129" s="72"/>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B130" s="44"/>
+      <c r="C130" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D130" s="4"/>
+      <c r="E130" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="H130" s="47"/>
+      <c r="I130" s="52"/>
+      <c r="J130" s="73"/>
+    </row>
+    <row r="131" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B131" s="45"/>
+      <c r="C131" s="6"/>
+      <c r="D131" s="7"/>
+      <c r="E131" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F131" s="7"/>
+      <c r="G131" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H131" s="9"/>
+      <c r="I131" s="42"/>
+      <c r="J131" s="74"/>
+    </row>
+    <row r="132" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="133" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B133" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C133" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="D133" s="25"/>
+      <c r="E133" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="F133" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="F127" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="G127" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="H127" s="51"/>
-      <c r="I127" s="56"/>
-      <c r="J127" s="51"/>
-    </row>
-    <row r="128" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B128" s="49"/>
-      <c r="C128" s="6"/>
-      <c r="D128" s="7"/>
-      <c r="E128" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F128" s="6"/>
-      <c r="G128" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="H128" s="9"/>
-      <c r="I128" s="46"/>
-      <c r="J128" s="9"/>
-    </row>
-    <row r="129" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="130" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B130" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="C130" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="D130" s="26"/>
-      <c r="E130" s="26" t="s">
+      <c r="G133" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="H133" s="24"/>
+      <c r="I133" s="24"/>
+      <c r="J133" s="66"/>
+    </row>
+    <row r="134" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B134" s="11"/>
+      <c r="C134" s="12"/>
+      <c r="D134" s="13"/>
+      <c r="E134" s="13"/>
+      <c r="F134" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="G134" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="H134" s="12"/>
+      <c r="I134" s="12"/>
+      <c r="J134" s="68"/>
+    </row>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B135" s="11"/>
+      <c r="C135" s="12"/>
+      <c r="D135" s="13"/>
+      <c r="E135" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="F130" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="G130" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="H130" s="25"/>
-      <c r="I130" s="25"/>
-      <c r="J130" s="27"/>
-    </row>
-    <row r="131" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B131" s="11"/>
-      <c r="C131" s="12"/>
-      <c r="D131" s="13"/>
-      <c r="E131" s="13"/>
-      <c r="F131" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="G131" s="13" t="s">
+      <c r="F135" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="H131" s="12"/>
-      <c r="I131" s="12"/>
-      <c r="J131" s="14"/>
-    </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B132" s="11"/>
-      <c r="C132" s="12"/>
-      <c r="D132" s="13"/>
-      <c r="E132" s="13" t="s">
+      <c r="G135" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="F132" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="G132" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="H132" s="12"/>
-      <c r="I132" s="12"/>
-      <c r="J132" s="14"/>
-    </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B133" s="11"/>
-      <c r="C133" s="12"/>
-      <c r="D133" s="13"/>
-      <c r="E133" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="F133" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="G133" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="H133" s="12"/>
-      <c r="I133" s="12"/>
-      <c r="J133" s="14"/>
-    </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B134" s="11"/>
-      <c r="C134" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D134" s="4"/>
-      <c r="E134" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F134" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G134" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H134" s="3"/>
-      <c r="I134" s="3"/>
-      <c r="J134" s="8"/>
-    </row>
-    <row r="135" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B135" s="11"/>
-      <c r="C135" s="3"/>
-      <c r="D135" s="31"/>
-      <c r="E135" s="31" t="s">
-        <v>168</v>
-      </c>
-      <c r="F135" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G135" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="H135" s="50"/>
-      <c r="I135" s="50"/>
-      <c r="J135" s="51"/>
+      <c r="H135" s="12"/>
+      <c r="I135" s="12"/>
+      <c r="J135" s="68"/>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B136" s="11"/>
-      <c r="C136" s="12" t="s">
+      <c r="C136" s="12"/>
+      <c r="D136" s="13"/>
+      <c r="E136" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="F136" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="G136" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="H136" s="12"/>
+      <c r="I136" s="12"/>
+      <c r="J136" s="68"/>
+    </row>
+    <row r="137" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B137" s="11"/>
+      <c r="C137" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D136" s="53"/>
-      <c r="E136" s="53" t="s">
-        <v>164</v>
-      </c>
-      <c r="F136" s="52" t="s">
-        <v>166</v>
-      </c>
-      <c r="G136" s="53" t="s">
+      <c r="D137" s="4"/>
+      <c r="E137" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="H136" s="52"/>
-      <c r="I136" s="52"/>
-      <c r="J136" s="54"/>
-    </row>
-    <row r="137" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B137" s="57"/>
-      <c r="C137" s="38"/>
-      <c r="D137" s="19"/>
-      <c r="E137" s="19" t="s">
+      <c r="F137" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H137" s="3"/>
+      <c r="I137" s="3"/>
+      <c r="J137" s="69"/>
+    </row>
+    <row r="138" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B138" s="11"/>
+      <c r="C138" s="3"/>
+      <c r="D138" s="29"/>
+      <c r="E138" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G138" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="H138" s="46"/>
+      <c r="I138" s="46"/>
+      <c r="J138" s="73"/>
+    </row>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B139" s="11"/>
+      <c r="C139" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="F137" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="G137" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="H137" s="18"/>
-      <c r="I137" s="18"/>
-      <c r="J137" s="20"/>
+      <c r="D139" s="49"/>
+      <c r="E139" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="F139" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="G139" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="H139" s="48"/>
+      <c r="I139" s="48"/>
+      <c r="J139" s="72"/>
+    </row>
+    <row r="140" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B140" s="53"/>
+      <c r="C140" s="35"/>
+      <c r="D140" s="18"/>
+      <c r="E140" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F140" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G140" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="H140" s="17"/>
+      <c r="I140" s="17"/>
+      <c r="J140" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6430,7 +6981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07622B51-2DC1-4955-B7A1-F49C4F9FDDC1}">
   <dimension ref="B2:J100"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A79" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
@@ -6445,85 +6996,85 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="32" t="s">
-        <v>163</v>
+      <c r="C2" s="30" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="4" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="58" t="s">
-        <v>51</v>
+      <c r="B4" s="62" t="s">
+        <v>49</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="39" t="s">
         <v>4</v>
       </c>
+      <c r="D4" s="36" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B5" s="59"/>
+      <c r="B5" s="63"/>
       <c r="C5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="40" t="s">
         <v>2</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="8" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B8" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="21" t="s">
+      <c r="B8" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="24" t="s">
+      <c r="E8" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="G8" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="21" t="s">
         <v>48</v>
-      </c>
-      <c r="I8" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" s="22" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="10" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="60" t="s">
-        <v>171</v>
+      <c r="B10" s="54" t="s">
+        <v>168</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="F10" s="65" t="s">
-        <v>244</v>
+        <v>240</v>
+      </c>
+      <c r="F10" s="59" t="s">
+        <v>241</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="66"/>
+      <c r="J10" s="60"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="11"/>
@@ -6538,37 +7089,37 @@
     </row>
     <row r="12" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B12" s="11"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="51"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="47"/>
     </row>
     <row r="13" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="67" t="s">
-        <v>187</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>230</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="26" t="s">
+      <c r="B13" s="61" t="s">
+        <v>184</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D13" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="G13" s="25" t="s">
-        <v>228</v>
-      </c>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="27"/>
+      <c r="E13" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="26"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="11"/>
@@ -6584,17 +7135,17 @@
     <row r="15" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="11"/>
       <c r="C15" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -6614,17 +7165,17 @@
     <row r="17" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="11"/>
       <c r="C17" s="12" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="12" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
@@ -6644,17 +7195,17 @@
     <row r="19" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="11"/>
       <c r="C19" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -6674,17 +7225,17 @@
     <row r="21" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="11"/>
       <c r="C21" s="12" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
@@ -6704,17 +7255,17 @@
     <row r="23" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="11"/>
       <c r="C23" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -6734,17 +7285,17 @@
     <row r="25" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="11"/>
       <c r="C25" s="12" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="12" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
@@ -6764,17 +7315,17 @@
     <row r="27" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="11"/>
       <c r="C27" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -6787,7 +7338,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -6796,17 +7347,17 @@
     <row r="29" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="11"/>
       <c r="C29" s="12" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="12" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
@@ -6826,17 +7377,17 @@
     <row r="31" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="11"/>
       <c r="C31" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -6856,17 +7407,17 @@
     <row r="33" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="11"/>
       <c r="C33" s="12" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D33" s="12"/>
       <c r="E33" s="12" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H33" s="12"/>
       <c r="I33" s="12"/>
@@ -6886,17 +7437,17 @@
     <row r="35" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="11"/>
       <c r="C35" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
@@ -6916,17 +7467,17 @@
     <row r="37" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="11"/>
       <c r="C37" s="12" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D37" s="12"/>
       <c r="E37" s="12" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
@@ -6939,7 +7490,7 @@
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
@@ -6947,35 +7498,35 @@
     </row>
     <row r="39" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B39" s="10"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="20"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="19"/>
     </row>
     <row r="40" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="67" t="s">
-        <v>193</v>
+      <c r="B40" s="61" t="s">
+        <v>190</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
-      <c r="J40" s="66"/>
+      <c r="J40" s="60"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="11"/>
@@ -6991,17 +7542,17 @@
     <row r="42" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="11"/>
       <c r="C42" s="12" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D42" s="12"/>
       <c r="E42" s="12" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
@@ -7021,17 +7572,17 @@
     <row r="44" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="11"/>
       <c r="C44" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
@@ -7051,17 +7602,17 @@
     <row r="46" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="11"/>
       <c r="C46" s="12" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D46" s="12"/>
       <c r="E46" s="12" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H46" s="12"/>
       <c r="I46" s="12"/>
@@ -7081,17 +7632,17 @@
     <row r="48" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="11"/>
       <c r="C48" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
@@ -7111,17 +7662,17 @@
     <row r="50" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="11"/>
       <c r="C50" s="12" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D50" s="12"/>
       <c r="E50" s="12" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
@@ -7141,17 +7692,17 @@
     <row r="52" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="11"/>
       <c r="C52" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
@@ -7171,17 +7722,17 @@
     <row r="54" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" s="11"/>
       <c r="C54" s="12" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D54" s="12"/>
       <c r="E54" s="12" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
@@ -7201,17 +7752,17 @@
     <row r="56" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" s="11"/>
       <c r="C56" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
@@ -7231,17 +7782,17 @@
     <row r="58" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" s="11"/>
       <c r="C58" s="12" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D58" s="12"/>
       <c r="E58" s="12" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H58" s="12"/>
       <c r="I58" s="12"/>
@@ -7261,17 +7812,17 @@
     <row r="60" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B60" s="11"/>
       <c r="C60" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
@@ -7291,17 +7842,17 @@
     <row r="62" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B62" s="11"/>
       <c r="C62" s="12" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D62" s="12"/>
       <c r="E62" s="12" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H62" s="12"/>
       <c r="I62" s="12"/>
@@ -7320,44 +7871,44 @@
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" s="11"/>
-      <c r="C64" s="61"/>
-      <c r="D64" s="61"/>
-      <c r="E64" s="61"/>
-      <c r="F64" s="61"/>
-      <c r="G64" s="61"/>
-      <c r="H64" s="61"/>
-      <c r="I64" s="61"/>
-      <c r="J64" s="62"/>
+      <c r="C64" s="55"/>
+      <c r="D64" s="55"/>
+      <c r="E64" s="55"/>
+      <c r="F64" s="55"/>
+      <c r="G64" s="55"/>
+      <c r="H64" s="55"/>
+      <c r="I64" s="55"/>
+      <c r="J64" s="56"/>
     </row>
     <row r="65" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B65" s="10"/>
-      <c r="C65" s="63"/>
-      <c r="D65" s="63"/>
-      <c r="E65" s="63"/>
-      <c r="F65" s="63"/>
-      <c r="G65" s="63"/>
-      <c r="H65" s="63"/>
-      <c r="I65" s="63"/>
-      <c r="J65" s="64"/>
+      <c r="C65" s="57"/>
+      <c r="D65" s="57"/>
+      <c r="E65" s="57"/>
+      <c r="F65" s="57"/>
+      <c r="G65" s="57"/>
+      <c r="H65" s="57"/>
+      <c r="I65" s="57"/>
+      <c r="J65" s="58"/>
     </row>
     <row r="66" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B66" s="67" t="s">
-        <v>198</v>
+      <c r="B66" s="61" t="s">
+        <v>195</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
-      <c r="J66" s="66"/>
+      <c r="J66" s="60"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B67" s="11"/>
@@ -7382,25 +7933,25 @@
       <c r="J68" s="9"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B69" s="60" t="s">
-        <v>201</v>
-      </c>
-      <c r="C69" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="F69" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="G69" s="25" t="s">
-        <v>220</v>
-      </c>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="27"/>
+      <c r="B69" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="C69" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="F69" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="G69" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="H69" s="24"/>
+      <c r="I69" s="24"/>
+      <c r="J69" s="26"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B70" s="11"/>
@@ -7416,17 +7967,17 @@
     <row r="71" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B71" s="11"/>
       <c r="C71" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
@@ -7446,17 +7997,17 @@
     <row r="73" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B73" s="11"/>
       <c r="C73" s="12" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D73" s="12"/>
       <c r="E73" s="12" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G73" s="12" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H73" s="12"/>
       <c r="I73" s="12"/>
@@ -7476,17 +8027,17 @@
     <row r="75" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B75" s="11"/>
       <c r="C75" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
@@ -7506,17 +8057,17 @@
     <row r="77" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B77" s="11"/>
       <c r="C77" s="12" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D77" s="12"/>
       <c r="E77" s="12" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G77" s="12" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H77" s="12"/>
       <c r="I77" s="12"/>
@@ -7536,17 +8087,17 @@
     <row r="79" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B79" s="11"/>
       <c r="C79" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
@@ -7566,17 +8117,17 @@
     <row r="81" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B81" s="11"/>
       <c r="C81" s="12" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D81" s="12"/>
       <c r="E81" s="12" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G81" s="12" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H81" s="12"/>
       <c r="I81" s="12"/>
@@ -7596,17 +8147,17 @@
     <row r="83" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B83" s="11"/>
       <c r="C83" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F83" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G83" s="4" t="s">
         <v>219</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>222</v>
       </c>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
@@ -7626,17 +8177,17 @@
     <row r="85" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B85" s="11"/>
       <c r="C85" s="12" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D85" s="12"/>
       <c r="E85" s="12" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G85" s="12" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H85" s="12"/>
       <c r="I85" s="12"/>
@@ -7656,17 +8207,17 @@
     <row r="87" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B87" s="11"/>
       <c r="C87" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D87" s="3"/>
       <c r="E87" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
@@ -7686,17 +8237,17 @@
     <row r="89" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B89" s="11"/>
       <c r="C89" s="12" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D89" s="12"/>
       <c r="E89" s="12" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G89" s="12" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H89" s="12"/>
       <c r="I89" s="12"/>
@@ -7716,17 +8267,17 @@
     <row r="91" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B91" s="11"/>
       <c r="C91" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
@@ -7746,17 +8297,17 @@
     <row r="93" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B93" s="11"/>
       <c r="C93" s="12" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D93" s="12"/>
       <c r="E93" s="12" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G93" s="13" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H93" s="12"/>
       <c r="I93" s="12"/>
@@ -7776,14 +8327,14 @@
     <row r="95" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B95" s="11"/>
       <c r="C95" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D95" s="3"/>
       <c r="E95" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
@@ -7804,17 +8355,17 @@
     <row r="97" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B97" s="11"/>
       <c r="C97" s="12" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D97" s="12"/>
       <c r="E97" s="12" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F97" s="12" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G97" s="12" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H97" s="12"/>
       <c r="I97" s="12"/>
@@ -7834,14 +8385,14 @@
     <row r="99" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B99" s="11"/>
       <c r="C99" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
@@ -7887,67 +8438,67 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="32" t="s">
-        <v>225</v>
+      <c r="C2" s="30" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="4" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="58" t="s">
-        <v>51</v>
+      <c r="B4" s="62" t="s">
+        <v>49</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="39" t="s">
         <v>4</v>
       </c>
+      <c r="D4" s="36" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="2:10" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B5" s="59"/>
+      <c r="B5" s="63"/>
       <c r="C5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="40" t="s">
         <v>2</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="12" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B12" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="21" t="s">
+      <c r="B12" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="24" t="s">
+      <c r="E12" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="G12" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" s="21" t="s">
         <v>48</v>
-      </c>
-      <c r="I12" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="J12" s="22" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/テストケース.xlsx
+++ b/テストケース.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5cf47586d75cb25/デスクトップ/workspace/workspace-nishimura/ProgramWork/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="118" documentId="8_{FB2C5B17-156F-4188-AF96-3C92834A6A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBE6A91E-16A9-4981-A728-535556FB9E58}"/>
+  <xr:revisionPtr revIDLastSave="125" documentId="8_{FB2C5B17-156F-4188-AF96-3C92834A6A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAABF46F-71AB-434D-B04D-BF628DB88514}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3F064697-4038-4B0C-9CC7-D71FC7163C92}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{3F064697-4038-4B0C-9CC7-D71FC7163C92}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="293">
   <si>
     <t>テストケース</t>
     <phoneticPr fontId="1"/>
@@ -700,13 +700,6 @@
     </rPh>
     <rPh sb="20" eb="22">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ひらがな全角スペースひらがな</t>
-    <rPh sb="4" eb="6">
-      <t>ゼンカク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1478,31 +1471,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>半角英数字@ひらがな漢字カタカナ全角英数字記号半角数字.半角英字2文字以上6文字以下(合計100文字以下)</t>
-    <rPh sb="0" eb="2">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>エイスウジ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="28" eb="32">
-      <t>ハンカクエイジ</t>
-    </rPh>
-    <rPh sb="33" eb="37">
-      <t>モジイジョウ</t>
-    </rPh>
-    <rPh sb="38" eb="42">
-      <t>モジイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スペース半角英数字@半角英数字.半角英字2文字以上6文字以下スペース(合計100文字以下)</t>
     <rPh sb="4" eb="6">
       <t>ハンカク</t>
@@ -1722,13 +1690,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ひらがな漢字数字カタカナハイフン半角スペースひらがな漢字数字カタカナハイフン</t>
-    <rPh sb="16" eb="18">
-      <t>ハンカク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ひらがな漢字数字カタカナハイフンスペース100文字以下</t>
     <rPh sb="4" eb="6">
       <t>カンジ</t>
@@ -1770,26 +1731,6 @@
   <si>
     <t>スペースひらがな漢字数字カタカナハイフンスペース(100文字以下)</t>
     <rPh sb="28" eb="32">
-      <t>モジイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ひらがな漢字数字カタカナハイフン半角スペースひらがな漢字数字カタカナハイフン(100)文字以下</t>
-    <rPh sb="16" eb="18">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="43" eb="47">
-      <t>モジイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ひらがな全角スペースひらがな(100文字以下)</t>
-    <rPh sb="4" eb="6">
-      <t>ゼンカク</t>
-    </rPh>
-    <rPh sb="18" eb="22">
       <t>モジイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -3107,6 +3048,387 @@
     <rPh sb="10" eb="15">
       <t>エイスウジキゴウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成功、ドットが連続するとエラーが出る</t>
+    <rPh sb="0" eb="2">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>レンゾク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーが出る</t>
+    <rPh sb="4" eb="5">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半角英数字@ひらがな漢字カタカナ全角英数字記号半角英数字.半角英字2文字以上6文字以下(合計100文字以下)</t>
+    <rPh sb="0" eb="2">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>エイ</t>
+    </rPh>
+    <rPh sb="29" eb="33">
+      <t>ハンカクエイジ</t>
+    </rPh>
+    <rPh sb="34" eb="38">
+      <t>モジイジョウ</t>
+    </rPh>
+    <rPh sb="39" eb="43">
+      <t>モジイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーが出る、スペースがトリムされていない</t>
+    <rPh sb="4" eb="5">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半角数字全角数字ひらがな英字記号7文字</t>
+    <rPh sb="0" eb="2">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>ゼンカクスウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>エイジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半角数字が1文字以上あるとエラーが出ない</t>
+    <rPh sb="0" eb="4">
+      <t>ハンカクスウジ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>モジイジョウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7文字以内で入力してくださいと出る、maxlengthだけ作動している。data-error-patternがおかしい</t>
+    <rPh sb="1" eb="5">
+      <t>モジイナイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>サドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7文字以内で入力してくださいと出る、maxlengthだけ作動している。</t>
+    <rPh sb="1" eb="5">
+      <t>モジイナイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>サドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8文字以内で入力してくださいと出る、maxlengthだけ作動している。</t>
+    <rPh sb="1" eb="5">
+      <t>モジイナイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>サドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山形県のところが空欄なので選択できてしまう</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマガタケン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山形県がない</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマガタケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成功、半角カタカナはエラーが出る</t>
+    <rPh sb="0" eb="2">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひらがな漢字数字カタカナハイフンスペースひらがな漢字数字カタカナハイフン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひらがな漢字数字カタカナハイフンスペースひらがな漢字数字カタカナハイフン(100)文字以下</t>
+    <rPh sb="41" eb="45">
+      <t>モジイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「100文字以下で入力してください」赤字でテキストボックスの下に表示される</t>
+    <rPh sb="4" eb="8">
+      <t>モジイカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ひらがな、漢字、数字、カタカナ、ハイフン、スペースで入力してください」「100文字以下で入力してください」赤字でテキストボックスの下に表示される</t>
+    <rPh sb="40" eb="44">
+      <t>モジイカ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成功、両サイドのスペースがあるときはそのまま表示されるので消しときたい。真横に項目が来ていない。</t>
+    <rPh sb="0" eb="2">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>マヨコ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「登録完了しました」と表示される</t>
+    <rPh sb="1" eb="5">
+      <t>トウロクカンリョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成功？</t>
+    <rPh sb="0" eb="2">
+      <t>セイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リロード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>idだけ増えて同じ情報が登録される</t>
+    <rPh sb="4" eb="5">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>xamppが正しく起動している</t>
+    <rPh sb="6" eb="7">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>xamppのmysqlが起動していない</t>
+    <rPh sb="12" eb="14">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「エラーが発生したためアカウント登録できません」赤字で表示される</t>
+    <rPh sb="5" eb="7">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期値</t>
+    <rPh sb="0" eb="3">
+      <t>ショキチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（名）　　　←UIはテキスボックス、最大入力文字数は10文字、初期値は空欄</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナ（姓）　　　←UIはテキスボックス、最大入力文字数は10文字、初期値は空欄</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナ（名）　　　←UIはテキスボックス、最大入力文字数は10文字、初期値は空欄</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレス　←UIはテキスボックス、最大入力文字数は100文字、初期値は空欄</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード　　　←UIはテキスボックス、最大入力文字数は10文字、初期値は空欄</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>性別　　　　　　←UIはラジオボタン（男、女の２種類）、初期値は「男」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>郵便番号　　　　←UIはテキストボックス、最大入力文字数は７文字、初期値は空欄</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（都道府県）←UIはプルダウン（空欄、北海道～沖縄の４７都道府県の並び順）、初期値は空欄を選択済</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（市区町村）←UIはテキスボックス、最大入力文字数は10文字、初期値は空欄</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント権限　←UIはプルダウン（一般、管理者の２種類）、初期値は「一般」を選択済</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（番地）　　←UIはテキスボックス、最大入力文字数は100文字、初期値は空欄</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認する　　　　←UIはボタン形式、該当ボタン押下時に入力チェック（後述）をする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（姓）←UIはテキスボックス、最大入力文字数は10文字、初期値は空欄</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3540,7 +3862,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3658,18 +3980,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3692,12 +4002,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3726,12 +4030,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -3784,6 +4082,57 @@
     <xf numFmtId="56" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3814,6 +4163,10 @@
 </file>
 
 <file path=xl/persons/person10.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person11.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -4146,10 +4499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D25F908-8C24-448E-8107-DBDBAE93069C}">
-  <dimension ref="B2:K140"/>
+  <dimension ref="B2:K139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="G137" sqref="G137"/>
+    <sheetView zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4161,6 +4514,7 @@
     <col min="5" max="5" width="28.33203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="19.6640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="38.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7.1640625" customWidth="1"/>
     <col min="10" max="10" width="34.1640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4169,15 +4523,15 @@
         <v>0</v>
       </c>
       <c r="C2" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="4" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="73" t="s">
         <v>49</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -4188,7 +4542,7 @@
       </c>
     </row>
     <row r="5" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B5" s="63"/>
+      <c r="B5" s="74"/>
       <c r="C5" s="6" t="s">
         <v>2</v>
       </c>
@@ -4222,37 +4576,37 @@
       <c r="I8" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="65" t="s">
+      <c r="J8" s="57" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B9" s="32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D9" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="E9" s="59" t="s">
-        <v>147</v>
-      </c>
-      <c r="F9" s="59" t="s">
-        <v>148</v>
-      </c>
-      <c r="G9" s="59" t="s">
-        <v>149</v>
+      <c r="D9" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="G9" s="53" t="s">
+        <v>144</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="I9" s="77">
+        <v>243</v>
+      </c>
+      <c r="I9" s="69">
         <v>45148</v>
       </c>
-      <c r="J9" s="78" t="s">
-        <v>249</v>
+      <c r="J9" s="70" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -4260,22 +4614,22 @@
       <c r="C10" s="27"/>
       <c r="D10" s="28"/>
       <c r="E10" s="4" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>248</v>
-      </c>
-      <c r="I10" s="79">
+        <v>243</v>
+      </c>
+      <c r="I10" s="71">
         <v>45148</v>
       </c>
-      <c r="J10" s="78" t="s">
-        <v>250</v>
+      <c r="J10" s="70" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="35.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -4283,22 +4637,22 @@
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="I11" s="80">
+        <v>243</v>
+      </c>
+      <c r="I11" s="72">
         <v>45148</v>
       </c>
-      <c r="J11" s="78" t="s">
-        <v>249</v>
+      <c r="J11" s="70" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
@@ -4307,28 +4661,28 @@
         <v>43</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="I13" s="64">
+        <v>243</v>
+      </c>
+      <c r="I13" s="56">
         <v>45148</v>
       </c>
-      <c r="J13" s="66" t="s">
-        <v>249</v>
+      <c r="J13" s="58" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.55000000000000004">
@@ -4336,22 +4690,22 @@
       <c r="C14" s="12"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="I14" s="76">
+        <v>243</v>
+      </c>
+      <c r="I14" s="68">
         <v>45148</v>
       </c>
-      <c r="J14" s="68" t="s">
-        <v>249</v>
+      <c r="J14" s="60" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.55000000000000004">
@@ -4360,75 +4714,75 @@
         <v>23</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="I15" s="80">
+        <v>243</v>
+      </c>
+      <c r="I15" s="72">
         <v>45148</v>
       </c>
-      <c r="J15" s="69" t="s">
-        <v>249</v>
+      <c r="J15" s="61" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="11"/>
       <c r="C16" s="27"/>
       <c r="D16" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G16" s="28" t="s">
         <v>12</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>248</v>
-      </c>
-      <c r="I16" s="79">
+        <v>243</v>
+      </c>
+      <c r="I16" s="71">
         <v>45148</v>
       </c>
-      <c r="J16" s="70" t="s">
-        <v>249</v>
+      <c r="J16" s="62" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="11"/>
       <c r="C17" s="27"/>
       <c r="D17" s="28" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G17" s="28" t="s">
         <v>14</v>
       </c>
       <c r="H17" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="I17" s="71">
+        <v>45148</v>
+      </c>
+      <c r="J17" s="62" t="s">
         <v>248</v>
-      </c>
-      <c r="I17" s="79">
-        <v>45148</v>
-      </c>
-      <c r="J17" s="70" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -4438,22 +4792,22 @@
         <v>7</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="I18" s="80">
+        <v>243</v>
+      </c>
+      <c r="I18" s="72">
         <v>45148</v>
       </c>
-      <c r="J18" s="69" t="s">
-        <v>249</v>
+      <c r="J18" s="61" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -4463,147 +4817,147 @@
         <v>25</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="I19" s="80">
+        <v>243</v>
+      </c>
+      <c r="I19" s="72">
         <v>45148</v>
       </c>
-      <c r="J19" s="69" t="s">
-        <v>254</v>
+      <c r="J19" s="61" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="11"/>
       <c r="C20" s="3"/>
       <c r="D20" s="4" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="I20" s="80">
+        <v>243</v>
+      </c>
+      <c r="I20" s="72">
         <v>45148</v>
       </c>
-      <c r="J20" s="69" t="s">
-        <v>255</v>
+      <c r="J20" s="61" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="78.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="11"/>
       <c r="C21" s="3"/>
       <c r="D21" s="4" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="I21" s="80">
+        <v>243</v>
+      </c>
+      <c r="I21" s="72">
         <v>45148</v>
       </c>
-      <c r="J21" s="69" t="s">
-        <v>256</v>
+      <c r="J21" s="61" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="46" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="11"/>
       <c r="C22" s="3"/>
       <c r="D22" s="4" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="I22" s="80">
+        <v>243</v>
+      </c>
+      <c r="I22" s="72">
         <v>45148</v>
       </c>
-      <c r="J22" s="69" t="s">
-        <v>249</v>
+      <c r="J22" s="61" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="46" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="11"/>
       <c r="C23" s="3"/>
       <c r="D23" s="4" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="I23" s="80">
+        <v>243</v>
+      </c>
+      <c r="I23" s="72">
         <v>45148</v>
       </c>
-      <c r="J23" s="69" t="s">
-        <v>249</v>
+      <c r="J23" s="61" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="11"/>
       <c r="C24" s="3"/>
       <c r="D24" s="4" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="I24" s="80">
+        <v>243</v>
+      </c>
+      <c r="I24" s="72">
         <v>45148</v>
       </c>
-      <c r="J24" s="69" t="s">
-        <v>257</v>
+      <c r="J24" s="61" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.55000000000000004">
@@ -4612,75 +4966,75 @@
         <v>22</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G25" s="13" t="s">
         <v>11</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="I25" s="76">
+        <v>243</v>
+      </c>
+      <c r="I25" s="68">
         <v>45148</v>
       </c>
-      <c r="J25" s="68" t="s">
-        <v>249</v>
+      <c r="J25" s="60" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
       <c r="D26" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>12</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="I26" s="76">
+        <v>243</v>
+      </c>
+      <c r="I26" s="68">
         <v>45148</v>
       </c>
-      <c r="J26" s="68" t="s">
-        <v>249</v>
+      <c r="J26" s="60" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
       <c r="D27" s="13" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G27" s="13" t="s">
         <v>14</v>
       </c>
       <c r="H27" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="I27" s="68">
+        <v>45148</v>
+      </c>
+      <c r="J27" s="60" t="s">
         <v>248</v>
-      </c>
-      <c r="I27" s="76">
-        <v>45148</v>
-      </c>
-      <c r="J27" s="68" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -4690,147 +5044,147 @@
         <v>7</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G28" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="I28" s="76">
+        <v>243</v>
+      </c>
+      <c r="I28" s="68">
         <v>45148</v>
       </c>
-      <c r="J28" s="68" t="s">
-        <v>249</v>
+      <c r="J28" s="60" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
       <c r="D29" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G29" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="I29" s="76">
+        <v>243</v>
+      </c>
+      <c r="I29" s="68">
         <v>45148</v>
       </c>
-      <c r="J29" s="68" t="s">
-        <v>254</v>
+      <c r="J29" s="60" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="11"/>
       <c r="C30" s="12"/>
       <c r="D30" s="13" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G30" s="13" t="s">
         <v>11</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="I30" s="76">
+        <v>243</v>
+      </c>
+      <c r="I30" s="68">
         <v>45148</v>
       </c>
-      <c r="J30" s="68" t="s">
-        <v>255</v>
+      <c r="J30" s="60" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="90" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="11"/>
       <c r="C31" s="12"/>
       <c r="D31" s="13" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="I31" s="76">
+        <v>243</v>
+      </c>
+      <c r="I31" s="68">
         <v>45148</v>
       </c>
-      <c r="J31" s="68" t="s">
-        <v>256</v>
+      <c r="J31" s="60" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="32" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="11"/>
       <c r="C32" s="12"/>
       <c r="D32" s="13" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G32" s="13" t="s">
         <v>14</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="I32" s="76">
+        <v>243</v>
+      </c>
+      <c r="I32" s="68">
         <v>45148</v>
       </c>
-      <c r="J32" s="68" t="s">
-        <v>249</v>
+      <c r="J32" s="60" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="33" spans="2:11" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="11"/>
       <c r="C33" s="12"/>
       <c r="D33" s="13" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G33" s="13" t="s">
         <v>16</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="I33" s="76">
+        <v>243</v>
+      </c>
+      <c r="I33" s="68">
         <v>45148</v>
       </c>
-      <c r="J33" s="68" t="s">
-        <v>249</v>
+      <c r="J33" s="60" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="34" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -4839,50 +5193,50 @@
         <v>21</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="I34" s="80">
+        <v>243</v>
+      </c>
+      <c r="I34" s="72">
         <v>45148</v>
       </c>
-      <c r="J34" s="69" t="s">
-        <v>249</v>
+      <c r="J34" s="61" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="35" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="11"/>
       <c r="C35" s="3"/>
       <c r="D35" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="I35" s="80">
+        <v>243</v>
+      </c>
+      <c r="I35" s="72">
         <v>45148</v>
       </c>
-      <c r="J35" s="69" t="s">
-        <v>249</v>
+      <c r="J35" s="61" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="36" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -4892,97 +5246,97 @@
         <v>7</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="I36" s="80">
+        <v>243</v>
+      </c>
+      <c r="I36" s="72">
         <v>45148</v>
       </c>
-      <c r="J36" s="69" t="s">
-        <v>249</v>
+      <c r="J36" s="61" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="37" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="11"/>
       <c r="C37" s="3"/>
       <c r="D37" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="I37" s="80">
+        <v>243</v>
+      </c>
+      <c r="I37" s="72">
         <v>45148</v>
       </c>
-      <c r="J37" s="69" t="s">
-        <v>249</v>
+      <c r="J37" s="61" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="11"/>
       <c r="C38" s="3"/>
       <c r="D38" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="I38" s="80">
+        <v>243</v>
+      </c>
+      <c r="I38" s="72">
         <v>45148</v>
       </c>
-      <c r="J38" s="69" t="s">
-        <v>249</v>
+      <c r="J38" s="61" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="39" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="11"/>
       <c r="C39" s="3"/>
       <c r="D39" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="I39" s="80">
+        <v>243</v>
+      </c>
+      <c r="I39" s="72">
         <v>45148</v>
       </c>
-      <c r="J39" s="69" t="s">
-        <v>249</v>
+      <c r="J39" s="61" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="40" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -4992,147 +5346,147 @@
         <v>25</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="I40" s="80">
+        <v>243</v>
+      </c>
+      <c r="I40" s="72">
         <v>45148</v>
       </c>
-      <c r="J40" s="69" t="s">
-        <v>254</v>
+      <c r="J40" s="61" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="41" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="11"/>
       <c r="C41" s="3"/>
       <c r="D41" s="4" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="I41" s="80">
+        <v>243</v>
+      </c>
+      <c r="I41" s="72">
         <v>45148</v>
       </c>
-      <c r="J41" s="69" t="s">
-        <v>255</v>
+      <c r="J41" s="61" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="42" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="11"/>
       <c r="C42" s="3"/>
       <c r="D42" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="I42" s="80">
+        <v>243</v>
+      </c>
+      <c r="I42" s="72">
         <v>45148</v>
       </c>
-      <c r="J42" s="69" t="s">
-        <v>256</v>
+      <c r="J42" s="61" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="43" spans="2:11" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="11"/>
       <c r="C43" s="3"/>
       <c r="D43" s="4" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H43" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I43" s="72">
+        <v>45148</v>
+      </c>
+      <c r="J43" s="61" t="s">
         <v>248</v>
-      </c>
-      <c r="I43" s="80">
-        <v>45148</v>
-      </c>
-      <c r="J43" s="69" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="44" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="11"/>
       <c r="C44" s="3"/>
       <c r="D44" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="I44" s="80">
+        <v>243</v>
+      </c>
+      <c r="I44" s="72">
         <v>45148</v>
       </c>
-      <c r="J44" s="69" t="s">
-        <v>249</v>
+      <c r="J44" s="61" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="45" spans="2:11" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="11"/>
       <c r="C45" s="3"/>
       <c r="D45" s="4" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="I45" s="80">
+        <v>243</v>
+      </c>
+      <c r="I45" s="72">
         <v>45148</v>
       </c>
-      <c r="J45" s="69" t="s">
-        <v>249</v>
+      <c r="J45" s="61" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="46" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -5141,25 +5495,25 @@
         <v>20</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G46" s="13" t="s">
         <v>17</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="I46" s="76">
+        <v>243</v>
+      </c>
+      <c r="I46" s="68">
         <v>45148</v>
       </c>
-      <c r="J46" s="68" t="s">
-        <v>249</v>
+      <c r="J46" s="60" t="s">
+        <v>244</v>
       </c>
       <c r="K46" s="1"/>
     </row>
@@ -5167,25 +5521,25 @@
       <c r="B47" s="11"/>
       <c r="C47" s="12"/>
       <c r="D47" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G47" s="13" t="s">
         <v>12</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="I47" s="76">
+        <v>243</v>
+      </c>
+      <c r="I47" s="68">
         <v>45148</v>
       </c>
-      <c r="J47" s="68" t="s">
-        <v>249</v>
+      <c r="J47" s="60" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="48" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -5195,247 +5549,247 @@
         <v>7</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G48" s="13" t="s">
         <v>18</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="I48" s="76">
+        <v>243</v>
+      </c>
+      <c r="I48" s="68">
         <v>45148</v>
       </c>
-      <c r="J48" s="68" t="s">
-        <v>249</v>
+      <c r="J48" s="60" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="49" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="11"/>
       <c r="C49" s="12"/>
       <c r="D49" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G49" s="13" t="s">
         <v>17</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="I49" s="76">
+        <v>243</v>
+      </c>
+      <c r="I49" s="68">
         <v>45148</v>
       </c>
-      <c r="J49" s="68" t="s">
-        <v>249</v>
+      <c r="J49" s="60" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="11"/>
       <c r="C50" s="12"/>
       <c r="D50" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G50" s="13" t="s">
         <v>11</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="I50" s="76">
+        <v>243</v>
+      </c>
+      <c r="I50" s="68">
         <v>45148</v>
       </c>
-      <c r="J50" s="68" t="s">
-        <v>249</v>
+      <c r="J50" s="60" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="51" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="11"/>
       <c r="C51" s="12"/>
       <c r="D51" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G51" s="13" t="s">
         <v>12</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="I51" s="76">
+        <v>243</v>
+      </c>
+      <c r="I51" s="68">
         <v>45148</v>
       </c>
-      <c r="J51" s="68" t="s">
-        <v>249</v>
+      <c r="J51" s="60" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="52" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="11"/>
       <c r="C52" s="12"/>
       <c r="D52" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G52" s="13" t="s">
         <v>18</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="I52" s="76">
+        <v>243</v>
+      </c>
+      <c r="I52" s="68">
         <v>45148</v>
       </c>
-      <c r="J52" s="68" t="s">
-        <v>254</v>
+      <c r="J52" s="60" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="53" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="11"/>
       <c r="C53" s="12"/>
       <c r="D53" s="13" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G53" s="13" t="s">
         <v>11</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="I53" s="76">
+        <v>243</v>
+      </c>
+      <c r="I53" s="68">
         <v>45148</v>
       </c>
-      <c r="J53" s="68" t="s">
-        <v>255</v>
+      <c r="J53" s="60" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="54" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" s="11"/>
       <c r="C54" s="12"/>
       <c r="D54" s="13" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G54" s="13" t="s">
         <v>17</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="I54" s="76">
+        <v>243</v>
+      </c>
+      <c r="I54" s="68">
         <v>45148</v>
       </c>
-      <c r="J54" s="68" t="s">
-        <v>256</v>
+      <c r="J54" s="60" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="55" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="11"/>
       <c r="C55" s="12"/>
       <c r="D55" s="13" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G55" s="13" t="s">
         <v>17</v>
       </c>
       <c r="H55" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="I55" s="68">
+        <v>45148</v>
+      </c>
+      <c r="J55" s="60" t="s">
         <v>248</v>
-      </c>
-      <c r="I55" s="76">
-        <v>45148</v>
-      </c>
-      <c r="J55" s="68" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="56" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" s="11"/>
       <c r="C56" s="12"/>
       <c r="D56" s="13" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G56" s="13" t="s">
         <v>17</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="I56" s="76">
+        <v>243</v>
+      </c>
+      <c r="I56" s="68">
         <v>45148</v>
       </c>
-      <c r="J56" s="68" t="s">
-        <v>249</v>
+      <c r="J56" s="60" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="57" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="11"/>
       <c r="C57" s="12"/>
       <c r="D57" s="13" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G57" s="13" t="s">
         <v>19</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="I57" s="76">
+        <v>243</v>
+      </c>
+      <c r="I57" s="68">
         <v>45148</v>
       </c>
-      <c r="J57" s="68" t="s">
-        <v>249</v>
+      <c r="J57" s="60" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="58" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -5444,191 +5798,251 @@
         <v>24</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="69"/>
+      <c r="H58" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I58" s="72">
+        <v>45149</v>
+      </c>
+      <c r="J58" s="61" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="59" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B59" s="11"/>
       <c r="C59" s="3"/>
       <c r="D59" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="69"/>
+      <c r="H59" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I59" s="72">
+        <v>45149</v>
+      </c>
+      <c r="J59" s="61" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="60" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B60" s="11"/>
       <c r="C60" s="3"/>
       <c r="D60" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="69"/>
+      <c r="H60" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I60" s="72">
+        <v>45149</v>
+      </c>
+      <c r="J60" s="61" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="61" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B61" s="11"/>
       <c r="C61" s="3"/>
       <c r="D61" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="69"/>
+      <c r="H61" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I61" s="72">
+        <v>45149</v>
+      </c>
+      <c r="J61" s="61" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="62" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B62" s="11"/>
       <c r="C62" s="3"/>
       <c r="D62" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="69"/>
+      <c r="H62" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I62" s="72">
+        <v>45149</v>
+      </c>
+      <c r="J62" s="61" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="63" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B63" s="11"/>
       <c r="C63" s="3"/>
       <c r="D63" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="69"/>
+      <c r="H63" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I63" s="72">
+        <v>45149</v>
+      </c>
+      <c r="J63" s="61" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="64" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" s="11"/>
       <c r="C64" s="3"/>
       <c r="D64" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="69"/>
+      <c r="H64" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I64" s="72">
+        <v>45149</v>
+      </c>
+      <c r="J64" s="61" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="65" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B65" s="11"/>
       <c r="C65" s="3"/>
       <c r="D65" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="69"/>
+      <c r="H65" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I65" s="72">
+        <v>45149</v>
+      </c>
+      <c r="J65" s="61" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="66" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B66" s="11"/>
       <c r="C66" s="3"/>
-      <c r="D66" s="4" t="s">
-        <v>117</v>
+      <c r="D66" s="75" t="s">
+        <v>256</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="69"/>
+      <c r="H66" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I66" s="72">
+        <v>45149</v>
+      </c>
+      <c r="J66" s="61" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="67" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B67" s="11"/>
       <c r="C67" s="3"/>
       <c r="D67" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="69"/>
+      <c r="H67" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I67" s="72">
+        <v>45149</v>
+      </c>
+      <c r="J67" s="61" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="68" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B68" s="11"/>
@@ -5637,17 +6051,23 @@
         <v>7</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="69"/>
+      <c r="H68" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I68" s="72">
+        <v>45149</v>
+      </c>
+      <c r="J68" s="61" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="69" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B69" s="11"/>
@@ -5656,55 +6076,73 @@
         <v>25</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="69"/>
+      <c r="H69" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I69" s="72">
+        <v>45149</v>
+      </c>
+      <c r="J69" s="61" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="70" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B70" s="11"/>
       <c r="C70" s="3"/>
       <c r="D70" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="G70" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E70" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="69"/>
+      <c r="H70" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I70" s="72">
+        <v>45149</v>
+      </c>
+      <c r="J70" s="61" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="71" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B71" s="11"/>
       <c r="C71" s="3"/>
       <c r="D71" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="69"/>
+      <c r="H71" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I71" s="72">
+        <v>45149</v>
+      </c>
+      <c r="J71" s="61" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B72" s="11"/>
@@ -5712,77 +6150,101 @@
         <v>27</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F72" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G72" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="71"/>
+      <c r="H72" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="I72" s="76">
+        <v>45149</v>
+      </c>
+      <c r="J72" s="63" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="73" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B73" s="11"/>
       <c r="C73" s="12"/>
       <c r="D73" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F73" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G73" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="H73" s="12"/>
-      <c r="I73" s="12"/>
-      <c r="J73" s="68"/>
+      <c r="H73" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="I73" s="68">
+        <v>45149</v>
+      </c>
+      <c r="J73" s="60" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="74" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B74" s="11"/>
       <c r="C74" s="12"/>
       <c r="D74" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="E74" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="E74" s="13" t="s">
-        <v>122</v>
-      </c>
       <c r="F74" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G74" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H74" s="12"/>
-      <c r="I74" s="12"/>
-      <c r="J74" s="68"/>
+      <c r="H74" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="I74" s="68">
+        <v>45149</v>
+      </c>
+      <c r="J74" s="60" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="75" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B75" s="11"/>
       <c r="C75" s="12"/>
       <c r="D75" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F75" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G75" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="H75" s="12"/>
-      <c r="I75" s="12"/>
-      <c r="J75" s="68"/>
+        <v>233</v>
+      </c>
+      <c r="H75" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="I75" s="68">
+        <v>45149</v>
+      </c>
+      <c r="J75" s="60" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="76" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B76" s="11"/>
@@ -5791,17 +6253,23 @@
         <v>7</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F76" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G76" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H76" s="12"/>
-      <c r="I76" s="12"/>
-      <c r="J76" s="68"/>
+      <c r="H76" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="I76" s="68">
+        <v>45149</v>
+      </c>
+      <c r="J76" s="60" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="77" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B77" s="11"/>
@@ -5810,55 +6278,73 @@
         <v>25</v>
       </c>
       <c r="E77" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F77" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G77" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H77" s="12"/>
-      <c r="I77" s="12"/>
-      <c r="J77" s="68"/>
+      <c r="H77" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="I77" s="68">
+        <v>45149</v>
+      </c>
+      <c r="J77" s="60" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="78" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B78" s="11"/>
       <c r="C78" s="12"/>
       <c r="D78" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E78" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F78" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G78" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="H78" s="12"/>
-      <c r="I78" s="12"/>
-      <c r="J78" s="68"/>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="H78" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="I78" s="68">
+        <v>45149</v>
+      </c>
+      <c r="J78" s="60" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B79" s="11"/>
       <c r="C79" s="12"/>
       <c r="D79" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F79" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G79" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H79" s="12"/>
-      <c r="I79" s="12"/>
-      <c r="J79" s="68"/>
+      <c r="H79" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="I79" s="68">
+        <v>45149</v>
+      </c>
+      <c r="J79" s="60" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="80" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B80" s="11"/>
@@ -5869,17 +6355,23 @@
         <v>7</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="69"/>
+      <c r="H80" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I80" s="72">
+        <v>45149</v>
+      </c>
+      <c r="J80" s="61" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="81" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B81" s="11"/>
@@ -5888,17 +6380,23 @@
         <v>26</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="69"/>
+      <c r="H81" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I81" s="72">
+        <v>45149</v>
+      </c>
+      <c r="J81" s="61" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="82" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B82" s="11"/>
@@ -5907,17 +6405,23 @@
         <v>28</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="69"/>
+      <c r="H82" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I82" s="72">
+        <v>45149</v>
+      </c>
+      <c r="J82" s="61" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="83" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B83" s="11"/>
@@ -5926,17 +6430,23 @@
         <v>29</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="69"/>
+      <c r="H83" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I83" s="72">
+        <v>45149</v>
+      </c>
+      <c r="J83" s="61" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B84" s="11"/>
@@ -5947,418 +6457,550 @@
         <v>30</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F84" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G84" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H84" s="12"/>
-      <c r="I84" s="12"/>
-      <c r="J84" s="68"/>
-    </row>
-    <row r="85" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="H84" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="I84" s="68">
+        <v>45149</v>
+      </c>
+      <c r="J84" s="60" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B85" s="11"/>
       <c r="C85" s="12"/>
       <c r="D85" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E85" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F85" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G85" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="H85" s="12"/>
-      <c r="I85" s="12"/>
-      <c r="J85" s="68"/>
+        <v>11</v>
+      </c>
+      <c r="H85" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="I85" s="68">
+        <v>45149</v>
+      </c>
+      <c r="J85" s="60" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="86" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B86" s="11"/>
       <c r="C86" s="12"/>
       <c r="D86" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E86" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F86" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G86" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="H86" s="12"/>
-      <c r="I86" s="12"/>
-      <c r="J86" s="68"/>
+      <c r="H86" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="I86" s="68">
+        <v>45149</v>
+      </c>
+      <c r="J86" s="60" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="87" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B87" s="11"/>
       <c r="C87" s="12"/>
       <c r="D87" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E87" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F87" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G87" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="H87" s="12"/>
-      <c r="I87" s="12"/>
-      <c r="J87" s="68"/>
+      <c r="H87" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="I87" s="68">
+        <v>45149</v>
+      </c>
+      <c r="J87" s="60" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="88" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B88" s="11"/>
       <c r="C88" s="12"/>
       <c r="D88" s="13" t="s">
-        <v>31</v>
+        <v>258</v>
       </c>
       <c r="E88" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F88" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G88" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="H88" s="12"/>
-      <c r="I88" s="12"/>
-      <c r="J88" s="68"/>
-    </row>
-    <row r="89" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="H88" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="I88" s="68">
+        <v>45149</v>
+      </c>
+      <c r="J88" s="60" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B89" s="11"/>
       <c r="C89" s="12"/>
       <c r="D89" s="13" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E89" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F89" s="13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G89" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="H89" s="12"/>
-      <c r="I89" s="12"/>
-      <c r="J89" s="68"/>
+        <v>52</v>
+      </c>
+      <c r="H89" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="I89" s="68">
+        <v>45149</v>
+      </c>
+      <c r="J89" s="60" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="90" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B90" s="11"/>
       <c r="C90" s="12"/>
       <c r="D90" s="13" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E90" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F90" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G90" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="H90" s="12"/>
-      <c r="I90" s="12"/>
-      <c r="J90" s="68"/>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="H90" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="I90" s="68">
+        <v>45149</v>
+      </c>
+      <c r="J90" s="60" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B91" s="11"/>
       <c r="C91" s="12"/>
       <c r="D91" s="13" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="E91" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F91" s="13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G91" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H91" s="12"/>
-      <c r="I91" s="12"/>
-      <c r="J91" s="68"/>
+        <v>56</v>
+      </c>
+      <c r="H91" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="I91" s="68">
+        <v>45149</v>
+      </c>
+      <c r="J91" s="60" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="92" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B92" s="11"/>
       <c r="C92" s="12"/>
       <c r="D92" s="13" t="s">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="E92" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F92" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G92" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="H92" s="12"/>
-      <c r="I92" s="12"/>
-      <c r="J92" s="68"/>
+        <v>11</v>
+      </c>
+      <c r="H92" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="I92" s="68">
+        <v>45149</v>
+      </c>
+      <c r="J92" s="60" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="93" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B93" s="11"/>
-      <c r="C93" s="3" t="s">
+      <c r="C93" s="12"/>
+      <c r="D93" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E93" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="F93" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G93" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H93" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="I93" s="68">
+        <v>45149</v>
+      </c>
+      <c r="J93" s="60" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B94" s="11"/>
+      <c r="C94" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D93" s="4" t="s">
+      <c r="D94" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E93" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G93" s="4" t="s">
+      <c r="E94" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G94" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H93" s="3"/>
-      <c r="I93" s="3"/>
-      <c r="J93" s="69"/>
-    </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B94" s="11"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G94" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H94" s="3"/>
-      <c r="I94" s="3"/>
-      <c r="J94" s="69"/>
+      <c r="H94" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I94" s="72">
+        <v>45149</v>
+      </c>
+      <c r="J94" s="61" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B95" s="11"/>
       <c r="C95" s="3"/>
       <c r="D95" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H95" s="3"/>
-      <c r="I95" s="3"/>
-      <c r="J95" s="69"/>
-    </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+        <v>11</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I95" s="72">
+        <v>45149</v>
+      </c>
+      <c r="J95" s="61" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B96" s="11"/>
       <c r="C96" s="3"/>
-      <c r="D96" s="4"/>
+      <c r="D96" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="E96" s="4" t="s">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H96" s="3"/>
-      <c r="I96" s="3"/>
-      <c r="J96" s="69"/>
+        <v>59</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I96" s="72">
+        <v>45149</v>
+      </c>
+      <c r="J96" s="61" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B97" s="11"/>
-      <c r="C97" s="12" t="s">
+      <c r="C97" s="3"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I97" s="72">
+        <v>45149</v>
+      </c>
+      <c r="J97" s="61" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B98" s="11"/>
+      <c r="C98" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D97" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="E97" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="F97" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="G97" s="13" t="s">
+      <c r="D98" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E98" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="F98" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G98" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H97" s="12"/>
-      <c r="I97" s="12"/>
-      <c r="J97" s="68"/>
-    </row>
-    <row r="98" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B98" s="11"/>
-      <c r="C98" s="12"/>
-      <c r="D98" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E98" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="F98" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="G98" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="H98" s="12"/>
-      <c r="I98" s="12"/>
-      <c r="J98" s="68"/>
+      <c r="H98" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="I98" s="68">
+        <v>45149</v>
+      </c>
+      <c r="J98" s="60" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="99" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B99" s="11"/>
       <c r="C99" s="12"/>
       <c r="D99" s="13" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E99" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F99" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G99" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="H99" s="12"/>
-      <c r="I99" s="12"/>
-      <c r="J99" s="68"/>
-    </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="H99" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="I99" s="68">
+        <v>45149</v>
+      </c>
+      <c r="J99" s="60" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B100" s="11"/>
       <c r="C100" s="12"/>
       <c r="D100" s="13" t="s">
-        <v>132</v>
+        <v>25</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F100" s="13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H100" s="12"/>
-      <c r="I100" s="12"/>
-      <c r="J100" s="68"/>
-    </row>
-    <row r="101" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+        <v>61</v>
+      </c>
+      <c r="H100" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="I100" s="68">
+        <v>45149</v>
+      </c>
+      <c r="J100" s="60" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B101" s="11"/>
       <c r="C101" s="12"/>
       <c r="D101" s="13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E101" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F101" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G101" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H101" s="12"/>
-      <c r="I101" s="12"/>
-      <c r="J101" s="68"/>
-    </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="H101" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="I101" s="68">
+        <v>45149</v>
+      </c>
+      <c r="J101" s="60" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B102" s="11"/>
       <c r="C102" s="12"/>
       <c r="D102" s="13" t="s">
-        <v>62</v>
+        <v>266</v>
       </c>
       <c r="E102" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F102" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G102" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H102" s="12"/>
-      <c r="I102" s="12"/>
-      <c r="J102" s="68"/>
+      <c r="H102" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="I102" s="68">
+        <v>45149</v>
+      </c>
+      <c r="J102" s="60" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="103" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B103" s="11"/>
       <c r="C103" s="12"/>
       <c r="D103" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E103" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F103" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G103" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="H103" s="12"/>
-      <c r="I103" s="12"/>
-      <c r="J103" s="68"/>
+        <v>62</v>
+      </c>
+      <c r="H103" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="I103" s="68">
+        <v>45149</v>
+      </c>
+      <c r="J103" s="60" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="104" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B104" s="11"/>
       <c r="C104" s="12"/>
       <c r="D104" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E104" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F104" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G104" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H104" s="12"/>
-      <c r="I104" s="12"/>
-      <c r="J104" s="68"/>
+      <c r="H104" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="I104" s="68">
+        <v>45149</v>
+      </c>
+      <c r="J104" s="60" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="105" spans="2:10" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="B105" s="11"/>
       <c r="C105" s="12"/>
       <c r="D105" s="13" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E105" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F105" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G105" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="H105" s="12"/>
-      <c r="I105" s="12"/>
-      <c r="J105" s="68"/>
+        <v>63</v>
+      </c>
+      <c r="H105" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="I105" s="68">
+        <v>45149</v>
+      </c>
+      <c r="J105" s="60" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B106" s="11"/>
@@ -6366,20 +7008,26 @@
         <v>38</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G106" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H106" s="3"/>
-      <c r="I106" s="3"/>
-      <c r="J106" s="69"/>
+      <c r="H106" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I106" s="72">
+        <v>45149</v>
+      </c>
+      <c r="J106" s="61" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="107" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B107" s="11"/>
@@ -6388,305 +7036,399 @@
         <v>7</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G107" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H107" s="3"/>
-      <c r="I107" s="3"/>
-      <c r="J107" s="69"/>
+      <c r="H107" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I107" s="72">
+        <v>45149</v>
+      </c>
+      <c r="J107" s="61" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="108" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B108" s="11"/>
       <c r="C108" s="3"/>
       <c r="D108" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G108" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H108" s="3"/>
-      <c r="I108" s="3"/>
-      <c r="J108" s="69"/>
+      <c r="H108" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I108" s="72">
+        <v>45149</v>
+      </c>
+      <c r="J108" s="61" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B109" s="11"/>
       <c r="C109" s="3"/>
       <c r="D109" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G109" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H109" s="3"/>
-      <c r="I109" s="3"/>
-      <c r="J109" s="69"/>
+      <c r="H109" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I109" s="72">
+        <v>45149</v>
+      </c>
+      <c r="J109" s="61" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="110" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B110" s="11"/>
       <c r="C110" s="3"/>
       <c r="D110" s="4" t="s">
-        <v>138</v>
+        <v>267</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G110" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H110" s="3"/>
-      <c r="I110" s="3"/>
-      <c r="J110" s="69"/>
-    </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="H110" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I110" s="72">
+        <v>45149</v>
+      </c>
+      <c r="J110" s="61" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="111" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B111" s="11"/>
       <c r="C111" s="3"/>
       <c r="D111" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H111" s="3"/>
-      <c r="I111" s="3"/>
-      <c r="J111" s="69"/>
-    </row>
-    <row r="112" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+        <v>62</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I111" s="72">
+        <v>45149</v>
+      </c>
+      <c r="J111" s="61" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="112" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B112" s="11"/>
       <c r="C112" s="3"/>
       <c r="D112" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H112" s="3"/>
-      <c r="I112" s="3"/>
-      <c r="J112" s="69"/>
-    </row>
-    <row r="113" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+        <v>268</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I112" s="72">
+        <v>45149</v>
+      </c>
+      <c r="J112" s="61" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="113" spans="2:10" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="B113" s="11"/>
       <c r="C113" s="3"/>
       <c r="D113" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H113" s="3"/>
-      <c r="I113" s="3"/>
-      <c r="J113" s="69"/>
-    </row>
-    <row r="114" spans="2:10" ht="72" x14ac:dyDescent="0.55000000000000004">
+        <v>269</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I113" s="72">
+        <v>45149</v>
+      </c>
+      <c r="J113" s="61" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B114" s="11"/>
-      <c r="C114" s="3"/>
-      <c r="D114" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F114" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G114" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H114" s="3"/>
-      <c r="I114" s="3"/>
-      <c r="J114" s="69"/>
+      <c r="C114" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D114" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E114" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="F114" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G114" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H114" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="I114" s="68">
+        <v>45149</v>
+      </c>
+      <c r="J114" s="60" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B115" s="11"/>
-      <c r="C115" s="12" t="s">
-        <v>39</v>
-      </c>
+      <c r="C115" s="12"/>
       <c r="D115" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E115" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F115" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G115" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H115" s="12"/>
-      <c r="I115" s="12"/>
-      <c r="J115" s="68"/>
+      <c r="H115" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="I115" s="68">
+        <v>45149</v>
+      </c>
+      <c r="J115" s="60" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B116" s="11"/>
       <c r="C116" s="12"/>
-      <c r="D116" s="13" t="s">
-        <v>41</v>
-      </c>
+      <c r="D116" s="13"/>
       <c r="E116" s="13" t="s">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="F116" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G116" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H116" s="12"/>
-      <c r="I116" s="12"/>
-      <c r="J116" s="68"/>
+        <v>64</v>
+      </c>
+      <c r="H116" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="I116" s="68">
+        <v>45149</v>
+      </c>
+      <c r="J116" s="60" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B117" s="11"/>
-      <c r="C117" s="12"/>
-      <c r="D117" s="13"/>
-      <c r="E117" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F117" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G117" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H117" s="12"/>
-      <c r="I117" s="12"/>
-      <c r="J117" s="68"/>
-    </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C117" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I117" s="72">
+        <v>45149</v>
+      </c>
+      <c r="J117" s="61" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="118" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B118" s="11"/>
-      <c r="C118" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="C118" s="3"/>
       <c r="D118" s="4" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>161</v>
+        <v>8</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="H118" s="3"/>
-      <c r="I118" s="3"/>
-      <c r="J118" s="69"/>
-    </row>
-    <row r="119" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B119" s="11"/>
-      <c r="C119" s="3"/>
-      <c r="D119" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I118" s="72">
+        <v>45149</v>
+      </c>
+      <c r="J118" s="61" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="119" spans="2:10" ht="36.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B119" s="10"/>
+      <c r="C119" s="33"/>
+      <c r="D119" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="E119" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F119" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="G119" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="H119" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="I119" s="77">
+        <v>45149</v>
+      </c>
+      <c r="J119" s="59" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="120" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="121" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B121" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C121" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="D121" s="25"/>
+      <c r="E121" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="E119" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F119" s="4" t="s">
+      <c r="F121" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="G121" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="H121" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="I121" s="78">
+        <v>45149</v>
+      </c>
+      <c r="J121" s="58" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="122" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B122" s="11"/>
+      <c r="C122" s="12"/>
+      <c r="D122" s="13"/>
+      <c r="E122" s="13"/>
+      <c r="F122" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="G119" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="H119" s="3"/>
-      <c r="I119" s="3"/>
-      <c r="J119" s="69"/>
-    </row>
-    <row r="120" spans="2:10" ht="36.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B120" s="10"/>
-      <c r="C120" s="33"/>
-      <c r="D120" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="E120" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F120" s="34" t="s">
+      <c r="G122" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="G120" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="H120" s="33"/>
-      <c r="I120" s="33"/>
-      <c r="J120" s="67"/>
-    </row>
-    <row r="121" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="122" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B122" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C122" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="D122" s="25"/>
-      <c r="E122" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="F122" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="G122" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="H122" s="26"/>
-      <c r="I122" s="39"/>
-      <c r="J122" s="66"/>
-    </row>
-    <row r="123" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="H122" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="I122" s="79">
+        <v>45149</v>
+      </c>
+      <c r="J122" s="60" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="123" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B123" s="11"/>
       <c r="C123" s="12"/>
       <c r="D123" s="13"/>
-      <c r="E123" s="13"/>
+      <c r="E123" s="13" t="s">
+        <v>145</v>
+      </c>
       <c r="F123" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="G123" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="G123" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="H123" s="14"/>
-      <c r="I123" s="40"/>
-      <c r="J123" s="68"/>
-    </row>
-    <row r="124" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H123" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="I123" s="79">
+        <v>45149</v>
+      </c>
+      <c r="J123" s="60" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B124" s="11"/>
       <c r="C124" s="12"/>
       <c r="D124" s="13"/>
@@ -6694,172 +7436,232 @@
         <v>150</v>
       </c>
       <c r="F124" s="13" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G124" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="H124" s="14"/>
-      <c r="I124" s="40"/>
-      <c r="J124" s="68"/>
-    </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+        <v>151</v>
+      </c>
+      <c r="H124" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="I124" s="79">
+        <v>45149</v>
+      </c>
+      <c r="J124" s="60" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="125" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B125" s="11"/>
-      <c r="C125" s="12"/>
-      <c r="D125" s="13"/>
-      <c r="E125" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="F125" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="G125" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="H125" s="14"/>
-      <c r="I125" s="40"/>
-      <c r="J125" s="68"/>
-    </row>
-    <row r="126" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B126" s="11"/>
-      <c r="C126" s="3" t="s">
+      <c r="C125" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D125" s="4"/>
+      <c r="E125" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G125" s="4" t="s">
         <v>74</v>
       </c>
+      <c r="H125" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="I125" s="80">
+        <v>45149</v>
+      </c>
+      <c r="J125" s="61" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="126" spans="2:10" ht="53" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B126" s="40"/>
+      <c r="C126" s="3"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H126" s="8"/>
-      <c r="I126" s="41"/>
-      <c r="J126" s="69"/>
-    </row>
-    <row r="127" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B127" s="44"/>
-      <c r="C127" s="3"/>
-      <c r="D127" s="4"/>
-      <c r="E127" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="F127" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G127" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H127" s="8"/>
-      <c r="I127" s="41"/>
-      <c r="J127" s="69"/>
+      <c r="H126" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="I126" s="80">
+        <v>45149</v>
+      </c>
+      <c r="J126" s="61" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B127" s="40"/>
+      <c r="C127" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D127" s="13"/>
+      <c r="E127" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="F127" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="G127" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="H127" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="I127" s="79">
+        <v>45149</v>
+      </c>
+      <c r="J127" s="60" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B128" s="44"/>
-      <c r="C128" s="12" t="s">
+      <c r="B128" s="40"/>
+      <c r="C128" s="44"/>
+      <c r="D128" s="45"/>
+      <c r="E128" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="F128" s="45"/>
+      <c r="G128" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="H128" s="46" t="s">
+        <v>243</v>
+      </c>
+      <c r="I128" s="82">
+        <v>45149</v>
+      </c>
+      <c r="J128" s="64" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B129" s="40"/>
+      <c r="C129" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D128" s="13"/>
-      <c r="E128" s="13" t="s">
+      <c r="D129" s="4"/>
+      <c r="E129" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="H129" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="I129" s="81">
+        <v>45149</v>
+      </c>
+      <c r="J129" s="65" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="130" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B130" s="41"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="7"/>
+      <c r="E130" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F130" s="7"/>
+      <c r="G130" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F128" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="G128" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="H128" s="14"/>
-      <c r="I128" s="40"/>
-      <c r="J128" s="68"/>
-    </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B129" s="44"/>
-      <c r="C129" s="48"/>
-      <c r="D129" s="49"/>
-      <c r="E129" s="49" t="s">
+      <c r="H130" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="I130" s="83">
+        <v>45149</v>
+      </c>
+      <c r="J130" s="66" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="131" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="132" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B132" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="F129" s="49"/>
-      <c r="G129" s="49" t="s">
-        <v>153</v>
-      </c>
-      <c r="H129" s="50"/>
-      <c r="I129" s="51"/>
-      <c r="J129" s="72"/>
-    </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B130" s="44"/>
-      <c r="C130" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D130" s="4"/>
-      <c r="E130" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="F130" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="G130" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="H130" s="47"/>
-      <c r="I130" s="52"/>
-      <c r="J130" s="73"/>
-    </row>
-    <row r="131" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B131" s="45"/>
-      <c r="C131" s="6"/>
-      <c r="D131" s="7"/>
-      <c r="E131" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F131" s="7"/>
-      <c r="G131" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="H131" s="9"/>
-      <c r="I131" s="42"/>
-      <c r="J131" s="74"/>
-    </row>
-    <row r="132" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+      <c r="C132" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="D132" s="25"/>
+      <c r="E132" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="F132" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="G132" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="H132" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="I132" s="56">
+        <v>45149</v>
+      </c>
+      <c r="J132" s="58" t="s">
+        <v>244</v>
+      </c>
+    </row>
     <row r="133" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B133" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="C133" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="D133" s="25"/>
-      <c r="E133" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="F133" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="G133" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="H133" s="24"/>
-      <c r="I133" s="24"/>
-      <c r="J133" s="66"/>
-    </row>
-    <row r="134" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B133" s="11"/>
+      <c r="C133" s="12"/>
+      <c r="D133" s="13"/>
+      <c r="E133" s="13"/>
+      <c r="F133" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="G133" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="H133" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="I133" s="68">
+        <v>45149</v>
+      </c>
+      <c r="J133" s="60" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B134" s="11"/>
       <c r="C134" s="12"/>
       <c r="D134" s="13"/>
-      <c r="E134" s="13"/>
+      <c r="E134" s="13" t="s">
+        <v>145</v>
+      </c>
       <c r="F134" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="G134" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="G134" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="H134" s="12"/>
-      <c r="I134" s="12"/>
-      <c r="J134" s="68"/>
+      <c r="H134" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="I134" s="68">
+        <v>45149</v>
+      </c>
+      <c r="J134" s="60" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="135" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B135" s="11"/>
@@ -6869,103 +7671,116 @@
         <v>150</v>
       </c>
       <c r="F135" s="13" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G135" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="H135" s="12"/>
-      <c r="I135" s="12"/>
-      <c r="J135" s="68"/>
+        <v>151</v>
+      </c>
+      <c r="H135" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="I135" s="68">
+        <v>45149</v>
+      </c>
+      <c r="J135" s="60" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B136" s="11"/>
-      <c r="C136" s="12"/>
-      <c r="D136" s="13"/>
-      <c r="E136" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="F136" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="G136" s="13" t="s">
+      <c r="C136" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D136" s="4"/>
+      <c r="E136" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H136" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I136" s="72">
+        <v>45149</v>
+      </c>
+      <c r="J136" s="61" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="137" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B137" s="11"/>
+      <c r="C137" s="3"/>
+      <c r="D137" s="29"/>
+      <c r="E137" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G137" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="H137" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="I137" s="84">
+        <v>45149</v>
+      </c>
+      <c r="J137" s="65" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="138" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B138" s="11"/>
+      <c r="C138" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D138" s="45"/>
+      <c r="E138" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="H136" s="12"/>
-      <c r="I136" s="12"/>
-      <c r="J136" s="68"/>
-    </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B137" s="11"/>
-      <c r="C137" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D137" s="4"/>
-      <c r="E137" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="F137" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G137" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H137" s="3"/>
-      <c r="I137" s="3"/>
-      <c r="J137" s="69"/>
-    </row>
-    <row r="138" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B138" s="11"/>
-      <c r="C138" s="3"/>
-      <c r="D138" s="29"/>
-      <c r="E138" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="F138" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G138" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="H138" s="46"/>
-      <c r="I138" s="46"/>
-      <c r="J138" s="73"/>
-    </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B139" s="11"/>
-      <c r="C139" s="12" t="s">
+      <c r="F138" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="G138" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="H138" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="I138" s="85">
+        <v>45149</v>
+      </c>
+      <c r="J138" s="64" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="139" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B139" s="47"/>
+      <c r="C139" s="35"/>
+      <c r="D139" s="18"/>
+      <c r="E139" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F139" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G139" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="D139" s="49"/>
-      <c r="E139" s="49" t="s">
-        <v>161</v>
-      </c>
-      <c r="F139" s="49" t="s">
-        <v>163</v>
-      </c>
-      <c r="G139" s="49" t="s">
-        <v>162</v>
-      </c>
-      <c r="H139" s="48"/>
-      <c r="I139" s="48"/>
-      <c r="J139" s="72"/>
-    </row>
-    <row r="140" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B140" s="53"/>
-      <c r="C140" s="35"/>
-      <c r="D140" s="18"/>
-      <c r="E140" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="F140" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="G140" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="H140" s="17"/>
-      <c r="I140" s="17"/>
-      <c r="J140" s="75"/>
+      <c r="H139" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="I139" s="86">
+        <v>45149</v>
+      </c>
+      <c r="J139" s="67" t="s">
+        <v>244</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6979,36 +7794,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07622B51-2DC1-4955-B7A1-F49C4F9FDDC1}">
-  <dimension ref="B2:J100"/>
+  <dimension ref="B2:J101"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+    <sheetView topLeftCell="A61" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="J68" sqref="J68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="37.58203125" customWidth="1"/>
-    <col min="3" max="3" width="23.9140625" customWidth="1"/>
+    <col min="3" max="3" width="26.83203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="31.4140625" customWidth="1"/>
     <col min="5" max="5" width="28.6640625" customWidth="1"/>
     <col min="6" max="6" width="34.58203125" customWidth="1"/>
     <col min="7" max="7" width="39.5" customWidth="1"/>
+    <col min="9" max="9" width="8.1640625" customWidth="1"/>
+    <col min="10" max="10" width="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="30" t="s">
-        <v>160</v>
+      <c r="C2" s="87" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="4" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="53" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="36" t="s">
@@ -7016,8 +7833,8 @@
       </c>
     </row>
     <row r="5" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B5" s="63"/>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="74"/>
+      <c r="C5" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="37" t="s">
@@ -7029,7 +7846,7 @@
       <c r="B8" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="23" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="23" t="s">
@@ -7056,29 +7873,35 @@
     </row>
     <row r="9" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="10" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="54" t="s">
-        <v>168</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>169</v>
+      <c r="B10" s="48" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>164</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="F10" s="59" t="s">
-        <v>241</v>
+        <v>235</v>
+      </c>
+      <c r="F10" s="53" t="s">
+        <v>236</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="60"/>
+        <v>237</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I10" s="69">
+        <v>45149</v>
+      </c>
+      <c r="J10" s="54" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="11"/>
-      <c r="C11" s="3"/>
+      <c r="C11" s="4"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -7089,41 +7912,47 @@
     </row>
     <row r="12" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B12" s="11"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="47"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="43"/>
     </row>
     <row r="13" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="61" t="s">
-        <v>184</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>226</v>
+      <c r="B13" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>221</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E13" s="24" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>225</v>
-      </c>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="26"/>
+        <v>220</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="I13" s="56">
+        <v>45149</v>
+      </c>
+      <c r="J13" s="26" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
+      <c r="C14" s="13"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
@@ -7134,26 +7963,32 @@
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="11"/>
-      <c r="C15" s="3" t="s">
-        <v>170</v>
+      <c r="C15" s="4" t="s">
+        <v>165</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="8"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+        <v>178</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I15" s="72">
+        <v>45149</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B16" s="11"/>
-      <c r="C16" s="3"/>
+      <c r="C16" s="4"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -7164,26 +7999,32 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="11"/>
-      <c r="C17" s="12" t="s">
-        <v>172</v>
+      <c r="C17" s="13" t="s">
+        <v>167</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="12" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="14"/>
+        <v>178</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="I17" s="56">
+        <v>45149</v>
+      </c>
+      <c r="J17" s="26" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
+      <c r="C18" s="13"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
@@ -7194,26 +8035,32 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="11"/>
-      <c r="C19" s="3" t="s">
-        <v>173</v>
+      <c r="C19" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="8"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+        <v>178</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I19" s="72">
+        <v>45149</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B20" s="11"/>
-      <c r="C20" s="3"/>
+      <c r="C20" s="4"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -7224,26 +8071,32 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="11"/>
-      <c r="C21" s="12" t="s">
-        <v>174</v>
+      <c r="C21" s="13" t="s">
+        <v>169</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="14"/>
+        <v>178</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="I21" s="56">
+        <v>45149</v>
+      </c>
+      <c r="J21" s="26" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
+      <c r="C22" s="13"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
@@ -7254,26 +8107,32 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="11"/>
-      <c r="C23" s="3" t="s">
-        <v>175</v>
+      <c r="C23" s="4" t="s">
+        <v>170</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="8"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+        <v>178</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I23" s="72">
+        <v>45149</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B24" s="11"/>
-      <c r="C24" s="3"/>
+      <c r="C24" s="4"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -7284,26 +8143,32 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="11"/>
-      <c r="C25" s="12" t="s">
-        <v>176</v>
+      <c r="C25" s="13" t="s">
+        <v>171</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="12" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="14"/>
+        <v>180</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="I25" s="56">
+        <v>45149</v>
+      </c>
+      <c r="J25" s="26" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="11"/>
-      <c r="C26" s="12"/>
+      <c r="C26" s="13"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
@@ -7314,31 +8179,37 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="11"/>
-      <c r="C27" s="3" t="s">
-        <v>177</v>
+      <c r="C27" s="4" t="s">
+        <v>172</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="8"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+        <v>181</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I27" s="72">
+        <v>45149</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B28" s="11"/>
-      <c r="C28" s="3"/>
+      <c r="C28" s="4"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -7346,26 +8217,32 @@
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="11"/>
-      <c r="C29" s="12" t="s">
-        <v>178</v>
+      <c r="C29" s="13" t="s">
+        <v>173</v>
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="12" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="14"/>
+        <v>178</v>
+      </c>
+      <c r="H29" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="I29" s="56">
+        <v>45149</v>
+      </c>
+      <c r="J29" s="26" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="11"/>
-      <c r="C30" s="12"/>
+      <c r="C30" s="13"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
@@ -7376,26 +8253,32 @@
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="11"/>
-      <c r="C31" s="3" t="s">
-        <v>179</v>
+      <c r="C31" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="8"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+        <v>178</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I31" s="72">
+        <v>45149</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B32" s="11"/>
-      <c r="C32" s="3"/>
+      <c r="C32" s="4"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -7406,26 +8289,32 @@
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="11"/>
-      <c r="C33" s="12" t="s">
-        <v>180</v>
+      <c r="C33" s="13" t="s">
+        <v>175</v>
       </c>
       <c r="D33" s="12"/>
       <c r="E33" s="12" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="14"/>
+        <v>178</v>
+      </c>
+      <c r="H33" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="I33" s="56">
+        <v>45149</v>
+      </c>
+      <c r="J33" s="26" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="11"/>
-      <c r="C34" s="12"/>
+      <c r="C34" s="13"/>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
@@ -7436,26 +8325,32 @@
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="11"/>
-      <c r="C35" s="3" t="s">
-        <v>181</v>
+      <c r="C35" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="8"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+        <v>178</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I35" s="72">
+        <v>45149</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B36" s="11"/>
-      <c r="C36" s="3"/>
+      <c r="C36" s="4"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -7466,31 +8361,37 @@
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="11"/>
-      <c r="C37" s="12" t="s">
-        <v>182</v>
+      <c r="C37" s="13" t="s">
+        <v>177</v>
       </c>
       <c r="D37" s="12"/>
       <c r="E37" s="12" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="14"/>
+        <v>182</v>
+      </c>
+      <c r="H37" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="I37" s="56">
+        <v>45149</v>
+      </c>
+      <c r="J37" s="26" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="11"/>
-      <c r="C38" s="12"/>
+      <c r="C38" s="13"/>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
@@ -7498,7 +8399,7 @@
     </row>
     <row r="39" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B39" s="10"/>
-      <c r="C39" s="17"/>
+      <c r="C39" s="18"/>
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
       <c r="F39" s="17"/>
@@ -7508,29 +8409,35 @@
       <c r="J39" s="19"/>
     </row>
     <row r="40" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="61" t="s">
-        <v>190</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>170</v>
+      <c r="B40" s="55" t="s">
+        <v>185</v>
+      </c>
+      <c r="C40" s="53" t="s">
+        <v>165</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="60"/>
+        <v>178</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I40" s="69">
+        <v>45149</v>
+      </c>
+      <c r="J40" s="54" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="11"/>
-      <c r="C41" s="3"/>
+      <c r="C41" s="4"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -7541,26 +8448,32 @@
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="11"/>
-      <c r="C42" s="12" t="s">
-        <v>172</v>
+      <c r="C42" s="13" t="s">
+        <v>167</v>
       </c>
       <c r="D42" s="12"/>
       <c r="E42" s="12" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="14"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+        <v>178</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="I42" s="68">
+        <v>45149</v>
+      </c>
+      <c r="J42" s="14" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B43" s="11"/>
-      <c r="C43" s="12"/>
+      <c r="C43" s="13"/>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
@@ -7571,26 +8484,32 @@
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="11"/>
-      <c r="C44" s="3" t="s">
-        <v>173</v>
+      <c r="C44" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="8"/>
+        <v>178</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I44" s="69">
+        <v>45149</v>
+      </c>
+      <c r="J44" s="54" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="11"/>
-      <c r="C45" s="3"/>
+      <c r="C45" s="4"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -7601,26 +8520,32 @@
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="11"/>
-      <c r="C46" s="12" t="s">
-        <v>174</v>
+      <c r="C46" s="13" t="s">
+        <v>169</v>
       </c>
       <c r="D46" s="12"/>
       <c r="E46" s="12" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="14"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+        <v>178</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="I46" s="68">
+        <v>45149</v>
+      </c>
+      <c r="J46" s="14" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B47" s="11"/>
-      <c r="C47" s="12"/>
+      <c r="C47" s="13"/>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
@@ -7631,26 +8556,32 @@
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="11"/>
-      <c r="C48" s="3" t="s">
-        <v>175</v>
+      <c r="C48" s="4" t="s">
+        <v>170</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="8"/>
+        <v>178</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I48" s="69">
+        <v>45149</v>
+      </c>
+      <c r="J48" s="54" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="11"/>
-      <c r="C49" s="3"/>
+      <c r="C49" s="4"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -7661,26 +8592,32 @@
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="11"/>
-      <c r="C50" s="12" t="s">
-        <v>176</v>
+      <c r="C50" s="13" t="s">
+        <v>171</v>
       </c>
       <c r="D50" s="12"/>
       <c r="E50" s="12" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="14"/>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+        <v>178</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="I50" s="68">
+        <v>45149</v>
+      </c>
+      <c r="J50" s="14" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B51" s="11"/>
-      <c r="C51" s="12"/>
+      <c r="C51" s="13"/>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
@@ -7691,26 +8628,32 @@
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="11"/>
-      <c r="C52" s="3" t="s">
-        <v>177</v>
+      <c r="C52" s="4" t="s">
+        <v>172</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="8"/>
+        <v>186</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I52" s="69">
+        <v>45149</v>
+      </c>
+      <c r="J52" s="54" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="11"/>
-      <c r="C53" s="3"/>
+      <c r="C53" s="4"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -7721,26 +8664,32 @@
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" s="11"/>
-      <c r="C54" s="12" t="s">
-        <v>178</v>
+      <c r="C54" s="13" t="s">
+        <v>173</v>
       </c>
       <c r="D54" s="12"/>
       <c r="E54" s="12" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="14"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+        <v>178</v>
+      </c>
+      <c r="H54" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="I54" s="68">
+        <v>45149</v>
+      </c>
+      <c r="J54" s="14" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B55" s="11"/>
-      <c r="C55" s="12"/>
+      <c r="C55" s="13"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
       <c r="F55" s="12"/>
@@ -7751,26 +8700,32 @@
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" s="11"/>
-      <c r="C56" s="3" t="s">
-        <v>179</v>
+      <c r="C56" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="8"/>
+        <v>178</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I56" s="69">
+        <v>45149</v>
+      </c>
+      <c r="J56" s="54" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="11"/>
-      <c r="C57" s="3"/>
+      <c r="C57" s="4"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -7781,26 +8736,32 @@
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" s="11"/>
-      <c r="C58" s="12" t="s">
-        <v>180</v>
+      <c r="C58" s="13" t="s">
+        <v>175</v>
       </c>
       <c r="D58" s="12"/>
       <c r="E58" s="12" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="14"/>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+        <v>178</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="I58" s="68">
+        <v>45149</v>
+      </c>
+      <c r="J58" s="14" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B59" s="11"/>
-      <c r="C59" s="12"/>
+      <c r="C59" s="13"/>
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
       <c r="F59" s="12"/>
@@ -7811,26 +8772,32 @@
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B60" s="11"/>
-      <c r="C60" s="3" t="s">
-        <v>181</v>
+      <c r="C60" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="8"/>
+        <v>178</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I60" s="69">
+        <v>45149</v>
+      </c>
+      <c r="J60" s="54" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B61" s="11"/>
-      <c r="C61" s="3"/>
+      <c r="C61" s="4"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -7841,26 +8808,32 @@
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B62" s="11"/>
-      <c r="C62" s="12" t="s">
-        <v>182</v>
+      <c r="C62" s="13" t="s">
+        <v>177</v>
       </c>
       <c r="D62" s="12"/>
       <c r="E62" s="12" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="14"/>
+        <v>178</v>
+      </c>
+      <c r="H62" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="I62" s="68">
+        <v>45149</v>
+      </c>
+      <c r="J62" s="14" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B63" s="11"/>
-      <c r="C63" s="12"/>
+      <c r="C63" s="13"/>
       <c r="D63" s="12"/>
       <c r="E63" s="12"/>
       <c r="F63" s="12"/>
@@ -7871,91 +8844,117 @@
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" s="11"/>
-      <c r="C64" s="55"/>
-      <c r="D64" s="55"/>
-      <c r="E64" s="55"/>
-      <c r="F64" s="55"/>
-      <c r="G64" s="55"/>
-      <c r="H64" s="55"/>
-      <c r="I64" s="55"/>
-      <c r="J64" s="56"/>
+      <c r="C64" s="88"/>
+      <c r="D64" s="49"/>
+      <c r="E64" s="49"/>
+      <c r="F64" s="49"/>
+      <c r="G64" s="49"/>
+      <c r="H64" s="49"/>
+      <c r="I64" s="49"/>
+      <c r="J64" s="50"/>
     </row>
     <row r="65" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B65" s="10"/>
-      <c r="C65" s="57"/>
-      <c r="D65" s="57"/>
-      <c r="E65" s="57"/>
-      <c r="F65" s="57"/>
-      <c r="G65" s="57"/>
-      <c r="H65" s="57"/>
-      <c r="I65" s="57"/>
-      <c r="J65" s="58"/>
+      <c r="C65" s="89"/>
+      <c r="D65" s="51"/>
+      <c r="E65" s="51"/>
+      <c r="F65" s="51"/>
+      <c r="G65" s="51"/>
+      <c r="H65" s="51"/>
+      <c r="I65" s="51"/>
+      <c r="J65" s="52"/>
     </row>
     <row r="66" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B66" s="61" t="s">
+      <c r="B66" s="55" t="s">
+        <v>190</v>
+      </c>
+      <c r="C66" s="53"/>
+      <c r="D66" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I66" s="69">
+        <v>45149</v>
+      </c>
+      <c r="J66" s="54" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B67" s="11"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F67" s="3"/>
+      <c r="G67" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I67" s="72">
+        <v>45149</v>
+      </c>
+      <c r="J67" s="8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B68" s="11"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="42"/>
+      <c r="E68" s="42"/>
+      <c r="F68" s="42"/>
+      <c r="G68" s="42"/>
+      <c r="H68" s="42"/>
+      <c r="I68" s="42"/>
+      <c r="J68" s="43"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B69" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="C69" s="25" t="s">
         <v>195</v>
-      </c>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="60"/>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B67" s="11"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="8"/>
-    </row>
-    <row r="68" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B68" s="10"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="9"/>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B69" s="54" t="s">
-        <v>198</v>
-      </c>
-      <c r="C69" s="24" t="s">
-        <v>200</v>
       </c>
       <c r="D69" s="24"/>
       <c r="E69" s="24" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F69" s="24" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G69" s="24" t="s">
-        <v>217</v>
-      </c>
-      <c r="H69" s="24"/>
-      <c r="I69" s="24"/>
-      <c r="J69" s="26"/>
+        <v>212</v>
+      </c>
+      <c r="H69" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="I69" s="56">
+        <v>45149</v>
+      </c>
+      <c r="J69" s="26" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B70" s="11"/>
-      <c r="C70" s="12"/>
+      <c r="C70" s="13"/>
       <c r="D70" s="12"/>
       <c r="E70" s="12"/>
       <c r="F70" s="12"/>
@@ -7966,26 +8965,32 @@
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B71" s="11"/>
-      <c r="C71" s="3" t="s">
-        <v>201</v>
+      <c r="C71" s="4" t="s">
+        <v>196</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="8"/>
+        <v>178</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I71" s="72">
+        <v>45149</v>
+      </c>
+      <c r="J71" s="8" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B72" s="11"/>
-      <c r="C72" s="3"/>
+      <c r="C72" s="4"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
@@ -7996,26 +9001,32 @@
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B73" s="11"/>
-      <c r="C73" s="12" t="s">
-        <v>202</v>
+      <c r="C73" s="13" t="s">
+        <v>197</v>
       </c>
       <c r="D73" s="12"/>
       <c r="E73" s="12" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G73" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="H73" s="12"/>
-      <c r="I73" s="12"/>
-      <c r="J73" s="14"/>
+        <v>178</v>
+      </c>
+      <c r="H73" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="I73" s="68">
+        <v>45149</v>
+      </c>
+      <c r="J73" s="14" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B74" s="11"/>
-      <c r="C74" s="12"/>
+      <c r="C74" s="13"/>
       <c r="D74" s="12"/>
       <c r="E74" s="12"/>
       <c r="F74" s="12"/>
@@ -8024,28 +9035,34 @@
       <c r="I74" s="12"/>
       <c r="J74" s="14"/>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B75" s="11"/>
-      <c r="C75" s="3" t="s">
-        <v>204</v>
+      <c r="C75" s="4" t="s">
+        <v>199</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="8"/>
+        <v>178</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I75" s="72">
+        <v>45149</v>
+      </c>
+      <c r="J75" s="8" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B76" s="11"/>
-      <c r="C76" s="3"/>
+      <c r="C76" s="4"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -8054,28 +9071,34 @@
       <c r="I76" s="3"/>
       <c r="J76" s="8"/>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B77" s="11"/>
-      <c r="C77" s="12" t="s">
-        <v>205</v>
+      <c r="C77" s="13" t="s">
+        <v>200</v>
       </c>
       <c r="D77" s="12"/>
       <c r="E77" s="12" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G77" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="H77" s="12"/>
-      <c r="I77" s="12"/>
-      <c r="J77" s="14"/>
+        <v>178</v>
+      </c>
+      <c r="H77" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="I77" s="68">
+        <v>45149</v>
+      </c>
+      <c r="J77" s="14" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B78" s="11"/>
-      <c r="C78" s="12"/>
+      <c r="C78" s="13"/>
       <c r="D78" s="12"/>
       <c r="E78" s="12"/>
       <c r="F78" s="12"/>
@@ -8086,26 +9109,32 @@
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B79" s="11"/>
-      <c r="C79" s="3" t="s">
-        <v>203</v>
+      <c r="C79" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="8"/>
+        <v>178</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I79" s="72">
+        <v>45149</v>
+      </c>
+      <c r="J79" s="8" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B80" s="11"/>
-      <c r="C80" s="3"/>
+      <c r="C80" s="4"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
@@ -8116,26 +9145,32 @@
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B81" s="11"/>
-      <c r="C81" s="12" t="s">
-        <v>206</v>
+      <c r="C81" s="13" t="s">
+        <v>201</v>
       </c>
       <c r="D81" s="12"/>
       <c r="E81" s="12" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G81" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="H81" s="12"/>
-      <c r="I81" s="12"/>
-      <c r="J81" s="14"/>
+        <v>213</v>
+      </c>
+      <c r="H81" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="I81" s="68">
+        <v>45149</v>
+      </c>
+      <c r="J81" s="14" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B82" s="11"/>
-      <c r="C82" s="12"/>
+      <c r="C82" s="13"/>
       <c r="D82" s="12"/>
       <c r="E82" s="12"/>
       <c r="F82" s="12"/>
@@ -8146,26 +9181,32 @@
     </row>
     <row r="83" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B83" s="11"/>
-      <c r="C83" s="3" t="s">
-        <v>207</v>
+      <c r="C83" s="4" t="s">
+        <v>202</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="8"/>
+        <v>214</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I83" s="72">
+        <v>45149</v>
+      </c>
+      <c r="J83" s="8" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B84" s="11"/>
-      <c r="C84" s="3"/>
+      <c r="C84" s="4"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
@@ -8176,26 +9217,32 @@
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B85" s="11"/>
-      <c r="C85" s="12" t="s">
-        <v>208</v>
+      <c r="C85" s="13" t="s">
+        <v>203</v>
       </c>
       <c r="D85" s="12"/>
       <c r="E85" s="12" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G85" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="H85" s="12"/>
-      <c r="I85" s="12"/>
-      <c r="J85" s="14"/>
+        <v>178</v>
+      </c>
+      <c r="H85" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="I85" s="68">
+        <v>45149</v>
+      </c>
+      <c r="J85" s="14" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B86" s="11"/>
-      <c r="C86" s="12"/>
+      <c r="C86" s="13"/>
       <c r="D86" s="12"/>
       <c r="E86" s="12"/>
       <c r="F86" s="12"/>
@@ -8204,28 +9251,34 @@
       <c r="I86" s="12"/>
       <c r="J86" s="14"/>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B87" s="11"/>
-      <c r="C87" s="3" t="s">
-        <v>209</v>
+      <c r="C87" s="4" t="s">
+        <v>204</v>
       </c>
       <c r="D87" s="3"/>
       <c r="E87" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
-      <c r="J87" s="8"/>
+        <v>178</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I87" s="72">
+        <v>45149</v>
+      </c>
+      <c r="J87" s="8" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B88" s="11"/>
-      <c r="C88" s="3"/>
+      <c r="C88" s="4"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
@@ -8234,28 +9287,34 @@
       <c r="I88" s="3"/>
       <c r="J88" s="8"/>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B89" s="11"/>
-      <c r="C89" s="12" t="s">
-        <v>210</v>
+      <c r="C89" s="13" t="s">
+        <v>205</v>
       </c>
       <c r="D89" s="12"/>
       <c r="E89" s="12" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G89" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="H89" s="12"/>
-      <c r="I89" s="12"/>
-      <c r="J89" s="14"/>
+        <v>178</v>
+      </c>
+      <c r="H89" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="I89" s="68">
+        <v>45149</v>
+      </c>
+      <c r="J89" s="14" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B90" s="11"/>
-      <c r="C90" s="12"/>
+      <c r="C90" s="13"/>
       <c r="D90" s="12"/>
       <c r="E90" s="12"/>
       <c r="F90" s="12"/>
@@ -8266,26 +9325,32 @@
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B91" s="11"/>
-      <c r="C91" s="3" t="s">
-        <v>211</v>
+      <c r="C91" s="4" t="s">
+        <v>206</v>
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="H91" s="3"/>
-      <c r="I91" s="3"/>
-      <c r="J91" s="8"/>
+        <v>178</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I91" s="72">
+        <v>45149</v>
+      </c>
+      <c r="J91" s="8" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B92" s="11"/>
-      <c r="C92" s="3"/>
+      <c r="C92" s="4"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
@@ -8296,26 +9361,32 @@
     </row>
     <row r="93" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B93" s="11"/>
-      <c r="C93" s="12" t="s">
-        <v>212</v>
+      <c r="C93" s="13" t="s">
+        <v>207</v>
       </c>
       <c r="D93" s="12"/>
       <c r="E93" s="12" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G93" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="H93" s="12"/>
-      <c r="I93" s="12"/>
-      <c r="J93" s="14"/>
+        <v>215</v>
+      </c>
+      <c r="H93" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="I93" s="68">
+        <v>45149</v>
+      </c>
+      <c r="J93" s="14" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B94" s="11"/>
-      <c r="C94" s="12"/>
+      <c r="C94" s="13"/>
       <c r="D94" s="12"/>
       <c r="E94" s="12"/>
       <c r="F94" s="12"/>
@@ -8326,24 +9397,30 @@
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B95" s="11"/>
-      <c r="C95" s="3" t="s">
-        <v>213</v>
+      <c r="C95" s="4" t="s">
+        <v>208</v>
       </c>
       <c r="D95" s="3"/>
       <c r="E95" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G95" s="3"/>
-      <c r="H95" s="3"/>
-      <c r="I95" s="3"/>
-      <c r="J95" s="8"/>
+      <c r="H95" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I95" s="72">
+        <v>45149</v>
+      </c>
+      <c r="J95" s="8" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B96" s="11"/>
-      <c r="C96" s="3"/>
+      <c r="C96" s="4"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
@@ -8354,26 +9431,32 @@
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B97" s="11"/>
-      <c r="C97" s="12" t="s">
-        <v>214</v>
+      <c r="C97" s="13" t="s">
+        <v>209</v>
       </c>
       <c r="D97" s="12"/>
       <c r="E97" s="12" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F97" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="G97" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="G97" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="H97" s="12"/>
-      <c r="I97" s="12"/>
-      <c r="J97" s="14"/>
+      <c r="H97" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="I97" s="68">
+        <v>45149</v>
+      </c>
+      <c r="J97" s="14" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B98" s="11"/>
-      <c r="C98" s="12"/>
+      <c r="C98" s="13"/>
       <c r="D98" s="12"/>
       <c r="E98" s="12"/>
       <c r="F98" s="12"/>
@@ -8384,31 +9467,60 @@
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B99" s="11"/>
-      <c r="C99" s="3" t="s">
-        <v>215</v>
+      <c r="C99" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F99" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="G99" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="G99" s="3"/>
-      <c r="H99" s="3"/>
-      <c r="I99" s="3"/>
-      <c r="J99" s="8"/>
-    </row>
-    <row r="100" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B100" s="10"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="6"/>
-      <c r="G100" s="6"/>
-      <c r="H100" s="6"/>
-      <c r="I100" s="6"/>
-      <c r="J100" s="9"/>
+      <c r="H99" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I99" s="72">
+        <v>45149</v>
+      </c>
+      <c r="J99" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B100" s="11"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3"/>
+    </row>
+    <row r="101" spans="2:10" ht="36.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B101" s="10"/>
+      <c r="C101" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="D101" s="17"/>
+      <c r="E101" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="F101" s="17"/>
+      <c r="G101" s="17"/>
+      <c r="H101" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="I101" s="86">
+        <v>45149</v>
+      </c>
+      <c r="J101" s="67" t="s">
+        <v>274</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8421,10 +9533,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4496D3B0-D864-4F7E-A7A4-1806609D8344}">
-  <dimension ref="B2:J13"/>
+  <dimension ref="B2:J25"/>
   <sheetViews>
-    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -8434,7 +9546,9 @@
     <col min="4" max="4" width="22.33203125" customWidth="1"/>
     <col min="5" max="5" width="15.25" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="9" max="9" width="16.25" customWidth="1"/>
+    <col min="7" max="7" width="35.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.9140625" customWidth="1"/>
+    <col min="10" max="10" width="22.9140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.55000000000000004">
@@ -8442,12 +9556,12 @@
         <v>0</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="4" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="73" t="s">
         <v>49</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -8458,7 +9572,7 @@
       </c>
     </row>
     <row r="5" spans="2:10" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B5" s="63"/>
+      <c r="B5" s="74"/>
       <c r="C5" s="6" t="s">
         <v>2</v>
       </c>
@@ -8496,9 +9610,78 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" t="s">
-        <v>223</v>
+        <v>291</v>
+      </c>
+      <c r="C13" t="s">
+        <v>218</v>
+      </c>
+      <c r="F13" t="s">
+        <v>278</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="G14" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="G15" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="G16" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="G17" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="G18" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="G19" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="G20" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="21" spans="7:7" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="G21" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="22" spans="7:7" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="G22" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="23" spans="7:7" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="G23" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="24" spans="7:7" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="G24" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="25" spans="7:7" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="G25" s="2" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/テストケース.xlsx
+++ b/テストケース.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5cf47586d75cb25/デスクトップ/workspace/workspace-nishimura/ProgramWork/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="125" documentId="8_{FB2C5B17-156F-4188-AF96-3C92834A6A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAABF46F-71AB-434D-B04D-BF628DB88514}"/>
+  <xr:revisionPtr revIDLastSave="126" documentId="8_{FB2C5B17-156F-4188-AF96-3C92834A6A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39795EDF-E91C-4DF6-8DFF-B7AE354892A7}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{3F064697-4038-4B0C-9CC7-D71FC7163C92}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3F064697-4038-4B0C-9CC7-D71FC7163C92}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="282">
   <si>
     <t>テストケース</t>
     <phoneticPr fontId="1"/>
@@ -3373,54 +3373,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>名前（名）　　　←UIはテキスボックス、最大入力文字数は10文字、初期値は空欄</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カナ（姓）　　　←UIはテキスボックス、最大入力文字数は10文字、初期値は空欄</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カナ（名）　　　←UIはテキスボックス、最大入力文字数は10文字、初期値は空欄</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メールアドレス　←UIはテキスボックス、最大入力文字数は100文字、初期値は空欄</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パスワード　　　←UIはテキスボックス、最大入力文字数は10文字、初期値は空欄</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>性別　　　　　　←UIはラジオボタン（男、女の２種類）、初期値は「男」</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>郵便番号　　　　←UIはテキストボックス、最大入力文字数は７文字、初期値は空欄</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>住所（都道府県）←UIはプルダウン（空欄、北海道～沖縄の４７都道府県の並び順）、初期値は空欄を選択済</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>住所（市区町村）←UIはテキスボックス、最大入力文字数は10文字、初期値は空欄</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アカウント権限　←UIはプルダウン（一般、管理者の２種類）、初期値は「一般」を選択済</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>住所（番地）　　←UIはテキスボックス、最大入力文字数は100文字、初期値は空欄</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>確認する　　　　←UIはボタン形式、該当ボタン押下時に入力チェック（後述）をする</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>表示</t>
     <rPh sb="0" eb="2">
       <t>ヒョウジ</t>
@@ -3428,7 +3380,26 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>名前（姓）←UIはテキスボックス、最大入力文字数は10文字、初期値は空欄</t>
+    <t>処置済み</t>
+    <rPh sb="0" eb="2">
+      <t>ショチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RFCはドットの連続を許可していないのでこれで良し</t>
+    <rPh sb="8" eb="10">
+      <t>レンゾク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ヨ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3491,7 +3462,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -3856,13 +3827,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4082,12 +4062,6 @@
     <xf numFmtId="56" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4133,6 +4107,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4167,6 +4150,10 @@
 </file>
 
 <file path=xl/persons/person11.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person12.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -4501,8 +4488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D25F908-8C24-448E-8107-DBDBAE93069C}">
   <dimension ref="B2:K139"/>
   <sheetViews>
-    <sheetView zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4516,6 +4503,7 @@
     <col min="7" max="7" width="38.6640625" style="2" customWidth="1"/>
     <col min="8" max="8" width="7.1640625" customWidth="1"/>
     <col min="10" max="10" width="34.1640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="216" x14ac:dyDescent="0.55000000000000004">
@@ -4531,7 +4519,7 @@
     </row>
     <row r="3" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="4" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="88" t="s">
         <v>49</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -4542,7 +4530,7 @@
       </c>
     </row>
     <row r="5" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B5" s="74"/>
+      <c r="B5" s="89"/>
       <c r="C5" s="6" t="s">
         <v>2</v>
       </c>
@@ -4760,7 +4748,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:11" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="11"/>
       <c r="C17" s="27"/>
       <c r="D17" s="28" t="s">
@@ -4784,8 +4772,11 @@
       <c r="J17" s="62" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="18" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="K17" s="90" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="11"/>
       <c r="C18" s="3"/>
       <c r="D18" s="4" t="s">
@@ -4810,7 +4801,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="11"/>
       <c r="C19" s="3"/>
       <c r="D19" s="4" t="s">
@@ -4835,7 +4826,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="11"/>
       <c r="C20" s="3"/>
       <c r="D20" s="4" t="s">
@@ -4860,7 +4851,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="78.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:11" ht="78.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="11"/>
       <c r="C21" s="3"/>
       <c r="D21" s="4" t="s">
@@ -4884,8 +4875,11 @@
       <c r="J21" s="61" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="22" spans="2:10" ht="46" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K21" s="90" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="46" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="11"/>
       <c r="C22" s="3"/>
       <c r="D22" s="4" t="s">
@@ -4910,7 +4904,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="46" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:11" ht="46" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="11"/>
       <c r="C23" s="3"/>
       <c r="D23" s="4" t="s">
@@ -4935,7 +4929,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:11" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="11"/>
       <c r="C24" s="3"/>
       <c r="D24" s="4" t="s">
@@ -4960,7 +4954,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="11"/>
       <c r="C25" s="12" t="s">
         <v>22</v>
@@ -4987,7 +4981,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
       <c r="D26" s="13" t="s">
@@ -5012,7 +5006,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:11" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
       <c r="D27" s="13" t="s">
@@ -5036,8 +5030,11 @@
       <c r="J27" s="60" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="28" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="K27" s="90" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
       <c r="D28" s="13" t="s">
@@ -5062,7 +5059,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
       <c r="D29" s="13" t="s">
@@ -5087,7 +5084,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="30" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="11"/>
       <c r="C30" s="12"/>
       <c r="D30" s="13" t="s">
@@ -5112,7 +5109,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="31" spans="2:10" ht="90" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:11" ht="90" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="11"/>
       <c r="C31" s="12"/>
       <c r="D31" s="13" t="s">
@@ -5136,8 +5133,11 @@
       <c r="J31" s="60" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="32" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="K31" s="90" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="11"/>
       <c r="C32" s="12"/>
       <c r="D32" s="13" t="s">
@@ -5413,6 +5413,9 @@
       <c r="J42" s="61" t="s">
         <v>251</v>
       </c>
+      <c r="K42" s="90" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="43" spans="2:11" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="11"/>
@@ -5438,6 +5441,9 @@
       <c r="J43" s="61" t="s">
         <v>248</v>
       </c>
+      <c r="K43" s="90" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="44" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="11"/>
@@ -5567,7 +5573,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="49" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="11"/>
       <c r="C49" s="12"/>
       <c r="D49" s="13" t="s">
@@ -5592,7 +5598,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="11"/>
       <c r="C50" s="12"/>
       <c r="D50" s="13" t="s">
@@ -5617,7 +5623,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="51" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="11"/>
       <c r="C51" s="12"/>
       <c r="D51" s="13" t="s">
@@ -5642,7 +5648,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="52" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="11"/>
       <c r="C52" s="12"/>
       <c r="D52" s="13" t="s">
@@ -5667,7 +5673,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="53" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="11"/>
       <c r="C53" s="12"/>
       <c r="D53" s="13" t="s">
@@ -5692,7 +5698,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="54" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" s="11"/>
       <c r="C54" s="12"/>
       <c r="D54" s="13" t="s">
@@ -5716,8 +5722,11 @@
       <c r="J54" s="60" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="55" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="K54" s="90" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="11"/>
       <c r="C55" s="12"/>
       <c r="D55" s="13" t="s">
@@ -5741,8 +5750,11 @@
       <c r="J55" s="60" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="56" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="K55" s="90" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" s="11"/>
       <c r="C56" s="12"/>
       <c r="D56" s="13" t="s">
@@ -5767,7 +5779,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="57" spans="2:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="2:11" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="11"/>
       <c r="C57" s="12"/>
       <c r="D57" s="13" t="s">
@@ -5792,7 +5804,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="58" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" s="11"/>
       <c r="C58" s="3" t="s">
         <v>24</v>
@@ -5819,7 +5831,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="59" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="2:11" ht="126" x14ac:dyDescent="0.55000000000000004">
       <c r="B59" s="11"/>
       <c r="C59" s="3"/>
       <c r="D59" s="4" t="s">
@@ -5843,8 +5855,11 @@
       <c r="J59" s="61" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="60" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="K59" s="90" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B60" s="11"/>
       <c r="C60" s="3"/>
       <c r="D60" s="4" t="s">
@@ -5869,7 +5884,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="61" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B61" s="11"/>
       <c r="C61" s="3"/>
       <c r="D61" s="4" t="s">
@@ -5894,7 +5909,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="62" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B62" s="11"/>
       <c r="C62" s="3"/>
       <c r="D62" s="4" t="s">
@@ -5919,7 +5934,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="63" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B63" s="11"/>
       <c r="C63" s="3"/>
       <c r="D63" s="4" t="s">
@@ -5944,7 +5959,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="64" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" s="11"/>
       <c r="C64" s="3"/>
       <c r="D64" s="4" t="s">
@@ -5997,7 +6012,7 @@
     <row r="66" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B66" s="11"/>
       <c r="C66" s="3"/>
-      <c r="D66" s="75" t="s">
+      <c r="D66" s="73" t="s">
         <v>256</v>
       </c>
       <c r="E66" s="4" t="s">
@@ -6164,7 +6179,7 @@
       <c r="H72" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="I72" s="76">
+      <c r="I72" s="74">
         <v>45149</v>
       </c>
       <c r="J72" s="63" t="s">
@@ -7349,7 +7364,7 @@
       <c r="H119" s="33" t="s">
         <v>243</v>
       </c>
-      <c r="I119" s="77">
+      <c r="I119" s="75">
         <v>45149</v>
       </c>
       <c r="J119" s="59" t="s">
@@ -7377,7 +7392,7 @@
       <c r="H121" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="I121" s="78">
+      <c r="I121" s="76">
         <v>45149</v>
       </c>
       <c r="J121" s="58" t="s">
@@ -7398,7 +7413,7 @@
       <c r="H122" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="I122" s="79">
+      <c r="I122" s="77">
         <v>45149</v>
       </c>
       <c r="J122" s="60" t="s">
@@ -7421,7 +7436,7 @@
       <c r="H123" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="I123" s="79">
+      <c r="I123" s="77">
         <v>45149</v>
       </c>
       <c r="J123" s="60" t="s">
@@ -7444,7 +7459,7 @@
       <c r="H124" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="I124" s="79">
+      <c r="I124" s="77">
         <v>45149</v>
       </c>
       <c r="J124" s="60" t="s">
@@ -7469,7 +7484,7 @@
       <c r="H125" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="I125" s="80">
+      <c r="I125" s="78">
         <v>45149</v>
       </c>
       <c r="J125" s="61" t="s">
@@ -7492,7 +7507,7 @@
       <c r="H126" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="I126" s="80">
+      <c r="I126" s="78">
         <v>45149</v>
       </c>
       <c r="J126" s="61" t="s">
@@ -7517,7 +7532,7 @@
       <c r="H127" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="I127" s="79">
+      <c r="I127" s="77">
         <v>45149</v>
       </c>
       <c r="J127" s="60" t="s">
@@ -7538,7 +7553,7 @@
       <c r="H128" s="46" t="s">
         <v>243</v>
       </c>
-      <c r="I128" s="82">
+      <c r="I128" s="80">
         <v>45149</v>
       </c>
       <c r="J128" s="64" t="s">
@@ -7563,7 +7578,7 @@
       <c r="H129" s="43" t="s">
         <v>243</v>
       </c>
-      <c r="I129" s="81">
+      <c r="I129" s="79">
         <v>45149</v>
       </c>
       <c r="J129" s="65" t="s">
@@ -7584,7 +7599,7 @@
       <c r="H130" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="I130" s="83">
+      <c r="I130" s="81">
         <v>45149</v>
       </c>
       <c r="J130" s="66" t="s">
@@ -7727,7 +7742,7 @@
       <c r="H137" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="I137" s="84">
+      <c r="I137" s="82">
         <v>45149</v>
       </c>
       <c r="J137" s="65" t="s">
@@ -7752,7 +7767,7 @@
       <c r="H138" s="44" t="s">
         <v>243</v>
       </c>
-      <c r="I138" s="85">
+      <c r="I138" s="83">
         <v>45149</v>
       </c>
       <c r="J138" s="64" t="s">
@@ -7775,7 +7790,7 @@
       <c r="H139" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="I139" s="86">
+      <c r="I139" s="84">
         <v>45149</v>
       </c>
       <c r="J139" s="67" t="s">
@@ -7796,8 +7811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07622B51-2DC1-4955-B7A1-F49C4F9FDDC1}">
   <dimension ref="B2:J101"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="J68" sqref="J68"/>
+    <sheetView topLeftCell="A58" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -7816,13 +7831,13 @@
       <c r="B2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="85" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="4" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="88" t="s">
         <v>49</v>
       </c>
       <c r="C4" s="53" t="s">
@@ -7833,7 +7848,7 @@
       </c>
     </row>
     <row r="5" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B5" s="74"/>
+      <c r="B5" s="89"/>
       <c r="C5" s="7" t="s">
         <v>2</v>
       </c>
@@ -8844,7 +8859,7 @@
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" s="11"/>
-      <c r="C64" s="88"/>
+      <c r="C64" s="86"/>
       <c r="D64" s="49"/>
       <c r="E64" s="49"/>
       <c r="F64" s="49"/>
@@ -8855,7 +8870,7 @@
     </row>
     <row r="65" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B65" s="10"/>
-      <c r="C65" s="89"/>
+      <c r="C65" s="87"/>
       <c r="D65" s="51"/>
       <c r="E65" s="51"/>
       <c r="F65" s="51"/>
@@ -9035,7 +9050,7 @@
       <c r="I74" s="12"/>
       <c r="J74" s="14"/>
     </row>
-    <row r="75" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B75" s="11"/>
       <c r="C75" s="4" t="s">
         <v>199</v>
@@ -9071,7 +9086,7 @@
       <c r="I76" s="3"/>
       <c r="J76" s="8"/>
     </row>
-    <row r="77" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B77" s="11"/>
       <c r="C77" s="13" t="s">
         <v>200</v>
@@ -9251,7 +9266,7 @@
       <c r="I86" s="12"/>
       <c r="J86" s="14"/>
     </row>
-    <row r="87" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B87" s="11"/>
       <c r="C87" s="4" t="s">
         <v>204</v>
@@ -9287,7 +9302,7 @@
       <c r="I88" s="3"/>
       <c r="J88" s="8"/>
     </row>
-    <row r="89" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B89" s="11"/>
       <c r="C89" s="13" t="s">
         <v>205</v>
@@ -9515,7 +9530,7 @@
       <c r="H101" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="I101" s="86">
+      <c r="I101" s="84">
         <v>45149</v>
       </c>
       <c r="J101" s="67" t="s">
@@ -9533,10 +9548,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4496D3B0-D864-4F7E-A7A4-1806609D8344}">
-  <dimension ref="B2:J25"/>
+  <dimension ref="B2:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A3" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -9561,7 +9576,7 @@
     </row>
     <row r="3" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="4" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="88" t="s">
         <v>49</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -9572,7 +9587,7 @@
       </c>
     </row>
     <row r="5" spans="2:10" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B5" s="74"/>
+      <c r="B5" s="89"/>
       <c r="C5" s="6" t="s">
         <v>2</v>
       </c>
@@ -9610,78 +9625,15 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="C13" t="s">
         <v>218</v>
       </c>
       <c r="F13" t="s">
         <v>278</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="G14" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="G15" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="G16" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="17" spans="7:7" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="G17" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="18" spans="7:7" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="G18" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="19" spans="7:7" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="G19" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="20" spans="7:7" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="G20" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="21" spans="7:7" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="G21" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="22" spans="7:7" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="G22" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="23" spans="7:7" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="G23" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="24" spans="7:7" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="G24" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="25" spans="7:7" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="G25" s="2" t="s">
-        <v>290</v>
       </c>
     </row>
   </sheetData>
